--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="499">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -38,6 +38,24 @@
   </si>
   <si>
     <t xml:space="preserve">abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexey Koshevoy (LPC, Aix-Marseille Université and Institut Jean Nicod, ENS-PSL), Anastasia Panova (Stockholm University) and Ilya Makarchuk (HSE Univeristy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building a Universal Dependencies Treebank for a Polysynthetic Language: the Case of Abaza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this talk we are going to discuss the challenges that we faced during the construction of a Universal Dependencies treebank for Abaza, a polysynthetic Northwest Caucasian language. We propose an alternative to the morpheme-level annotation of polysynthetic languages introduced in Park et al. (2021). Our approach aims at reducing the number of morphological features, yet providing all the necessary information for the comprehensive representation of all the syntactic relations. Besides, we suggest to add one language-specific relation needed for annotating repetitions in spoken texts and present several solutions that aim at increasing crosslinguistic comparability of our data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alina Russkikh (HSE) Maksim Melenchenko (HSE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading group: C. T. Schütze (2011) Linguistic evidence and grammatical theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This article surveys the major kinds of empirical evidence used by linguists, with a particular focus on the relevance of the evidence to the goals of generative grammar. After a background section overviewing the objectives and assumptions of that framework, three broad kinds of data are considered in the three subsequent sections: corpus data, judgment data, and (other) experimental data. The perspective adopted is that all three have their place in the linguist’s toolbox: they have relative advantages and disadvantages that often complement one another, so converging evidence of more than one kind can reasonably be sought in many instances. Points are illustrated mainly with examples from syntax, but often can be easily translated to other levels (e.g., phonology, morphology, semantics, and pragmatics).</t>
   </si>
   <si>
     <t xml:space="preserve">Philip Shushurin (ILS RAS/ Ben Gurion University of the Negev, Beer Sheva)</t>
@@ -1630,10 +1648,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1001"/>
+  <dimension ref="A1:F1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D68" activeCellId="0" sqref="D68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1676,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -1696,15 +1714,15 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1716,12 +1734,12 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1733,10 +1751,10 @@
         <v>2023</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>15</v>
@@ -1753,10 +1771,10 @@
         <v>2023</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>18</v>
@@ -1776,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>21</v>
@@ -1796,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>24</v>
@@ -1816,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>27</v>
@@ -1824,19 +1842,19 @@
       <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>30</v>
@@ -1850,13 +1868,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>33</v>
@@ -1876,7 +1894,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>36</v>
@@ -1884,7 +1902,7 @@
       <c r="E12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1896,7 +1914,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -1913,10 +1931,10 @@
         <v>2022</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>42</v>
@@ -1933,10 +1951,10 @@
         <v>2022</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>45</v>
@@ -1956,7 +1974,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>48</v>
@@ -1976,7 +1994,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>51</v>
@@ -1996,7 +2014,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>54</v>
@@ -2004,7 +2022,7 @@
       <c r="E18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2016,7 +2034,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>57</v>
@@ -2024,7 +2042,7 @@
       <c r="E19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2036,16 +2054,16 @@
         <v>11</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2053,19 +2071,19 @@
         <v>2022</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2073,13 +2091,13 @@
         <v>2022</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>66</v>
@@ -2096,7 +2114,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>68</v>
@@ -2116,16 +2134,16 @@
         <v>10</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2136,16 +2154,16 @@
         <v>10</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2156,15 +2174,15 @@
         <v>10</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2216,7 +2234,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>85</v>
@@ -2236,7 +2254,7 @@
         <v>10</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>88</v>
@@ -2244,7 +2262,7 @@
       <c r="E30" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2253,10 +2271,10 @@
         <v>2022</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>91</v>
@@ -2273,10 +2291,10 @@
         <v>2022</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>94</v>
@@ -2296,7 +2314,7 @@
         <v>9</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>97</v>
@@ -2316,7 +2334,7 @@
         <v>9</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>100</v>
@@ -2333,10 +2351,10 @@
         <v>2022</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>103</v>
@@ -2344,7 +2362,7 @@
       <c r="E35" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2353,10 +2371,10 @@
         <v>2022</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>106</v>
@@ -2364,7 +2382,7 @@
       <c r="E36" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2376,7 +2394,7 @@
         <v>6</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>109</v>
@@ -2396,7 +2414,7 @@
         <v>6</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>112</v>
@@ -2404,7 +2422,7 @@
       <c r="E38" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2413,10 +2431,10 @@
         <v>2022</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>115</v>
@@ -2433,10 +2451,10 @@
         <v>2022</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>118</v>
@@ -2456,16 +2474,16 @@
         <v>5</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2473,19 +2491,19 @@
         <v>2022</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2493,13 +2511,13 @@
         <v>2022</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>127</v>
@@ -2516,7 +2534,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>129</v>
@@ -2533,10 +2551,10 @@
         <v>2022</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>132</v>
@@ -2553,10 +2571,10 @@
         <v>2022</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>135</v>
@@ -2564,7 +2582,7 @@
       <c r="E46" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2576,7 +2594,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>138</v>
@@ -2596,7 +2614,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>141</v>
@@ -2604,7 +2622,7 @@
       <c r="E48" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="3" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2616,7 +2634,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>144</v>
@@ -2633,10 +2651,10 @@
         <v>2022</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>147</v>
@@ -2653,7 +2671,7 @@
         <v>2022</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1</v>
@@ -2673,10 +2691,10 @@
         <v>2022</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>153</v>
@@ -2693,10 +2711,10 @@
         <v>2022</v>
       </c>
       <c r="B53" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="C53" s="2" t="n">
-        <v>18</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>156</v>
@@ -2716,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>159</v>
@@ -2730,13 +2748,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>162</v>
@@ -2750,22 +2768,22 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2776,16 +2794,16 @@
         <v>12</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2793,19 +2811,19 @@
         <v>2021</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2813,19 +2831,19 @@
         <v>2021</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2836,10 +2854,10 @@
         <v>11</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>176</v>
@@ -2856,7 +2874,7 @@
         <v>11</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>178</v>
@@ -2873,10 +2891,10 @@
         <v>2021</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>181</v>
@@ -2893,10 +2911,10 @@
         <v>2021</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>184</v>
@@ -2916,7 +2934,7 @@
         <v>10</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>187</v>
@@ -2933,10 +2951,10 @@
         <v>2021</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>190</v>
@@ -2953,10 +2971,10 @@
         <v>2021</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>193</v>
@@ -2976,7 +2994,7 @@
         <v>9</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>196</v>
@@ -2996,7 +3014,7 @@
         <v>9</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>199</v>
@@ -3013,19 +3031,19 @@
         <v>2021</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3033,19 +3051,19 @@
         <v>2021</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F70" s="3" t="s">
         <v>206</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3056,16 +3074,16 @@
         <v>6</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3076,16 +3094,16 @@
         <v>6</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F72" s="2" t="s">
         <v>211</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3093,13 +3111,13 @@
         <v>2021</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>213</v>
@@ -3113,10 +3131,10 @@
         <v>2021</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>215</v>
@@ -3136,16 +3154,16 @@
         <v>5</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F75" s="3" t="s">
         <v>219</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3156,16 +3174,16 @@
         <v>5</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3173,18 +3191,18 @@
         <v>2021</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F77" s="3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3193,10 +3211,10 @@
         <v>2021</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>226</v>
@@ -3216,16 +3234,16 @@
         <v>4</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3233,19 +3251,19 @@
         <v>2021</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3253,18 +3271,18 @@
         <v>2021</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="2" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3276,7 +3294,7 @@
         <v>3</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>237</v>
@@ -3296,7 +3314,7 @@
         <v>3</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>240</v>
@@ -3304,7 +3322,7 @@
       <c r="E83" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F83" s="3" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3316,7 +3334,7 @@
         <v>3</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>243</v>
@@ -3336,7 +3354,7 @@
         <v>3</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>246</v>
@@ -3344,7 +3362,7 @@
       <c r="E85" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F85" s="2" t="s">
         <v>248</v>
       </c>
     </row>
@@ -3356,7 +3374,7 @@
         <v>3</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>249</v>
@@ -3364,7 +3382,7 @@
       <c r="E86" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="2" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3384,7 +3402,7 @@
       <c r="E87" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="F87" s="3" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3396,15 +3414,15 @@
         <v>3</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D88" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F88" s="3" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3413,15 +3431,15 @@
         <v>2021</v>
       </c>
       <c r="B89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C89" s="2" t="n">
         <v>2</v>
-      </c>
-      <c r="C89" s="2" t="n">
-        <v>9</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="3" t="s">
         <v>259</v>
       </c>
       <c r="F89" s="2" t="s">
@@ -3433,10 +3451,10 @@
         <v>2021</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>261</v>
@@ -3456,16 +3474,16 @@
         <v>2</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>65</v>
+        <v>264</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3473,19 +3491,19 @@
         <v>2021</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3493,15 +3511,15 @@
         <v>2021</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E93" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>270</v>
       </c>
       <c r="F93" s="2" t="s">
@@ -3516,15 +3534,15 @@
         <v>1</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D94" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>272</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F94" s="2" t="s">
         <v>274</v>
       </c>
     </row>
@@ -3536,52 +3554,52 @@
         <v>1</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>88</v>
+        <v>275</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B96" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C96" s="2" t="n">
-        <v>8</v>
-      </c>
       <c r="D96" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F96" s="2" t="s">
         <v>279</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B97" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C97" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E97" s="2" t="s">
+      <c r="D97" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>281</v>
       </c>
       <c r="F97" s="2" t="s">
@@ -3596,7 +3614,7 @@
         <v>12</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>283</v>
@@ -3616,7 +3634,7 @@
         <v>12</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>286</v>
@@ -3633,10 +3651,10 @@
         <v>2020</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>289</v>
@@ -3653,10 +3671,10 @@
         <v>2020</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>292</v>
@@ -3676,7 +3694,7 @@
         <v>11</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>295</v>
@@ -3693,10 +3711,10 @@
         <v>2020</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>298</v>
@@ -3713,10 +3731,10 @@
         <v>2020</v>
       </c>
       <c r="B104" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C104" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="C104" s="2" t="n">
-        <v>27</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>301</v>
@@ -3736,7 +3754,7 @@
         <v>10</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>304</v>
@@ -3756,16 +3774,16 @@
         <v>10</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>187</v>
+        <v>307</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3773,19 +3791,19 @@
         <v>2020</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3793,19 +3811,19 @@
         <v>2020</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3816,16 +3834,16 @@
         <v>9</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3836,10 +3854,10 @@
         <v>9</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>316</v>
+        <v>82</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>317</v>
@@ -3853,10 +3871,10 @@
         <v>2020</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>319</v>
@@ -3873,10 +3891,10 @@
         <v>2020</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>322</v>
@@ -3896,7 +3914,7 @@
         <v>6</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>325</v>
@@ -3916,7 +3934,7 @@
         <v>6</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>328</v>
@@ -3936,7 +3954,7 @@
         <v>6</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>331</v>
@@ -3953,19 +3971,19 @@
         <v>2020</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>159</v>
+        <v>334</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3973,19 +3991,19 @@
         <v>2020</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3996,10 +4014,10 @@
         <v>5</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>339</v>
+        <v>165</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>340</v>
@@ -4013,10 +4031,10 @@
         <v>2020</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>342</v>
@@ -4033,10 +4051,10 @@
         <v>2020</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>345</v>
@@ -4056,7 +4074,7 @@
         <v>4</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>348</v>
@@ -4076,16 +4094,16 @@
         <v>4</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>255</v>
+        <v>351</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4093,19 +4111,19 @@
         <v>2020</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4113,13 +4131,13 @@
         <v>2020</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>356</v>
+        <v>261</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>357</v>
@@ -4136,16 +4154,16 @@
         <v>3</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>109</v>
+        <v>359</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4156,16 +4174,16 @@
         <v>3</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>88</v>
+        <v>362</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4176,16 +4194,16 @@
         <v>3</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>363</v>
+        <v>24</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4196,16 +4214,16 @@
         <v>3</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>365</v>
+        <v>94</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F128" s="2" t="s">
         <v>367</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4213,15 +4231,15 @@
         <v>2020</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E129" s="3" t="s">
         <v>369</v>
       </c>
       <c r="F129" s="2" t="s">
@@ -4233,10 +4251,10 @@
         <v>2020</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>371</v>
@@ -4256,7 +4274,7 @@
         <v>2</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>374</v>
@@ -4276,7 +4294,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>377</v>
@@ -4293,10 +4311,10 @@
         <v>2020</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>380</v>
@@ -4313,10 +4331,10 @@
         <v>2020</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>383</v>
@@ -4336,56 +4354,56 @@
         <v>1</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>159</v>
+        <v>386</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>88</v>
+        <v>389</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>391</v>
+        <v>14</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4396,15 +4414,15 @@
         <v>12</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>393</v>
+        <v>94</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="F138" s="3" t="s">
         <v>395</v>
       </c>
     </row>
@@ -4416,12 +4434,12 @@
         <v>12</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D139" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D139" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E139" s="3" t="s">
         <v>397</v>
       </c>
       <c r="F139" s="2" t="s">
@@ -4436,7 +4454,7 @@
         <v>12</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>399</v>
@@ -4453,19 +4471,19 @@
         <v>2019</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>301</v>
+        <v>402</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="F141" s="3" t="s">
         <v>403</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4473,19 +4491,19 @@
         <v>2019</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="E142" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>405</v>
       </c>
+      <c r="E142" s="2" t="s">
+        <v>406</v>
+      </c>
       <c r="F142" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4496,15 +4514,15 @@
         <v>11</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>407</v>
+        <v>307</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="F143" s="2" t="s">
+      <c r="F143" s="3" t="s">
         <v>409</v>
       </c>
     </row>
@@ -4516,16 +4534,16 @@
         <v>11</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E144" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D144" s="3" t="s">
         <v>410</v>
       </c>
+      <c r="E144" s="3" t="s">
+        <v>411</v>
+      </c>
       <c r="F144" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4533,19 +4551,19 @@
         <v>2019</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4553,13 +4571,13 @@
         <v>2019</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>415</v>
+        <v>261</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>416</v>
@@ -4576,7 +4594,7 @@
         <v>10</v>
       </c>
       <c r="C147" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>418</v>
@@ -4596,7 +4614,7 @@
         <v>10</v>
       </c>
       <c r="C148" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>421</v>
@@ -4613,10 +4631,10 @@
         <v>2019</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C149" s="2" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>424</v>
@@ -4624,7 +4642,7 @@
       <c r="E149" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="F149" s="3" t="s">
+      <c r="F149" s="2" t="s">
         <v>426</v>
       </c>
     </row>
@@ -4633,15 +4651,15 @@
         <v>2019</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C150" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D150" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="E150" s="3" t="s">
+      <c r="E150" s="2" t="s">
         <v>428</v>
       </c>
       <c r="F150" s="2" t="s">
@@ -4656,7 +4674,7 @@
         <v>9</v>
       </c>
       <c r="C151" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>430</v>
@@ -4664,7 +4682,7 @@
       <c r="E151" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F151" s="2" t="s">
+      <c r="F151" s="3" t="s">
         <v>432</v>
       </c>
     </row>
@@ -4673,15 +4691,15 @@
         <v>2019</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C152" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D152" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D152" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="E152" s="3" t="s">
         <v>434</v>
       </c>
       <c r="F152" s="2" t="s">
@@ -4693,19 +4711,19 @@
         <v>2019</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C153" s="2" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4713,19 +4731,19 @@
         <v>2019</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C154" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>76</v>
+        <v>439</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4733,19 +4751,19 @@
         <v>2019</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C155" s="2" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>178</v>
+        <v>433</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4756,16 +4774,16 @@
         <v>2</v>
       </c>
       <c r="C156" s="2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>442</v>
+        <v>82</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4773,19 +4791,19 @@
         <v>2019</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C157" s="2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>304</v>
+        <v>184</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4793,19 +4811,19 @@
         <v>2019</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C158" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4816,10 +4834,10 @@
         <v>1</v>
       </c>
       <c r="C159" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>450</v>
+        <v>310</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>451</v>
@@ -4830,13 +4848,13 @@
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C160" s="2" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>453</v>
@@ -4850,13 +4868,13 @@
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C161" s="2" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>456</v>
@@ -4873,19 +4891,19 @@
         <v>2018</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C162" s="2" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>301</v>
+        <v>459</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4893,19 +4911,19 @@
         <v>2018</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C163" s="2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4913,53 +4931,53 @@
         <v>2018</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C164" s="2" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>159</v>
+        <v>307</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C165" s="2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C166" s="2" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>469</v>
+        <v>165</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>470</v>
@@ -4976,7 +4994,7 @@
         <v>11</v>
       </c>
       <c r="C167" s="2" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>472</v>
@@ -4993,10 +5011,10 @@
         <v>2017</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C168" s="2" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>475</v>
@@ -5013,10 +5031,10 @@
         <v>2017</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C169" s="2" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>478</v>
@@ -5036,7 +5054,7 @@
         <v>10</v>
       </c>
       <c r="C170" s="2" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>481</v>
@@ -5056,7 +5074,7 @@
         <v>10</v>
       </c>
       <c r="C171" s="2" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>484</v>
@@ -5073,10 +5091,10 @@
         <v>2017</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C172" s="2" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>487</v>
@@ -5093,10 +5111,10 @@
         <v>2017</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C173" s="2" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>490</v>
@@ -5108,8 +5126,46 @@
         <v>492</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A174" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C174" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C175" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5936,6 +5992,8 @@
     <row r="999" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1001" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1002" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1003" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">In this talk we are going to discuss the challenges that we faced during the construction of a Universal Dependencies treebank for Abaza, a polysynthetic Northwest Caucasian language. We propose an alternative to the morpheme-level annotation of polysynthetic languages introduced in Park et al. (2021). Our approach aims at reducing the number of morphological features, yet providing all the necessary information for the comprehensive representation of all the syntactic relations. Besides, we suggest to add one language-specific relation needed for annotating repetitions in spoken texts and present several solutions that aim at increasing crosslinguistic comparability of our data.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alina Russkikh (HSE) Maksim Melenchenko (HSE)</t>
+    <t xml:space="preserve">Alina Russkikh (HSE), Maksim Melenchenko (HSE)</t>
   </si>
   <si>
     <t xml:space="preserve">Reading group: C. T. Schütze (2011) Linguistic evidence and grammatical theory</t>
@@ -1651,7 +1651,7 @@
   <dimension ref="A1:F1003"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="504">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -40,6 +40,24 @@
     <t xml:space="preserve">abstract</t>
   </si>
   <si>
+    <t xml:space="preserve">Alina Russkikh (HSE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constructions with collective numerals in typological perspective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study represents a typological investigation on constructions with collective numerals based on the data collected from 105 languages. By constructions with collective numerals, I understand such cases where a quantifying group indicates selection of N items out of the set with N items in total, cf. English both, French tous les trois ‘all the three’ or Chuvash ik aʨ-i=de [two child-P_3=ADD] ‘both children’. This study is aimed at identifying possible strategies of forming such construction in the languages of the world, and their distribution. In a number of languages, constructions with collective numerals are formed by using morphological markers or syntactic models which occur in other grammatical functions as well. In such cases, I take into consideration those adjacent functions and their possible semantic relations with a collective meaning in constructions with numerals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aigul Zakirova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number marking on verbs in the East Caucasian languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this talk I describe different patterns of number marking on verbs, using mainly grammatical descriptions  Possible ways to analyze number marking on verbs are discussed: 1) as agreement, i.e. as an operation by which morphological featuresare copied from one word form onto another, 2) as a special category of verbal number.  Besides, I dwell on the factors by which this marking is conditioned. As it turns out, the Nakh and the Avar-Ando-Tsez branches feature number marking strategies, which are limited to a lexically defined set of verbs. Number markers in this case are localized in the verb stem. On the other hand, in many branches of the family, a different situation is also common: number marking is conditioned by the TAM-forms of the verb, i.e. by grammatical factors.  Finally, the diachrony of number marking is considered. I propose that the verb forms which are marked for number often go back to copular constructions where the predicate position is occupied by a participial form. As a result of grammaticalization of these constructions into verbal forms, the original nominal number marking on the participle develops into verbal number marking.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alexey Koshevoy (LPC, Aix-Marseille Université and Institut Jean Nicod, ENS-PSL), Anastasia Panova (Stockholm University) and Ilya Makarchuk (HSE Univeristy)</t>
   </si>
   <si>
@@ -515,9 +533,6 @@
   </si>
   <si>
     <t xml:space="preserve">This talk presents an ongoing project on multilingualism and language contact between Mano and Kpelle, two Mande languages spoken in the South-East of Guinea. In the first part of the talk, I provide an overview of the project and its different strands, including 1) an investigation of the sociolinguistic situation of the region with a particular focus on strategies of language choice studied with ethnographic observations and with a sociolinguistic questionnaire (Khachaturyan and Konoshenko 2021); 2) a comparative study of the grammars of these two languages and their close linguistic relatives and identification of convergent and divergent features, including those potentially related to pattern (Konoshenko 2015: 176‑177) and matter borrowing (Khachaturyan 2019); 3) a study of translation, and especially religious translation, translatory artefacts and practice of translation, as a locus of contact and source of convergence (Khachaturyan 2020, Khachaturyan and Konoshenko in prep.). In the second part of the talk, I present an experimental study focusing on the acquisition of a particular morphosyntactic parameter of Mano, namely, reflexive marking, and the impact of the speakers' exposure to Kpelle on the acquisition process. I present the experimental design, preliminary results and theoretical questions which the study aims to address.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aigul Zakirova</t>
   </si>
   <si>
     <t xml:space="preserve">Adjectival agreement in the East Caucasian languages: an overview</t>
@@ -1526,7 +1541,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1560,6 +1575,11 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1610,7 +1630,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1623,11 +1643,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1648,10 +1672,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1003"/>
+  <dimension ref="A1:F1005"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1660,7 +1684,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="83.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="261"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="112.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="1" width="11.5"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="1" width="12.63"/>
@@ -1691,12 +1715,12 @@
         <v>2023</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1711,15 +1735,15 @@
         <v>2023</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1734,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -1754,15 +1778,15 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1774,12 +1798,12 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1791,18 +1815,18 @@
         <v>2023</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1811,15 +1835,15 @@
         <v>2023</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1834,15 +1858,15 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1854,12 +1878,12 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1874,32 +1898,32 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1908,18 +1932,18 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1934,15 +1958,15 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1954,12 +1978,12 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1971,18 +1995,18 @@
         <v>2022</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1991,15 +2015,15 @@
         <v>2022</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -2014,15 +2038,15 @@
         <v>11</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2034,12 +2058,12 @@
         <v>11</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -2054,15 +2078,15 @@
         <v>11</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2074,15 +2098,15 @@
         <v>11</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2094,16 +2118,16 @@
         <v>11</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="E22" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F22" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2111,19 +2135,19 @@
         <v>2022</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>70</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2131,15 +2155,15 @@
         <v>2022</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>72</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -2154,15 +2178,15 @@
         <v>10</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2174,16 +2198,16 @@
         <v>10</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="E26" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="F26" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2194,16 +2218,16 @@
         <v>10</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>81</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2214,15 +2238,15 @@
         <v>10</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2236,13 +2260,13 @@
       <c r="C29" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2256,13 +2280,13 @@
       <c r="C30" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="4" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2274,15 +2298,15 @@
         <v>10</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2294,15 +2318,15 @@
         <v>10</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="4" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2311,18 +2335,18 @@
         <v>2022</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="4" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2331,15 +2355,15 @@
         <v>2022</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="4" t="s">
         <v>101</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -2354,15 +2378,15 @@
         <v>9</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="4" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2374,12 +2398,12 @@
         <v>9</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>107</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -2391,18 +2415,18 @@
         <v>2022</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="4" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2411,18 +2435,18 @@
         <v>2022</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2434,12 +2458,12 @@
         <v>6</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="4" t="s">
         <v>116</v>
       </c>
       <c r="F39" s="2" t="s">
@@ -2454,15 +2478,15 @@
         <v>6</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="4" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2471,15 +2495,15 @@
         <v>2022</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="4" t="s">
         <v>122</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -2491,15 +2515,15 @@
         <v>2022</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="4" t="s">
         <v>125</v>
       </c>
       <c r="F42" s="2" t="s">
@@ -2514,16 +2538,16 @@
         <v>5</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>127</v>
       </c>
+      <c r="E43" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="F43" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2531,19 +2555,19 @@
         <v>2022</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>130</v>
       </c>
+      <c r="E44" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="F44" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2551,15 +2575,15 @@
         <v>2022</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>133</v>
       </c>
       <c r="F45" s="2" t="s">
@@ -2574,12 +2598,12 @@
         <v>4</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="4" t="s">
         <v>136</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -2591,15 +2615,15 @@
         <v>2022</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="4" t="s">
         <v>139</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -2611,18 +2635,18 @@
         <v>2022</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="2" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2634,12 +2658,12 @@
         <v>3</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="4" t="s">
         <v>145</v>
       </c>
       <c r="F49" s="2" t="s">
@@ -2654,15 +2678,15 @@
         <v>3</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="4" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2674,12 +2698,12 @@
         <v>3</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="4" t="s">
         <v>151</v>
       </c>
       <c r="F51" s="2" t="s">
@@ -2691,15 +2715,15 @@
         <v>2022</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="4" t="s">
         <v>154</v>
       </c>
       <c r="F52" s="2" t="s">
@@ -2711,15 +2735,15 @@
         <v>2022</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="4" t="s">
         <v>157</v>
       </c>
       <c r="F53" s="2" t="s">
@@ -2731,15 +2755,15 @@
         <v>2022</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="4" t="s">
         <v>160</v>
       </c>
       <c r="F54" s="2" t="s">
@@ -2751,15 +2775,15 @@
         <v>2022</v>
       </c>
       <c r="B55" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C55" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="4" t="s">
         <v>163</v>
       </c>
       <c r="F55" s="2" t="s">
@@ -2774,12 +2798,12 @@
         <v>1</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="4" t="s">
         <v>166</v>
       </c>
       <c r="F56" s="2" t="s">
@@ -2788,18 +2812,18 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="4" t="s">
         <v>169</v>
       </c>
       <c r="F57" s="2" t="s">
@@ -2808,18 +2832,18 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>171</v>
       </c>
       <c r="F58" s="2" t="s">
@@ -2834,12 +2858,12 @@
         <v>12</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="4" t="s">
         <v>174</v>
       </c>
       <c r="F59" s="2" t="s">
@@ -2851,15 +2875,15 @@
         <v>2021</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>176</v>
       </c>
       <c r="F60" s="2" t="s">
@@ -2871,15 +2895,15 @@
         <v>2021</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="4" t="s">
         <v>179</v>
       </c>
       <c r="F61" s="2" t="s">
@@ -2894,16 +2918,16 @@
         <v>11</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="F62" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2914,16 +2938,16 @@
         <v>11</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D63" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="F63" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2931,19 +2955,19 @@
         <v>2021</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D64" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="F64" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2951,19 +2975,19 @@
         <v>2021</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="F65" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2974,16 +2998,16 @@
         <v>10</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="F66" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2991,19 +3015,19 @@
         <v>2021</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D67" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="F67" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3011,19 +3035,19 @@
         <v>2021</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="F68" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3034,16 +3058,16 @@
         <v>9</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="F69" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3054,16 +3078,16 @@
         <v>9</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D70" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="F70" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3071,15 +3095,15 @@
         <v>2021</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E71" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>208</v>
       </c>
       <c r="F71" s="2" t="s">
@@ -3091,18 +3115,18 @@
         <v>2021</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3114,12 +3138,12 @@
         <v>6</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>213</v>
       </c>
       <c r="F73" s="2" t="s">
@@ -3134,15 +3158,15 @@
         <v>6</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" s="4" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3151,19 +3175,19 @@
         <v>2021</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="F75" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3171,19 +3195,19 @@
         <v>2021</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="F76" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3194,15 +3218,15 @@
         <v>5</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E77" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F77" s="2" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3214,12 +3238,12 @@
         <v>5</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D78" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="4" t="s">
         <v>227</v>
       </c>
       <c r="F78" s="2" t="s">
@@ -3231,19 +3255,19 @@
         <v>2021</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="F79" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3251,19 +3275,19 @@
         <v>2021</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="F80" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3274,12 +3298,12 @@
         <v>4</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E81" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>235</v>
       </c>
       <c r="F81" s="2" t="s">
@@ -3291,15 +3315,15 @@
         <v>2021</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D82" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="4" t="s">
         <v>238</v>
       </c>
       <c r="F82" s="2" t="s">
@@ -3311,19 +3335,19 @@
         <v>2021</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D83" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="F83" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3334,16 +3358,16 @@
         <v>3</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="F84" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3354,16 +3378,16 @@
         <v>3</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="F85" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3374,16 +3398,16 @@
         <v>3</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D86" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="F86" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3394,16 +3418,16 @@
         <v>3</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D87" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="F87" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3414,16 +3438,16 @@
         <v>3</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D88" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="F88" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3436,14 +3460,14 @@
       <c r="C89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="F89" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3454,16 +3478,16 @@
         <v>3</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D90" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="F90" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3471,19 +3495,19 @@
         <v>2021</v>
       </c>
       <c r="B91" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C91" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C91" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="F91" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3491,19 +3515,19 @@
         <v>2021</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D92" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3514,10 +3538,10 @@
         <v>2</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>71</v>
+        <v>9</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>270</v>
@@ -3531,12 +3555,12 @@
         <v>2021</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D94" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>272</v>
       </c>
       <c r="E94" s="2" t="s">
@@ -3551,19 +3575,19 @@
         <v>2021</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D95" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="F95" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3574,16 +3598,16 @@
         <v>1</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="F96" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3594,12 +3618,12 @@
         <v>1</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E97" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>281</v>
       </c>
       <c r="F97" s="2" t="s">
@@ -3608,13 +3632,13 @@
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B98" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2" t="n">
         <v>12</v>
-      </c>
-      <c r="C98" s="2" t="n">
-        <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>283</v>
@@ -3622,28 +3646,28 @@
       <c r="E98" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="F98" s="4" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B99" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C99" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3654,16 +3678,16 @@
         <v>12</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3674,16 +3698,16 @@
         <v>12</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3691,19 +3715,19 @@
         <v>2020</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3711,19 +3735,19 @@
         <v>2020</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3734,16 +3758,16 @@
         <v>11</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3751,19 +3775,19 @@
         <v>2020</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3771,19 +3795,19 @@
         <v>2020</v>
       </c>
       <c r="B106" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C106" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C106" s="2" t="n">
-        <v>27</v>
-      </c>
       <c r="D106" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3794,16 +3818,16 @@
         <v>10</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="F107" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3814,10 +3838,10 @@
         <v>10</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>313</v>
@@ -3831,19 +3855,19 @@
         <v>2020</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3851,19 +3875,19 @@
         <v>2020</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3874,10 +3898,10 @@
         <v>9</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>320</v>
@@ -3894,16 +3918,16 @@
         <v>9</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="F112" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3911,19 +3935,19 @@
         <v>2020</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="F113" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3931,19 +3955,19 @@
         <v>2020</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="F114" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3954,16 +3978,16 @@
         <v>6</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="F115" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3974,16 +3998,16 @@
         <v>6</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="F116" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3994,16 +4018,16 @@
         <v>6</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="F117" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4011,13 +4035,13 @@
         <v>2020</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>165</v>
+        <v>339</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>340</v>
@@ -4031,10 +4055,10 @@
         <v>2020</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>342</v>
@@ -4054,16 +4078,16 @@
         <v>5</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="F120" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4071,19 +4095,19 @@
         <v>2020</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="F121" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4091,19 +4115,19 @@
         <v>2020</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="F122" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4114,16 +4138,16 @@
         <v>4</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="F123" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4134,10 +4158,10 @@
         <v>4</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>261</v>
+        <v>356</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>357</v>
@@ -4151,10 +4175,10 @@
         <v>2020</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>359</v>
@@ -4171,19 +4195,19 @@
         <v>2020</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="F126" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4194,10 +4218,10 @@
         <v>3</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>115</v>
+        <v>364</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>365</v>
@@ -4214,16 +4238,16 @@
         <v>3</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>94</v>
+        <v>367</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F128" s="3" t="s">
         <v>368</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4234,16 +4258,16 @@
         <v>3</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>369</v>
+        <v>24</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4254,15 +4278,15 @@
         <v>3</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>371</v>
+        <v>100</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F130" s="2" t="s">
+      <c r="F130" s="4" t="s">
         <v>373</v>
       </c>
     </row>
@@ -4271,19 +4295,19 @@
         <v>2020</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D131" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E131" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="F131" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4291,19 +4315,19 @@
         <v>2020</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="F132" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4314,16 +4338,16 @@
         <v>2</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="F133" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4334,16 +4358,16 @@
         <v>2</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="F134" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4351,19 +4375,19 @@
         <v>2020</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="F135" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4371,19 +4395,19 @@
         <v>2020</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="F136" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4394,10 +4418,10 @@
         <v>1</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>165</v>
+        <v>391</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>392</v>
@@ -4408,38 +4432,38 @@
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>94</v>
+        <v>394</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="F138" s="3" t="s">
         <v>395</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E139" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>397</v>
       </c>
       <c r="F139" s="2" t="s">
@@ -4454,16 +4478,16 @@
         <v>12</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="F140" s="4" t="s">
         <v>400</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4474,16 +4498,16 @@
         <v>12</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D141" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E141" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="F141" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4494,16 +4518,16 @@
         <v>12</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D142" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="F142" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4511,18 +4535,18 @@
         <v>2019</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>307</v>
+        <v>407</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="F143" s="3" t="s">
+      <c r="F143" s="2" t="s">
         <v>409</v>
       </c>
     </row>
@@ -4531,15 +4555,15 @@
         <v>2019</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D144" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="E144" s="2" t="s">
         <v>411</v>
       </c>
       <c r="F144" s="2" t="s">
@@ -4554,16 +4578,16 @@
         <v>11</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="F145" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4574,12 +4598,12 @@
         <v>11</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E146" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E146" s="4" t="s">
         <v>416</v>
       </c>
       <c r="F146" s="2" t="s">
@@ -4591,10 +4615,10 @@
         <v>2019</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C147" s="2" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>418</v>
@@ -4611,19 +4635,19 @@
         <v>2019</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C148" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="F148" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4634,16 +4658,16 @@
         <v>10</v>
       </c>
       <c r="C149" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="F149" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4654,16 +4678,16 @@
         <v>10</v>
       </c>
       <c r="C150" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="F150" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4671,19 +4695,19 @@
         <v>2019</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C151" s="2" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="F151" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4691,19 +4715,19 @@
         <v>2019</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C152" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D152" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="F152" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4714,16 +4738,16 @@
         <v>9</v>
       </c>
       <c r="C153" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="F153" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4731,19 +4755,19 @@
         <v>2019</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C154" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D154" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="E154" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="F154" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4751,13 +4775,13 @@
         <v>2019</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C155" s="2" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>442</v>
@@ -4771,19 +4795,19 @@
         <v>2019</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C156" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>82</v>
+        <v>444</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4791,19 +4815,19 @@
         <v>2019</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C157" s="2" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>184</v>
+        <v>438</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4814,10 +4838,10 @@
         <v>2</v>
       </c>
       <c r="C158" s="2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>448</v>
+        <v>88</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>449</v>
@@ -4831,13 +4855,13 @@
         <v>2019</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C159" s="2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>310</v>
+        <v>189</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>451</v>
@@ -4851,10 +4875,10 @@
         <v>2019</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C160" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>453</v>
@@ -4874,56 +4898,56 @@
         <v>1</v>
       </c>
       <c r="C161" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D161" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="F161" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C162" s="2" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D162" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="F162" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C163" s="2" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D163" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="F163" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4931,13 +4955,13 @@
         <v>2018</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C164" s="2" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>307</v>
+        <v>464</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>465</v>
@@ -4951,10 +4975,10 @@
         <v>2018</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C165" s="2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>467</v>
@@ -4971,13 +4995,13 @@
         <v>2018</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C166" s="2" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>165</v>
+        <v>312</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>470</v>
@@ -4988,13 +5012,13 @@
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C167" s="2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>472</v>
@@ -5008,22 +5032,22 @@
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C168" s="2" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="F168" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5034,16 +5058,16 @@
         <v>11</v>
       </c>
       <c r="C169" s="2" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D169" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="F169" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5051,19 +5075,19 @@
         <v>2017</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C170" s="2" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D170" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="F170" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5071,19 +5095,19 @@
         <v>2017</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C171" s="2" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D171" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="F171" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5094,16 +5118,16 @@
         <v>10</v>
       </c>
       <c r="C172" s="2" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D172" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="F172" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5114,16 +5138,16 @@
         <v>10</v>
       </c>
       <c r="C173" s="2" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D173" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="F173" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5131,19 +5155,19 @@
         <v>2017</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C174" s="2" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D174" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="F174" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5151,23 +5175,61 @@
         <v>2017</v>
       </c>
       <c r="B175" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C175" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A176" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B176" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="C175" s="2" t="n">
+      <c r="C176" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C177" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="D177" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5994,6 +6056,8 @@
     <row r="1001" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1002" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1003" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1004" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1005" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="510">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -38,6 +38,24 @@
   </si>
   <si>
     <t xml:space="preserve">abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George Moroz, Chiara Naccarato, Anastasia Yakovleva, Svetlana Zemicheva (HSE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-standard features in spoken corpora of dialectal and regional varieties of Russian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this talk, we will present the preliminary results of ongoing research on variation in spoken corpora of dialectal and regional varieties of Russian. The collection of spoken corpora developed by members of the Linguistic Convergence Laboratory is constantly growing and currently includes 21 corpora of bilinguals’ and dialectal varieties of Russian. Based on data from such corpora, we investigate phenomena of variation at different linguistic levels. Some of the topics currently being investigated include preposition drop, case marking in numeral constructions, and functions of participles and converbs. After manual annotation of corpus data, we apply statistical methods to test linguistic and sociolinguistic hypotheses on the motivations of certain patterns of variation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Svetlana Kuznetsova (HSE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading group: A sampling technique for worldwide comparisons of language contact scenarios by Francesca Di Garbo and Ricardo Napoleão de Souza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existing sampling methods in language typology strive to control for areal biases in typological datasets as a means to avoid contact effects in the distribution of linguistic structure. However, none of these methods provide ways to directly compare contact scenarios from a typological perspective. This paper addresses this gap by introducing a sampling procedure for worldwide comparisons of language contact scenarios. The sampling unit consists of sets of three languages. The Focus Language is the language whose structures we examine in search for contact effects; the Neighbor Language is genealogically unrelated to the Focus Language, and counts as the potential source of contact influence on the Focus Language; the Benchmark Language is a relative of the Focus Language neither in contact with the Focus nor with the Neighbor language, and is used for disentangling contact effects from genealogical inheritance in the Focus Language. Through this design, we compiled a sample of 49 three-language sets (147 languages in total), which we present here. By switching the focus of typological sampling from individual languages to contact relations between languages, our method has the potential of uncovering patterns in the diffusion of language structures, and how they vary and change.</t>
   </si>
   <si>
     <t xml:space="preserve">Alina Russkikh (HSE)</t>
@@ -1541,7 +1559,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1575,11 +1593,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1630,7 +1643,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1643,15 +1656,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1672,15 +1681,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1005"/>
+  <dimension ref="A1:F1007"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="83.87"/>
@@ -1718,9 +1727,9 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1738,12 +1747,12 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1755,10 +1764,10 @@
         <v>2023</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -1775,15 +1784,15 @@
         <v>2023</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1798,7 +1807,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -1818,15 +1827,15 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1838,12 +1847,12 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1855,18 +1864,18 @@
         <v>2023</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1875,15 +1884,15 @@
         <v>2023</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1898,15 +1907,15 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1918,12 +1927,12 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1938,32 +1947,32 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1972,18 +1981,18 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1998,15 +2007,15 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2018,12 +2027,12 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -2035,18 +2044,18 @@
         <v>2022</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2055,15 +2064,15 @@
         <v>2022</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -2078,15 +2087,15 @@
         <v>11</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2098,12 +2107,12 @@
         <v>11</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>64</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -2118,15 +2127,15 @@
         <v>11</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2138,15 +2147,15 @@
         <v>11</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2158,16 +2167,16 @@
         <v>11</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="E24" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="F24" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2175,19 +2184,19 @@
         <v>2022</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>76</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2195,15 +2204,15 @@
         <v>2022</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -2218,15 +2227,15 @@
         <v>10</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2238,16 +2247,16 @@
         <v>10</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="E28" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="F28" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2258,16 +2267,16 @@
         <v>10</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>87</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2278,15 +2287,15 @@
         <v>10</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="2" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2300,13 +2309,13 @@
       <c r="C31" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2320,13 +2329,13 @@
       <c r="C32" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2338,15 +2347,15 @@
         <v>10</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2358,15 +2367,15 @@
         <v>10</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2375,18 +2384,18 @@
         <v>2022</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2395,15 +2404,15 @@
         <v>2022</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -2418,15 +2427,15 @@
         <v>9</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2438,12 +2447,12 @@
         <v>9</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F38" s="2" t="s">
@@ -2455,18 +2464,18 @@
         <v>2022</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="3" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2475,18 +2484,18 @@
         <v>2022</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2498,12 +2507,12 @@
         <v>6</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>122</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -2518,15 +2527,15 @@
         <v>6</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D42" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="3" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2535,15 +2544,15 @@
         <v>2022</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="3" t="s">
         <v>128</v>
       </c>
       <c r="F43" s="2" t="s">
@@ -2555,15 +2564,15 @@
         <v>2022</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F44" s="2" t="s">
@@ -2578,16 +2587,16 @@
         <v>5</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>133</v>
       </c>
+      <c r="E45" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="F45" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2595,19 +2604,19 @@
         <v>2022</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="E46" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="F46" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2615,15 +2624,15 @@
         <v>2022</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>139</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -2638,12 +2647,12 @@
         <v>4</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="3" t="s">
         <v>142</v>
       </c>
       <c r="F48" s="2" t="s">
@@ -2655,15 +2664,15 @@
         <v>2022</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F49" s="2" t="s">
@@ -2675,18 +2684,18 @@
         <v>2022</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="2" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2698,12 +2707,12 @@
         <v>3</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="3" t="s">
         <v>151</v>
       </c>
       <c r="F51" s="2" t="s">
@@ -2718,15 +2727,15 @@
         <v>3</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="3" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2738,12 +2747,12 @@
         <v>3</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="3" t="s">
         <v>157</v>
       </c>
       <c r="F53" s="2" t="s">
@@ -2755,15 +2764,15 @@
         <v>2022</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D54" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="3" t="s">
         <v>160</v>
       </c>
       <c r="F54" s="2" t="s">
@@ -2775,15 +2784,15 @@
         <v>2022</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="3" t="s">
         <v>163</v>
       </c>
       <c r="F55" s="2" t="s">
@@ -2795,15 +2804,15 @@
         <v>2022</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D56" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F56" s="2" t="s">
@@ -2815,15 +2824,15 @@
         <v>2022</v>
       </c>
       <c r="B57" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C57" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="3" t="s">
         <v>169</v>
       </c>
       <c r="F57" s="2" t="s">
@@ -2838,56 +2847,56 @@
         <v>1</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>171</v>
       </c>
+      <c r="E58" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="F58" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E59" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>174</v>
       </c>
+      <c r="E59" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="F59" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>176</v>
+        <v>11</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2898,16 +2907,16 @@
         <v>12</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="E61" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="F61" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2915,19 +2924,19 @@
         <v>2021</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>181</v>
+        <v>21</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2935,19 +2944,19 @@
         <v>2021</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>184</v>
       </c>
+      <c r="E63" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="F63" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2958,12 +2967,12 @@
         <v>11</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>187</v>
       </c>
       <c r="F64" s="2" t="s">
@@ -2978,12 +2987,12 @@
         <v>11</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D65" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="3" t="s">
         <v>190</v>
       </c>
       <c r="F65" s="2" t="s">
@@ -2995,15 +3004,15 @@
         <v>2021</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D66" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="3" t="s">
         <v>193</v>
       </c>
       <c r="F66" s="2" t="s">
@@ -3015,15 +3024,15 @@
         <v>2021</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D67" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="3" t="s">
         <v>196</v>
       </c>
       <c r="F67" s="2" t="s">
@@ -3038,12 +3047,12 @@
         <v>10</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D68" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="3" t="s">
         <v>199</v>
       </c>
       <c r="F68" s="2" t="s">
@@ -3055,15 +3064,15 @@
         <v>2021</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="3" t="s">
         <v>202</v>
       </c>
       <c r="F69" s="2" t="s">
@@ -3075,15 +3084,15 @@
         <v>2021</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D70" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="3" t="s">
         <v>205</v>
       </c>
       <c r="F70" s="2" t="s">
@@ -3098,12 +3107,12 @@
         <v>9</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="3" t="s">
         <v>208</v>
       </c>
       <c r="F71" s="2" t="s">
@@ -3118,12 +3127,12 @@
         <v>9</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D72" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="3" t="s">
         <v>211</v>
       </c>
       <c r="F72" s="2" t="s">
@@ -3135,19 +3144,19 @@
         <v>2021</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E73" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>213</v>
       </c>
+      <c r="E73" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="F73" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3155,19 +3164,19 @@
         <v>2021</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E74" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="E74" s="3" t="s">
         <v>217</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3178,16 +3187,16 @@
         <v>6</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>218</v>
+        <v>8</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3198,16 +3207,16 @@
         <v>6</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E76" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="E76" s="3" t="s">
         <v>222</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3215,15 +3224,15 @@
         <v>2021</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E77" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>224</v>
       </c>
       <c r="F77" s="2" t="s">
@@ -3235,15 +3244,15 @@
         <v>2021</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D78" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E78" s="3" t="s">
         <v>227</v>
       </c>
       <c r="F78" s="2" t="s">
@@ -3258,16 +3267,16 @@
         <v>5</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E79" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="E79" s="3" t="s">
         <v>230</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3278,16 +3287,16 @@
         <v>5</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E80" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>232</v>
       </c>
+      <c r="E80" s="3" t="s">
+        <v>233</v>
+      </c>
       <c r="F80" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3295,18 +3304,18 @@
         <v>2021</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F81" s="3" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3315,15 +3324,15 @@
         <v>2021</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="3" t="s">
         <v>238</v>
       </c>
       <c r="F82" s="2" t="s">
@@ -3338,16 +3347,16 @@
         <v>4</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="E83" s="3" t="s">
+        <v>241</v>
+      </c>
       <c r="F83" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3355,19 +3364,19 @@
         <v>2021</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E84" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>243</v>
       </c>
+      <c r="E84" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="F84" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3375,18 +3384,18 @@
         <v>2021</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="2" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3398,12 +3407,12 @@
         <v>3</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="3" t="s">
         <v>249</v>
       </c>
       <c r="F86" s="2" t="s">
@@ -3418,15 +3427,15 @@
         <v>3</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D87" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="F87" s="3" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3438,12 +3447,12 @@
         <v>3</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D88" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="3" t="s">
         <v>255</v>
       </c>
       <c r="F88" s="2" t="s">
@@ -3458,15 +3467,15 @@
         <v>3</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D89" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" s="2" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3478,15 +3487,15 @@
         <v>3</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D90" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="E90" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F90" s="2" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3500,13 +3509,13 @@
       <c r="C91" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="F91" s="3" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3518,15 +3527,15 @@
         <v>3</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D92" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="F92" s="3" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3535,15 +3544,15 @@
         <v>2021</v>
       </c>
       <c r="B93" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C93" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C93" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="3" t="s">
         <v>270</v>
       </c>
       <c r="F93" s="2" t="s">
@@ -3555,12 +3564,12 @@
         <v>2021</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D94" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>272</v>
       </c>
       <c r="E94" s="2" t="s">
@@ -3578,16 +3587,16 @@
         <v>2</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>77</v>
+        <v>9</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3595,19 +3604,19 @@
         <v>2021</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>277</v>
+        <v>2</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3615,15 +3624,15 @@
         <v>2021</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="E97" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>281</v>
       </c>
       <c r="F97" s="2" t="s">
@@ -3638,15 +3647,15 @@
         <v>1</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D98" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>283</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F98" s="2" t="s">
         <v>285</v>
       </c>
     </row>
@@ -3658,52 +3667,52 @@
         <v>1</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E99" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>286</v>
       </c>
+      <c r="E99" s="3" t="s">
+        <v>287</v>
+      </c>
       <c r="F99" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C100" s="2" t="n">
-        <v>8</v>
-      </c>
       <c r="D100" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F100" s="2" t="s">
         <v>290</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B101" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C101" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E101" s="2" t="s">
+      <c r="D101" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>292</v>
       </c>
       <c r="F101" s="2" t="s">
@@ -3718,7 +3727,7 @@
         <v>12</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>294</v>
@@ -3738,7 +3747,7 @@
         <v>12</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>297</v>
@@ -3755,10 +3764,10 @@
         <v>2020</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>300</v>
@@ -3775,10 +3784,10 @@
         <v>2020</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>303</v>
@@ -3798,7 +3807,7 @@
         <v>11</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>306</v>
@@ -3815,10 +3824,10 @@
         <v>2020</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>309</v>
@@ -3835,10 +3844,10 @@
         <v>2020</v>
       </c>
       <c r="B108" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C108" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="C108" s="2" t="n">
-        <v>27</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>312</v>
@@ -3858,7 +3867,7 @@
         <v>10</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>315</v>
@@ -3878,16 +3887,16 @@
         <v>10</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>198</v>
+        <v>318</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3895,19 +3904,19 @@
         <v>2020</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3915,19 +3924,19 @@
         <v>2020</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>88</v>
+        <v>204</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3938,16 +3947,16 @@
         <v>9</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3958,10 +3967,10 @@
         <v>9</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>327</v>
+        <v>94</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>328</v>
@@ -3975,10 +3984,10 @@
         <v>2020</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>330</v>
@@ -3995,10 +4004,10 @@
         <v>2020</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>333</v>
@@ -4018,7 +4027,7 @@
         <v>6</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>336</v>
@@ -4038,7 +4047,7 @@
         <v>6</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>339</v>
@@ -4058,7 +4067,7 @@
         <v>6</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>342</v>
@@ -4075,19 +4084,19 @@
         <v>2020</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>9</v>
+        <v>345</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4095,19 +4104,19 @@
         <v>2020</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4118,10 +4127,10 @@
         <v>5</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>350</v>
+        <v>15</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>351</v>
@@ -4135,10 +4144,10 @@
         <v>2020</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>353</v>
@@ -4155,10 +4164,10 @@
         <v>2020</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>356</v>
@@ -4178,7 +4187,7 @@
         <v>4</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>359</v>
@@ -4198,16 +4207,16 @@
         <v>4</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>266</v>
+        <v>362</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4215,19 +4224,19 @@
         <v>2020</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4235,13 +4244,13 @@
         <v>2020</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>367</v>
+        <v>272</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>368</v>
@@ -4258,16 +4267,16 @@
         <v>3</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>121</v>
+        <v>370</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4278,16 +4287,16 @@
         <v>3</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>100</v>
+        <v>373</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4298,16 +4307,16 @@
         <v>3</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>374</v>
+        <v>24</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4318,16 +4327,16 @@
         <v>3</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>376</v>
+        <v>106</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="F132" s="2" t="s">
         <v>378</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4335,15 +4344,15 @@
         <v>2020</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E133" s="3" t="s">
         <v>380</v>
       </c>
       <c r="F133" s="2" t="s">
@@ -4355,10 +4364,10 @@
         <v>2020</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>382</v>
@@ -4378,7 +4387,7 @@
         <v>2</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>385</v>
@@ -4398,7 +4407,7 @@
         <v>2</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>388</v>
@@ -4415,10 +4424,10 @@
         <v>2020</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>391</v>
@@ -4435,10 +4444,10 @@
         <v>2020</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>394</v>
@@ -4458,56 +4467,56 @@
         <v>1</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>9</v>
+        <v>397</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>402</v>
+        <v>14</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4518,15 +4527,15 @@
         <v>12</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>404</v>
+        <v>106</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="F142" s="2" t="s">
+      <c r="F142" s="3" t="s">
         <v>406</v>
       </c>
     </row>
@@ -4538,12 +4547,12 @@
         <v>12</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D143" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D143" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="E143" s="3" t="s">
         <v>408</v>
       </c>
       <c r="F143" s="2" t="s">
@@ -4558,7 +4567,7 @@
         <v>12</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>410</v>
@@ -4575,19 +4584,19 @@
         <v>2019</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>312</v>
+        <v>413</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="F145" s="4" t="s">
         <v>414</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4595,19 +4604,19 @@
         <v>2019</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E146" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>416</v>
       </c>
+      <c r="E146" s="2" t="s">
+        <v>417</v>
+      </c>
       <c r="F146" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4618,15 +4627,15 @@
         <v>11</v>
       </c>
       <c r="C147" s="2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="F147" s="2" t="s">
+      <c r="F147" s="3" t="s">
         <v>420</v>
       </c>
     </row>
@@ -4638,16 +4647,16 @@
         <v>11</v>
       </c>
       <c r="C148" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E148" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>421</v>
       </c>
+      <c r="E148" s="3" t="s">
+        <v>422</v>
+      </c>
       <c r="F148" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4655,19 +4664,19 @@
         <v>2019</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C149" s="2" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4675,13 +4684,13 @@
         <v>2019</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C150" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>426</v>
+        <v>272</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>427</v>
@@ -4698,7 +4707,7 @@
         <v>10</v>
       </c>
       <c r="C151" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>429</v>
@@ -4718,7 +4727,7 @@
         <v>10</v>
       </c>
       <c r="C152" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>432</v>
@@ -4735,10 +4744,10 @@
         <v>2019</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C153" s="2" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>435</v>
@@ -4746,7 +4755,7 @@
       <c r="E153" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="F153" s="4" t="s">
+      <c r="F153" s="2" t="s">
         <v>437</v>
       </c>
     </row>
@@ -4755,15 +4764,15 @@
         <v>2019</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C154" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D154" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E154" s="4" t="s">
+      <c r="E154" s="2" t="s">
         <v>439</v>
       </c>
       <c r="F154" s="2" t="s">
@@ -4778,7 +4787,7 @@
         <v>9</v>
       </c>
       <c r="C155" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>441</v>
@@ -4786,7 +4795,7 @@
       <c r="E155" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F155" s="2" t="s">
+      <c r="F155" s="3" t="s">
         <v>443</v>
       </c>
     </row>
@@ -4795,15 +4804,15 @@
         <v>2019</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C156" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D156" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D156" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E156" s="3" t="s">
         <v>445</v>
       </c>
       <c r="F156" s="2" t="s">
@@ -4815,19 +4824,19 @@
         <v>2019</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C157" s="2" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4835,19 +4844,19 @@
         <v>2019</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C158" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>88</v>
+        <v>450</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4855,19 +4864,19 @@
         <v>2019</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C159" s="2" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>189</v>
+        <v>444</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4878,16 +4887,16 @@
         <v>2</v>
       </c>
       <c r="C160" s="2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>453</v>
+        <v>94</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4895,19 +4904,19 @@
         <v>2019</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C161" s="2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>315</v>
+        <v>195</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4915,19 +4924,19 @@
         <v>2019</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C162" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4938,10 +4947,10 @@
         <v>1</v>
       </c>
       <c r="C163" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>461</v>
+        <v>321</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>462</v>
@@ -4952,13 +4961,13 @@
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C164" s="2" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>464</v>
@@ -4972,13 +4981,13 @@
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C165" s="2" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>467</v>
@@ -4995,19 +5004,19 @@
         <v>2018</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C166" s="2" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>312</v>
+        <v>470</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5015,19 +5024,19 @@
         <v>2018</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C167" s="2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5035,53 +5044,53 @@
         <v>2018</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C168" s="2" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>9</v>
+        <v>318</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C169" s="2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C170" s="2" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>480</v>
+        <v>15</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>481</v>
@@ -5098,7 +5107,7 @@
         <v>11</v>
       </c>
       <c r="C171" s="2" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>483</v>
@@ -5115,10 +5124,10 @@
         <v>2017</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C172" s="2" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>486</v>
@@ -5135,10 +5144,10 @@
         <v>2017</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C173" s="2" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>489</v>
@@ -5158,7 +5167,7 @@
         <v>10</v>
       </c>
       <c r="C174" s="2" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>492</v>
@@ -5178,7 +5187,7 @@
         <v>10</v>
       </c>
       <c r="C175" s="2" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>495</v>
@@ -5195,10 +5204,10 @@
         <v>2017</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C176" s="2" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>498</v>
@@ -5215,10 +5224,10 @@
         <v>2017</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C177" s="2" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>501</v>
@@ -5230,8 +5239,46 @@
         <v>503</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A178" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C178" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A179" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C179" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6058,6 +6105,8 @@
     <row r="1003" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1004" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1005" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1006" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1007" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="513">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -40,6 +40,24 @@
     <t xml:space="preserve">abstract</t>
   </si>
   <si>
+    <t xml:space="preserve">Yury Lander, Ksenia Romanova (HSE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparatives in the North Caucasus may be not so comparative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this talk, we discuss the specifics of certain patterns that are usually described as constructions expressing the comparison of inequality. We provide evidence that these constructions may function in a completely different way as compared with their Standard Average European translations. Most data are taken from West Caucasian languages, but similar conclusions may apply to East Caucasian languages as well as to some Turkic languages of the area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Svetlana Kuznetsova (HSE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading group: A sampling technique for worldwide comparisons of language contact scenarios by Francesca Di Garbo and Ricardo Napoleão de Souza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existing sampling methods in language typology strive to control for areal biases in typological datasets as a means to avoid contact effects in the distribution of linguistic structure. However, none of these methods provide ways to directly compare contact scenarios from a typological perspective. This paper addresses this gap by introducing a sampling procedure for worldwide comparisons of language contact scenarios. The sampling unit consists of sets of three languages. The Focus Language is the language whose structures we examine in search for contact effects; the Neighbor Language is genealogically unrelated to the Focus Language, and counts as the potential source of contact influence on the Focus Language; the Benchmark Language is a relative of the Focus Language neither in contact with the Focus nor with the Neighbor language, and is used for disentangling contact effects from genealogical inheritance in the Focus Language. Through this design, we compiled a sample of 49 three-language sets (147 languages in total), which we present here. By switching the focus of typological sampling from individual languages to contact relations between languages, our method has the potential of uncovering patterns in the diffusion of language structures, and how they vary and change.</t>
+  </si>
+  <si>
     <t xml:space="preserve">George Moroz, Chiara Naccarato, Anastasia Yakovleva, Svetlana Zemicheva (HSE)</t>
   </si>
   <si>
@@ -47,15 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">In this talk, we will present the preliminary results of ongoing research on variation in spoken corpora of dialectal and regional varieties of Russian. The collection of spoken corpora developed by members of the Linguistic Convergence Laboratory is constantly growing and currently includes 21 corpora of bilinguals’ and dialectal varieties of Russian. Based on data from such corpora, we investigate phenomena of variation at different linguistic levels. Some of the topics currently being investigated include preposition drop, case marking in numeral constructions, and functions of participles and converbs. After manual annotation of corpus data, we apply statistical methods to test linguistic and sociolinguistic hypotheses on the motivations of certain patterns of variation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Svetlana Kuznetsova (HSE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reading group: A sampling technique for worldwide comparisons of language contact scenarios by Francesca Di Garbo and Ricardo Napoleão de Souza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Existing sampling methods in language typology strive to control for areal biases in typological datasets as a means to avoid contact effects in the distribution of linguistic structure. However, none of these methods provide ways to directly compare contact scenarios from a typological perspective. This paper addresses this gap by introducing a sampling procedure for worldwide comparisons of language contact scenarios. The sampling unit consists of sets of three languages. The Focus Language is the language whose structures we examine in search for contact effects; the Neighbor Language is genealogically unrelated to the Focus Language, and counts as the potential source of contact influence on the Focus Language; the Benchmark Language is a relative of the Focus Language neither in contact with the Focus nor with the Neighbor language, and is used for disentangling contact effects from genealogical inheritance in the Focus Language. Through this design, we compiled a sample of 49 three-language sets (147 languages in total), which we present here. By switching the focus of typological sampling from individual languages to contact relations between languages, our method has the potential of uncovering patterns in the diffusion of language structures, and how they vary and change.</t>
   </si>
   <si>
     <t xml:space="preserve">Alina Russkikh (HSE)</t>
@@ -1681,15 +1690,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1007"/>
+  <dimension ref="A1:F1008"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="83.87"/>
@@ -1727,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -1747,7 +1756,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -1767,7 +1776,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -1789,10 +1798,10 @@
       <c r="C5" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1804,15 +1813,15 @@
         <v>2023</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1847,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>24</v>
@@ -1867,15 +1876,15 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1895,7 +1904,7 @@
       <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1904,10 +1913,10 @@
         <v>2023</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>33</v>
@@ -1915,7 +1924,7 @@
       <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1935,7 +1944,7 @@
       <c r="E12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1947,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -1955,7 +1964,7 @@
       <c r="E13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1975,7 +1984,7 @@
       <c r="E14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1987,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>45</v>
@@ -2001,13 +2010,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>48</v>
@@ -2027,7 +2036,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>51</v>
@@ -2047,7 +2056,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>54</v>
@@ -2055,7 +2064,7 @@
       <c r="E18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2075,7 +2084,7 @@
       <c r="E19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2084,10 +2093,10 @@
         <v>2022</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>60</v>
@@ -2095,7 +2104,7 @@
       <c r="E20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2115,7 +2124,7 @@
       <c r="E21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2127,7 +2136,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>66</v>
@@ -2135,7 +2144,7 @@
       <c r="E22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2155,7 +2164,7 @@
       <c r="E23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2167,7 +2176,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>72</v>
@@ -2187,7 +2196,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>75</v>
@@ -2195,7 +2204,7 @@
       <c r="E25" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2210,13 +2219,13 @@
         <v>15</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="2" t="s">
         <v>79</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2224,18 +2233,18 @@
         <v>2022</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2255,7 +2264,7 @@
       <c r="E28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2267,7 +2276,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>86</v>
@@ -2275,7 +2284,7 @@
       <c r="E29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2290,13 +2299,13 @@
         <v>25</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="2" t="s">
         <v>90</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2307,15 +2316,15 @@
         <v>10</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2387,7 +2396,7 @@
         <v>10</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>103</v>
@@ -2415,7 +2424,7 @@
       <c r="E36" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="3" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2424,10 +2433,10 @@
         <v>2022</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>109</v>
@@ -2435,7 +2444,7 @@
       <c r="E37" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2455,7 +2464,7 @@
       <c r="E38" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2467,7 +2476,7 @@
         <v>9</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>115</v>
@@ -2475,7 +2484,7 @@
       <c r="E39" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2495,7 +2504,7 @@
       <c r="E40" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2504,10 +2513,10 @@
         <v>2022</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>121</v>
@@ -2527,7 +2536,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>124</v>
@@ -2535,7 +2544,7 @@
       <c r="E42" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2555,7 +2564,7 @@
       <c r="E43" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="3" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2567,7 +2576,7 @@
         <v>6</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>130</v>
@@ -2584,10 +2593,10 @@
         <v>2022</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>133</v>
@@ -2607,7 +2616,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>136</v>
@@ -2627,16 +2636,16 @@
         <v>5</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2644,13 +2653,13 @@
         <v>2022</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>142</v>
@@ -2667,7 +2676,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>144</v>
@@ -2687,7 +2696,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>147</v>
@@ -2704,10 +2713,10 @@
         <v>2022</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>150</v>
@@ -2727,7 +2736,7 @@
         <v>3</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>153</v>
@@ -2735,7 +2744,7 @@
       <c r="E52" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="2" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2755,7 +2764,7 @@
       <c r="E53" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="3" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2767,7 +2776,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>159</v>
@@ -2787,7 +2796,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>162</v>
@@ -2804,10 +2813,10 @@
         <v>2022</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>165</v>
@@ -2827,7 +2836,7 @@
         <v>2</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>168</v>
@@ -2844,10 +2853,10 @@
         <v>2022</v>
       </c>
       <c r="B58" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C58" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="C58" s="2" t="n">
-        <v>25</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>171</v>
@@ -2867,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>174</v>
@@ -2887,30 +2896,30 @@
         <v>1</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>180</v>
@@ -2927,16 +2936,16 @@
         <v>12</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2947,10 +2956,10 @@
         <v>12</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>185</v>
@@ -2964,19 +2973,19 @@
         <v>2021</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2987,10 +2996,10 @@
         <v>11</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>190</v>
@@ -3007,7 +3016,7 @@
         <v>11</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>192</v>
@@ -3027,7 +3036,7 @@
         <v>11</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>195</v>
@@ -3044,10 +3053,10 @@
         <v>2021</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>198</v>
@@ -3067,7 +3076,7 @@
         <v>10</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>201</v>
@@ -3087,7 +3096,7 @@
         <v>10</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>204</v>
@@ -3104,10 +3113,10 @@
         <v>2021</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>207</v>
@@ -3127,7 +3136,7 @@
         <v>9</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>210</v>
@@ -3147,7 +3156,7 @@
         <v>9</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>213</v>
@@ -3167,7 +3176,7 @@
         <v>9</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>216</v>
@@ -3184,19 +3193,19 @@
         <v>2021</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3207,15 +3216,15 @@
         <v>6</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" s="2" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3230,13 +3239,13 @@
         <v>15</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>94</v>
+        <v>224</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F77" s="2" t="s">
         <v>225</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3247,10 +3256,10 @@
         <v>6</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>226</v>
+        <v>97</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>227</v>
@@ -3264,10 +3273,10 @@
         <v>2021</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>229</v>
@@ -3287,7 +3296,7 @@
         <v>5</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>232</v>
@@ -3307,16 +3316,16 @@
         <v>5</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>127</v>
+        <v>235</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="F81" s="3" t="s">
         <v>236</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3330,12 +3339,12 @@
         <v>11</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>237</v>
+        <v>130</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F82" s="3" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3344,10 +3353,10 @@
         <v>2021</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>240</v>
@@ -3367,7 +3376,7 @@
         <v>4</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>243</v>
@@ -3387,16 +3396,16 @@
         <v>4</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>15</v>
+        <v>246</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3404,13 +3413,13 @@
         <v>2021</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>249</v>
@@ -3427,7 +3436,7 @@
         <v>3</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>251</v>
@@ -3435,7 +3444,7 @@
       <c r="E87" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F87" s="2" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3455,7 +3464,7 @@
       <c r="E88" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F88" s="3" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3467,7 +3476,7 @@
         <v>3</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>257</v>
@@ -3487,7 +3496,7 @@
         <v>3</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>260</v>
@@ -3507,7 +3516,7 @@
         <v>3</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>263</v>
@@ -3515,7 +3524,7 @@
       <c r="E91" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="F91" s="2" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3555,7 +3564,7 @@
       <c r="E93" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="F93" s="3" t="s">
         <v>271</v>
       </c>
     </row>
@@ -3567,12 +3576,12 @@
         <v>3</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D94" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="3" t="s">
         <v>273</v>
       </c>
       <c r="F94" s="2" t="s">
@@ -3584,12 +3593,12 @@
         <v>2021</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D95" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>275</v>
       </c>
       <c r="E95" s="2" t="s">
@@ -3607,9 +3616,9 @@
         <v>2</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>278</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -3627,16 +3636,16 @@
         <v>2</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>83</v>
+        <v>2</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3644,13 +3653,13 @@
         <v>2021</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>283</v>
+        <v>16</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>284</v>
@@ -3667,12 +3676,12 @@
         <v>1</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D99" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="2" t="s">
         <v>287</v>
       </c>
       <c r="F99" s="2" t="s">
@@ -3687,15 +3696,15 @@
         <v>1</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D100" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F100" s="2" t="s">
         <v>291</v>
       </c>
     </row>
@@ -3709,30 +3718,30 @@
       <c r="C101" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E101" s="3" t="s">
+      <c r="D101" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>293</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B102" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C102" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E102" s="2" t="s">
+      <c r="D102" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E102" s="3" t="s">
         <v>295</v>
       </c>
       <c r="F102" s="2" t="s">
@@ -3747,7 +3756,7 @@
         <v>12</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>297</v>
@@ -3767,7 +3776,7 @@
         <v>12</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>300</v>
@@ -3787,7 +3796,7 @@
         <v>12</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>303</v>
@@ -3804,10 +3813,10 @@
         <v>2020</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>306</v>
@@ -3827,7 +3836,7 @@
         <v>11</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>309</v>
@@ -3847,7 +3856,7 @@
         <v>11</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>312</v>
@@ -3864,10 +3873,10 @@
         <v>2020</v>
       </c>
       <c r="B109" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C109" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="C109" s="2" t="n">
-        <v>6</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>315</v>
@@ -3887,7 +3896,7 @@
         <v>10</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>318</v>
@@ -3907,7 +3916,7 @@
         <v>10</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>321</v>
@@ -3927,16 +3936,16 @@
         <v>10</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>204</v>
+        <v>324</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3944,19 +3953,19 @@
         <v>2020</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>272</v>
+        <v>207</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3967,16 +3976,16 @@
         <v>9</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>94</v>
+        <v>275</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3987,10 +3996,10 @@
         <v>9</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>330</v>
+        <v>97</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>331</v>
@@ -4007,7 +4016,7 @@
         <v>9</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>333</v>
@@ -4024,10 +4033,10 @@
         <v>2020</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>336</v>
@@ -4047,7 +4056,7 @@
         <v>6</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>339</v>
@@ -4067,7 +4076,7 @@
         <v>6</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>342</v>
@@ -4087,7 +4096,7 @@
         <v>6</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>345</v>
@@ -4107,7 +4116,7 @@
         <v>6</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>348</v>
@@ -4124,19 +4133,19 @@
         <v>2020</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>15</v>
+        <v>351</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4147,10 +4156,10 @@
         <v>5</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>353</v>
+        <v>18</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>354</v>
@@ -4167,7 +4176,7 @@
         <v>5</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>356</v>
@@ -4184,10 +4193,10 @@
         <v>2020</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>359</v>
@@ -4207,7 +4216,7 @@
         <v>4</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>362</v>
@@ -4227,7 +4236,7 @@
         <v>4</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>365</v>
@@ -4247,16 +4256,16 @@
         <v>4</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4264,13 +4273,13 @@
         <v>2020</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>370</v>
+        <v>275</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>371</v>
@@ -4287,7 +4296,7 @@
         <v>3</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>373</v>
@@ -4307,16 +4316,16 @@
         <v>3</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>127</v>
+        <v>376</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4327,16 +4336,16 @@
         <v>3</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F132" s="3" t="s">
         <v>379</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4349,14 +4358,14 @@
       <c r="C133" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="F133" s="2" t="s">
+      <c r="D133" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>381</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4367,12 +4376,12 @@
         <v>3</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E134" s="3" t="s">
         <v>383</v>
       </c>
       <c r="F134" s="2" t="s">
@@ -4384,10 +4393,10 @@
         <v>2020</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>385</v>
@@ -4407,7 +4416,7 @@
         <v>2</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>388</v>
@@ -4427,7 +4436,7 @@
         <v>2</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>391</v>
@@ -4447,7 +4456,7 @@
         <v>2</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>394</v>
@@ -4464,10 +4473,10 @@
         <v>2020</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>397</v>
@@ -4487,7 +4496,7 @@
         <v>1</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>400</v>
@@ -4507,36 +4516,36 @@
         <v>1</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>15</v>
+        <v>403</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="F142" s="3" t="s">
         <v>406</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4549,13 +4558,13 @@
       <c r="C143" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E143" s="3" t="s">
+      <c r="D143" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="F143" s="2" t="s">
+      <c r="F143" s="3" t="s">
         <v>409</v>
       </c>
     </row>
@@ -4567,12 +4576,12 @@
         <v>12</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D144" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E144" s="3" t="s">
         <v>411</v>
       </c>
       <c r="F144" s="2" t="s">
@@ -4587,7 +4596,7 @@
         <v>12</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>413</v>
@@ -4607,7 +4616,7 @@
         <v>12</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>416</v>
@@ -4624,19 +4633,19 @@
         <v>2019</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C147" s="2" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>318</v>
+        <v>419</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F147" s="3" t="s">
         <v>420</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4649,13 +4658,13 @@
       <c r="C148" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="E148" s="3" t="s">
+      <c r="D148" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F148" s="2" t="s">
+      <c r="F148" s="3" t="s">
         <v>423</v>
       </c>
     </row>
@@ -4667,12 +4676,12 @@
         <v>11</v>
       </c>
       <c r="C149" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D149" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="E149" s="3" t="s">
         <v>425</v>
       </c>
       <c r="F149" s="2" t="s">
@@ -4687,16 +4696,16 @@
         <v>11</v>
       </c>
       <c r="C150" s="2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>272</v>
+        <v>427</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4704,13 +4713,13 @@
         <v>2019</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C151" s="2" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>429</v>
+        <v>275</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>430</v>
@@ -4727,7 +4736,7 @@
         <v>10</v>
       </c>
       <c r="C152" s="2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>432</v>
@@ -4747,7 +4756,7 @@
         <v>10</v>
       </c>
       <c r="C153" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>435</v>
@@ -4767,7 +4776,7 @@
         <v>10</v>
       </c>
       <c r="C154" s="2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>438</v>
@@ -4784,10 +4793,10 @@
         <v>2019</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C155" s="2" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>441</v>
@@ -4795,7 +4804,7 @@
       <c r="E155" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F155" s="3" t="s">
+      <c r="F155" s="2" t="s">
         <v>443</v>
       </c>
     </row>
@@ -4809,13 +4818,13 @@
       <c r="C156" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D156" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="E156" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="F156" s="2" t="s">
+      <c r="F156" s="3" t="s">
         <v>446</v>
       </c>
     </row>
@@ -4827,12 +4836,12 @@
         <v>9</v>
       </c>
       <c r="C157" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D157" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="E157" s="3" t="s">
         <v>448</v>
       </c>
       <c r="F157" s="2" t="s">
@@ -4844,10 +4853,10 @@
         <v>2019</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C158" s="2" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>450</v>
@@ -4867,16 +4876,16 @@
         <v>6</v>
       </c>
       <c r="C159" s="2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4884,19 +4893,19 @@
         <v>2019</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C160" s="2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>94</v>
+        <v>447</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4907,16 +4916,16 @@
         <v>2</v>
       </c>
       <c r="C161" s="2" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>195</v>
+        <v>97</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4927,10 +4936,10 @@
         <v>2</v>
       </c>
       <c r="C162" s="2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>459</v>
+        <v>198</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>460</v>
@@ -4944,19 +4953,19 @@
         <v>2019</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C163" s="2" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>321</v>
+        <v>462</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4967,10 +4976,10 @@
         <v>1</v>
       </c>
       <c r="C164" s="2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>464</v>
+        <v>324</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>465</v>
@@ -4987,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="C165" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>467</v>
@@ -5001,13 +5010,13 @@
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C166" s="2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>470</v>
@@ -5024,10 +5033,10 @@
         <v>2018</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C167" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>473</v>
@@ -5047,16 +5056,16 @@
         <v>11</v>
       </c>
       <c r="C168" s="2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>318</v>
+        <v>476</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5064,13 +5073,13 @@
         <v>2018</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C169" s="2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>478</v>
+        <v>321</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>479</v>
@@ -5087,30 +5096,30 @@
         <v>10</v>
       </c>
       <c r="C170" s="2" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>15</v>
+        <v>481</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C171" s="2" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>483</v>
+        <v>18</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>484</v>
@@ -5127,7 +5136,7 @@
         <v>11</v>
       </c>
       <c r="C172" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>486</v>
@@ -5147,7 +5156,7 @@
         <v>11</v>
       </c>
       <c r="C173" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>489</v>
@@ -5164,10 +5173,10 @@
         <v>2017</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C174" s="2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>492</v>
@@ -5187,7 +5196,7 @@
         <v>10</v>
       </c>
       <c r="C175" s="2" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>495</v>
@@ -5207,7 +5216,7 @@
         <v>10</v>
       </c>
       <c r="C176" s="2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>498</v>
@@ -5227,7 +5236,7 @@
         <v>10</v>
       </c>
       <c r="C177" s="2" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>501</v>
@@ -5244,10 +5253,10 @@
         <v>2017</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C178" s="2" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>504</v>
@@ -5267,7 +5276,7 @@
         <v>9</v>
       </c>
       <c r="C179" s="2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>507</v>
@@ -5279,7 +5288,26 @@
         <v>509</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A180" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C180" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6107,6 +6135,7 @@
     <row r="1005" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1006" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1007" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1008" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="515">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">The use of parallel texts for typological research is a long-existing practice, significantly enhanced with the advent of corpus technologies (informative surveys of the problem can be found in Cysouw &amp; Wälchli 2007, Aijmer 2008, Frajzyngier &amp; Mettouchi 2015, Doval &amp; Sánchez Nieto 2019, among others). For a wide-scale cross-linguistic study, especially efficient instrument is what is usually called “massively parallel corpus” including sample texts from a very large number of languages (up to several hundred; cf. Östling 2016, Нестеренко 2019). For that purpose, the best choice would be the texts which are not only the most translated but targeting the less studied languages at the same time. Virtually the only candidate that satisfies both conditions is obviously the New Testament: as of now, at least fragments of this text are translated into more than 3,200 languages (including extinct, poorly documented or unwritten ones). Again, its importance for cross-linguistic studies is a well-known fact (first attempts to use New Testament translations going back as early as to the 18th century, as in Gottfried Hensel’s “Synopsis universae philologiae” with the earliest language maps known). In present-day typology, the story begins probably with Haspelmath 1997 and is continued by a number of fairly diverse approaches, as, for example, Barentsen 2008, Wälchli &amp; Cysouw 2012, or Dahl 2014. However, all existing attempts to use New Testament follow roughly the same pattern: they (i) take one lexical or grammatical phenomenon of a presumably universal extent (as verbs of motion or perception, spatial adpositions, markers of current relevance, etc.), then (ii) try to identify cross-linguistically reliable contexts for it and (iii) analyze the variation observed. Here, the focus is on one particular piece of data supposed to be identifiable in many doculects constituting the parallel corpus. What we would like to propose is somewhat different. Our focus is not on a single category, but on the whole set of cross-linguistically relevant values belonging to the Universal Grammatical Inventory. Accordingly, the parallel corpus is viewed not as a mere collection of repeated occurrences, but as a complete database of grammatically relevant contexts where a corresponding grammatical value is most expected. The results of our preliminary research suggest that it is possible to isolate typical contexts for main tense and aspect values (as future and prospective, progressive, iterative and habitual, resultative and framepast), for main argument roles, for number and determination values, etc. Not all grammatical categories can be localized in this way, but only those with a clear semantic prototype, sometimes called “inherent” (cf. Frajzyngier &amp; Mettouchi 2015). Nevertheless, the cases in point are numerous, and we are going to demonstrate some examples of how the relevant grammatical contexts can be profitably studied using the continuous annotation of New Testament parallel corpus. Bibliography Aijmer, K. 2008. Parallel and comparable corpora // A. Lüdeling &amp; M. Kytö (eds.). Corpus Linguistics: An International Handbook. Berlin: De Gruyter Mouton, vol. 1, 275–291. Barentsen, A. 2008. О конструкциях при глаголах восприятия в различных европейских языках (на основе переводов Нового завета) // E. de Haard, W. Honselaar &amp; J. Stelleman (eds.). Literature and Beyond: Festschrift for Willem G. Weststeijn on the Occasion of his 65th Birthday. Amsterdam: Pegasus, vol. 1, 103–134. Cysouw, M. &amp; Wälchli, B. (eds.). 2007. Parallel Texts: Using Translational Equivalents in Linguistic Typology // Theme issue in Sprachtypologie &amp; Universalienforschung, 60.2. Dahl, Ö. 2014. The perfect map: Investigating the cross-linguistic distribution of TAME categories in a parallel corpus // B. Szmrecsanyi &amp; B. Wälchli (eds.). Aggregating dialectology and typology: linguistic variation in text and speech, within and across languages. Berlin: De Gruyter, 268–289. Doval, I. &amp; Sánchez Nieto, M. T. (eds.). 2019. Parallel corpora for contrastive and translation studies: New resources and applications. Amsterdam: John Benjamins. Frajzyngier, Z. &amp; Mettouchi, A. 2015. Functional domains and cross-linguistic comparability // A. Mettouchi, M. Vanhove &amp; D. Caubet (eds.). Corpus-based Studies of Lesser-described Languages: The CorpAfroAs corpus of spoken AfroAsiatic languages. Amsterdam: John Benjamins, 257–279. Нестеренко, Л. В. 2019. Мультиязычные параллельные корпуса: новый источник данных для типологических исследований, перспективы использования и проблемы // Вопросы языкознания (2), 111–125. Östling, R. 2016. Studying colexification through massively parallell corpora // P. Juvonen &amp; M. Koptjevskaja-Tamm (eds.). The lexical typology of semantic shifts. Berlin: De Gruyter, 157–176. Wälchli, B. &amp; Cysouw, M. 2012. Lexical typology through similarity semantics: Toward a semantic map of motion verbs // Linguistics 50.3, 671–710.</t>
   </si>
   <si>
-    <t xml:space="preserve">K. Filatov</t>
+    <t xml:space="preserve">Konstantin Filatov (HSE)</t>
   </si>
   <si>
     <t xml:space="preserve">Reading group: Dahl, Ö. &amp; B. Wälchli. 2016. Perfects and iamitives: two gram types in one grammatical space. Letras de Hoje 51(3). 325. https://doi.org/10.15448/1984-7726.2016.3.25454.</t>
@@ -175,6 +175,15 @@
     <t xml:space="preserve">There is some general idea of what Semitic verbal "patterns" (also called templates, binyanim, породы) are — not only among semitists, but also among linguists. The expected canonical verbal root in Semitic languages is purely consonantal, and inflected verb stems are created through a restricted number of derivational templates. These templates encode in a semi-systematic manner such dimensions of verb meaning as agency and voice. It is well described that verbal patterns can vary between languages — usually the variability of the number of the patterns, their individual form and function are mentioned. However, it is assumed that the template systems have more or less the same morphosyntactic status in all Semitic languages. The main task of my future research is to determine the status of verbal patterns in the system of Christian Urmi Neo-Aramaic (&lt; Northeastern Neo-Aramaic &lt; Semitic), a language with a significantly reduced, "non-classical" Semitic verbal system. On the one hand, three Urmian verbal patterns just mark the inflection-class membership of the verb. On the other hand, for some verbs the change of the pattern can be described as a morphological mechanism of changing valency. I will discuss the problems of establishing consonantal root in Christian Urmi, regularity of the patterns’ meanings and possible directions of my future work. Reading Group: Schreur, J. W., Allassonnière-Tang, M., Bellamy, K., &amp; Rochant, N. (2022). Predicting grammatical gender in Nakh languages: Three methods compared. Linguistic Typology at the Crossroads, 2(2), 93-126.Kirill Chuprinko (HSE)</t>
   </si>
   <si>
+    <t xml:space="preserve">Kirill Chuprinko (HSE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading Group. Predicting grammatical gender in Nakh languages: Three methods compared by Wichers Schreur, Allassonnière-Tang, Bellamy, Rochant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Nakh languages Chechen and Tsova-Tush each have a five-valued gender system: masculine, feminine, and three “neuter” genders named for their singular agreement forms: B, D and J. Gender assignment in languages is generally analysed as being dependent on both form and semantics (e.g. Corbett 1991), with semantics typically prevailing over form (e.g. Bellamy &amp; Wichers Schreur 2022, Allassonnière-Tang et al. 2021). Most previous studies have considered only binary or tripartite gender systems possessing one masculine, one feminine, and one neuter value. The five-valued system of Nakh thus represents a more complex and insightful case study for analysing gender assignment. In this paper we build on the existing qualitative linguistic analyses of gender assignment in Tsova-Tush (Wichers Schreur 2021) and apply three machine-learning methods to investigate the weight of form and semantics in predicting grammatical gender in Chechen and Tsova-Tush. Our main aim is thus to show how three different computational classifier methods perform on a novel set of non-Indo-European data. The results show that while both form and semantics are helpful for predicting grammatical gender in Nakh, semantics is dominant, which supports findings from existing literature (Allassonnière-Tang et al. 2021), as well as confirming the utility of these computational methods. However, the results also show that the coded semantic information could be further fine-grained to improve the accuracy of the predictions (see also Plaster et al. 2013). In addition, we discuss the implications of the output for our understanding of language-internal and family-internal processes of language change, including how loanwords are integrated from Russian, a three-gender language.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Masha Kyuseva (Surrey Morphology Group)</t>
   </si>
   <si>
@@ -200,9 +209,6 @@
   </si>
   <si>
     <t xml:space="preserve">Selkup is a Samoyedic (&lt; Uralic) language known for numerous dialects and subdialects, and a lack of sharp boundaries between them (cf. Kazakevich 2022, Klump &amp; Budzisch, forthc.). Our study aims at giving a new perspective on Selkup dialectal distribution.We use phonetic, morphological and lexical features to compare the speech of several dozens of speakers on the basis of quantitative data acquired from several corpora. In our talk we show how such data helps to improve our knowledge about individual features and present some preliminary results of speaker clusterization, comparing them to existing dialectal classifications of Selkup. We will also discuss methodological problems that we had to face when dealing with missing values, heterogeneous features and a small amount of data for some speakers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Konstantin Filatov (HSE)</t>
   </si>
   <si>
     <t xml:space="preserve">Towards a working definition of "verbal grammatical system"</t>
@@ -1568,7 +1574,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1602,6 +1608,11 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1652,7 +1663,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1673,6 +1684,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1690,10 +1709,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1008"/>
+  <dimension ref="A1:F1009"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1958,7 +1977,7 @@
       <c r="C13" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -2030,13 +2049,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>51</v>
@@ -2044,7 +2063,7 @@
       <c r="E17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2056,7 +2075,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>54</v>
@@ -2076,7 +2095,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>57</v>
@@ -2084,7 +2103,7 @@
       <c r="E19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2104,7 +2123,7 @@
       <c r="E20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2113,19 +2132,19 @@
         <v>2022</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2139,13 +2158,13 @@
         <v>8</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2156,16 +2175,16 @@
         <v>11</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2179,13 +2198,13 @@
         <v>29</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2196,16 +2215,16 @@
         <v>11</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2216,16 +2235,16 @@
         <v>11</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2239,12 +2258,12 @@
         <v>15</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2253,19 +2272,19 @@
         <v>2022</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2279,13 +2298,13 @@
         <v>4</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2296,16 +2315,16 @@
         <v>10</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2319,12 +2338,12 @@
         <v>25</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2336,16 +2355,16 @@
         <v>10</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2359,13 +2378,13 @@
         <v>18</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2379,13 +2398,13 @@
         <v>18</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2399,13 +2418,13 @@
         <v>18</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2416,16 +2435,16 @@
         <v>10</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2439,13 +2458,13 @@
         <v>11</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2453,19 +2472,19 @@
         <v>2022</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2479,13 +2498,13 @@
         <v>20</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2496,16 +2515,16 @@
         <v>9</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2519,13 +2538,13 @@
         <v>13</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2533,19 +2552,19 @@
         <v>2022</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2556,16 +2575,16 @@
         <v>6</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="F43" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2579,13 +2598,13 @@
         <v>28</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2596,16 +2615,16 @@
         <v>6</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2613,19 +2632,19 @@
         <v>2022</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2636,16 +2655,16 @@
         <v>5</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2656,10 +2675,10 @@
         <v>5</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>142</v>
@@ -2673,19 +2692,19 @@
         <v>2022</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D49" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2696,16 +2715,16 @@
         <v>4</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="F50" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2716,16 +2735,16 @@
         <v>4</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2733,19 +2752,19 @@
         <v>2022</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2756,16 +2775,16 @@
         <v>3</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="F53" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2779,13 +2798,13 @@
         <v>22</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="F54" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2796,16 +2815,16 @@
         <v>3</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D55" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="F55" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2816,16 +2835,16 @@
         <v>3</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="F56" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2833,19 +2852,19 @@
         <v>2022</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D57" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="F57" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2856,16 +2875,16 @@
         <v>2</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D58" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="F58" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2873,19 +2892,19 @@
         <v>2022</v>
       </c>
       <c r="B59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C59" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C59" s="2" t="n">
-        <v>25</v>
-      </c>
       <c r="D59" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="F59" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2896,16 +2915,16 @@
         <v>1</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D60" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="F60" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2916,10 +2935,10 @@
         <v>1</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>180</v>
@@ -2930,22 +2949,22 @@
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="F62" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2956,10 +2975,10 @@
         <v>12</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>185</v>
@@ -2976,16 +2995,16 @@
         <v>12</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D64" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="F64" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2993,13 +3012,13 @@
         <v>2021</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>190</v>
@@ -3016,16 +3035,16 @@
         <v>11</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D66" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="F66" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3036,16 +3055,16 @@
         <v>11</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D67" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="F67" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3056,16 +3075,16 @@
         <v>11</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D68" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="F68" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3073,19 +3092,19 @@
         <v>2021</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D69" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="F69" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3096,16 +3115,16 @@
         <v>10</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D70" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="F70" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3116,16 +3135,16 @@
         <v>10</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D71" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="F71" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3133,19 +3152,19 @@
         <v>2021</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D72" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="F72" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3156,16 +3175,16 @@
         <v>9</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D73" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="F73" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3176,16 +3195,16 @@
         <v>9</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D74" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="F74" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3196,16 +3215,16 @@
         <v>9</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D75" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="F75" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3213,13 +3232,13 @@
         <v>2021</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>222</v>
@@ -3236,16 +3255,16 @@
         <v>6</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D77" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="F77" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3259,12 +3278,12 @@
         <v>15</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>97</v>
+        <v>226</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F78" s="3" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3276,16 +3295,16 @@
         <v>6</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="F79" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3293,19 +3312,19 @@
         <v>2021</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D80" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="F80" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3316,16 +3335,16 @@
         <v>5</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D81" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="F81" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3336,15 +3355,15 @@
         <v>5</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>130</v>
+        <v>237</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F82" s="2" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3359,13 +3378,13 @@
         <v>11</v>
       </c>
       <c r="D83" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="F83" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3373,19 +3392,19 @@
         <v>2021</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D84" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="F84" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3396,16 +3415,16 @@
         <v>4</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D85" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="F85" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3416,10 +3435,10 @@
         <v>4</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>249</v>
@@ -3433,19 +3452,19 @@
         <v>2021</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D87" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="F87" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3456,16 +3475,16 @@
         <v>3</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D88" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="F88" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3479,13 +3498,13 @@
         <v>4</v>
       </c>
       <c r="D89" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="F89" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3496,16 +3515,16 @@
         <v>3</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D90" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="F90" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3516,16 +3535,16 @@
         <v>3</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D91" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="F91" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3536,16 +3555,16 @@
         <v>3</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D92" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="F92" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3559,13 +3578,13 @@
         <v>2</v>
       </c>
       <c r="D93" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="F93" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3579,13 +3598,13 @@
         <v>2</v>
       </c>
       <c r="D94" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="F94" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3596,16 +3615,16 @@
         <v>3</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D95" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3613,19 +3632,19 @@
         <v>2021</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D96" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="F96" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3636,16 +3655,16 @@
         <v>2</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="F97" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3656,10 +3675,10 @@
         <v>2</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>86</v>
+        <v>2</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>283</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>284</v>
@@ -3673,19 +3692,19 @@
         <v>2021</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D99" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3696,16 +3715,16 @@
         <v>1</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D100" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="F100" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3716,16 +3735,16 @@
         <v>1</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3738,34 +3757,34 @@
       <c r="C102" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E102" s="3" t="s">
+      <c r="D102" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="F102" s="3" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B103" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C103" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3776,16 +3795,16 @@
         <v>12</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3796,16 +3815,16 @@
         <v>12</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3816,16 +3835,16 @@
         <v>12</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3833,19 +3852,19 @@
         <v>2020</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="F107" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3856,16 +3875,16 @@
         <v>11</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="F108" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3876,16 +3895,16 @@
         <v>11</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="F109" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3893,19 +3912,19 @@
         <v>2020</v>
       </c>
       <c r="B110" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C110" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C110" s="2" t="n">
-        <v>6</v>
-      </c>
       <c r="D110" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="F110" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3916,16 +3935,16 @@
         <v>10</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3936,16 +3955,16 @@
         <v>10</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="F112" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3956,10 +3975,10 @@
         <v>10</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>207</v>
+        <v>326</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>327</v>
@@ -3973,13 +3992,13 @@
         <v>2020</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>329</v>
@@ -3996,10 +4015,10 @@
         <v>9</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>97</v>
+        <v>277</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>331</v>
@@ -4016,16 +4035,16 @@
         <v>9</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="F116" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4036,16 +4055,16 @@
         <v>9</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="F117" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4053,19 +4072,19 @@
         <v>2020</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="F118" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4076,16 +4095,16 @@
         <v>6</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4096,16 +4115,16 @@
         <v>6</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="F120" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4116,16 +4135,16 @@
         <v>6</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="F121" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4136,16 +4155,16 @@
         <v>6</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="F122" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4153,13 +4172,13 @@
         <v>2020</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>18</v>
+        <v>353</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>354</v>
@@ -4176,16 +4195,16 @@
         <v>5</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="F124" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4196,16 +4215,16 @@
         <v>5</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="F125" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4213,19 +4232,19 @@
         <v>2020</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="F126" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4236,16 +4255,16 @@
         <v>4</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="F127" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4256,16 +4275,16 @@
         <v>4</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="F128" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4276,10 +4295,10 @@
         <v>4</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>275</v>
+        <v>370</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>371</v>
@@ -4293,19 +4312,19 @@
         <v>2020</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="F130" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4316,16 +4335,16 @@
         <v>3</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="F131" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4336,10 +4355,10 @@
         <v>3</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>130</v>
+        <v>378</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>379</v>
@@ -4356,15 +4375,15 @@
         <v>3</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="F133" s="3" t="s">
+      <c r="F133" s="2" t="s">
         <v>382</v>
       </c>
     </row>
@@ -4378,13 +4397,13 @@
       <c r="C134" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D134" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="E134" s="3" t="s">
+      <c r="D134" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F134" s="2" t="s">
+      <c r="F134" s="3" t="s">
         <v>384</v>
       </c>
     </row>
@@ -4396,16 +4415,16 @@
         <v>3</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E135" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="F135" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4413,19 +4432,19 @@
         <v>2020</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="F136" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4436,16 +4455,16 @@
         <v>2</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="F137" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4456,16 +4475,16 @@
         <v>2</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="F138" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4476,16 +4495,16 @@
         <v>2</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="F139" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4493,19 +4512,19 @@
         <v>2020</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="F140" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4516,16 +4535,16 @@
         <v>1</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="F141" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4536,10 +4555,10 @@
         <v>1</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>18</v>
+        <v>405</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>406</v>
@@ -4550,21 +4569,21 @@
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="F143" s="3" t="s">
+      <c r="F143" s="2" t="s">
         <v>409</v>
       </c>
     </row>
@@ -4578,14 +4597,14 @@
       <c r="C144" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="F144" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4596,16 +4615,16 @@
         <v>12</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D145" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E145" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="F145" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4616,16 +4635,16 @@
         <v>12</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="F146" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4636,16 +4655,16 @@
         <v>12</v>
       </c>
       <c r="C147" s="2" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="F147" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4653,18 +4672,18 @@
         <v>2019</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C148" s="2" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>321</v>
+        <v>421</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F148" s="3" t="s">
+      <c r="F148" s="2" t="s">
         <v>423</v>
       </c>
     </row>
@@ -4678,14 +4697,14 @@
       <c r="C149" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="E149" s="3" t="s">
+      <c r="F149" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4696,16 +4715,16 @@
         <v>11</v>
       </c>
       <c r="C150" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D150" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E150" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="F150" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4716,10 +4735,10 @@
         <v>11</v>
       </c>
       <c r="C151" s="2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>275</v>
+        <v>429</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>430</v>
@@ -4733,19 +4752,19 @@
         <v>2019</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C152" s="2" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="F152" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4756,16 +4775,16 @@
         <v>10</v>
       </c>
       <c r="C153" s="2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="F153" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4776,16 +4795,16 @@
         <v>10</v>
       </c>
       <c r="C154" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D154" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="F154" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4796,16 +4815,16 @@
         <v>10</v>
       </c>
       <c r="C155" s="2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="F155" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4813,19 +4832,19 @@
         <v>2019</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C156" s="2" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D156" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="F156" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4838,14 +4857,14 @@
       <c r="C157" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D157" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="F157" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4856,16 +4875,16 @@
         <v>9</v>
       </c>
       <c r="C158" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D158" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E158" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="F158" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4873,19 +4892,19 @@
         <v>2019</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C159" s="2" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="F159" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4896,10 +4915,10 @@
         <v>6</v>
       </c>
       <c r="C160" s="2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>456</v>
@@ -4913,13 +4932,13 @@
         <v>2019</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C161" s="2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>97</v>
+        <v>449</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>458</v>
@@ -4936,10 +4955,10 @@
         <v>2</v>
       </c>
       <c r="C162" s="2" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>460</v>
@@ -4956,16 +4975,16 @@
         <v>2</v>
       </c>
       <c r="C163" s="2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D163" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="F163" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4973,13 +4992,13 @@
         <v>2019</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C164" s="2" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>324</v>
+        <v>464</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>465</v>
@@ -4996,16 +5015,16 @@
         <v>1</v>
       </c>
       <c r="C165" s="2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D165" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="F165" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5016,36 +5035,36 @@
         <v>1</v>
       </c>
       <c r="C166" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D166" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="F166" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C167" s="2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D167" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="E167" s="2" t="s">
+      <c r="F167" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5053,19 +5072,19 @@
         <v>2018</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C168" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D168" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="F168" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5076,10 +5095,10 @@
         <v>11</v>
       </c>
       <c r="C169" s="2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>321</v>
+        <v>478</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>479</v>
@@ -5093,19 +5112,19 @@
         <v>2018</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C170" s="2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D170" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="F170" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5116,10 +5135,10 @@
         <v>10</v>
       </c>
       <c r="C171" s="2" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>18</v>
+        <v>483</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>484</v>
@@ -5130,22 +5149,22 @@
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C172" s="2" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D172" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="F172" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5156,16 +5175,16 @@
         <v>11</v>
       </c>
       <c r="C173" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D173" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="F173" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5176,16 +5195,16 @@
         <v>11</v>
       </c>
       <c r="C174" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D174" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="F174" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5193,19 +5212,19 @@
         <v>2017</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C175" s="2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D175" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="E175" s="2" t="s">
+      <c r="F175" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5216,16 +5235,16 @@
         <v>10</v>
       </c>
       <c r="C176" s="2" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="E176" s="2" t="s">
+      <c r="F176" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5236,16 +5255,16 @@
         <v>10</v>
       </c>
       <c r="C177" s="2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D177" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="F177" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5256,16 +5275,16 @@
         <v>10</v>
       </c>
       <c r="C178" s="2" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D178" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="E178" s="2" t="s">
+      <c r="F178" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5273,19 +5292,19 @@
         <v>2017</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C179" s="2" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D179" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="E179" s="2" t="s">
+      <c r="F179" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5296,19 +5315,38 @@
         <v>9</v>
       </c>
       <c r="C180" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A181" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C181" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="F180" s="2" t="s">
+      <c r="D181" s="2" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="E181" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6136,6 +6174,7 @@
     <row r="1006" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1007" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1008" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1009" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="521">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -38,6 +38,24 @@
   </si>
   <si>
     <t xml:space="preserve">abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ekaterina Voloshina (AIRI), Anastasia Cheveleva (AIRI, HSE), Viktoria Knyazkova (HSE), Vitaly Protasov (AIRI), Tatiana Shavrina (AIRI), Oleg Serikov (AIRI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climbing the WALS: Typological Case Studies in LLMs Probing Using Syntactic Probing Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theoretical discourse on language predominantly revolves around the hierarchical arrangement of language, which encompasses phonetics, morphology, syntax, and semantics. Although knowledge of language structure is integral in evaluating the accuracy and comprehension of language models, the emphasis on syntax in interpretation methods is insufficient. In this study, we introduce a framework to conduct syntactic probing across various languages and large language models.   Drawing data from the World Atlas of Language Structures (WALS) and Universal Dependencies (UD), we compile a linguistically diverse set of languages and investigate mBERT multilingual language model for its capacity to encode syntactic information in relation to word order and relative clauses. In order to do so we make use of a novel syntactic querying interface allowing to gather data from UD collection.  Our findings support the notion that mBERT exhibits a gap in recognizing syntax and a tendency to favour Standard Average European (SAE) languages when intersecting with existing diverse datasets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuri Koryakov (HSE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language diversity in Daghestan and beyond. How many languages are spoken there?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It has long been known that the Caucasus is a mountain of languages, and Dagestan then was its peak. But how many languages are actually spoken in Dagestan and how can we count them? In the talk, I will tell about  the project to compile a list of languages of Russia and the principles  that underlie it. And also about the application of these criteria for the languages of Dagestan and the difficulties that arise in this case.  The main algorithm that we use to decide whether a given lect is a separate language includes the following criteria: tradition; mutual  intelligibility, lexical distance; written tradition, linguistic and/or ethnic identity. However, in Dagestan, the only region of Russia,  additional difficulties arose due to the position of some local scholars.</t>
   </si>
   <si>
     <t xml:space="preserve">Yury Lander, Ksenia Romanova (HSE)</t>
@@ -1574,7 +1592,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1608,11 +1626,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1663,7 +1676,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1680,15 +1693,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1709,10 +1718,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1009"/>
+  <dimension ref="A1:F1011"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1755,7 +1764,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -1775,7 +1784,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -1795,7 +1804,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -1815,7 +1824,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -1835,12 +1844,12 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1852,10 +1861,10 @@
         <v>2023</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
@@ -1872,15 +1881,15 @@
         <v>2023</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1895,7 +1904,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>27</v>
@@ -1915,15 +1924,15 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1935,12 +1944,12 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1952,10 +1961,10 @@
         <v>2023</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>36</v>
@@ -1972,12 +1981,12 @@
         <v>2023</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1995,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>42</v>
@@ -2015,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>45</v>
@@ -2035,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>48</v>
@@ -2043,7 +2052,7 @@
       <c r="E16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2055,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>51</v>
@@ -2063,19 +2072,19 @@
       <c r="E17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>54</v>
@@ -2089,13 +2098,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>57</v>
@@ -2103,7 +2112,7 @@
       <c r="E19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2115,7 +2124,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>60</v>
@@ -2123,7 +2132,7 @@
       <c r="E20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2135,16 +2144,16 @@
         <v>12</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2152,19 +2161,19 @@
         <v>2022</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2172,13 +2181,13 @@
         <v>2022</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>69</v>
@@ -2195,7 +2204,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>71</v>
@@ -2215,7 +2224,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>74</v>
@@ -2235,7 +2244,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>77</v>
@@ -2243,7 +2252,7 @@
       <c r="E26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2255,7 +2264,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>80</v>
@@ -2263,7 +2272,7 @@
       <c r="E27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2275,16 +2284,16 @@
         <v>11</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2292,19 +2301,19 @@
         <v>2022</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2312,13 +2321,13 @@
         <v>2022</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>89</v>
@@ -2335,7 +2344,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>91</v>
@@ -2355,16 +2364,16 @@
         <v>10</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2375,16 +2384,16 @@
         <v>10</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2395,15 +2404,15 @@
         <v>10</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2455,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>108</v>
@@ -2475,7 +2484,7 @@
         <v>10</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>111</v>
@@ -2483,7 +2492,7 @@
       <c r="E38" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="3" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2492,10 +2501,10 @@
         <v>2022</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>114</v>
@@ -2512,10 +2521,10 @@
         <v>2022</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>117</v>
@@ -2535,7 +2544,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>120</v>
@@ -2555,7 +2564,7 @@
         <v>9</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>123</v>
@@ -2572,10 +2581,10 @@
         <v>2022</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>126</v>
@@ -2583,7 +2592,7 @@
       <c r="E43" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="3" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2592,10 +2601,10 @@
         <v>2022</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>129</v>
@@ -2603,7 +2612,7 @@
       <c r="E44" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2615,7 +2624,7 @@
         <v>6</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>132</v>
@@ -2635,7 +2644,7 @@
         <v>6</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>135</v>
@@ -2643,7 +2652,7 @@
       <c r="E46" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="3" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2652,10 +2661,10 @@
         <v>2022</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>138</v>
@@ -2672,10 +2681,10 @@
         <v>2022</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>141</v>
@@ -2695,16 +2704,16 @@
         <v>5</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2712,19 +2721,19 @@
         <v>2022</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2732,13 +2741,13 @@
         <v>2022</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>150</v>
@@ -2755,7 +2764,7 @@
         <v>4</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>152</v>
@@ -2772,10 +2781,10 @@
         <v>2022</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>155</v>
@@ -2792,10 +2801,10 @@
         <v>2022</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>158</v>
@@ -2803,7 +2812,7 @@
       <c r="E54" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="2" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2815,7 +2824,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>161</v>
@@ -2835,7 +2844,7 @@
         <v>3</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>164</v>
@@ -2843,7 +2852,7 @@
       <c r="E56" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="3" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2855,7 +2864,7 @@
         <v>3</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>167</v>
@@ -2872,10 +2881,10 @@
         <v>2022</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>170</v>
@@ -2892,7 +2901,7 @@
         <v>2022</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1</v>
@@ -2912,10 +2921,10 @@
         <v>2022</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>176</v>
@@ -2932,10 +2941,10 @@
         <v>2022</v>
       </c>
       <c r="B61" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C61" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="C61" s="2" t="n">
-        <v>18</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>179</v>
@@ -2955,56 +2964,56 @@
         <v>1</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3015,16 +3024,16 @@
         <v>12</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3032,19 +3041,19 @@
         <v>2021</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3052,19 +3061,19 @@
         <v>2021</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3075,10 +3084,10 @@
         <v>11</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>198</v>
@@ -3095,7 +3104,7 @@
         <v>11</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>200</v>
@@ -3112,10 +3121,10 @@
         <v>2021</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>203</v>
@@ -3132,10 +3141,10 @@
         <v>2021</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>206</v>
@@ -3155,7 +3164,7 @@
         <v>10</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>209</v>
@@ -3172,10 +3181,10 @@
         <v>2021</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>212</v>
@@ -3192,10 +3201,10 @@
         <v>2021</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>215</v>
@@ -3215,7 +3224,7 @@
         <v>9</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>218</v>
@@ -3235,7 +3244,7 @@
         <v>9</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>221</v>
@@ -3252,19 +3261,19 @@
         <v>2021</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3272,19 +3281,19 @@
         <v>2021</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F78" s="3" t="s">
         <v>228</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3295,16 +3304,16 @@
         <v>6</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>99</v>
+        <v>206</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3315,16 +3324,16 @@
         <v>6</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F80" s="2" t="s">
         <v>233</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3332,13 +3341,13 @@
         <v>2021</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>234</v>
+        <v>105</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>235</v>
@@ -3352,10 +3361,10 @@
         <v>2021</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>237</v>
@@ -3375,16 +3384,16 @@
         <v>5</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>132</v>
+        <v>240</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="F83" s="3" t="s">
         <v>241</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3395,16 +3404,16 @@
         <v>5</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3412,18 +3421,18 @@
         <v>2021</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>245</v>
+        <v>138</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="F85" s="3" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3432,10 +3441,10 @@
         <v>2021</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>248</v>
@@ -3455,16 +3464,16 @@
         <v>4</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3472,19 +3481,19 @@
         <v>2021</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3492,18 +3501,18 @@
         <v>2021</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F89" s="2" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3515,7 +3524,7 @@
         <v>3</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>259</v>
@@ -3535,7 +3544,7 @@
         <v>3</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>262</v>
@@ -3543,7 +3552,7 @@
       <c r="E91" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="F91" s="3" t="s">
         <v>264</v>
       </c>
     </row>
@@ -3555,7 +3564,7 @@
         <v>3</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>265</v>
@@ -3575,7 +3584,7 @@
         <v>3</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>268</v>
@@ -3583,7 +3592,7 @@
       <c r="E93" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="F93" s="2" t="s">
         <v>270</v>
       </c>
     </row>
@@ -3595,7 +3604,7 @@
         <v>3</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>271</v>
@@ -3603,7 +3612,7 @@
       <c r="E94" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F94" s="2" t="s">
         <v>273</v>
       </c>
     </row>
@@ -3623,7 +3632,7 @@
       <c r="E95" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="F95" s="3" t="s">
         <v>276</v>
       </c>
     </row>
@@ -3635,15 +3644,15 @@
         <v>3</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D96" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="F96" s="3" t="s">
         <v>279</v>
       </c>
     </row>
@@ -3652,15 +3661,15 @@
         <v>2021</v>
       </c>
       <c r="B97" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C97" s="2" t="n">
         <v>2</v>
-      </c>
-      <c r="C97" s="2" t="n">
-        <v>9</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" s="3" t="s">
         <v>281</v>
       </c>
       <c r="F97" s="2" t="s">
@@ -3672,12 +3681,12 @@
         <v>2021</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D98" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E98" s="2" t="s">
@@ -3695,16 +3704,16 @@
         <v>2</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>88</v>
+        <v>286</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3712,19 +3721,19 @@
         <v>2021</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>288</v>
+        <v>2</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3732,15 +3741,15 @@
         <v>2021</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E101" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>292</v>
       </c>
       <c r="F101" s="2" t="s">
@@ -3755,15 +3764,15 @@
         <v>1</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102" s="5" t="s">
         <v>294</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="F102" s="2" t="s">
         <v>296</v>
       </c>
     </row>
@@ -3775,52 +3784,52 @@
         <v>1</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>111</v>
+        <v>297</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B104" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C104" s="2" t="n">
-        <v>8</v>
-      </c>
       <c r="D104" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F104" s="2" t="s">
         <v>301</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B105" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C105" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E105" s="2" t="s">
+      <c r="D105" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>303</v>
       </c>
       <c r="F105" s="2" t="s">
@@ -3835,7 +3844,7 @@
         <v>12</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>305</v>
@@ -3855,7 +3864,7 @@
         <v>12</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>308</v>
@@ -3872,10 +3881,10 @@
         <v>2020</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>311</v>
@@ -3892,10 +3901,10 @@
         <v>2020</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>314</v>
@@ -3915,7 +3924,7 @@
         <v>11</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>317</v>
@@ -3932,10 +3941,10 @@
         <v>2020</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>320</v>
@@ -3952,10 +3961,10 @@
         <v>2020</v>
       </c>
       <c r="B112" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C112" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="C112" s="2" t="n">
-        <v>27</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>323</v>
@@ -3975,7 +3984,7 @@
         <v>10</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>326</v>
@@ -3995,16 +4004,16 @@
         <v>10</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>209</v>
+        <v>329</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4012,19 +4021,19 @@
         <v>2020</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>277</v>
+        <v>332</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4032,19 +4041,19 @@
         <v>2020</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4055,16 +4064,16 @@
         <v>9</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>335</v>
+        <v>283</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4075,10 +4084,10 @@
         <v>9</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>338</v>
+        <v>105</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>339</v>
@@ -4092,10 +4101,10 @@
         <v>2020</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>341</v>
@@ -4112,10 +4121,10 @@
         <v>2020</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>344</v>
@@ -4135,7 +4144,7 @@
         <v>6</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>347</v>
@@ -4155,7 +4164,7 @@
         <v>6</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>350</v>
@@ -4175,7 +4184,7 @@
         <v>6</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>353</v>
@@ -4192,19 +4201,19 @@
         <v>2020</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>18</v>
+        <v>356</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4212,19 +4221,19 @@
         <v>2020</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4235,10 +4244,10 @@
         <v>5</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>362</v>
@@ -4252,10 +4261,10 @@
         <v>2020</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>364</v>
@@ -4272,10 +4281,10 @@
         <v>2020</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>367</v>
@@ -4295,7 +4304,7 @@
         <v>4</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>370</v>
@@ -4315,16 +4324,16 @@
         <v>4</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>277</v>
+        <v>373</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4332,19 +4341,19 @@
         <v>2020</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4352,13 +4361,13 @@
         <v>2020</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>378</v>
+        <v>283</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>379</v>
@@ -4375,16 +4384,16 @@
         <v>3</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>132</v>
+        <v>381</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4395,16 +4404,16 @@
         <v>3</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>111</v>
+        <v>384</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4415,16 +4424,16 @@
         <v>3</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>385</v>
+        <v>24</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4435,16 +4444,16 @@
         <v>3</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>387</v>
+        <v>117</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F136" s="2" t="s">
         <v>389</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4452,15 +4461,15 @@
         <v>2020</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E137" s="3" t="s">
         <v>391</v>
       </c>
       <c r="F137" s="2" t="s">
@@ -4472,10 +4481,10 @@
         <v>2020</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>393</v>
@@ -4495,7 +4504,7 @@
         <v>2</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>396</v>
@@ -4515,7 +4524,7 @@
         <v>2</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>399</v>
@@ -4532,10 +4541,10 @@
         <v>2020</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>402</v>
@@ -4552,10 +4561,10 @@
         <v>2020</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>405</v>
@@ -4575,56 +4584,56 @@
         <v>1</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>18</v>
+        <v>408</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>111</v>
+        <v>411</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>413</v>
+        <v>14</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4635,15 +4644,15 @@
         <v>12</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>415</v>
+        <v>117</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="F146" s="2" t="s">
+      <c r="F146" s="3" t="s">
         <v>417</v>
       </c>
     </row>
@@ -4655,12 +4664,12 @@
         <v>12</v>
       </c>
       <c r="C147" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D147" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D147" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E147" s="3" t="s">
         <v>419</v>
       </c>
       <c r="F147" s="2" t="s">
@@ -4675,7 +4684,7 @@
         <v>12</v>
       </c>
       <c r="C148" s="2" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>421</v>
@@ -4692,19 +4701,19 @@
         <v>2019</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C149" s="2" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>323</v>
+        <v>424</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="F149" s="3" t="s">
         <v>425</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4712,19 +4721,19 @@
         <v>2019</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C150" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="E150" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>427</v>
       </c>
+      <c r="E150" s="2" t="s">
+        <v>428</v>
+      </c>
       <c r="F150" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4735,15 +4744,15 @@
         <v>11</v>
       </c>
       <c r="C151" s="2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>429</v>
+        <v>329</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="F151" s="2" t="s">
+      <c r="F151" s="3" t="s">
         <v>431</v>
       </c>
     </row>
@@ -4755,16 +4764,16 @@
         <v>11</v>
       </c>
       <c r="C152" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E152" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D152" s="3" t="s">
         <v>432</v>
       </c>
+      <c r="E152" s="3" t="s">
+        <v>433</v>
+      </c>
       <c r="F152" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4772,19 +4781,19 @@
         <v>2019</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C153" s="2" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4792,13 +4801,13 @@
         <v>2019</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C154" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>437</v>
+        <v>283</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>438</v>
@@ -4815,7 +4824,7 @@
         <v>10</v>
       </c>
       <c r="C155" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>440</v>
@@ -4835,7 +4844,7 @@
         <v>10</v>
       </c>
       <c r="C156" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>443</v>
@@ -4852,10 +4861,10 @@
         <v>2019</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C157" s="2" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>446</v>
@@ -4863,7 +4872,7 @@
       <c r="E157" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F157" s="3" t="s">
+      <c r="F157" s="2" t="s">
         <v>448</v>
       </c>
     </row>
@@ -4872,15 +4881,15 @@
         <v>2019</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C158" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D158" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="E158" s="2" t="s">
         <v>450</v>
       </c>
       <c r="F158" s="2" t="s">
@@ -4895,7 +4904,7 @@
         <v>9</v>
       </c>
       <c r="C159" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>452</v>
@@ -4903,7 +4912,7 @@
       <c r="E159" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F159" s="2" t="s">
+      <c r="F159" s="3" t="s">
         <v>454</v>
       </c>
     </row>
@@ -4912,15 +4921,15 @@
         <v>2019</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C160" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D160" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D160" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="E160" s="3" t="s">
         <v>456</v>
       </c>
       <c r="F160" s="2" t="s">
@@ -4932,19 +4941,19 @@
         <v>2019</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C161" s="2" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4952,19 +4961,19 @@
         <v>2019</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C162" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>99</v>
+        <v>461</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4972,19 +4981,19 @@
         <v>2019</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C163" s="2" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>200</v>
+        <v>455</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4995,16 +5004,16 @@
         <v>2</v>
       </c>
       <c r="C164" s="2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>464</v>
+        <v>105</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5012,19 +5021,19 @@
         <v>2019</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C165" s="2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>326</v>
+        <v>206</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5032,19 +5041,19 @@
         <v>2019</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C166" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5055,10 +5064,10 @@
         <v>1</v>
       </c>
       <c r="C167" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>472</v>
+        <v>332</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>473</v>
@@ -5069,13 +5078,13 @@
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C168" s="2" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>475</v>
@@ -5089,13 +5098,13 @@
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C169" s="2" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>478</v>
@@ -5112,19 +5121,19 @@
         <v>2018</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C170" s="2" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>323</v>
+        <v>481</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5132,19 +5141,19 @@
         <v>2018</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C171" s="2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5152,53 +5161,53 @@
         <v>2018</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C172" s="2" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>18</v>
+        <v>329</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C173" s="2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C174" s="2" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>491</v>
+        <v>24</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>492</v>
@@ -5215,7 +5224,7 @@
         <v>11</v>
       </c>
       <c r="C175" s="2" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>494</v>
@@ -5232,10 +5241,10 @@
         <v>2017</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C176" s="2" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>497</v>
@@ -5252,10 +5261,10 @@
         <v>2017</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C177" s="2" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>500</v>
@@ -5275,7 +5284,7 @@
         <v>10</v>
       </c>
       <c r="C178" s="2" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>503</v>
@@ -5295,7 +5304,7 @@
         <v>10</v>
       </c>
       <c r="C179" s="2" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>506</v>
@@ -5312,10 +5321,10 @@
         <v>2017</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C180" s="2" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>509</v>
@@ -5332,10 +5341,10 @@
         <v>2017</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C181" s="2" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>512</v>
@@ -5347,8 +5356,46 @@
         <v>514</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A182" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C182" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C183" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6175,10 +6222,12 @@
     <row r="1007" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1008" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1009" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1010" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1011" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="525">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -40,6 +40,32 @@
     <t xml:space="preserve">abstract</t>
   </si>
   <si>
+    <t xml:space="preserve">Michael Daniel (Collegium de Lyon / Laboratoire Dynamique du Langage) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Directionality is a key to understanding the part-of-speech typology in East Caucasian languages (and beyond)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starting from the 1990s to the present, functional typology has seen a lot of typological debates about (how to deal with) non-universality of part-of-speech inventories across languages (Croft 1990, Hengeveld 1992, and a survey in Bisang 2010). In these discussions, building part-of-speech typology is viewed as investigating the ways in which languages group words into classes so that the resulting classification is relevant to their morphosyntax. As morphosyntax of languages varies greatly, we can expect - and indeed observe - differences in their inventories of parts of speech. The discussions have been primarily focused on languages that show inventories that are reduced as compared to expectations (underspecified parts of speech in van Lier &amp; Rijkhoff 2013), such as lacking adjectives as a separate part of speech (Dixon 1977) or lacking major distinctions of parts of speech altogether; see re-assessment of the assumed “mergers” in Arkadiev et al (2009) for Adyghe, in Dixon and Aikhenvald (2006) for adjectives cross-linguistically, and Haspelmath (2012) for a general methodological stance. But there is more to such a variation than eventual mergers. In this talk, I am going to suggest a tentative re-interpretation of the morphosyntactic status of the category of directionality in East Caucasian. In the existing descriptive grammars, markers of directionality are usually viewed as cross-categorial markers that can be added to different classes of words. In the talk, I will draft a comprehensive inventory of the notional classes of stems that are involved in the derivation of directional forms; will show how this grouping is also relevant to syntax; and will ultimately argue that they all can be seen as belonging to one - and separate - part of speech, which I suggest to call spatials (or spatial words). 
+Bisang, Walter. 2010. Word Classes. In: Song, Jae Jung (ed.) The Oxford handbook of linguistic typology. Oxford: Oxford University Press.
+Croft, William. 1990. Typology and Universals. Cambridge: Cambridge University Press.
+Dixon, Robert W. 1977. Where have all the adjectives gone? Studies in Language. Vol. 1. No. 1. 19–80.
+Dixon, Robert W., and Alexandra Y. Aikhenvald. 2006. Adjective classes: a cross-linguistic typology. Oxford: Oxford University Press.
+Haspelmath, Martin. 2012. How to compare major word-classes across the world’s languages. UCLA Working Papers in Linguistics, Volume 17, Article 16: 109-130.
+Hengeveld, Kees. 1992. Parts of Speech. In: Non-verbal Predication: Theory, Typology, Diachrony. Berlin: Mouton de Gruyter.
+Rijkhoff, Jan, and Eva van Lier (eds.) 2013. Flexible word classes: Typological studies of underspecified parts of speech. Oxford: Oxford University Press.
+Vogel, Petra M., and Bernard Comrie (eds.) 2011. Approaches to the Typology of Word Classes. Berlin: Mouton de Gruyter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuprinko Kirill (HSE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andic dictionaries' examples database: state of affairs and possible applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this talk I present the current status of the Andic dictionaries' examples database. This database is a collection of linguistic examples with Russian translation provided within the entries of dictionaries presented in the Andic dictionary database (https://github.com/phon-dicts-project/comparative_andic_dictionary_database). In our vision it can be used as an addition to other corpus materials. I am going to discuss some difficulties that appeared at its creation, its current structure and content as well as prospects for improvement. Also, in order to show a possible way of application, I am going to discuss a possible way to investigate variation in Andic languages with this database.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ekaterina Voloshina (AIRI), Anastasia Cheveleva (AIRI, HSE), Viktoria Knyazkova (HSE), Vitaly Protasov (AIRI), Tatiana Shavrina (AIRI), Oleg Serikov (AIRI)</t>
   </si>
   <si>
@@ -253,18 +279,12 @@
     <t xml:space="preserve">This paper will focus on analysing user-related variation in Greek inEgypt as seen through potsherd letters (ostraka) of the residents of Roman forts,praesidia, in the Eastern Desert of Egypt. The letters can be dated to the ﬁrst andsecond centuries CE. I suggest that the linguistic situation in the forts can beseen as evidence of extensive language contact that was connected with theconsiderable economic activity of the Roman Empire. All military forts hadseveral L2 Greek speakers of various ethnicity. In what follows I will suggestthat Roman soldiers and their civil partners had created a system that can bedescribed as a feature pool of Greek variables. I suggest that the data from Egyptshow that L2 speakers of Greek had an effect on Greek at all grammatical levels,strengthening existing and ongoing endogenous changes by creating sub-stantial contact-induced variation in phonology as well as in morphosy-ntax and even phraseology. The intense language contact suggests, in myopinion, that language dynamics of this period follow the resilience theory,where various different phases of the adaptive cycle can be simultaneous, asalmost all possible varieties of Greek, from historical High Attic to MultiethnicGreek are in use.</t>
   </si>
   <si>
-    <t xml:space="preserve">A. Russkikh (HSE)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Functions of additive particle =lo in Zilo Andi (in the wake of the fieldtrip in September 2022)</t>
   </si>
   <si>
     <t xml:space="preserve">In this talk, I am going to discuss the results of my recent fieldtrip to the village of Zilo (Daghestan) aimed at researching the functions of the additive particle =lo in Zilo Andi (&lt; Andic &lt; Nakh-Daghestanian). In existing descriptions (Verhees 2019, Maisak 2021) for other Upper Andi varieties (predominantly of the villages of Andi, Gagatli and Rikvani), it is shown that besides typologically common functions of additive particles (such as additive, scalar additive, concessive, coordination, topic marking, part of indefinite pronouns), the particle =lo can be used as well in typologically less described contexts, such as constructions for collective numerals, converbal clauses, and as a part of the subordinating marker =lodːu and comitative marker -loj. The goal of this talk is to make a description of those contexts in which =lo is attested in Zilo Andi and to understand the semantic contribution of =lo in different functions. Special attention will be paid to the uses of =lo with universal quantifiers and different series of indefinite pronouns. I will also consider the semantics of =lo in combination with other components, especially with the emphatic (or also called antiadditive) particle =gu. Maisak, T. "Endoclitics in Andi" Folia Linguistica, vol. 55, no. 1, 2021, pp. 1-34. Verhees S. General converbs in Andi //Studies in Language. International Journal sponsored by the Foundation “Foundations of Language”, 2019. 43 (1). p. 195</t>
   </si>
   <si>
-    <t xml:space="preserve">S. Zemicheva (HSE)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reading Group: Larsson, Egbert, Biber (2022) On the status of statistical reporting versus linguistic description in corpus linguistics: a ten-year perspective</t>
   </si>
   <si>
@@ -592,7 +612,7 @@
     <t xml:space="preserve">Few sources deal with the origin of number agreement in the languages of the world. Apart from the theoretical work (Lehmann 1982), only several case studies have been published, among them (Frajzyngier 1997, Di Garbo 2020, Cruz 2015). The EC languages are numerous, and adjectival number agreement in EC seems to be morphologically and diachronically heterogeneous, which leads one to believe that it is innovative. This makes the EC languages suitable for investigating the origin of number agreement. However, no study of this kind has been undertaken yet. The goal of this study is to make a survey of number agreement patterns in EC, to assess the weight of genealogical and areal factors in the distribution of patterns and then try to describe paths by which adjectival plural agreement may have originated in the EC languages. I use the methodology adopted in the Typological Atlas of the Languages of Dagestan: So far, I searched in grammars of the EC languages and the neighboring languages (overall 65 idioms) to find out how adjectival plural agreement is expressed in each of them. I divided the languages into three types: obligatory / optional / absent plural agreement. For the optional type I established the factors that influence the presence of number agreement and plotted these types on maps.</t>
   </si>
   <si>
-    <t xml:space="preserve">A.Bonch-Osmolovskaya, E.Klyachko, S. Kosyak, L.Nesterenko, G.Moroz, O.Serikov, S.Toldova</t>
+    <t xml:space="preserve">Anastasiya Bonch-Osmolovskaya, Elena Klyachko, Sergey Kosyak, Lyuba Nesterenko, George Moroz, Oleg Serikov, SvetlanaToldova</t>
   </si>
   <si>
     <t xml:space="preserve">Field NLP and where to find it in the School of linguistics</t>
@@ -964,7 +984,7 @@
     <t xml:space="preserve">In this talk, I am going to discuss patterns of multifunctionality that are characteristic of non-finite forms in 50 languages of Northern Eurasia. Specifically, non-finite forms are investigated in terms of the inventory of functions each of them can perform when heading a subordinate clause: reference function (complement clauses), adnominal modification (relative clauses), and adverbial modification (adverbial clauses). The primary questions I will address are the following: (a) What patterns of multifunctionality in non-finites are most common and how are they distributed geographically across Northern Eurasia? (b) Do patterns of multifunctionality differ depending on how prominent non-finite subordination is in a language? (c) Are there any recurrent patterns involving specific constructions, and if yes, can we propose an explanation for their occurrence?</t>
   </si>
   <si>
-    <t xml:space="preserve">E.Rakhilina, T.Reznikova, D.Ryzhova</t>
+    <t xml:space="preserve">Ekaterina Rakhilina, Tatiana.Reznikova, Daria Ryzhova</t>
   </si>
   <si>
     <t xml:space="preserve">Lexical systems with systematic gaps: verbs of falling (E.Rakhilina, T.Reznikova, D.Ryzhova)</t>
@@ -1676,7 +1696,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1687,6 +1707,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1718,10 +1742,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1011"/>
+  <dimension ref="A1:F1013"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1761,10 +1785,10 @@
         <v>2023</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -1772,7 +1796,7 @@
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1781,10 +1805,10 @@
         <v>2023</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -1804,7 +1828,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -1824,7 +1848,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -1844,7 +1868,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -1864,7 +1888,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
@@ -1884,12 +1908,12 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1901,10 +1925,10 @@
         <v>2023</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>27</v>
@@ -1921,15 +1945,15 @@
         <v>2023</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1944,7 +1968,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>33</v>
@@ -1964,15 +1988,15 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1984,12 +2008,12 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -2001,18 +2025,18 @@
         <v>2023</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2021,15 +2045,15 @@
         <v>2023</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -2044,15 +2068,15 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2064,12 +2088,12 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -2084,15 +2108,15 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2104,32 +2128,32 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -2138,21 +2162,21 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2164,15 +2188,15 @@
         <v>12</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2184,16 +2208,16 @@
         <v>12</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="E23" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="F23" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2201,19 +2225,19 @@
         <v>2022</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>73</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2221,15 +2245,15 @@
         <v>2022</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>75</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -2244,15 +2268,15 @@
         <v>11</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="4" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2264,12 +2288,12 @@
         <v>11</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -2284,16 +2308,16 @@
         <v>11</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2304,16 +2328,16 @@
         <v>11</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2324,16 +2348,16 @@
         <v>11</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2341,19 +2365,19 @@
         <v>2022</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2361,19 +2385,19 @@
         <v>2022</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2384,16 +2408,16 @@
         <v>10</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2404,16 +2428,16 @@
         <v>10</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2424,16 +2448,16 @@
         <v>10</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2444,16 +2468,16 @@
         <v>10</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2466,14 +2490,14 @@
       <c r="C37" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2486,14 +2510,14 @@
       <c r="C38" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2504,16 +2528,16 @@
         <v>10</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2524,16 +2548,16 @@
         <v>10</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2541,19 +2565,19 @@
         <v>2022</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2561,19 +2585,19 @@
         <v>2022</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2584,16 +2608,16 @@
         <v>9</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2604,16 +2628,16 @@
         <v>9</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2621,19 +2645,19 @@
         <v>2022</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2641,19 +2665,19 @@
         <v>2022</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2664,16 +2688,16 @@
         <v>6</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2684,16 +2708,16 @@
         <v>6</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2701,19 +2725,19 @@
         <v>2022</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2721,19 +2745,19 @@
         <v>2022</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2744,16 +2768,16 @@
         <v>5</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2761,19 +2785,19 @@
         <v>2022</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2781,19 +2805,19 @@
         <v>2022</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2804,16 +2828,16 @@
         <v>4</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2821,19 +2845,19 @@
         <v>2022</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2841,19 +2865,19 @@
         <v>2022</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2864,16 +2888,16 @@
         <v>3</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2884,16 +2908,16 @@
         <v>3</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2904,16 +2928,16 @@
         <v>3</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2921,19 +2945,19 @@
         <v>2022</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2941,19 +2965,19 @@
         <v>2022</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2961,19 +2985,19 @@
         <v>2022</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D62" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2981,19 +3005,19 @@
         <v>2022</v>
       </c>
       <c r="B63" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C63" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3004,56 +3028,56 @@
         <v>1</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="F65" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3064,16 +3088,16 @@
         <v>12</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="F67" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3081,19 +3105,19 @@
         <v>2021</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3101,19 +3125,19 @@
         <v>2021</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="F69" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3124,16 +3148,16 @@
         <v>11</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3144,16 +3168,16 @@
         <v>11</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D71" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3161,19 +3185,19 @@
         <v>2021</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D72" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3181,19 +3205,19 @@
         <v>2021</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3204,16 +3228,16 @@
         <v>10</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3221,19 +3245,19 @@
         <v>2021</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D75" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3241,19 +3265,19 @@
         <v>2021</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3264,16 +3288,16 @@
         <v>9</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3284,16 +3308,16 @@
         <v>9</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D78" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3301,19 +3325,19 @@
         <v>2021</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E79" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3321,19 +3345,19 @@
         <v>2021</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="F80" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3344,16 +3368,16 @@
         <v>6</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3364,16 +3388,16 @@
         <v>6</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="F82" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3381,19 +3405,19 @@
         <v>2021</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3401,19 +3425,19 @@
         <v>2021</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D84" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3424,16 +3448,16 @@
         <v>5</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E85" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3444,16 +3468,16 @@
         <v>5</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D86" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="F86" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3461,19 +3485,19 @@
         <v>2021</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3481,19 +3505,19 @@
         <v>2021</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D88" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3504,16 +3528,16 @@
         <v>4</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E89" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3521,19 +3545,19 @@
         <v>2021</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D90" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="F90" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3541,19 +3565,19 @@
         <v>2021</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D91" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3564,16 +3588,16 @@
         <v>3</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3584,16 +3608,16 @@
         <v>3</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F93" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3604,16 +3628,16 @@
         <v>3</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3624,16 +3648,16 @@
         <v>3</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D95" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3644,16 +3668,16 @@
         <v>3</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D96" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3666,14 +3690,14 @@
       <c r="C97" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F97" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3684,16 +3708,16 @@
         <v>3</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D98" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F98" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3701,19 +3725,19 @@
         <v>2021</v>
       </c>
       <c r="B99" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C99" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C99" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3721,19 +3745,19 @@
         <v>2021</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D100" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3744,16 +3768,16 @@
         <v>2</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>94</v>
+        <v>9</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>290</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3761,19 +3785,19 @@
         <v>2021</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D102" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3781,19 +3805,19 @@
         <v>2021</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D103" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3804,16 +3828,16 @@
         <v>1</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3824,56 +3848,56 @@
         <v>1</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E105" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B106" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C106" s="2" t="n">
-        <v>8</v>
-      </c>
       <c r="D106" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="F106" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B107" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C107" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3884,16 +3908,16 @@
         <v>12</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3904,16 +3928,16 @@
         <v>12</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3921,19 +3945,19 @@
         <v>2020</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3941,19 +3965,19 @@
         <v>2020</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3964,16 +3988,16 @@
         <v>11</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3981,19 +4005,19 @@
         <v>2020</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4001,19 +4025,19 @@
         <v>2020</v>
       </c>
       <c r="B114" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C114" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C114" s="2" t="n">
-        <v>27</v>
-      </c>
       <c r="D114" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4024,16 +4048,16 @@
         <v>10</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4044,16 +4068,16 @@
         <v>10</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>215</v>
+        <v>333</v>
       </c>
       <c r="E116" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4061,13 +4085,13 @@
         <v>2020</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>283</v>
+        <v>336</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>337</v>
@@ -4081,13 +4105,13 @@
         <v>2020</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>339</v>
@@ -4104,16 +4128,16 @@
         <v>9</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4124,16 +4148,16 @@
         <v>9</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4141,19 +4165,19 @@
         <v>2020</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4161,19 +4185,19 @@
         <v>2020</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4184,16 +4208,16 @@
         <v>6</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4204,16 +4228,16 @@
         <v>6</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4224,16 +4248,16 @@
         <v>6</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4241,19 +4265,19 @@
         <v>2020</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="E126" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4261,19 +4285,19 @@
         <v>2020</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="F127" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4284,16 +4308,16 @@
         <v>5</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4301,19 +4325,19 @@
         <v>2020</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4321,19 +4345,19 @@
         <v>2020</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4344,16 +4368,16 @@
         <v>4</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4364,16 +4388,16 @@
         <v>4</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>283</v>
+        <v>377</v>
       </c>
       <c r="E132" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4381,19 +4405,19 @@
         <v>2020</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="F133" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4401,19 +4425,19 @@
         <v>2020</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4424,16 +4448,16 @@
         <v>3</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>138</v>
+        <v>385</v>
       </c>
       <c r="E135" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4444,15 +4468,15 @@
         <v>3</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>117</v>
+        <v>388</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="F136" s="3" t="s">
+      <c r="F136" s="2" t="s">
         <v>390</v>
       </c>
     </row>
@@ -4464,12 +4488,12 @@
         <v>3</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="E137" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>391</v>
       </c>
       <c r="F137" s="2" t="s">
@@ -4484,16 +4508,16 @@
         <v>3</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="F138" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4501,19 +4525,19 @@
         <v>2020</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4521,19 +4545,19 @@
         <v>2020</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4544,16 +4568,16 @@
         <v>2</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D141" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F141" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4564,16 +4588,16 @@
         <v>2</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F142" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4581,19 +4605,19 @@
         <v>2020</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4601,19 +4625,19 @@
         <v>2020</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F144" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4624,56 +4648,56 @@
         <v>1</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>24</v>
+        <v>412</v>
       </c>
       <c r="E145" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>117</v>
+        <v>415</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="F146" s="3" t="s">
+      <c r="F146" s="2" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C147" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D147" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="F147" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4684,16 +4708,16 @@
         <v>12</v>
       </c>
       <c r="C148" s="2" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F148" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4704,16 +4728,16 @@
         <v>12</v>
       </c>
       <c r="C149" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D149" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4724,16 +4748,16 @@
         <v>12</v>
       </c>
       <c r="C150" s="2" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4741,19 +4765,19 @@
         <v>2019</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C151" s="2" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>329</v>
+        <v>428</v>
       </c>
       <c r="E151" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4761,19 +4785,19 @@
         <v>2019</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C152" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D152" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="F152" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4784,16 +4808,16 @@
         <v>11</v>
       </c>
       <c r="C153" s="2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F153" s="4" t="s">
         <v>435</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4804,16 +4828,16 @@
         <v>11</v>
       </c>
       <c r="C154" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E154" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="F154" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4821,19 +4845,19 @@
         <v>2019</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C155" s="2" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="F155" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4841,19 +4865,19 @@
         <v>2019</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C156" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F156" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4864,16 +4888,16 @@
         <v>10</v>
       </c>
       <c r="C157" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D157" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4884,16 +4908,16 @@
         <v>10</v>
       </c>
       <c r="C158" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D158" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F158" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4901,19 +4925,19 @@
         <v>2019</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C159" s="2" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D159" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F159" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4921,19 +4945,19 @@
         <v>2019</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C160" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D160" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4944,16 +4968,16 @@
         <v>9</v>
       </c>
       <c r="C161" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D161" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F161" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4961,19 +4985,19 @@
         <v>2019</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C162" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D162" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="F162" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4981,19 +5005,19 @@
         <v>2019</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C163" s="2" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="E163" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F163" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5001,13 +5025,13 @@
         <v>2019</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C164" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>105</v>
+        <v>465</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>466</v>
@@ -5021,13 +5045,13 @@
         <v>2019</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C165" s="2" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>206</v>
+        <v>459</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>468</v>
@@ -5044,16 +5068,16 @@
         <v>2</v>
       </c>
       <c r="C166" s="2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D166" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="F166" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5061,19 +5085,19 @@
         <v>2019</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C167" s="2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>332</v>
+        <v>210</v>
       </c>
       <c r="E167" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F167" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5081,19 +5105,19 @@
         <v>2019</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C168" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="F168" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5104,56 +5128,56 @@
         <v>1</v>
       </c>
       <c r="C169" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D169" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F169" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C170" s="2" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D170" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F170" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C171" s="2" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D171" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F171" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5161,19 +5185,19 @@
         <v>2018</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C172" s="2" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>329</v>
+        <v>485</v>
       </c>
       <c r="E172" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F172" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5181,19 +5205,19 @@
         <v>2018</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C173" s="2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D173" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="F173" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5201,59 +5225,59 @@
         <v>2018</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C174" s="2" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>24</v>
+        <v>333</v>
       </c>
       <c r="E174" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F174" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C175" s="2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="E175" s="2" t="s">
+      <c r="F175" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C176" s="2" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F176" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5264,16 +5288,16 @@
         <v>11</v>
       </c>
       <c r="C177" s="2" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D177" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F177" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5281,19 +5305,19 @@
         <v>2017</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C178" s="2" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D178" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F178" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5301,19 +5325,19 @@
         <v>2017</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C179" s="2" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D179" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F179" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5324,16 +5348,16 @@
         <v>10</v>
       </c>
       <c r="C180" s="2" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D180" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F180" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5344,16 +5368,16 @@
         <v>10</v>
       </c>
       <c r="C181" s="2" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D181" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F181" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5361,19 +5385,19 @@
         <v>2017</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C182" s="2" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F182" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5381,23 +5405,61 @@
         <v>2017</v>
       </c>
       <c r="B183" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C183" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A184" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B184" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="C183" s="2" t="n">
+      <c r="C184" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A185" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C185" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="D183" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="D185" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6224,6 +6286,8 @@
     <row r="1009" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1010" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1011" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1012" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1013" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="531">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -38,6 +38,28 @@
   </si>
   <si>
     <t xml:space="preserve">abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timur Maisak (HSE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imperative interjections ‘here, take it!’ in Daghestan and beyond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many languages of the world possess a dedicated imperative interjection used by the speaker to ask the addressee to take something (from the speaker’s hands), e.g. ma in the example from Agul below. The Russian na, as in na, beri ‘here, take it!’ in another instance of the same imperative interjection type. In the talk, I will present the results of my study of ‘take!’-interjections in the languages of the Caucasus: the study is part of the Typological Atlas of the Languages of Daghestan (http://lingconlab.ru/dagatlas/), but the sample was slightly expanded. I will discuss the phonological form of ‘take!’-interjections, their morphosyntactic behavior and also their “extended” functions.
+Agul (&lt; Lezgic &lt; Nakh-Daghestanian)
+ma             čʷa-s              xibu        guni           p.u-na
+take.it        you.pl-dat   three       bread        say.pfv-cvb
+{I have three loafs of bread.} ‘Take these three loafs, – he said.’ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilya Sadakov (HSE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading Group: Dunn, M., &amp; Bellamy, K. (2023). Evolution and Spread of Politeness Systems in Indo‐European</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this paper, we investigate the phenomenon of pronominal politeness in the Indo-European languages and demonstrate that the processes of change of pronominal systems related to politeness follow two evolutionary regimes, one inside the ‘Standard Average European’ (SAE) linguistic area and another outside of it. Historical processes of language change differ at different levels of linguistic structure. In general, we presume that lower level, unconscious aspects of language change slowly over phylogenetic time, giving rise to patterns of relationship that can often be described as a family tree. Aspects of language that are consciously manipulated by speakers are expected to vary at a faster rate and to diffuse within areas of contact. Politeness is a social phenomenon, so we expect these systems to be highly susceptible to areal norms of interaction. We show that the similarities of SAE politeness systems can be accounted for with a model of convergence due to parallel evolution in a shared (social-demographic) environment, rather than by genealogical relatedness or borrowing. By quantifying and testing factors determining rates of structural change, we offer a novel and realistic approach that can explain similarities between distantly related languages sharing the same environment.</t>
   </si>
   <si>
     <t xml:space="preserve">Michael Daniel (Collegium de Lyon / Laboratoire Dynamique du Langage) </t>
@@ -1742,10 +1764,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1013"/>
+  <dimension ref="A1:F1015"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1788,7 +1810,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -1808,7 +1830,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -1825,10 +1847,10 @@
         <v>2023</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -1836,7 +1858,7 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1845,10 +1867,10 @@
         <v>2023</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -1868,7 +1890,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -1888,7 +1910,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
@@ -1908,7 +1930,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>24</v>
@@ -1928,7 +1950,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>27</v>
@@ -1948,12 +1970,12 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1965,10 +1987,10 @@
         <v>2023</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>33</v>
@@ -1985,15 +2007,15 @@
         <v>2023</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -2008,7 +2030,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
@@ -2028,15 +2050,15 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2048,12 +2070,12 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -2065,10 +2087,10 @@
         <v>2023</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>48</v>
@@ -2085,10 +2107,10 @@
         <v>2023</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>51</v>
@@ -2108,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>54</v>
@@ -2128,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>57</v>
@@ -2148,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>60</v>
@@ -2156,7 +2178,7 @@
       <c r="E20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2168,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>63</v>
@@ -2176,19 +2198,19 @@
       <c r="E21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>66</v>
@@ -2202,13 +2224,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>69</v>
@@ -2216,7 +2238,7 @@
       <c r="E23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2228,7 +2250,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>72</v>
@@ -2236,7 +2258,7 @@
       <c r="E24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2248,16 +2270,16 @@
         <v>12</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2265,19 +2287,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2285,13 +2307,13 @@
         <v>2022</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>81</v>
@@ -2308,16 +2330,16 @@
         <v>11</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2328,16 +2350,16 @@
         <v>11</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2348,16 +2370,16 @@
         <v>11</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="2" t="s">
         <v>89</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2368,15 +2390,15 @@
         <v>11</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2388,16 +2410,16 @@
         <v>11</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2405,19 +2427,19 @@
         <v>2022</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2425,13 +2447,13 @@
         <v>2022</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>99</v>
@@ -2448,7 +2470,7 @@
         <v>10</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>101</v>
@@ -2468,16 +2490,16 @@
         <v>10</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2488,16 +2510,16 @@
         <v>10</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2508,15 +2530,15 @@
         <v>10</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2568,7 +2590,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>118</v>
@@ -2588,7 +2610,7 @@
         <v>10</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>121</v>
@@ -2596,7 +2618,7 @@
       <c r="E42" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="4" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2605,10 +2627,10 @@
         <v>2022</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>124</v>
@@ -2625,10 +2647,10 @@
         <v>2022</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>127</v>
@@ -2648,7 +2670,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>130</v>
@@ -2668,7 +2690,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>133</v>
@@ -2685,10 +2707,10 @@
         <v>2022</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>136</v>
@@ -2696,7 +2718,7 @@
       <c r="E47" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="4" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2705,10 +2727,10 @@
         <v>2022</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>139</v>
@@ -2716,7 +2738,7 @@
       <c r="E48" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="2" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2728,7 +2750,7 @@
         <v>6</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>142</v>
@@ -2748,7 +2770,7 @@
         <v>6</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>145</v>
@@ -2756,7 +2778,7 @@
       <c r="E50" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="4" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2765,10 +2787,10 @@
         <v>2022</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>148</v>
@@ -2785,10 +2807,10 @@
         <v>2022</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>151</v>
@@ -2808,16 +2830,16 @@
         <v>5</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2825,19 +2847,19 @@
         <v>2022</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2845,13 +2867,13 @@
         <v>2022</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>160</v>
@@ -2868,7 +2890,7 @@
         <v>4</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>162</v>
@@ -2885,10 +2907,10 @@
         <v>2022</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>165</v>
@@ -2905,10 +2927,10 @@
         <v>2022</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>168</v>
@@ -2916,7 +2938,7 @@
       <c r="E58" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="2" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2928,7 +2950,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>171</v>
@@ -2948,7 +2970,7 @@
         <v>3</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>174</v>
@@ -2956,7 +2978,7 @@
       <c r="E60" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="4" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2968,7 +2990,7 @@
         <v>3</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>177</v>
@@ -2985,10 +3007,10 @@
         <v>2022</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>180</v>
@@ -3005,7 +3027,7 @@
         <v>2022</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1</v>
@@ -3025,10 +3047,10 @@
         <v>2022</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>186</v>
@@ -3045,10 +3067,10 @@
         <v>2022</v>
       </c>
       <c r="B65" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="C65" s="2" t="n">
-        <v>18</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>189</v>
@@ -3068,56 +3090,56 @@
         <v>1</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3128,16 +3150,16 @@
         <v>12</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3145,19 +3167,19 @@
         <v>2021</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3165,19 +3187,19 @@
         <v>2021</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3188,10 +3210,10 @@
         <v>11</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>208</v>
@@ -3208,7 +3230,7 @@
         <v>11</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>210</v>
@@ -3225,10 +3247,10 @@
         <v>2021</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>213</v>
@@ -3245,10 +3267,10 @@
         <v>2021</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>216</v>
@@ -3268,7 +3290,7 @@
         <v>10</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>219</v>
@@ -3285,10 +3307,10 @@
         <v>2021</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>222</v>
@@ -3305,10 +3327,10 @@
         <v>2021</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>225</v>
@@ -3328,7 +3350,7 @@
         <v>9</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>228</v>
@@ -3348,7 +3370,7 @@
         <v>9</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>231</v>
@@ -3365,19 +3387,19 @@
         <v>2021</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3385,19 +3407,19 @@
         <v>2021</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="F82" s="4" t="s">
         <v>238</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3408,16 +3430,16 @@
         <v>6</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3428,16 +3450,16 @@
         <v>6</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="F84" s="2" t="s">
         <v>243</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3445,13 +3467,13 @@
         <v>2021</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>244</v>
+        <v>115</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>245</v>
@@ -3465,10 +3487,10 @@
         <v>2021</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>247</v>
@@ -3488,16 +3510,16 @@
         <v>5</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>142</v>
+        <v>250</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F87" s="4" t="s">
         <v>251</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3508,16 +3530,16 @@
         <v>5</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3525,18 +3547,18 @@
         <v>2021</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>255</v>
+        <v>148</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="F89" s="4" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3545,10 +3567,10 @@
         <v>2021</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>258</v>
@@ -3568,16 +3590,16 @@
         <v>4</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>30</v>
+        <v>261</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3585,19 +3607,19 @@
         <v>2021</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3605,18 +3627,18 @@
         <v>2021</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>266</v>
+        <v>36</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F93" s="2" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3628,7 +3650,7 @@
         <v>3</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>269</v>
@@ -3648,7 +3670,7 @@
         <v>3</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>272</v>
@@ -3656,7 +3678,7 @@
       <c r="E95" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="F95" s="4" t="s">
         <v>274</v>
       </c>
     </row>
@@ -3668,7 +3690,7 @@
         <v>3</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>275</v>
@@ -3688,7 +3710,7 @@
         <v>3</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>278</v>
@@ -3696,7 +3718,7 @@
       <c r="E97" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="2" t="s">
         <v>280</v>
       </c>
     </row>
@@ -3708,7 +3730,7 @@
         <v>3</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>281</v>
@@ -3716,7 +3738,7 @@
       <c r="E98" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F98" s="2" t="s">
         <v>283</v>
       </c>
     </row>
@@ -3736,7 +3758,7 @@
       <c r="E99" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="F99" s="4" t="s">
         <v>286</v>
       </c>
     </row>
@@ -3748,15 +3770,15 @@
         <v>3</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D100" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="F100" s="4" t="s">
         <v>289</v>
       </c>
     </row>
@@ -3765,15 +3787,15 @@
         <v>2021</v>
       </c>
       <c r="B101" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C101" s="2" t="n">
         <v>2</v>
-      </c>
-      <c r="C101" s="2" t="n">
-        <v>9</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" s="4" t="s">
         <v>291</v>
       </c>
       <c r="F101" s="2" t="s">
@@ -3785,10 +3807,10 @@
         <v>2021</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>293</v>
@@ -3808,16 +3830,16 @@
         <v>2</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>98</v>
+        <v>296</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3825,19 +3847,19 @@
         <v>2021</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3845,15 +3867,15 @@
         <v>2021</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="E105" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>302</v>
       </c>
       <c r="F105" s="2" t="s">
@@ -3868,15 +3890,15 @@
         <v>1</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>304</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="F106" s="2" t="s">
         <v>306</v>
       </c>
     </row>
@@ -3888,52 +3910,52 @@
         <v>1</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>121</v>
+        <v>307</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B108" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C108" s="2" t="n">
-        <v>8</v>
-      </c>
       <c r="D108" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F108" s="2" t="s">
         <v>311</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B109" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C109" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E109" s="2" t="s">
+      <c r="D109" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E109" s="4" t="s">
         <v>313</v>
       </c>
       <c r="F109" s="2" t="s">
@@ -3948,7 +3970,7 @@
         <v>12</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>315</v>
@@ -3968,7 +3990,7 @@
         <v>12</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>318</v>
@@ -3985,10 +4007,10 @@
         <v>2020</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>321</v>
@@ -4005,10 +4027,10 @@
         <v>2020</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>324</v>
@@ -4028,7 +4050,7 @@
         <v>11</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>327</v>
@@ -4045,10 +4067,10 @@
         <v>2020</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>330</v>
@@ -4065,10 +4087,10 @@
         <v>2020</v>
       </c>
       <c r="B116" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C116" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="C116" s="2" t="n">
-        <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>333</v>
@@ -4088,7 +4110,7 @@
         <v>10</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>336</v>
@@ -4108,16 +4130,16 @@
         <v>10</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4125,19 +4147,19 @@
         <v>2020</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>287</v>
+        <v>342</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4145,19 +4167,19 @@
         <v>2020</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>109</v>
+        <v>225</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4168,16 +4190,16 @@
         <v>9</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4188,10 +4210,10 @@
         <v>9</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>348</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>349</v>
@@ -4205,10 +4227,10 @@
         <v>2020</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>351</v>
@@ -4225,10 +4247,10 @@
         <v>2020</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>354</v>
@@ -4248,7 +4270,7 @@
         <v>6</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>357</v>
@@ -4268,7 +4290,7 @@
         <v>6</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>360</v>
@@ -4288,7 +4310,7 @@
         <v>6</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>363</v>
@@ -4305,19 +4327,19 @@
         <v>2020</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>30</v>
+        <v>366</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4325,19 +4347,19 @@
         <v>2020</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4348,10 +4370,10 @@
         <v>5</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>371</v>
+        <v>36</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>372</v>
@@ -4365,10 +4387,10 @@
         <v>2020</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>374</v>
@@ -4385,10 +4407,10 @@
         <v>2020</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>377</v>
@@ -4408,7 +4430,7 @@
         <v>4</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>380</v>
@@ -4428,16 +4450,16 @@
         <v>4</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>287</v>
+        <v>383</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4445,19 +4467,19 @@
         <v>2020</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4465,13 +4487,13 @@
         <v>2020</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>388</v>
+        <v>293</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>389</v>
@@ -4488,16 +4510,16 @@
         <v>3</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>142</v>
+        <v>391</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4508,16 +4530,16 @@
         <v>3</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>121</v>
+        <v>394</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4528,16 +4550,16 @@
         <v>3</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>395</v>
+        <v>24</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4548,16 +4570,16 @@
         <v>3</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>397</v>
+        <v>127</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="F140" s="2" t="s">
         <v>399</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4565,15 +4587,15 @@
         <v>2020</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E141" s="4" t="s">
         <v>401</v>
       </c>
       <c r="F141" s="2" t="s">
@@ -4585,10 +4607,10 @@
         <v>2020</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>403</v>
@@ -4608,7 +4630,7 @@
         <v>2</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>406</v>
@@ -4628,7 +4650,7 @@
         <v>2</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>409</v>
@@ -4645,10 +4667,10 @@
         <v>2020</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>412</v>
@@ -4665,10 +4687,10 @@
         <v>2020</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>415</v>
@@ -4688,56 +4710,56 @@
         <v>1</v>
       </c>
       <c r="C147" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>30</v>
+        <v>418</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C148" s="2" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>121</v>
+        <v>421</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C149" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>423</v>
+        <v>14</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>424</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4748,15 +4770,15 @@
         <v>12</v>
       </c>
       <c r="C150" s="2" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>425</v>
+        <v>127</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="F150" s="2" t="s">
+      <c r="F150" s="4" t="s">
         <v>427</v>
       </c>
     </row>
@@ -4768,12 +4790,12 @@
         <v>12</v>
       </c>
       <c r="C151" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D151" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D151" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="E151" s="4" t="s">
         <v>429</v>
       </c>
       <c r="F151" s="2" t="s">
@@ -4788,7 +4810,7 @@
         <v>12</v>
       </c>
       <c r="C152" s="2" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>431</v>
@@ -4805,19 +4827,19 @@
         <v>2019</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C153" s="2" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>333</v>
+        <v>434</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F153" s="4" t="s">
         <v>435</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4825,19 +4847,19 @@
         <v>2019</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C154" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="E154" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>437</v>
       </c>
+      <c r="E154" s="2" t="s">
+        <v>438</v>
+      </c>
       <c r="F154" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4848,15 +4870,15 @@
         <v>11</v>
       </c>
       <c r="C155" s="2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>439</v>
+        <v>339</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="F155" s="2" t="s">
+      <c r="F155" s="4" t="s">
         <v>441</v>
       </c>
     </row>
@@ -4868,16 +4890,16 @@
         <v>11</v>
       </c>
       <c r="C156" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E156" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D156" s="4" t="s">
         <v>442</v>
       </c>
+      <c r="E156" s="4" t="s">
+        <v>443</v>
+      </c>
       <c r="F156" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4885,19 +4907,19 @@
         <v>2019</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C157" s="2" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4905,13 +4927,13 @@
         <v>2019</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C158" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>447</v>
+        <v>293</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>448</v>
@@ -4928,7 +4950,7 @@
         <v>10</v>
       </c>
       <c r="C159" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>450</v>
@@ -4948,7 +4970,7 @@
         <v>10</v>
       </c>
       <c r="C160" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>453</v>
@@ -4965,10 +4987,10 @@
         <v>2019</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C161" s="2" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>456</v>
@@ -4976,7 +4998,7 @@
       <c r="E161" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="F161" s="4" t="s">
+      <c r="F161" s="2" t="s">
         <v>458</v>
       </c>
     </row>
@@ -4985,15 +5007,15 @@
         <v>2019</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C162" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D162" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="E162" s="4" t="s">
+      <c r="E162" s="2" t="s">
         <v>460</v>
       </c>
       <c r="F162" s="2" t="s">
@@ -5008,7 +5030,7 @@
         <v>9</v>
       </c>
       <c r="C163" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>462</v>
@@ -5016,7 +5038,7 @@
       <c r="E163" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="F163" s="2" t="s">
+      <c r="F163" s="4" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5025,15 +5047,15 @@
         <v>2019</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C164" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D164" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="E164" s="4" t="s">
         <v>466</v>
       </c>
       <c r="F164" s="2" t="s">
@@ -5045,19 +5067,19 @@
         <v>2019</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C165" s="2" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5065,19 +5087,19 @@
         <v>2019</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C166" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>109</v>
+        <v>471</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5085,19 +5107,19 @@
         <v>2019</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C167" s="2" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>210</v>
+        <v>465</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5108,16 +5130,16 @@
         <v>2</v>
       </c>
       <c r="C168" s="2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>474</v>
+        <v>115</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5125,19 +5147,19 @@
         <v>2019</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C169" s="2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>336</v>
+        <v>216</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5145,19 +5167,19 @@
         <v>2019</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C170" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5168,10 +5190,10 @@
         <v>1</v>
       </c>
       <c r="C171" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>482</v>
+        <v>342</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>483</v>
@@ -5182,13 +5204,13 @@
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C172" s="2" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>485</v>
@@ -5202,13 +5224,13 @@
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C173" s="2" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>488</v>
@@ -5225,19 +5247,19 @@
         <v>2018</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C174" s="2" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>333</v>
+        <v>491</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5245,19 +5267,19 @@
         <v>2018</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C175" s="2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5265,53 +5287,53 @@
         <v>2018</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C176" s="2" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>30</v>
+        <v>339</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C177" s="2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C178" s="2" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>501</v>
+        <v>36</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>502</v>
@@ -5328,7 +5350,7 @@
         <v>11</v>
       </c>
       <c r="C179" s="2" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>504</v>
@@ -5345,10 +5367,10 @@
         <v>2017</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C180" s="2" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>507</v>
@@ -5365,10 +5387,10 @@
         <v>2017</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C181" s="2" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>510</v>
@@ -5388,7 +5410,7 @@
         <v>10</v>
       </c>
       <c r="C182" s="2" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>513</v>
@@ -5408,7 +5430,7 @@
         <v>10</v>
       </c>
       <c r="C183" s="2" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>516</v>
@@ -5425,10 +5447,10 @@
         <v>2017</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C184" s="2" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>519</v>
@@ -5445,10 +5467,10 @@
         <v>2017</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C185" s="2" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>522</v>
@@ -5460,8 +5482,46 @@
         <v>524</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A186" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C186" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A187" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C187" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6288,6 +6348,8 @@
     <row r="1011" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1012" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1013" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1014" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1015" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="529">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -79,7 +79,32 @@
 Vogel, Petra M., and Bernard Comrie (eds.) 2011. Approaches to the Typology of Word Classes. Berlin: Mouton de Gruyter.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chuprinko Kirill (HSE)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Kirill </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Chuprinko </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(HSE)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Andic dictionaries' examples database: state of affairs and possible applications</t>
@@ -442,7 +467,23 @@
     <t xml:space="preserve">In this talk, I discuss the functions of additive particles in 12 dialects of Rutul language (&lt; Lezgic &lt; East Caucasian). I show that, although those dialects are generally mutually intelligible, there is a significant variation with respect to the functions that the additive particles may perform. I discuss (i) their ability to conjoin NPs («A and B»), (ii) their semantics (whether they can have scalar additive semantics or not), (iii) their ability to cooccur with other coordinating particles, (iv) their occurrence in various series of indefinite pronouns (specific vs. non-specific, free-choice) and (v) their occurrence in concessive and concessive-conditional clauses. Then I build up a microtypology based on those parameters, and sketch out the emerging theoretical generalisations.</t>
   </si>
   <si>
-    <t xml:space="preserve">T. Dedov, S. Verhees</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Timofei Dedov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, Samira Verhees</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">A database for Arabic, Persian, and Turkic loanwords in Dagestanian languages</t>
@@ -451,7 +492,7 @@
     <t xml:space="preserve">In this talk we will present the DAG&lt;APT database. The database currently contains lexemes from Dagestanian languages that have been established as borrowings from Arabic by Zabitov (2001). We intend to digitize more etymological sources in a similar manner. The goal is to create a comprehensive database of borrowings from major contact influences like Arabic, Persian, and Turkic languages into Dagestanian languages. In our talk we explain the design of the database and we discuss our plans and ideas for the future.</t>
   </si>
   <si>
-    <t xml:space="preserve">I. Sadakov</t>
+    <t xml:space="preserve">Ilya Sadakov</t>
   </si>
   <si>
     <t xml:space="preserve">Update: Tsnal Lezgian Spoken Corpus</t>
@@ -469,7 +510,7 @@
     <t xml:space="preserve">According to the traditional overviews, languages of the East Caucasian family have decimal, vigesimal, or mixed numeral systems. Using data from grammars and dictionaries, I have tried to explore the variability of these numeral systems and their morphological features in detail, focusing on isoglosses between languages and their dialects. In the talk, I will present the results of this research and discuss several cases of dialectal variability of numeral systems and their possible implications for diachrony of numeral systems in the family. The found results call into question the consensual opinion that vigesimality is „native“ for East Caucasian languages and that it existed in proto-East Caucasian.</t>
   </si>
   <si>
-    <t xml:space="preserve">Polina Nasledskova &amp; Tatiana Philippova</t>
+    <t xml:space="preserve">Polina Nasledskova, Tatiana Philippova</t>
   </si>
   <si>
     <t xml:space="preserve">Postpositions in East Caucasian? An areal-typological study of a category development</t>
@@ -496,7 +537,7 @@
     <t xml:space="preserve">Among Nakh-Daghestanian languages, /f/ is found in the inventories of most Lezgic languages and Khinalugh. In early comparative works (e.g. Gigineyshvili 1977) the presence of /f/ was considered a Lezgic innovation, but, as it turns out, there might be an areal trace. I suggest that the sound was introduced to some languages through lexical borrowing, and to some others through inheritance. As a consequence, /f/ has different degrees of phonological “entrenchment”, and different patterns of distribution across lexicon. Notably, all f-languages are located in southern Daghestan and have been under strong influence from Azerbaijan. My goal is to examine the phonemic status of /f/ in the languages of southern Daghestan, to survey the ways how, and time intervals when, it might have appeared or have been introduced, and to discuss how one single process could have been applied to different languages in different ways. I will discuss several methods to evaluate the phonological entrenchment of /f/ and ways to determine the probable donor of /f/ as a borrowed phoneme, as well as complex areally-genetic generalizations that the study delivers.</t>
   </si>
   <si>
-    <t xml:space="preserve">Rita Popova &amp; Michael Daniel (HSE University)</t>
+    <t xml:space="preserve">Rita Popova, Michael Daniel (HSE University)</t>
   </si>
   <si>
     <t xml:space="preserve">Size matters? Testing size effects in gender assignment in four East Caucasian languages</t>
@@ -520,7 +561,7 @@
     <t xml:space="preserve">In the talk I will present the results of a pilot study of “meditative” questions, a special semantic type of non-canonical questions, which normally do not require an answer and can even be asked in the absence of an addressee (cf. ‘I wonder’-questions in English or ‘интересно’-questions in Russian). In a number of Nakh-Daghestanian languages, questions of this type have dedicated morphological marking (suffixes or enclitics), although there seems to be no systematic study of their marking types. I will look at the marking of meditative questions in comparison with the marking of ordinary (polar and content) and indirect questions in several languages of the family. I will also briefly discuss the typical contexts where meditative questions are found in texts.</t>
   </si>
   <si>
-    <t xml:space="preserve">Светлана Амосова (Еврейский музей и центр толерантности, ИСл РАН)Михаил Васильев (Центра «Сэфер», ИЯ РАН)</t>
+    <t xml:space="preserve">Светлана Амосова (Еврейский музей и центр толерантности, ИСл РАН), Михаил Васильев (Центра «Сэфер», ИЯ РАН)</t>
   </si>
   <si>
     <t xml:space="preserve">Евреи Дагестана: история, современное состояние этнической группы и памятники материального наследия</t>
@@ -601,7 +642,7 @@
     <t xml:space="preserve">In this presentation, I will sketch different aspects of the language dynamics of the ancient Central Andes of Peru and Bolivia –one of the few “cradles of civilization” of humanity – and South America more generally. I will highlight in particular the role of linguistic interaction and contact and the resulting typological distributions in understanding this dynamics. I will start out from the present-day linguistic landscape of the Central Andes, which is strongly dominated by the Quechuan and Aymaran families whose common contact-induced typological profile has for a long time influenced ideas of what Andean languages are like. I will then broaden the scope and explore how new analyses of the available materials for the now extinct languages of the Central Andes bring to light a now submerged interaction sphere in Northern Peru, and how this north-south structure is congruent with archaeological and molecular anthropological evidence, allowing for new ways of interdisciplinary dialogue beyond language expansions. Finally, I will broaden the scope again, and show how recent work in the areal typology of broader parts of the Andes and South America articulates with these new findings. This work suggests a finely spatially structured gradient of typological variation in the Andes into which the new evidence from the Central Andes fits seamlessly. The proper interpretation of this gradient is presently not clear yet, though one possibility is that it is a reflection of an ancient layer of affinities between the languages of the region.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pavel Astafiev, Nikita Beklemishev, Nina Dobrushina &amp; Alina Russkikh (in alphabetical order)</t>
+    <t xml:space="preserve">Pavel Astafiev, Nikita Beklemishev, Nina Dobrushina, Alina Russkikh (in alphabetical order)</t>
   </si>
   <si>
     <t xml:space="preserve">Looking for areal patterns in the domain of discourse formulae: The case of blessings and curses in Daghestan</t>
@@ -649,7 +690,7 @@
     <t xml:space="preserve">Our study summarizes and analyzes the information about postpositions provided in the various grammatical descriptions of East-Caucasian languages. In our talk, we are going to briefly report on our findings and discuss the prospects. First, we are going to propose an overview chapter on postpositions and several features for maps in the Typological atlas of the languages of Daghestan (TALD) that we are currently working on. Second, we are going to present our conception of a paper about East-Caucasian postpositions from a typological perspective. In particular, we are going to show that despite the fact that a number of properties of East-Caucasian postpositions differ significantly from the typical properties of adpositions in general and Indo-European prepositions in particular, the difference is not due to their special status, but due to the fact that they usually do not serve the functions of primary adpositions in other languages. Rather, East-Caucasian postpositions are more similar to the secondary adpositions in other languages, while typical primary adpositions more often correspond to the East-Caucasian spatial suffixes rather than to postpositions. Finally, we are going to suggest that the notions of localization and directionality, widely used for the description of spatial forms in East-Caucasian languages, can help better describe the meanings and functions of primary adpositions in other languages (e.g. Russian), if applied as comparative concepts.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ezequiel Koile &amp; George Moroz</t>
+    <t xml:space="preserve">Ezequiel Koile, George Moroz</t>
   </si>
   <si>
     <t xml:space="preserve">Detecting linguistic variation with geographic sampling</t>
@@ -718,7 +759,7 @@
     <t xml:space="preserve">In this talk, I will deal with Russian speech of older speakers of Nanai and Ulcha (Southern Tungusic, the Amur region). A great inter-speaker variation takes place: some bilingual Nanais and Ulchas are speakers of a “near-pidgin” Russian variety, the speech of some others does not differ greatly from the monolingual benchmark. The data used in the study come from the Corpus of contact-influenced Russian of Northern Siberia and the Russian Far East (http://web-corpora.net/ruscontact/corpus.html). This is a small spoken corpus provided with a manual annotation of contact-induced grammatical features (non-standard agreement, non-standard argument encoding etc.). Based on this annotation, I will try to assess the inter-speaker variation attested in the corpus. On the one hand, I will show which contact-induced features appear to be more stable, i.e. equally represented in texts produced by different speakers, and which ones contribute to inter-speaker variation most of all which features behave similarly, i.e. are equally frequent / infrequent in texts produced by the same speakers. On the other hand, I will discuss how speakers group together according to contact-induced features typical of them whether these clusters of speakers correlate with any sociolinguistic parameters whether they go in line with the researcher’s intuition or look surprising. An additional motivation for this study is methodological. I will test how precisely the existing corpus annotation captures the degree of deviation from monolingual benchmark and inter-speaker variation.</t>
   </si>
   <si>
-    <t xml:space="preserve">George Moroz, Timofey Mukhin, Chiara Naccarato and Samira Verhees</t>
+    <t xml:space="preserve">George Moroz, Timofey Mukhin, Chiara Naccarato, Samira Verhees</t>
   </si>
   <si>
     <t xml:space="preserve">Update: Typological Atlas of the Languages of Daghestan</t>
@@ -727,7 +768,7 @@
     <t xml:space="preserve">In this talk we introduce the recent updates made to the Typological Atlas of Daghestan, which include new topics and new visualizations. We would also like to use this opportunity to discuss how to turn the atlas into a resource with chapters and data that are both easy to use, cite and find on the one hand, and easy to edit and update on the other hand. During the talk we also will discuss a new phonological database of East Caucasian languages and patterns that it reveals. We will discuss the distribution of the following phonological features: inventory size, gemination, labialisation, laterals, nasal vowels, long vowels and briefly discuss correlation between elevation and inventory size (sorry for those of you, who have seen this on SLE conference).</t>
   </si>
   <si>
-    <t xml:space="preserve">Maxim Melenchenko &amp; Aigul Zakirova</t>
+    <t xml:space="preserve">Maxim Melenchenko, Aigul Zakirova</t>
   </si>
   <si>
     <t xml:space="preserve">Several aspects of numeral morphology in the languages of Dagestan</t>
@@ -760,9 +801,6 @@
     <t xml:space="preserve">This study investigates how continuative semantics is encoded cross-linguistically. The work is based on two independent language samples: a sample with global coverage and an intragenealogical sample of four Northwest Caucasian (Abkhaz-Adyge) languages. The cross-linguistic sample is genealogically and geographically balanced and includes 120 languages. Means that convey continuative semantics — continuative expressions — are analyzed according to the following parameters: morphosyntactic type (affix, auxiliary, adverbial phrase), degree of grammaticalization, tense-aspect-actionality restrictions on the predicate, non-continuative uses of the continuative expressions and semantic effects when combined with negation. The data come mainly from secondary sources (grammatical descriptions and dictionaries) and parallel texts. The second part of the study focuses on the intrageneological typology of continuative expressions in the following Northwest Caucasian languages: Abaza, Abkhaz, Kabardian and West Circassian (Adyghe). The main sources for the study of continuative expressions in Northwest Caucasian are elicited data and parallel texts. Based on the results of the macro-typological and intrageneological studies and their comparison, I suggest that two typological clusters or profiles of continuative expressions can be distinguished — predicative and adverbial, and that continuative expressions belonging to different classes show different degrees of diachronic stability.</t>
   </si>
   <si>
-    <t xml:space="preserve">Polina Nasledskova, Tatiana Philippova</t>
-  </si>
-  <si>
     <t xml:space="preserve">Postpositions in Nakh-Daghestanian</t>
   </si>
   <si>
@@ -775,7 +813,7 @@
     <t xml:space="preserve">During the last two years, we worked together with Arseniy Averin, Anastasia Davidenko, Ilya Sadakov, Zlata Shkutko, Grigory Kuznetsov, Anna Tsysova, Wanshu Zhang on digitalisation of the Andic dictionaries. During compilation of the database we also worked on several subprojects on comparative phonology, colexicalisation and morphology of plural nouns forms. During the talk I would like to present the database and briefly discuss some preliminary results of the conducted research.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nikita Muravyev &amp; Daria Zhornik</t>
+    <t xml:space="preserve">Nikita Muravyev, Daria Zhornik</t>
   </si>
   <si>
     <t xml:space="preserve">Solving the puzzle of the Ob-Ugric passive</t>
@@ -784,7 +822,7 @@
     <t xml:space="preserve">In this talk, we look at the active/passive voice alternation in two Ob-Ugric languages of Western Siberia, Northern Khanty and Northern Mansi. This alternation has been described in the literature as primarily motivated by information structure: a sentence appears in active whenever an Agent is the primary topic of the sentence, otherwise passive voice is used (Kulonen 1989, Nikolaeva 2001). However recent text and elicitation data suggest that a purely information-structure based approach has a number of shortcomings. First, passive can be used if an Agent is topical yet low in animacy and/or definiteness. Second, focused Agents are allowed in special kinds of active sentences, e.g. interrogative contexts. Moreover, passivization is possible with a great variety of intransitive verbs with no Agent role whatsoever, including state verbs and verbs denoting spontaneous change of state. Also intransitive verbs can be passivised in adversative contexts in which some discourse participant external to the event gets affected in some way. These facts posit a problem both for the abovementioned information-structural approach and for the existing typological accounts of the active/passive alternation. We will discuss these facts in detail, compare the situation in Khanty and Mansi and present a model which helps at least partially solve the Ob-Ugric puzzle. Kulonen U. M. The Passive in Ob-Ugrian. Helsinki, Finno-Ugrian Society, 1989. Nikolaeva, I., 2001. Secondary topic as a relation in information structure. In: Linguistics, 39.1: 1–50.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ilya Chechuro &amp; Michael Daniel</t>
+    <t xml:space="preserve">Ilya Chechuro, Michael Daniel</t>
   </si>
   <si>
     <t xml:space="preserve">Looking for areal convergence in nominal gender assignment in East Caucasian</t>
@@ -877,7 +915,7 @@
     <t xml:space="preserve">In many ways, Ossetic has a unique status among languages of the Caucasus. Belonging to the Iranian branch of the Indo-European language family, Ossetic is the last living representative of Sarmatian varieties once widely spoken in the northern Black Sea region. Having long developed in isolation from other Iranian languages, Ossetic has, on the one hand, preserved a number of archaic features; on the other hand, it has developed unique innovations, some of which may be explained by language contact. The Ossetic lexicon, mainly being of Iranian origin, has a comparatively large share of loanwords from neighbouring languages, many of them in the basic lexicon. In phonology, a key contact-induced feature is the presence of ejective consonants, mainly in Caucasian loanwords. Some grammatical features of Ossetic (word order, case system, structure of complex clauses) may also be contact-induced. Therefore, the data of Ossetic are valuable both for the typology of language contact and the study of early contacts of Ossetians / Alans and other ethnolinguistic groups. In the talk, I will provide a general overview and discussion of lexical and grammatical features of Ossetic that may be contact-induced, and a preliminary analysis of which contact situations could have led to these results.</t>
   </si>
   <si>
-    <t xml:space="preserve">Anastasia Panova &amp; Michael Daniel</t>
+    <t xml:space="preserve">Anastasia Panova, Michael Daniel</t>
   </si>
   <si>
     <t xml:space="preserve">Linguistic complexity across East Caucasian: from the eye of the beholder to corpus based measures</t>
@@ -916,7 +954,7 @@
     <t xml:space="preserve">Alexandra Vydrina</t>
   </si>
   <si>
-    <t xml:space="preserve">Multilingualism as a genre-structuring strategy: the case of Kakabe traditional narratives Alexandra Vydrina</t>
+    <t xml:space="preserve">Multilingualism as a genre-structuring strategy: the case of Kakabe traditional narratives</t>
   </si>
   <si>
     <t xml:space="preserve">Various West-African language communities show the use of a specific type of code-switching that is limited to the genre of traditional narratives: songs that appear in such narratives regularly include passages that are in a language different from the principal language of the narration. This type of conventionalized multilingualism is a regular phenomenon that is recurrently found across languages of West Africa. However, so far, it has never been object to any systematic investigation. In my presentation, I will analyze this type of multilingual practice on the data of 70 Kakabe traditional narratives, investigating the specific mechanism of switching from one language to the other and its relation to the wider context of the type of multilingualism found in this speech community.</t>
@@ -925,7 +963,7 @@
     <t xml:space="preserve">Tatiana Philippova</t>
   </si>
   <si>
-    <t xml:space="preserve">Adpositions and case: Categorial issues Tatiana Philippova</t>
+    <t xml:space="preserve">Adpositions and case: Categorial issues</t>
   </si>
   <si>
     <t xml:space="preserve">This talk will address the issue of the categorial status of case markers and adpositions from a cross-linguistic perspective. I will present some major research questions arising in this respect, including the following: • How do we approach the case/adposition delineation problem in languages with case suffixes and postpositions? • Is it feasible to posit a cross-linguistically uniform category of postpositions? If yes, is it principally distinct from that of prepositions? • Can we meaningfully compare language-specific categories of case and adpositions across languages? Having introduced these questions, I will give an overview of the state of the art in research on this and related topics. Please note that this will be an overview talk, rather than one showcasing the results of my own research. And I expect that there will be plenty of room for discussion!</t>
@@ -934,13 +972,13 @@
     <t xml:space="preserve">Aleksandra Trepalenko, Timur Maisak</t>
   </si>
   <si>
-    <t xml:space="preserve">Towards the corpus of Bagwalal dialects Aleksandra Trepalenko, Timur Maisak</t>
+    <t xml:space="preserve">Towards the corpus of Bagwalal dialects</t>
   </si>
   <si>
     <t xml:space="preserve">In the talk I will prBagwalal is a small and underdescribed language of the Avar-Andic branch of the Nakh-Daghestanian family. After a general introduction about the language and the history of its research (Timur Maisak), we shall present the ongoing project on the glossing of Bagwalal dialectal texts (Aleksandra Trepalenko). The texts first published in Gudava's (1971) grammar in Georgian represent all six villages where Bagwalal is spoken. We are going to present the results of our analysis of the texts (glossing, translation), mention the main dialectal differences and describe some interesting features of Bagwalal and problems we faced during our work.</t>
   </si>
   <si>
-    <t xml:space="preserve">Towards the Nakh-Daghestanian Lexicon of Grammaticalization Timur Maisak</t>
+    <t xml:space="preserve">Towards the Nakh-Daghestanian Lexicon of Grammaticalization</t>
   </si>
   <si>
     <t xml:space="preserve">What will be discussed in the talk is not an accomplished or even an ongoing project, but rather a general idea of creating a lexicon of grammaticalization for Nakh-Daghestanian languages. I will start with an overview of existing lexicons of grammaticalization (which are very few) and how they can serve as source of inspiration for the Nakh-Daghestanian Lexicon. I will then present example entries of the future Lexicon and mention the choices and the problems one has to face when creating such a Lexicon. Comments and suggestions from the audience will be most welcome.</t>
@@ -949,7 +987,7 @@
     <t xml:space="preserve">Sofia Oskolskaya</t>
   </si>
   <si>
-    <t xml:space="preserve">On typology of caritive constructions Sofia Oskolskaya (Institute for Linguistic Studies)</t>
+    <t xml:space="preserve">On typology of caritive constructions</t>
   </si>
   <si>
     <t xml:space="preserve">In the talk I will present the project “Grammatical periphery in the languages of the world: a typological study of caritives”. Caritive (aka abessive) expresses the non-involvement of a participant into a situation, with the non-involvement predication semantically modifying the situation or a participant of a different situation, like in English Mary came without John / money. The project aims at studying the means of expression of caritive meanings in the languages of the world. We developed a questionnaire and collected data from a representative sample of 100 languages. I am going to discuss the methodology of the project: the definition of caritive, questionnaire, methodology of collecting data. The project is still in progress, but I will present some preliminary results.</t>
@@ -967,7 +1005,7 @@
     <t xml:space="preserve">Timofey Mukhin, Chiara Naccarato, Samira Verhees</t>
   </si>
   <si>
-    <t xml:space="preserve">Dagatlas Update (Timofey Mukhin, Chiara Naccarato, Samira Verhees)</t>
+    <t xml:space="preserve">Dagatlas Update</t>
   </si>
   <si>
     <t xml:space="preserve">We will give a short update about the project Typological Atlas of Daghestan covering the progress we have made so far. We will discuss our plans to publish the resource and a (partially) new approach to data visualization.</t>
@@ -1042,7 +1080,7 @@
     <t xml:space="preserve">In this presentation I will discuss the relation between linguistic diversity and basic units of human organization in pre-agricultural, nomadic and forager societies. On the basis of those patterns I will discuss existing hypotheses on the previous stages of linguistic diversity (from early Holocene until today), and I will provide evidence for a relatively brief period of massive linguistic diversity from 4-1 kybp. I will conclude by spelling out the practical consequences of this finding for typological and historical linguistic generalizations.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ilya Chechuro, Michael Daniel, Ezequiel Koile and George Moroz</t>
+    <t xml:space="preserve">Ilya Chechuro, Michael Daniel, Ezequiel Koile, George Moroz</t>
   </si>
   <si>
     <t xml:space="preserve">Сorrelations between linguistic distances with geography in Daghestan (Ilya Chechuro, Michael Daniel, Ezequiel Koile and George Moroz)</t>
@@ -1069,28 +1107,25 @@
     <t xml:space="preserve">In this talk I will present the results of my research on the standard of comparison in the languages of Daghestan, which was started as part of the DagAtlas project (the “Typological Atlas of the Languages of Daghestan”). In the languages of Daghestan, the standard of comparison is usually expressed by a spatial form, i.e. an inflected form of a nominal normally expressing a spatial relation. In this study, I classify the languages of Daghestan according to the type of spatial form used to mark the standard of comparison. Following the methodological approach of the DagAtlas project, I collected the data from the available literature and built maps for the visualization of results. The results obtained are discussed both in terms of frequency and distribution within the linguistic area under investigation, and in comparison with broader typological investigations of comparative constructions (Stassen 1985, 2013), which include almost no reference to data from Daghestan. The latter comparison does not reveal surprising findings: the Daghestanian data adhere quite well to the cross-linguistic picture (with a general preference for elative markers). Within Daghestan, the overall picture seems a bit fuzzy, and the distribution of values on maps does not allow to detect any noteworthy areal or genealogical clustering. An exception is constituted by Andic languages, which form a cluster based on the localization marker employed (forms in -č’- indicating contact with some entity).</t>
   </si>
   <si>
-    <t xml:space="preserve">Inter-speaker variation in code-switching in the situation of language shift. The case of Nanai and Ulch (Natalya Stoynova)</t>
+    <t xml:space="preserve">Inter-speaker variation in code-switching in the situation of language shift. The case of Nanai and Ulch</t>
   </si>
   <si>
     <t xml:space="preserve">In this talk I will present some quantitative data on different structural types of code-switching attested in oral texts in Nanai and Ulch (Southern Tungusic). These texts represent a specific mode of code-switching between Nanai/Ulch and Russian observed in the situation of language shift. Speakers were instructed by the linguist to tell something in their native language, and this was an unusual and artificial way of communication, since both languages are endangered and the dominant language of the speech community is Russian. All the texts contain a lot of Russian fragments of different sizes and morphosyntactic types. I will focus on inter-speaker variation. There is a general assumption that inter-speaker variation increases in the situation of language shift. My preliminary observation is that this, particularly, concerns structural types of code-switches attested in the texts under discussion. First, I will check this observation. Second, I will show that intensity and preferred structural types of code-switching correlate with general narrative habits and skills of a speaker.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reflexive and the generic use of the second-person pronoun in Kakabe (Alexandra Vydrina)</t>
+    <t xml:space="preserve">Reflexive and the generic use of the second-person pronoun in Kakabe</t>
   </si>
   <si>
     <t xml:space="preserve">Kakabe (Mande) has a reflexive pronoun with an unusual restriction on its antecedent. It cannot appear with referential nouns and pronouns, where regular personal pronouns are used instead. It does appear, however, with generic and quantified subjects, as well as in infinitival clauses. It also appears in correlative clauses with a relativized subject. I provide an account of this unusual distribution, situate the Kakabe data in the broader typological context, and discuss a possible diachronic path from the second-person pronoun involved in the development of the unusual reflexive pronoun in Kakabe.</t>
   </si>
   <si>
-    <t xml:space="preserve">Phonetic fieldwork and experiments with the phonfieldwork package for R: rOpenSci review (George Moroz)</t>
+    <t xml:space="preserve">Phonetic fieldwork and experiments with the phonfieldwork package for R: rOpenSci review</t>
   </si>
   <si>
     <t xml:space="preserve">There is a lot of different tasks that typically have to be solved during phonetic research. They include creating slides that would contain the stimuli, renaming and concatenating multiple sound files recorded during a session, automatic annotation in ‘Praat’ TextGrids (one of the sound annotation standards provided by ‘Praat’ software, see Boersma &amp; Weenink 2018), creating an html table with annotations and spectrograms, and converting multiple formats between each other (‘Praat’ TextGrid, ‘EXMARaLDA’, ‘ELAN’, subtitles .srt, and .txt from Audacity). All of these tasks can be solved by combining different tools (relabeling is straightforward, Praat contains scripts for concatenating files, etc.). R package phonfieldwork provides a functionality that makes these tasks easy to solve without additional tools, and also as compared to other packages: rPraat, textgRid. During the talk, I will show how the package works and what it can do, explain some changes that were proposed by rOpenSci reviewers and will take your ideas for improvement. The tutorial is available online.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ilya Sadakov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A corpus of Tsnal Lezgian (Ilya Sadakov)</t>
+    <t xml:space="preserve">A corpus of Tsnal Lezgian</t>
   </si>
   <si>
     <t xml:space="preserve">Lezgian is a language of the Lezgic branch of the Nakh-Daghestanian language family. Lezgian dialects are subdivided into the Küre dialect group, the Axceh dialect group and the Quba dialect group. The object of my investigation is spoken in the village of Tsnal of the Khivsky district in the Republic of Dagestan and belongs to the Jark'i dialect of the Küre dialect group (Mejlanova 1964). In this talk I am going to present the Tsnal Spoken Corpus I am working on and to discuss some of my early findings on the Tsnal variety of Lezgian.</t>
@@ -1099,16 +1134,16 @@
     <t xml:space="preserve">Timofey Mukhin</t>
   </si>
   <si>
-    <t xml:space="preserve">From spatial deixis to anaphora: data from Lezgic and Tsezic (Timofey Mukhin)</t>
+    <t xml:space="preserve">From spatial deixis to anaphora: data from Lezgic and Tsezic</t>
   </si>
   <si>
     <t xml:space="preserve">Crosslinguistically, demonstratives, in addition to their primary, deictic function, often acquire anaphoric uses. East Caucasian languages have rich inventories of demonstrative pronouns involving not less than three different stems, but do not have dedicated 3rd person pronouns; instead, they use demonstratives. The main goal of my study is to examine which demonstratives are recruited in anaphoric function by obtaining corpus counts, separately for adnominal and independent uses. The study is based on narrative corpora of several languages from the Lezgic and Tsezic branches. I conclude that even closely related languages may show divergent behavior.</t>
   </si>
   <si>
-    <t xml:space="preserve">Timofey Arkhangelskiy, University of Hamburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borrowings, frequency and lexical change (Timofey Arkhangelskiy, University of Hamburg)</t>
+    <t xml:space="preserve">Timofey Arkhangelskiy (University of Hamburg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borrowings, frequency and lexical change</t>
   </si>
   <si>
     <t xml:space="preserve">In this talk, I am going to explore the relations between borrowability, frequency of use and the dynamics of lexical change, based mostly on corpus data. The talk will have two parts. In the first part, I am going to look at frequency distributions of borrowings in the vocabularies of several languages. As I will show, a simple observation that more frequent words are less likely to be (recent) borrowings captures a facet of a much less trivial correlation. Specifically, the probability of a given word being a borrowing increases proportionally to the logarithm of its frequency rank in a sufficiently large corpus. The second part deals with the question of verbal borrowability. It has been long conjectured that verbs are more difficult to borrow than nouns. I am going to demonstrate that a recent empirical proof of that hypothesis by Tadmor et al. (2010) contains a logical fallacy because it implicitly equates borrowability and diachronic instability. I am going to provide an independent argument in favor of the hypothesis of greater diachronic stability of verbs compared to nouns. Nevertheless, it is not clear a priori whether this is a consequence of their lower borrowability or an independent phenomenon. In the latter case, it could alone cause the discrepancy between the observed proportions of borrowings among verbs and nouns, upon which Tadmor et al. based their argument.</t>
@@ -1117,16 +1152,16 @@
     <t xml:space="preserve">Nikita Muravyev</t>
   </si>
   <si>
-    <t xml:space="preserve">Verbal agreement and voice in the Uralic languages of Western Siberia (Nikita Muravyev)</t>
+    <t xml:space="preserve">Verbal agreement and voice in the Uralic languages of Western Siberia</t>
   </si>
   <si>
     <t xml:space="preserve">Uralic (Ob-Ugric, Samoyedic) languages located in Western Siberia mostly exhibit a pragmatically-driven verbal agreement system whereby argument indexing on the verb depends on topicality of the core arguments. As shown in (Nikolaeva 2001; Dalrymple &amp; Nikolaeva 2011) for Obdorsk Khanty (Northern) and Tundra Nenets, languages tend to use a Subject agreement paradigm for the Topical A &gt; Focal O setting and a special Subject-Object paradigm for Topical A &gt; Topical O and sometimes also for Focal O &gt; Topical O. Additionally, some languages use inflectional Passive (Inverse) forms for Focal O &gt; Topical A. However a deeper look into at least some languages of this area reveals that the usage of similar agreement and voice forms can depend not only on information structure but on a number of other factors, such as referentiality, animacy, number, assertiveness etc. partly resembling hierarchical indexation systems found in the Americas, South Asia and Australia, see e. g. (Zúñiga 2006). In the first part of the talk I will present my own field data from Kazym Khanty (Northern) with a more intricate verbal agreement system based on topicality and definiteness, compared to the situation in Obdorsk dialect. In the second part I will discuss an initial stage of a comparative areal research done by our project team in an attempt to shed some light on this phenomenon and its underpinnings across Khanty dialects as well as in Mansi and Tundra Nenets based on the text data available. Despite very limited size and time depth of existing corpora and text collections and yet a rather small amount of text material annotated and discussed by our team, the data show several tendencies that allow us to assess the overall situation in the region and to speculate about possible diachronic evolution of agreement and voice systems in the languages under investigation. References: Dalrymple, M., and Nikolaeva, I., 2011. Objects and information structure. No. 131. Cambridge University Press. Nikolaeva, I., 2001. Secondary topic as a relation in information structure. In: Linguistics, 39.1: 1–50. Zúñiga, F., 2006. Deixis and alignment: Inverse systems in indigenous languages of the Americas. Vol. 70. John Benjamins Publishing.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ezequel Koile, Michael Daniel, George Moroz, Ilya Chechuro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantitative Linguistic Geography of Daghestan (Ezequel Koile, Michael Daniel, George Moroz, Ilya Chechuro)</t>
+    <t xml:space="preserve">Ezequiel Koile, Michael Daniel, George Moroz, Ilya Chechuro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantitative Linguistic Geography of Daghestan</t>
   </si>
   <si>
     <t xml:space="preserve">We study how geographical factors shape the distribution of languages spoken in Daghestan. An interdisciplinary approach is developed, involving linguistic data, methods based on geographic information systems, and statistics. Using wordlists with the best available granularity, and geolocation data from the Atlas of Multilingualism in Dagestan, we build a geospatial inference modelling for explaining the linguistic diversity of the area. Our project has two stages: (i) A synchronic mapping of the correlation between geographic and linguistic distances, and (ii) a diachronic reconstruction of the speakers’ dynamics, driven by phylogeny and contact events. In this talk, very much a work in progress and an opportunity to discuss the aim and the data, we will only cover the first stage, focusing on the area of North Daghestan where Andic languages are spoken.</t>
@@ -1156,7 +1191,7 @@
     <t xml:space="preserve">Andi =gu is an emphatic / intensifying enclitic. Beside contexts where it indicates some kind of contrast / emphasis, =gu is found in combination with many types of hosts where its contribution is less clear. With some hosts =gu is obligatory (e.g. cardinal numbers), with others it is optional. Similar enclitics have been observed for other Avaro-Andic and Tsezic languages, cf. Forker 2015 for Avar, Kibrik et. al. 2001: 713 for Bagvalal. In this study I employ natural texts to answer the following questions: what is the functional range of the Andi =gu? The contexts identified in Avar will then be compared to those discussed in Forker 2015.</t>
   </si>
   <si>
-    <t xml:space="preserve">Aleksandrs Berdicevskis, The Swedish Language Bank, University of Gothenburg</t>
+    <t xml:space="preserve">Aleksandrs Berdicevskis (The Swedish Language Bank, University of Gothenburg)</t>
   </si>
   <si>
     <t xml:space="preserve">Native speakers simplify their language when writing to non-natives on an internet forum (Aleksandrs Berdicevskis, The Swedish Language Bank, University of Gothenburg)</t>
@@ -1288,7 +1323,7 @@
     <t xml:space="preserve">We will present a new small corpus of contact-influenced Russian speech, namely the Corpus of Russian spoken in Northern Siberia and the Russian Far East, and several case studies on contact phenomena in grammar, based on its data. The corpus consists of short oral texts, mostly narratives, collected as a “by-product” of language documentation projects (some of them are Russian versions of texts in the corresponding indigenous language). The current size of the corpus is ca. 34 hours (78452 tokens). The majority of texts come from two regions - the Taimyr peninsula (the subcorpus of Samoyedic Russian) and Khabarovsk Krai (the subcorpus of Tungusic Russian). The most important feature of the corpus is the manual annotation of grammatical and lexical contact-induced features. It will be discussed in detail with a focus on problematic cases. To illustrate the range of problems that can be investigated on the data of this corpus, we will also present several case studies. First, we will try to trace a post-pidgin continuum, attested among the Nganasans, on the data of non-standard gender agreement patterns (cf. бабка помер ‘old woman die.pst.masc’). Second, we will consider a problem of identifying morpho-syntactic calques on the example of non-standard numeral constructions, attested in Tungusic Russian (пять дом ‘five house.nom.sg’, двое сыновья ‘two son.nom.pl’). Third, we will illustrate the problem of differentiation between contact-induced and dialectal features on the example of pluperfect be-constructions (умер было ‘(he) died be.pst’) and non-standard coordination patterns with the particle da (офицер=да, майор=да ‘officers=ptcl majors=ptcl’), attested in the speech of the Nanais. Finally, we will discuss some general quantitative data on contact-induced grammatical features attested in the corpus, namely the general frequency distribution of different types of these features and individual profiles, compiled for several speakers.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ilya Yakubovich, Russian Academy of Sciences / University of Marburg</t>
+    <t xml:space="preserve">Ilya Yakubovich (Russian Academy of Sciences / University of Marburg)</t>
   </si>
   <si>
     <t xml:space="preserve">Correlates of Language Shift in Population Groups vs. Epigraphic Cultures (Ilya Yakubovich, Russian Academy of Sciences / University of Marburg)</t>
@@ -1318,7 +1353,7 @@
     <t xml:space="preserve">Causative alternations database There are several kinds of correspondence between causative and non-causative verbs: one can be derived from the other, they can be suppletive etc. These correspondences differ not only from language to language, but also from one causative pair to another within one language. The database was created so that one could deal with exact numbers of these alternations in many languages. I am going to talk about the data, the structure of the database and its challenges.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ezequeil Koile</t>
+    <t xml:space="preserve">Ezequiel  Koile</t>
   </si>
   <si>
     <t xml:space="preserve">The Database of Cross-Linguistic Colexifications CLICS³: Data-driven semantic research from a cross-linguistic perspective</t>
@@ -1634,7 +1669,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1668,6 +1703,16 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1718,7 +1763,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1743,7 +1788,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1766,8 +1815,8 @@
   </sheetPr>
   <dimension ref="A1:F1015"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E168" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E184" activeCellId="0" sqref="E184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2712,7 +2761,7 @@
       <c r="C47" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="6" t="s">
         <v>136</v>
       </c>
       <c r="E47" s="4" t="s">
@@ -3453,13 +3502,13 @@
         <v>15</v>
       </c>
       <c r="D84" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="F84" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3476,10 +3525,10 @@
         <v>115</v>
       </c>
       <c r="E85" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3493,13 +3542,13 @@
         <v>1</v>
       </c>
       <c r="D86" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="F86" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3513,13 +3562,13 @@
         <v>25</v>
       </c>
       <c r="D87" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="F87" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3533,13 +3582,13 @@
         <v>18</v>
       </c>
       <c r="D88" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="F88" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3556,10 +3605,10 @@
         <v>148</v>
       </c>
       <c r="E89" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3573,13 +3622,13 @@
         <v>11</v>
       </c>
       <c r="D90" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="F90" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3593,13 +3642,13 @@
         <v>6</v>
       </c>
       <c r="D91" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="F91" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3613,13 +3662,13 @@
         <v>20</v>
       </c>
       <c r="D92" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="F92" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3636,10 +3685,10 @@
         <v>36</v>
       </c>
       <c r="E93" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3653,13 +3702,13 @@
         <v>9</v>
       </c>
       <c r="D94" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="F94" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3673,13 +3722,13 @@
         <v>4</v>
       </c>
       <c r="D95" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="F95" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3693,13 +3742,13 @@
         <v>4</v>
       </c>
       <c r="D96" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E96" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="F96" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3713,13 +3762,13 @@
         <v>30</v>
       </c>
       <c r="D97" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="F97" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3733,13 +3782,13 @@
         <v>23</v>
       </c>
       <c r="D98" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E98" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="F98" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3753,13 +3802,13 @@
         <v>2</v>
       </c>
       <c r="D99" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="F99" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3773,13 +3822,13 @@
         <v>2</v>
       </c>
       <c r="D100" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E100" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="F100" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3793,13 +3842,13 @@
         <v>2</v>
       </c>
       <c r="D101" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="F101" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3812,14 +3861,14 @@
       <c r="C102" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3833,13 +3882,13 @@
         <v>9</v>
       </c>
       <c r="D103" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3852,14 +3901,14 @@
       <c r="C104" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3876,10 +3925,10 @@
         <v>104</v>
       </c>
       <c r="E105" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3892,14 +3941,14 @@
       <c r="C106" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D106" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3913,13 +3962,13 @@
         <v>19</v>
       </c>
       <c r="D107" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E107" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="F107" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3933,13 +3982,13 @@
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="F108" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3956,10 +4005,10 @@
         <v>127</v>
       </c>
       <c r="E109" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3973,13 +4022,13 @@
         <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="F110" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3993,13 +4042,13 @@
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4013,13 +4062,13 @@
         <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="F112" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4033,13 +4082,13 @@
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="F113" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4053,13 +4102,13 @@
         <v>3</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="F114" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4073,13 +4122,13 @@
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="F115" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4093,13 +4142,13 @@
         <v>10</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="F116" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4113,13 +4162,13 @@
         <v>6</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="F117" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4133,13 +4182,13 @@
         <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="F118" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4153,13 +4202,13 @@
         <v>20</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4176,10 +4225,10 @@
         <v>225</v>
       </c>
       <c r="E120" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4193,13 +4242,13 @@
         <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E121" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4216,10 +4265,10 @@
         <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4233,13 +4282,13 @@
         <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4253,13 +4302,13 @@
         <v>15</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4273,13 +4322,13 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4293,13 +4342,13 @@
         <v>30</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4313,13 +4362,13 @@
         <v>23</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4333,13 +4382,13 @@
         <v>2</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4353,13 +4402,13 @@
         <v>16</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4376,10 +4425,10 @@
         <v>36</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4393,13 +4442,13 @@
         <v>19</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4413,13 +4462,13 @@
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4433,13 +4482,13 @@
         <v>7</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F133" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4453,13 +4502,13 @@
         <v>28</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4473,13 +4522,13 @@
         <v>21</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4493,13 +4542,13 @@
         <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4513,13 +4562,13 @@
         <v>31</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4533,13 +4582,13 @@
         <v>3</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4556,10 +4605,10 @@
         <v>148</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4576,10 +4625,10 @@
         <v>127</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4593,13 +4642,13 @@
         <v>17</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4613,13 +4662,13 @@
         <v>10</v>
       </c>
       <c r="D142" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F142" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4633,13 +4682,13 @@
         <v>4</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4653,13 +4702,13 @@
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F144" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4673,13 +4722,13 @@
         <v>18</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4693,13 +4742,13 @@
         <v>11</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F146" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4713,13 +4762,13 @@
         <v>28</v>
       </c>
       <c r="D147" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F147" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4733,13 +4782,13 @@
         <v>21</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4756,10 +4805,10 @@
         <v>36</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4776,10 +4825,10 @@
         <v>127</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4793,13 +4842,13 @@
         <v>3</v>
       </c>
       <c r="D151" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4813,13 +4862,13 @@
         <v>24</v>
       </c>
       <c r="D152" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F152" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4833,13 +4882,13 @@
         <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F153" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4853,13 +4902,13 @@
         <v>10</v>
       </c>
       <c r="D154" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F154" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4873,13 +4922,13 @@
         <v>26</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4893,13 +4942,13 @@
         <v>26</v>
       </c>
       <c r="D156" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F156" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4913,13 +4962,13 @@
         <v>19</v>
       </c>
       <c r="D157" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4933,13 +4982,13 @@
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4953,13 +5002,13 @@
         <v>29</v>
       </c>
       <c r="D159" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F159" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4973,13 +5022,13 @@
         <v>22</v>
       </c>
       <c r="D160" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4993,13 +5042,13 @@
         <v>15</v>
       </c>
       <c r="D161" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F161" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5013,13 +5062,13 @@
         <v>1</v>
       </c>
       <c r="D162" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F162" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5033,13 +5082,13 @@
         <v>24</v>
       </c>
       <c r="D163" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F163" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="F163" s="4" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5053,13 +5102,13 @@
         <v>24</v>
       </c>
       <c r="D164" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="F164" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5073,13 +5122,13 @@
         <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5093,13 +5142,13 @@
         <v>4</v>
       </c>
       <c r="D166" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F166" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5113,13 +5162,13 @@
         <v>11</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5136,10 +5185,10 @@
         <v>115</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5156,10 +5205,10 @@
         <v>216</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5173,13 +5222,13 @@
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F170" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5193,13 +5242,13 @@
         <v>29</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5213,13 +5262,13 @@
         <v>22</v>
       </c>
       <c r="D172" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F172" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5233,13 +5282,13 @@
         <v>15</v>
       </c>
       <c r="D173" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F173" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5253,13 +5302,13 @@
         <v>4</v>
       </c>
       <c r="D174" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F174" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5273,13 +5322,13 @@
         <v>6</v>
       </c>
       <c r="D175" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F175" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5293,13 +5342,13 @@
         <v>13</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5313,13 +5362,13 @@
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F177" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5336,10 +5385,10 @@
         <v>36</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5353,13 +5402,13 @@
         <v>7</v>
       </c>
       <c r="D179" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F179" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5373,13 +5422,13 @@
         <v>21</v>
       </c>
       <c r="D180" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F180" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5393,13 +5442,13 @@
         <v>14</v>
       </c>
       <c r="D181" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F181" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5413,13 +5462,13 @@
         <v>3</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="F182" s="2" t="s">
         <v>513</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5433,13 +5482,13 @@
         <v>26</v>
       </c>
       <c r="D183" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F183" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5453,13 +5502,13 @@
         <v>19</v>
       </c>
       <c r="D184" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F184" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5473,13 +5522,13 @@
         <v>10</v>
       </c>
       <c r="D185" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F185" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5493,13 +5542,13 @@
         <v>26</v>
       </c>
       <c r="D186" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F186" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5513,13 +5562,13 @@
         <v>19</v>
       </c>
       <c r="D187" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F187" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="528">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -79,32 +79,7 @@
 Vogel, Petra M., and Bernard Comrie (eds.) 2011. Approaches to the Typology of Word Classes. Berlin: Mouton de Gruyter.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Kirill </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Chuprinko </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(HSE)</t>
-    </r>
+    <t xml:space="preserve">Kirill Chuprinko (HSE)</t>
   </si>
   <si>
     <t xml:space="preserve">Andic dictionaries' examples database: state of affairs and possible applications</t>
@@ -176,7 +151,7 @@
     <t xml:space="preserve">In this talk I describe different patterns of number marking on verbs, using mainly grammatical descriptions  Possible ways to analyze number marking on verbs are discussed: 1) as agreement, i.e. as an operation by which morphological featuresare copied from one word form onto another, 2) as a special category of verbal number.  Besides, I dwell on the factors by which this marking is conditioned. As it turns out, the Nakh and the Avar-Ando-Tsez branches feature number marking strategies, which are limited to a lexically defined set of verbs. Number markers in this case are localized in the verb stem. On the other hand, in many branches of the family, a different situation is also common: number marking is conditioned by the TAM-forms of the verb, i.e. by grammatical factors.  Finally, the diachrony of number marking is considered. I propose that the verb forms which are marked for number often go back to copular constructions where the predicate position is occupied by a participial form. As a result of grammaticalization of these constructions into verbal forms, the original nominal number marking on the participle develops into verbal number marking.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alexey Koshevoy (LPC, Aix-Marseille Université and Institut Jean Nicod, ENS-PSL), Anastasia Panova (Stockholm University) and Ilya Makarchuk (HSE Univeristy)</t>
+    <t xml:space="preserve">Alexey Koshevoy (LPC, Aix-Marseille Université and Institut Jean Nicod, ENS-PSL), Anastasia Panova (Stockholm University), Ilya Makarchuk (HSE Univeristy)</t>
   </si>
   <si>
     <t xml:space="preserve">Building a Universal Dependencies Treebank for a Polysynthetic Language: the Case of Abaza</t>
@@ -264,9 +239,6 @@
   </si>
   <si>
     <t xml:space="preserve">There is some general idea of what Semitic verbal "patterns" (also called templates, binyanim, породы) are — not only among semitists, but also among linguists. The expected canonical verbal root in Semitic languages is purely consonantal, and inflected verb stems are created through a restricted number of derivational templates. These templates encode in a semi-systematic manner such dimensions of verb meaning as agency and voice. It is well described that verbal patterns can vary between languages — usually the variability of the number of the patterns, their individual form and function are mentioned. However, it is assumed that the template systems have more or less the same morphosyntactic status in all Semitic languages. The main task of my future research is to determine the status of verbal patterns in the system of Christian Urmi Neo-Aramaic (&lt; Northeastern Neo-Aramaic &lt; Semitic), a language with a significantly reduced, "non-classical" Semitic verbal system. On the one hand, three Urmian verbal patterns just mark the inflection-class membership of the verb. On the other hand, for some verbs the change of the pattern can be described as a morphological mechanism of changing valency. I will discuss the problems of establishing consonantal root in Christian Urmi, regularity of the patterns’ meanings and possible directions of my future work. Reading Group: Schreur, J. W., Allassonnière-Tang, M., Bellamy, K., &amp; Rochant, N. (2022). Predicting grammatical gender in Nakh languages: Three methods compared. Linguistic Typology at the Crossroads, 2(2), 93-126.Kirill Chuprinko (HSE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kirill Chuprinko (HSE)</t>
   </si>
   <si>
     <t xml:space="preserve">Reading Group. Predicting grammatical gender in Nakh languages: Three methods compared by Wichers Schreur, Allassonnière-Tang, Bellamy, Rochant</t>
@@ -472,6 +444,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Timofei Dedov</t>
     </r>
@@ -1669,7 +1642,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1705,14 +1678,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1788,11 +1757,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1815,8 +1784,8 @@
   </sheetPr>
   <dimension ref="A1:F1015"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E168" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E184" activeCellId="0" sqref="E184"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2282,13 +2251,13 @@
         <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2302,13 +2271,13 @@
         <v>6</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2322,13 +2291,13 @@
         <v>20</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2342,13 +2311,13 @@
         <v>13</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2365,10 +2334,10 @@
         <v>57</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2382,13 +2351,13 @@
         <v>8</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2402,13 +2371,13 @@
         <v>8</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2425,10 +2394,10 @@
         <v>33</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2442,13 +2411,13 @@
         <v>29</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2462,13 +2431,13 @@
         <v>22</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2482,13 +2451,13 @@
         <v>15</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2505,10 +2474,10 @@
         <v>57</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2522,13 +2491,13 @@
         <v>4</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2542,13 +2511,13 @@
         <v>4</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2562,13 +2531,13 @@
         <v>25</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2585,10 +2554,10 @@
         <v>63</v>
       </c>
       <c r="E38" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2602,13 +2571,13 @@
         <v>18</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2622,13 +2591,13 @@
         <v>18</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2642,13 +2611,13 @@
         <v>18</v>
       </c>
       <c r="D41" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2662,13 +2631,13 @@
         <v>18</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2682,13 +2651,13 @@
         <v>11</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2702,13 +2671,13 @@
         <v>11</v>
       </c>
       <c r="D44" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="F44" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2722,13 +2691,13 @@
         <v>20</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2742,13 +2711,13 @@
         <v>20</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="F46" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2762,13 +2731,13 @@
         <v>13</v>
       </c>
       <c r="D47" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="F47" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2782,13 +2751,13 @@
         <v>13</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="F48" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2802,13 +2771,13 @@
         <v>7</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2822,13 +2791,13 @@
         <v>28</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2842,13 +2811,13 @@
         <v>28</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="F51" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2862,13 +2831,13 @@
         <v>14</v>
       </c>
       <c r="D52" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="F52" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2882,13 +2851,13 @@
         <v>31</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="F53" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2902,13 +2871,13 @@
         <v>24</v>
       </c>
       <c r="D54" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="F54" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2922,13 +2891,13 @@
         <v>17</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E55" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2942,13 +2911,13 @@
         <v>26</v>
       </c>
       <c r="D56" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="F56" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2962,13 +2931,13 @@
         <v>19</v>
       </c>
       <c r="D57" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="F57" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2982,13 +2951,13 @@
         <v>12</v>
       </c>
       <c r="D58" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="F58" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3002,13 +2971,13 @@
         <v>29</v>
       </c>
       <c r="D59" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="F59" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3022,13 +2991,13 @@
         <v>22</v>
       </c>
       <c r="D60" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="F60" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3042,13 +3011,13 @@
         <v>22</v>
       </c>
       <c r="D61" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="F61" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3062,13 +3031,13 @@
         <v>15</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="F62" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3082,13 +3051,13 @@
         <v>1</v>
       </c>
       <c r="D63" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="F63" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3102,13 +3071,13 @@
         <v>22</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="F64" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3122,13 +3091,13 @@
         <v>1</v>
       </c>
       <c r="D65" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="F65" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3142,13 +3111,13 @@
         <v>25</v>
       </c>
       <c r="D66" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="F66" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3162,13 +3131,13 @@
         <v>18</v>
       </c>
       <c r="D67" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="F67" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3185,10 +3154,10 @@
         <v>36</v>
       </c>
       <c r="E68" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3202,13 +3171,13 @@
         <v>7</v>
       </c>
       <c r="D69" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="F69" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3222,13 +3191,13 @@
         <v>21</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E70" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3242,13 +3211,13 @@
         <v>14</v>
       </c>
       <c r="D71" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="F71" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3262,13 +3231,13 @@
         <v>9</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E72" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3282,13 +3251,13 @@
         <v>30</v>
       </c>
       <c r="D73" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="F73" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3302,13 +3271,13 @@
         <v>23</v>
       </c>
       <c r="D74" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="F74" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3322,13 +3291,13 @@
         <v>16</v>
       </c>
       <c r="D75" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="F75" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3342,13 +3311,13 @@
         <v>5</v>
       </c>
       <c r="D76" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="F76" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3362,13 +3331,13 @@
         <v>26</v>
       </c>
       <c r="D77" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="F77" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3382,13 +3351,13 @@
         <v>19</v>
       </c>
       <c r="D78" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="F78" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3402,13 +3371,13 @@
         <v>7</v>
       </c>
       <c r="D79" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="F79" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3422,13 +3391,13 @@
         <v>28</v>
       </c>
       <c r="D80" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="F80" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3442,13 +3411,13 @@
         <v>21</v>
       </c>
       <c r="D81" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="F81" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3462,13 +3431,13 @@
         <v>14</v>
       </c>
       <c r="D82" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="F82" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3482,13 +3451,13 @@
         <v>8</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E83" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3502,13 +3471,13 @@
         <v>15</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E84" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3522,13 +3491,13 @@
         <v>15</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E85" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3542,13 +3511,13 @@
         <v>1</v>
       </c>
       <c r="D86" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="F86" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3562,13 +3531,13 @@
         <v>25</v>
       </c>
       <c r="D87" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="F87" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3582,13 +3551,13 @@
         <v>18</v>
       </c>
       <c r="D88" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="F88" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3602,13 +3571,13 @@
         <v>11</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E89" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3622,13 +3591,13 @@
         <v>11</v>
       </c>
       <c r="D90" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="F90" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3642,13 +3611,13 @@
         <v>6</v>
       </c>
       <c r="D91" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="F91" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3662,13 +3631,13 @@
         <v>20</v>
       </c>
       <c r="D92" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="F92" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3685,10 +3654,10 @@
         <v>36</v>
       </c>
       <c r="E93" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3702,13 +3671,13 @@
         <v>9</v>
       </c>
       <c r="D94" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="F94" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3722,13 +3691,13 @@
         <v>4</v>
       </c>
       <c r="D95" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="F95" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3742,13 +3711,13 @@
         <v>4</v>
       </c>
       <c r="D96" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E96" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="F96" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3762,13 +3731,13 @@
         <v>30</v>
       </c>
       <c r="D97" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="F97" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3782,13 +3751,13 @@
         <v>23</v>
       </c>
       <c r="D98" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E98" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="F98" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3802,13 +3771,13 @@
         <v>2</v>
       </c>
       <c r="D99" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="F99" s="4" t="s">
         <v>284</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3822,13 +3791,13 @@
         <v>2</v>
       </c>
       <c r="D100" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E100" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="F100" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3842,13 +3811,13 @@
         <v>2</v>
       </c>
       <c r="D101" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="F101" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3862,13 +3831,13 @@
         <v>16</v>
       </c>
       <c r="D102" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3882,13 +3851,13 @@
         <v>9</v>
       </c>
       <c r="D103" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3902,13 +3871,13 @@
         <v>2</v>
       </c>
       <c r="D104" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3922,13 +3891,13 @@
         <v>16</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E105" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3942,13 +3911,13 @@
         <v>26</v>
       </c>
       <c r="D106" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3962,13 +3931,13 @@
         <v>19</v>
       </c>
       <c r="D107" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E107" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="F107" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3982,13 +3951,13 @@
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="F108" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4002,13 +3971,13 @@
         <v>12</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E109" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4022,13 +3991,13 @@
         <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="F110" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4042,13 +4011,13 @@
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4062,13 +4031,13 @@
         <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="F112" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4082,13 +4051,13 @@
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="F113" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4102,13 +4071,13 @@
         <v>3</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="F114" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4122,13 +4091,13 @@
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="F115" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4142,13 +4111,13 @@
         <v>10</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="F116" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4162,13 +4131,13 @@
         <v>6</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="F117" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4182,13 +4151,13 @@
         <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="F118" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4202,13 +4171,13 @@
         <v>20</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4222,13 +4191,13 @@
         <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E120" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4242,13 +4211,13 @@
         <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E121" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4262,13 +4231,13 @@
         <v>29</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E122" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4282,13 +4251,13 @@
         <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E123" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4302,13 +4271,13 @@
         <v>15</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="F124" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4322,13 +4291,13 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="F125" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4342,13 +4311,13 @@
         <v>30</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="F126" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4362,13 +4331,13 @@
         <v>23</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="F127" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4382,13 +4351,13 @@
         <v>2</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="F128" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4402,13 +4371,13 @@
         <v>16</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="F129" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4425,10 +4394,10 @@
         <v>36</v>
       </c>
       <c r="E130" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4442,13 +4411,13 @@
         <v>19</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="F131" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4462,13 +4431,13 @@
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="F132" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4482,13 +4451,13 @@
         <v>7</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="F133" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4502,13 +4471,13 @@
         <v>28</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="F134" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4522,13 +4491,13 @@
         <v>21</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="F135" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4542,13 +4511,13 @@
         <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E136" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4562,13 +4531,13 @@
         <v>31</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="F137" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4582,13 +4551,13 @@
         <v>3</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="F138" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4602,13 +4571,13 @@
         <v>24</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E139" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4622,13 +4591,13 @@
         <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E140" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F140" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4642,13 +4611,13 @@
         <v>17</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E141" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="F141" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4662,13 +4631,13 @@
         <v>10</v>
       </c>
       <c r="D142" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="F142" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4682,13 +4651,13 @@
         <v>4</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="F143" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4702,13 +4671,13 @@
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="F144" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4722,13 +4691,13 @@
         <v>18</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="F145" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4742,13 +4711,13 @@
         <v>11</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="F146" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4762,13 +4731,13 @@
         <v>28</v>
       </c>
       <c r="D147" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="F147" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4782,13 +4751,13 @@
         <v>21</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="F148" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4805,10 +4774,10 @@
         <v>36</v>
       </c>
       <c r="E149" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4822,13 +4791,13 @@
         <v>3</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E150" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F150" s="4" t="s">
         <v>424</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4842,13 +4811,13 @@
         <v>3</v>
       </c>
       <c r="D151" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="E151" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="E151" s="4" t="s">
+      <c r="F151" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4862,13 +4831,13 @@
         <v>24</v>
       </c>
       <c r="D152" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="F152" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4882,13 +4851,13 @@
         <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="F153" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4902,13 +4871,13 @@
         <v>10</v>
       </c>
       <c r="D154" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="F154" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4922,13 +4891,13 @@
         <v>26</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E155" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F155" s="4" t="s">
         <v>438</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4942,13 +4911,13 @@
         <v>26</v>
       </c>
       <c r="D156" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E156" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="E156" s="4" t="s">
+      <c r="F156" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4962,13 +4931,13 @@
         <v>19</v>
       </c>
       <c r="D157" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="F157" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4982,13 +4951,13 @@
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E158" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F158" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5002,13 +4971,13 @@
         <v>29</v>
       </c>
       <c r="D159" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="F159" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5022,13 +4991,13 @@
         <v>22</v>
       </c>
       <c r="D160" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="F160" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5042,13 +5011,13 @@
         <v>15</v>
       </c>
       <c r="D161" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="F161" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5062,13 +5031,13 @@
         <v>1</v>
       </c>
       <c r="D162" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="F162" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5082,13 +5051,13 @@
         <v>24</v>
       </c>
       <c r="D163" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="F163" s="4" t="s">
         <v>461</v>
-      </c>
-      <c r="F163" s="4" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5102,13 +5071,13 @@
         <v>24</v>
       </c>
       <c r="D164" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="E164" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="E164" s="4" t="s">
+      <c r="F164" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5122,13 +5091,13 @@
         <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="F165" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5142,13 +5111,13 @@
         <v>4</v>
       </c>
       <c r="D166" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="F166" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5162,13 +5131,13 @@
         <v>11</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E167" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F167" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5182,13 +5151,13 @@
         <v>5</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E168" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F168" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5202,13 +5171,13 @@
         <v>26</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E169" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F169" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5222,13 +5191,13 @@
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="F170" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5242,13 +5211,13 @@
         <v>29</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E171" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F171" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5262,13 +5231,13 @@
         <v>22</v>
       </c>
       <c r="D172" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="F172" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5282,13 +5251,13 @@
         <v>15</v>
       </c>
       <c r="D173" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="F173" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5302,13 +5271,13 @@
         <v>4</v>
       </c>
       <c r="D174" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="F174" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5322,13 +5291,13 @@
         <v>6</v>
       </c>
       <c r="D175" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="E175" s="2" t="s">
+      <c r="F175" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5342,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E176" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F176" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5362,13 +5331,13 @@
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="F177" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5385,10 +5354,10 @@
         <v>36</v>
       </c>
       <c r="E178" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F178" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5402,13 +5371,13 @@
         <v>7</v>
       </c>
       <c r="D179" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="E179" s="2" t="s">
+      <c r="F179" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5422,13 +5391,13 @@
         <v>21</v>
       </c>
       <c r="D180" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="E180" s="2" t="s">
+      <c r="F180" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5442,13 +5411,13 @@
         <v>14</v>
       </c>
       <c r="D181" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="E181" s="2" t="s">
+      <c r="F181" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5462,13 +5431,13 @@
         <v>3</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E182" s="2" t="s">
+      <c r="F182" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5482,13 +5451,13 @@
         <v>26</v>
       </c>
       <c r="D183" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="E183" s="2" t="s">
+      <c r="F183" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5502,13 +5471,13 @@
         <v>19</v>
       </c>
       <c r="D184" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E184" s="2" t="s">
+      <c r="F184" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5522,13 +5491,13 @@
         <v>10</v>
       </c>
       <c r="D185" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="E185" s="2" t="s">
+      <c r="F185" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5542,13 +5511,13 @@
         <v>26</v>
       </c>
       <c r="D186" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="E186" s="2" t="s">
+      <c r="F186" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5562,13 +5531,13 @@
         <v>19</v>
       </c>
       <c r="D187" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="E187" s="2" t="s">
+      <c r="F187" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -385,7 +385,7 @@
     <t xml:space="preserve">In this talk I will cover some aspects of morphological transducers (created with lexd and twol tools) and their application to East Caucasian languages. Nick Howell (one of the developers of lexd) and I have collaborated on this project since 2020 and several transducers were created under our supervision. In this talk I will try to cover the pipeline and possible results of this work using examples from Rutul, Agul, Chamalal, Botlikh, and several dialects of Andi.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tanya Kazakova (HSE)</t>
+    <t xml:space="preserve">Tatiana Kazakova (HSE)</t>
   </si>
   <si>
     <t xml:space="preserve">Morphological transducer for Even</t>
@@ -570,7 +570,7 @@
     <t xml:space="preserve">Дагестан представляет собой регион с удивительным этническим и культурным многообразием, который единственный на Северном Кавказе имеет многовековую историю письменности. Еще в советский период был зафиксирован факт создания уникальной письменности Кавказской Албании, генетически связанной с армянским и грузинским письмом. Это государство, как известно, простирало свои границы на большей части современного Дагестана. Подлинный прогресс в исследовании албанской письменности связан с выявлением в 1990-х гг. в монастыре на Синайском полуострове 2 палимпсестов предположительно VII в., написанных на «агванском» языке. Только после их исследования удалось окончательно установить его место среди восточнокавказских языков. Второй по времени опыт письменной фиксации речи на восточнокавказских языках (в данном случае на аварском языке) связан с распространением в Дагестане православия и грузинской письменности. Деятельность миссионеров здесь сопровождалась подготовкой и обучением служителей церкви из числа местного населения, составлением текстов на грузинском языке. Начало профессиональному исследованию грузинографической эпиграфики Дагестана было положено в первой половине ХХ в. Ну и следующий этап развития письменности в Дагестане был связан с его исламизацией, и последовавшей за ней экспансией мусульманской культуры. Письменность на арабской графике для записи текстов на восточнокавказских языках начала использоваться еще в средневековый период, хотя вряд ли этот опыт имел системный характер. Из числа зафиксированных и ныне сохранившихся памятников наиболее ранней является аварская надпись XIV в. на камне, вставленном в стену мечети сел. Корода Гунибского района Республики Дагестан. Все эти этапы и процессы развития письменности в Дагестане будут в развернутом виде освещены в настоящем докладе.</t>
   </si>
   <si>
-    <t xml:space="preserve">Timofey Dedov (HSE University)</t>
+    <t xml:space="preserve">Timofei Dedov (HSE University)</t>
   </si>
   <si>
     <t xml:space="preserve">Days after tomorrow in the languages of Daghestan</t>
@@ -624,7 +624,7 @@
     <t xml:space="preserve">It is a well-known fact that certain discourse markers, such as interjections, formulae of greetings or leave-taking, vocatives or politeness markers are often borrowed (see Andersen 2014 for some references). The claim is primarily derived from the data on material borrowings, such as English OK or Russian davaj, but there is also scarce evidence of pattern borrowing in this domain. Studies mention the similarity of greetings in some areas (Matisoff 2011 in South-East Asia, Lüpke &amp; Watson 2020 in West Africa) or good-night expressions in contacting languages (May God wake us up in Ewe and Likpe - Ameka 2006). There are few systematic studies of the spread of discourse patterns across certain areas, such as word iteration in the Mediterranean (Stolz 2004) or morning greetings in Daghestan (Naccarato &amp; Verhees 2021). Areal comparison of some types of formulae can also be investigated in anthropology; for example, some formulae are included in the world-wide database of folklore and mythological motifs (Berezkin &amp; Duvakin, http://www.ruthenia.ru/folklore/berezkin/). Many questions remain unanswered: are discourse formulae more diffusible than grammar? Do the areal distributions of formulae correspond to the areal distributions of linguistic features of other levels? How strong is the genealogical signal in the distribution of discourse formulae? What is their role in the transfer of various grammatical phenomena? In this talk, we will approach this issue from the perspective of wish-expressions, or blessings and curses in Daghestan. We will present the database of wish-expressions in nine languages of Daghestan. One of the problems with cross-linguistic comparison of blessing and curses is that it is not fully clear what are the grounds for such comparison, i.e. which wishes of one language should be mapped on which wishes of other languages. We will discuss the problem of cross-linguistics comparison of wishes and our first attempts to process the sets of formulae in these nine languages in order to detect the areal signal. References Ameka, Felix K. 2006. Grammars in contact in the Volta Basin (West Africa): On contact induced grammatical change in Likpe. In Alexandra Y. Aikhenvald &amp; R. M. W. Dixon (eds.), Grammars in contact: A crosslinguistic typology, 114–142. Oxford: Oxford University Press. Andersen, G. (2014). Pragmatic borrowing. Journal of Pragmatics, 67, 17-33. Lüpke, Friederike &amp; Rachel Watson. 2020. Language contact in West Africa. In: Adamou, Evangelia &amp; Yaron Matras (eds.): The Routledge handbook of language contact. Matisoff, James A. 2011. Areal semantics - Is there such a thing? In: Saxena, A. ed. Himalayan languages: past and present (Vol. 149). Walter de Gruyter. Naccarato, Chiara &amp; Samira, Verhees. 2021. Dobroe utro, prosnulis'? Utrennie privetstvija v jazykah Dagestana. In Durh#asi hazna. Sbornik statej k 60-letiju r. O. Mutalova, edited by Nina R. &amp; Testelec Majsak Timur A. &amp; Sumbatova. Moskva: Buki Vedi.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chiara Naccarato, Ezequiel Koile, Michael Daniel, Nina Dobrushina, Samira Verhees (Linguistic Convergence Laboratory) Aleksey Vinyar, Alexandra Nogina, Daria Ignatenko, Tatiana Kazakova, Alexey Baklanov, Ksenia Lapshina (Arctic Lab)</t>
+    <t xml:space="preserve">Chiara Naccarato, Ezequiel Koile, Michael Daniel, Nina Dobrushina, Samira Verhees (Linguistic Convergence Laboratory), Aleksey Vinyar, Alexandra Nogina, Daria Ignatenko, Tatiana Kazakova, Alexey Baklanov, Ksenia Lapshina (Arctic Lab)</t>
   </si>
   <si>
     <t xml:space="preserve">Detecting regional areal patterning across multiple linguistic features. A discussion</t>
@@ -648,7 +648,7 @@
     <t xml:space="preserve">Few sources deal with the origin of number agreement in the languages of the world. Apart from the theoretical work (Lehmann 1982), only several case studies have been published, among them (Frajzyngier 1997, Di Garbo 2020, Cruz 2015). The EC languages are numerous, and adjectival number agreement in EC seems to be morphologically and diachronically heterogeneous, which leads one to believe that it is innovative. This makes the EC languages suitable for investigating the origin of number agreement. However, no study of this kind has been undertaken yet. The goal of this study is to make a survey of number agreement patterns in EC, to assess the weight of genealogical and areal factors in the distribution of patterns and then try to describe paths by which adjectival plural agreement may have originated in the EC languages. I use the methodology adopted in the Typological Atlas of the Languages of Dagestan: So far, I searched in grammars of the EC languages and the neighboring languages (overall 65 idioms) to find out how adjectival plural agreement is expressed in each of them. I divided the languages into three types: obligatory / optional / absent plural agreement. For the optional type I established the factors that influence the presence of number agreement and plotted these types on maps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Anastasiya Bonch-Osmolovskaya, Elena Klyachko, Sergey Kosyak, Lyuba Nesterenko, George Moroz, Oleg Serikov, SvetlanaToldova</t>
+    <t xml:space="preserve">Anastasiya Bonch-Osmolovskaya, Elena Klyachko, Sergey Kosyak, Lyuba Nesterenko, George Moroz, Oleg Serikov, Svetlana Toldova</t>
   </si>
   <si>
     <t xml:space="preserve">Field NLP and where to find it in the School of linguistics</t>
@@ -1008,7 +1008,7 @@
     <t xml:space="preserve">The goal of my presentation is two-fold. In the first part, I am going to introduce BivalTyp (www.bivaltyp.info) — a typological database of bivalent verbs and their encoding frames. This database contains information on the ways in which 130 bivalent contextualized predicates (such ‘be afraid’, ‘listen’, ‘touch’) are assigned to valency classes in 85 languages (mostly spoken in Eurasia). This part of the presentation will be user-oriented, i.e., I will focus on the ways data are processed, stored and visualized in the database. In the second part, I will briefly discuss some of the ways in which BivalTyp enriches our knowledge of the ways in which arguments select encoding devices (such as cases, adpositions and verb indices) in individual languages. In particular, I will argue that the very partition of verbs into valency classes can be used as a justified tertium comparationis in cross-linguistic studies of argument encoding. I will also introduce some distance metrics that can be applied to the data from BivalTyp and will discuss genealogically and areally determined similarities between valency class systems in the languages of the sample.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ksenia Shagal, University of Helsinki</t>
+    <t xml:space="preserve">Ksenia Shagal (University of Helsinki)</t>
   </si>
   <si>
     <t xml:space="preserve">Multifunctional non-finites in Northern Eurasia (Ksenia Shagal, University of Helsinki)</t>
@@ -1017,7 +1017,7 @@
     <t xml:space="preserve">In this talk, I am going to discuss patterns of multifunctionality that are characteristic of non-finite forms in 50 languages of Northern Eurasia. Specifically, non-finite forms are investigated in terms of the inventory of functions each of them can perform when heading a subordinate clause: reference function (complement clauses), adnominal modification (relative clauses), and adverbial modification (adverbial clauses). The primary questions I will address are the following: (a) What patterns of multifunctionality in non-finites are most common and how are they distributed geographically across Northern Eurasia? (b) Do patterns of multifunctionality differ depending on how prominent non-finite subordination is in a language? (c) Are there any recurrent patterns involving specific constructions, and if yes, can we propose an explanation for their occurrence?</t>
   </si>
   <si>
-    <t xml:space="preserve">Ekaterina Rakhilina, Tatiana.Reznikova, Daria Ryzhova</t>
+    <t xml:space="preserve">Ekaterina Rakhilina, Tatiana Reznikova, Daria Ryzhova</t>
   </si>
   <si>
     <t xml:space="preserve">Lexical systems with systematic gaps: verbs of falling (E.Rakhilina, T.Reznikova, D.Ryzhova)</t>
@@ -1377,7 +1377,23 @@
     <t xml:space="preserve">During fieldwork researchers have to deal with all kinds of variation in the answers given by speakers: free variation, idolectal or sociolinguistic variation. In the present investigation we studied the degree of variation among 44 speakers of Zilo Andi for 16 different morpho(no)logical features known to be variable in this dialect. Additionally, we conducted a survey among a number of researchers of Nakh-Daghestanian languages, asking them about their fieldwork habits - including questions about how many speakers they usually consult. We used these data to evaluate the probability that an average researcher of Nakh-Daghestanian languages catches the observed variation during fieldwork.</t>
   </si>
   <si>
-    <t xml:space="preserve">Olesya Khanina, Andrey Shluinsky, Yury Koryakov</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Olesya Khanina, Andrey Shluinsky, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Yuri Koryakov</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Enets in space and time: a study in linguistic geography and history (Olesya Khanina, Andrey Shluinsky, Yury Koryakov)</t>
@@ -1446,7 +1462,7 @@
     <t xml:space="preserve">The paper deals with non-standard word order in the variety of Russian spoken by bilinguals from Daghestan. Specifically, we focus on the occurrence of prepositive genitive modifiers in bilinguals’ speech. Whereas in monolinguals’ Russian the neutral and most frequent word order in noun phrases with a genitive modifier is the order N+GEN, in Daghestanian Russian the opposite order GEN+N often occurs. This phenomenon was mentioned as one of the striking morphosyntactic features of Daghestanian Russian, and its frequent occurrence can be partly explained in terms of syntactic calquing from speakers’ L1s, all featuring an unmarked GEN+N order in noun phrases. However, the picture is far less trivial than it could look at first sight. On the one hand, the word-order pattern GEN+N does not seem to affect equally all types of genitive noun phrases in Daghestanian Russian. On the other hand, similar examples of non-standard word order are sometimes found in monolinguals’ speech too. In the course of the paper, we present the results of our corpus-based investigation of genitive noun phrases in Daghestanian Russian as compared to monolinguals’ spoken Russian, including dialectal varieties. Prepositive genitives appear to be favored by several lexico-semantic and processing features of both the head and the genitive dependent. The strongest factor is kinship semantics: noun phrases that express a kinship relation tend to be prepositive. In monolinguals’ spoken Russian, although prepositive genitives are very infrequent, they sometimes show similar lexico-semantic and processing features. Therefore, we are not dealing with a simple calquing process. Rather, L1 influence is manifested in the strengthening of some tendencies existing in monolinguals’ Russian too.</t>
   </si>
   <si>
-    <t xml:space="preserve">Michael Daniel, Ilya Chechuro, Samira Verhees , Nina Dobrushina</t>
+    <t xml:space="preserve">Michael Daniel, Ilya Chechuro, Samira Verhees, Nina Dobrushina</t>
   </si>
   <si>
     <t xml:space="preserve">Lingua francas as lexical donors: quantitative field study(Michael Daniel, Ilya Chechuro, Samira Verhees , Nina Dobrushina)</t>
@@ -1642,7 +1658,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1688,6 +1704,11 @@
       <name val="Roboto"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1784,8 +1805,8 @@
   </sheetPr>
   <dimension ref="A1:F1015"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A138" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D167" activeCellId="0" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">abstract</t>
   </si>
   <si>
-    <t xml:space="preserve">Sergey Say (University of Potsdam), Natalia Logvinova (National Research University Higher School of Economics &amp; RAS Institute for Linguistic studies), Elizaveta Zibelina (RAS Institute for Linguistic studies) </t>
+    <t xml:space="preserve">Sergey Say (University of Potsdam), Natalia Logvinova (National Research University Higher School of Economics &amp; RAS Institute for Linguistic studies), Elizaveta Zabelina (RAS Institute for Linguistic studies) </t>
   </si>
   <si>
     <t xml:space="preserve">Introducing NoCaCoDa, а Typological Database of Nominal Causal Constructions</t>
@@ -1808,7 +1808,7 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="539">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -38,6 +38,24 @@
   </si>
   <si>
     <t xml:space="preserve">abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George Moroz, Asya Alekseeva, Timofei Dedov, Artem Orekhov, Kirill Sidorov, Angelina Stepanova  (HSE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do we know about linguistic journals? Applying NLP methods to a dataset of abstracts from linguistic journals (work in progress)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a new project within the Lab dedicated to the analysis of abstracts from linguistic journals. Within this project we extracted and annotated a list of linguistic journals, gathered the abstracts and metadata for all scientific papers from those journals, and stored them within the database. The main goal of this project is to create some kind of map of "who is who in linguistics". During the talk we will share our preliminary results and discuss conceptual problems of this task, possible applications of the gathered data and our future plans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asya Alekseeva (HSE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading group: Petrini, S., Casas-i-Muñoz, A., Cluet-i-Martinell, J., Wang, M., Bentz, C., &amp; Ferrer-i-Cancho, R. (2023). Direct and indirect evidence of compression of word lengths. Zipf's law of abbreviation revisited. arXiv preprint arXiv:2303.10128.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zipf’s law of abbreviation, the tendency of more frequent words to be shorter, is one of the most solid candidates for a linguistic universal, in the sense that it has the potential for being exceptionless or with a number of exceptions that is vanishingly small compared to the number of languages on Earth. Since Zipf’s pioneering research, this law has been viewed as a manifestation of a universal principle of communication, i.e. the minimization of word lengths, to reduce the effort of communication. Here we revisit the concordance of written language with the law of abbreviation. Crucially, we provide wider evidence that the law holds also in speech (when word length is measured in time), in particular in 46 languages from 14 linguistic families. Agreement with the law of abbreviation provides indirect evidence of compression of languages via the theoretical argument that the law of abbreviation is a prediction of optimal coding. Motivated by the need of direct evidence of compression, we derive a simple formula for a random baseline indicating that word lengths are systematically below chance, across linguistic families and writing systems, and independently of the unit of measurement (length in characters or duration in time). Our work paves the way to measure and compare the degree of optimality of word lengths in languages.</t>
   </si>
   <si>
     <t xml:space="preserve">Sergey Say (University of Potsdam), Natalia Logvinova (National Research University Higher School of Economics &amp; RAS Institute for Linguistic studies), Elizaveta Zabelina (RAS Institute for Linguistic studies) </t>
@@ -1805,10 +1823,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1002"/>
+  <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1867,12 +1885,12 @@
         <v>2023</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1907,10 +1925,10 @@
         <v>2023</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -1950,15 +1968,15 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="3"/>
@@ -1990,7 +2008,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -2030,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -2070,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
@@ -2107,10 +2125,10 @@
         <v>2023</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>24</v>
@@ -2118,7 +2136,7 @@
       <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="3"/>
@@ -2147,10 +2165,10 @@
         <v>2023</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>27</v>
@@ -2190,7 +2208,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
@@ -2230,7 +2248,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>33</v>
@@ -2270,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>36</v>
@@ -2310,7 +2328,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
@@ -2350,12 +2368,12 @@
         <v>3</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -2387,10 +2405,10 @@
         <v>2023</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>45</v>
@@ -2427,15 +2445,15 @@
         <v>2023</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -2470,7 +2488,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>51</v>
@@ -2510,7 +2528,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>54</v>
@@ -2550,7 +2568,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>57</v>
@@ -2587,10 +2605,10 @@
         <v>2023</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>60</v>
@@ -2627,10 +2645,10 @@
         <v>2023</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>63</v>
@@ -2670,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>66</v>
@@ -2710,7 +2728,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>69</v>
@@ -2750,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>72</v>
@@ -2790,16 +2808,16 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="6" t="s">
         <v>76</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -2824,22 +2842,22 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -2864,21 +2882,21 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="6" t="s">
         <v>82</v>
       </c>
       <c r="G27" s="3"/>
@@ -2910,7 +2928,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>83</v>
@@ -2950,16 +2968,16 @@
         <v>12</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -2987,19 +3005,19 @@
         <v>2022</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -3027,13 +3045,13 @@
         <v>2022</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>92</v>
@@ -3070,16 +3088,16 @@
         <v>11</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -3110,16 +3128,16 @@
         <v>11</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -3150,16 +3168,16 @@
         <v>11</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -3190,10 +3208,10 @@
         <v>11</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>102</v>
@@ -3230,16 +3248,16 @@
         <v>11</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -3267,19 +3285,19 @@
         <v>2022</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -3307,13 +3325,13 @@
         <v>2022</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>110</v>
@@ -3350,7 +3368,7 @@
         <v>10</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>112</v>
@@ -3390,16 +3408,16 @@
         <v>10</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -3430,16 +3448,16 @@
         <v>10</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -3470,10 +3488,10 @@
         <v>10</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>121</v>
@@ -3590,7 +3608,7 @@
         <v>10</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>129</v>
@@ -3630,7 +3648,7 @@
         <v>10</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>132</v>
@@ -3667,10 +3685,10 @@
         <v>2022</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>135</v>
@@ -3707,10 +3725,10 @@
         <v>2022</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>138</v>
@@ -3750,9 +3768,9 @@
         <v>9</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -3761,26 +3779,26 @@
       <c r="F49" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="8"/>
-      <c r="X49" s="8"/>
-      <c r="Y49" s="8"/>
-      <c r="Z49" s="8"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
@@ -3790,7 +3808,7 @@
         <v>9</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>144</v>
@@ -3801,38 +3819,38 @@
       <c r="F50" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="8"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="8"/>
-      <c r="X50" s="8"/>
-      <c r="Y50" s="8"/>
-      <c r="Z50" s="8"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>147</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -3867,10 +3885,10 @@
         <v>2022</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>150</v>
@@ -3910,7 +3928,7 @@
         <v>6</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>153</v>
@@ -3950,7 +3968,7 @@
         <v>6</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>156</v>
@@ -3987,10 +4005,10 @@
         <v>2022</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>159</v>
@@ -4027,10 +4045,10 @@
         <v>2022</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>162</v>
@@ -4070,16 +4088,16 @@
         <v>5</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
@@ -4107,19 +4125,19 @@
         <v>2022</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -4147,13 +4165,13 @@
         <v>2022</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>171</v>
@@ -4190,7 +4208,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>173</v>
@@ -4227,10 +4245,10 @@
         <v>2022</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>176</v>
@@ -4267,10 +4285,10 @@
         <v>2022</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>179</v>
@@ -4310,7 +4328,7 @@
         <v>3</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>182</v>
@@ -4350,7 +4368,7 @@
         <v>3</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>185</v>
@@ -4390,7 +4408,7 @@
         <v>3</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>188</v>
@@ -4427,10 +4445,10 @@
         <v>2022</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>191</v>
@@ -4467,7 +4485,7 @@
         <v>2022</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1</v>
@@ -4507,10 +4525,10 @@
         <v>2022</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>197</v>
@@ -4547,10 +4565,10 @@
         <v>2022</v>
       </c>
       <c r="B69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C69" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="C69" s="2" t="n">
-        <v>18</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>200</v>
@@ -4590,16 +4608,16 @@
         <v>1</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
@@ -4624,22 +4642,22 @@
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
@@ -4664,22 +4682,22 @@
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
@@ -4710,16 +4728,16 @@
         <v>12</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
@@ -4747,19 +4765,19 @@
         <v>2021</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
@@ -4787,19 +4805,19 @@
         <v>2021</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
@@ -4830,10 +4848,10 @@
         <v>11</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>218</v>
+        <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>219</v>
@@ -4870,7 +4888,7 @@
         <v>11</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>221</v>
@@ -4907,10 +4925,10 @@
         <v>2021</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>224</v>
@@ -4947,10 +4965,10 @@
         <v>2021</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>227</v>
@@ -4990,7 +5008,7 @@
         <v>10</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>230</v>
@@ -5027,10 +5045,10 @@
         <v>2021</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>233</v>
@@ -5067,10 +5085,10 @@
         <v>2021</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>236</v>
@@ -5110,7 +5128,7 @@
         <v>9</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>239</v>
@@ -5150,7 +5168,7 @@
         <v>9</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>242</v>
@@ -5187,19 +5205,19 @@
         <v>2021</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
@@ -5227,19 +5245,19 @@
         <v>2021</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
@@ -5270,16 +5288,16 @@
         <v>6</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>120</v>
+        <v>227</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
@@ -5310,16 +5328,16 @@
         <v>6</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>251</v>
+        <v>156</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
@@ -5347,13 +5365,13 @@
         <v>2021</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>255</v>
@@ -5387,10 +5405,10 @@
         <v>2021</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>257</v>
@@ -5430,16 +5448,16 @@
         <v>5</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>153</v>
+        <v>260</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
@@ -5470,16 +5488,16 @@
         <v>5</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
@@ -5507,13 +5525,13 @@
         <v>2021</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>265</v>
+        <v>159</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>266</v>
@@ -5547,10 +5565,10 @@
         <v>2021</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>268</v>
@@ -5590,16 +5608,16 @@
         <v>4</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>42</v>
+        <v>271</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
@@ -5627,19 +5645,19 @@
         <v>2021</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
@@ -5667,13 +5685,13 @@
         <v>2021</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>276</v>
+        <v>48</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>277</v>
@@ -5710,7 +5728,7 @@
         <v>3</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>279</v>
@@ -5750,7 +5768,7 @@
         <v>3</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>282</v>
@@ -5790,7 +5808,7 @@
         <v>3</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>285</v>
@@ -5830,7 +5848,7 @@
         <v>3</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>288</v>
@@ -5870,7 +5888,7 @@
         <v>3</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>291</v>
@@ -5950,7 +5968,7 @@
         <v>3</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>297</v>
@@ -5987,10 +6005,10 @@
         <v>2021</v>
       </c>
       <c r="B105" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C105" s="2" t="n">
         <v>2</v>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>300</v>
@@ -6027,10 +6045,10 @@
         <v>2021</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>303</v>
@@ -6070,16 +6088,16 @@
         <v>2</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>306</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
@@ -6107,19 +6125,19 @@
         <v>2021</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
@@ -6147,13 +6165,13 @@
         <v>2021</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>311</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>312</v>
@@ -6190,7 +6208,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>314</v>
@@ -6230,16 +6248,16 @@
         <v>1</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>132</v>
+        <v>317</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
@@ -6264,22 +6282,22 @@
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B112" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C112" s="2" t="n">
-        <v>8</v>
-      </c>
       <c r="D112" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
@@ -6304,16 +6322,16 @@
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B113" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C113" s="2" t="n">
-        <v>22</v>
-      </c>
       <c r="D113" s="2" t="s">
-        <v>322</v>
+        <v>138</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>323</v>
@@ -6350,7 +6368,7 @@
         <v>12</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>325</v>
@@ -6390,7 +6408,7 @@
         <v>12</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>328</v>
@@ -6427,10 +6445,10 @@
         <v>2020</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>331</v>
@@ -6467,10 +6485,10 @@
         <v>2020</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>334</v>
@@ -6510,7 +6528,7 @@
         <v>11</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>337</v>
@@ -6547,10 +6565,10 @@
         <v>2020</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>340</v>
@@ -6587,10 +6605,10 @@
         <v>2020</v>
       </c>
       <c r="B120" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C120" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="C120" s="2" t="n">
-        <v>27</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>343</v>
@@ -6630,7 +6648,7 @@
         <v>10</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>346</v>
@@ -6670,16 +6688,16 @@
         <v>10</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>230</v>
+        <v>349</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
@@ -6707,19 +6725,19 @@
         <v>2020</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>297</v>
+        <v>352</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
@@ -6747,19 +6765,19 @@
         <v>2020</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>120</v>
+        <v>236</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
@@ -6790,16 +6808,16 @@
         <v>9</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>144</v>
+        <v>303</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
@@ -6830,16 +6848,16 @@
         <v>9</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>357</v>
+        <v>126</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
@@ -6867,13 +6885,13 @@
         <v>2020</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>361</v>
@@ -6907,10 +6925,10 @@
         <v>2020</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>363</v>
@@ -6950,7 +6968,7 @@
         <v>6</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>366</v>
@@ -6990,7 +7008,7 @@
         <v>6</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>369</v>
@@ -7030,7 +7048,7 @@
         <v>6</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>372</v>
@@ -7067,19 +7085,19 @@
         <v>2020</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>42</v>
+        <v>375</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G132" s="8"/>
       <c r="H132" s="8"/>
@@ -7107,19 +7125,19 @@
         <v>2020</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
@@ -7150,10 +7168,10 @@
         <v>5</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>380</v>
+        <v>48</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>381</v>
@@ -7187,10 +7205,10 @@
         <v>2020</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>383</v>
@@ -7227,10 +7245,10 @@
         <v>2020</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>386</v>
@@ -7270,7 +7288,7 @@
         <v>4</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>389</v>
@@ -7310,16 +7328,16 @@
         <v>4</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>297</v>
+        <v>392</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
@@ -7347,19 +7365,19 @@
         <v>2020</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
@@ -7387,13 +7405,13 @@
         <v>2020</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>397</v>
+        <v>303</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>398</v>
@@ -7430,16 +7448,16 @@
         <v>3</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>153</v>
+        <v>400</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
@@ -7470,16 +7488,16 @@
         <v>3</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>132</v>
+        <v>403</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
@@ -7510,16 +7528,16 @@
         <v>3</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>357</v>
+        <v>159</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
@@ -7550,16 +7568,16 @@
         <v>3</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>406</v>
+        <v>138</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
@@ -7587,13 +7605,13 @@
         <v>2020</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>409</v>
+        <v>363</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>410</v>
@@ -7627,10 +7645,10 @@
         <v>2020</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>412</v>
@@ -7670,7 +7688,7 @@
         <v>2</v>
       </c>
       <c r="C147" s="2" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>415</v>
@@ -7710,7 +7728,7 @@
         <v>2</v>
       </c>
       <c r="C148" s="2" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>418</v>
@@ -7747,10 +7765,10 @@
         <v>2020</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C149" s="2" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>421</v>
@@ -7787,10 +7805,10 @@
         <v>2020</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C150" s="2" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>424</v>
@@ -7830,16 +7848,16 @@
         <v>1</v>
       </c>
       <c r="C151" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>42</v>
+        <v>427</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G151" s="8"/>
       <c r="H151" s="8"/>
@@ -7864,22 +7882,22 @@
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C152" s="2" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>132</v>
+        <v>430</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G152" s="8"/>
       <c r="H152" s="8"/>
@@ -7904,22 +7922,22 @@
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C153" s="2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>431</v>
+        <v>48</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
@@ -7950,10 +7968,10 @@
         <v>12</v>
       </c>
       <c r="C154" s="2" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>434</v>
+        <v>138</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>435</v>
@@ -7990,7 +8008,7 @@
         <v>12</v>
       </c>
       <c r="C155" s="2" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>437</v>
@@ -8030,7 +8048,7 @@
         <v>12</v>
       </c>
       <c r="C156" s="2" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>440</v>
@@ -8067,19 +8085,19 @@
         <v>2019</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C157" s="2" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>343</v>
+        <v>443</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
@@ -8107,19 +8125,19 @@
         <v>2019</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C158" s="2" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
@@ -8150,10 +8168,10 @@
         <v>11</v>
       </c>
       <c r="C159" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D159" s="9" t="s">
-        <v>448</v>
+        <v>26</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>449</v>
@@ -8190,16 +8208,16 @@
         <v>11</v>
       </c>
       <c r="C160" s="2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>297</v>
+        <v>451</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
@@ -8227,19 +8245,19 @@
         <v>2019</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C161" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>453</v>
+        <v>19</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>454</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
@@ -8267,13 +8285,13 @@
         <v>2019</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C162" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>456</v>
+        <v>303</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>457</v>
@@ -8310,7 +8328,7 @@
         <v>10</v>
       </c>
       <c r="C163" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>459</v>
@@ -8350,7 +8368,7 @@
         <v>10</v>
       </c>
       <c r="C164" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>462</v>
@@ -8387,10 +8405,10 @@
         <v>2019</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C165" s="2" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>465</v>
@@ -8427,10 +8445,10 @@
         <v>2019</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C166" s="2" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>468</v>
@@ -8470,7 +8488,7 @@
         <v>9</v>
       </c>
       <c r="C167" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>471</v>
@@ -8507,10 +8525,10 @@
         <v>2019</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C168" s="2" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>474</v>
@@ -8547,19 +8565,19 @@
         <v>2019</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C169" s="2" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
@@ -8587,19 +8605,19 @@
         <v>2019</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C170" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G170" s="8"/>
       <c r="H170" s="8"/>
@@ -8627,19 +8645,19 @@
         <v>2019</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C171" s="2" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>221</v>
+        <v>474</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
@@ -8670,16 +8688,16 @@
         <v>2</v>
       </c>
       <c r="C172" s="2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>482</v>
+        <v>126</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
@@ -8707,19 +8725,19 @@
         <v>2019</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C173" s="2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>346</v>
+        <v>227</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
@@ -8747,19 +8765,19 @@
         <v>2019</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C174" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
@@ -8790,10 +8808,10 @@
         <v>1</v>
       </c>
       <c r="C175" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>490</v>
+        <v>352</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>491</v>
@@ -8824,13 +8842,13 @@
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C176" s="2" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>493</v>
@@ -8864,13 +8882,13 @@
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C177" s="2" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>496</v>
@@ -8907,19 +8925,19 @@
         <v>2018</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C178" s="2" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>343</v>
+        <v>499</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G178" s="8"/>
       <c r="H178" s="8"/>
@@ -8947,19 +8965,19 @@
         <v>2018</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C179" s="2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G179" s="8"/>
       <c r="H179" s="8"/>
@@ -8987,19 +9005,19 @@
         <v>2018</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C180" s="2" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>42</v>
+        <v>349</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G180" s="8"/>
       <c r="H180" s="8"/>
@@ -9024,22 +9042,22 @@
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C181" s="2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G181" s="8"/>
       <c r="H181" s="8"/>
@@ -9064,16 +9082,16 @@
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C182" s="2" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>509</v>
+        <v>48</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>510</v>
@@ -9110,7 +9128,7 @@
         <v>11</v>
       </c>
       <c r="C183" s="2" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>512</v>
@@ -9147,10 +9165,10 @@
         <v>2017</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C184" s="2" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>515</v>
@@ -9187,10 +9205,10 @@
         <v>2017</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C185" s="2" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>518</v>
@@ -9230,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="C186" s="2" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>521</v>
@@ -9270,7 +9288,7 @@
         <v>10</v>
       </c>
       <c r="C187" s="2" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>524</v>
@@ -9307,10 +9325,10 @@
         <v>2017</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C188" s="2" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>527</v>
@@ -9347,10 +9365,10 @@
         <v>2017</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C189" s="2" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>530</v>
@@ -9383,12 +9401,24 @@
       <c r="Z189" s="8"/>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="8"/>
-      <c r="B190" s="8"/>
-      <c r="C190" s="8"/>
-      <c r="D190" s="8"/>
-      <c r="E190" s="8"/>
-      <c r="F190" s="8"/>
+      <c r="A190" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C190" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>535</v>
+      </c>
       <c r="G190" s="8"/>
       <c r="H190" s="8"/>
       <c r="I190" s="8"/>
@@ -9411,12 +9441,24 @@
       <c r="Z190" s="8"/>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="8"/>
-      <c r="B191" s="8"/>
-      <c r="C191" s="8"/>
-      <c r="D191" s="8"/>
-      <c r="E191" s="8"/>
-      <c r="F191" s="8"/>
+      <c r="A191" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C191" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>538</v>
+      </c>
       <c r="G191" s="8"/>
       <c r="H191" s="8"/>
       <c r="I191" s="8"/>
@@ -14982,7 +15024,7 @@
       <c r="Y389" s="8"/>
       <c r="Z389" s="8"/>
     </row>
-    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="8"/>
       <c r="B390" s="8"/>
       <c r="C390" s="8"/>
@@ -15010,7 +15052,7 @@
       <c r="Y390" s="8"/>
       <c r="Z390" s="8"/>
     </row>
-    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="8"/>
       <c r="B391" s="8"/>
       <c r="C391" s="8"/>
@@ -32146,6 +32188,62 @@
       <c r="Y1002" s="8"/>
       <c r="Z1002" s="8"/>
     </row>
+    <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1003" s="8"/>
+      <c r="B1003" s="8"/>
+      <c r="C1003" s="8"/>
+      <c r="D1003" s="8"/>
+      <c r="E1003" s="8"/>
+      <c r="F1003" s="8"/>
+      <c r="G1003" s="8"/>
+      <c r="H1003" s="8"/>
+      <c r="I1003" s="8"/>
+      <c r="J1003" s="8"/>
+      <c r="K1003" s="8"/>
+      <c r="L1003" s="8"/>
+      <c r="M1003" s="8"/>
+      <c r="N1003" s="8"/>
+      <c r="O1003" s="8"/>
+      <c r="P1003" s="8"/>
+      <c r="Q1003" s="8"/>
+      <c r="R1003" s="8"/>
+      <c r="S1003" s="8"/>
+      <c r="T1003" s="8"/>
+      <c r="U1003" s="8"/>
+      <c r="V1003" s="8"/>
+      <c r="W1003" s="8"/>
+      <c r="X1003" s="8"/>
+      <c r="Y1003" s="8"/>
+      <c r="Z1003" s="8"/>
+    </row>
+    <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1004" s="8"/>
+      <c r="B1004" s="8"/>
+      <c r="C1004" s="8"/>
+      <c r="D1004" s="8"/>
+      <c r="E1004" s="8"/>
+      <c r="F1004" s="8"/>
+      <c r="G1004" s="8"/>
+      <c r="H1004" s="8"/>
+      <c r="I1004" s="8"/>
+      <c r="J1004" s="8"/>
+      <c r="K1004" s="8"/>
+      <c r="L1004" s="8"/>
+      <c r="M1004" s="8"/>
+      <c r="N1004" s="8"/>
+      <c r="O1004" s="8"/>
+      <c r="P1004" s="8"/>
+      <c r="Q1004" s="8"/>
+      <c r="R1004" s="8"/>
+      <c r="S1004" s="8"/>
+      <c r="T1004" s="8"/>
+      <c r="U1004" s="8"/>
+      <c r="V1004" s="8"/>
+      <c r="W1004" s="8"/>
+      <c r="X1004" s="8"/>
+      <c r="Y1004" s="8"/>
+      <c r="Z1004" s="8"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -40,6 +40,127 @@
     <t xml:space="preserve">abstract</t>
   </si>
   <si>
+    <t xml:space="preserve">Rita Popova (HSE), Michael Daniel (Collegium de Lyon / Laboratoire Dynamique du Langage)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‘Small’ is big. Number suppletion in size property words</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Brill"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adjectival number suppletion — a phenomenon considered as unexpected on theoretical grounds (Hippisley et al., 2004) — is attested in size-denoting adjectives of three different IE branches, namely in Mainland Scandinavian, Brittonic and Megleno Romanian languages. Swedish suppletive adjective ‘small’ is by far the most widely cited example: 
+(1)  en liten flicka 
+a small girl
+‘a small girl’
+(2) två små flickor
+two small.pl girl.pl
+‘two small girls’ (Nurmio, 2017) 
+This, and the other two cases of suppletion attested in Indo-European, were object of detailed etymological investigations in the course of the last decade (see Börjars &amp; Vincent, 2011 for Mainland Scandinavian, Jørgensen, 2012 and Nurmio, 2017 for Brittonic, Maiden, 2014 for Megleno-Romanian). Theory-wise, Maiden (2014) attempts to explain why it is specifically size adjectives that deviate from regular expression of number, by examining the historical stages that led to the eventual development of suppletive paradigms for ‘small’ and ‘big’ in Scandinavian and Megleno Romanian. It is argued that all known instances of number suppletion in adjectives came to life under similar circumstances and should be attributed to a single linguistic force that disrupts the usual pattern of inflection precisely in size properties. Nurmio (2017) takes a step forward by bringing into light evidence from 3 non-IE languages and suggests “a strong tendency for adjectives denoting size, ‘small’ and ‘big’, to develop this type of suppletion” (Nurmio 2017: 26). In this study, we hope to continue the typological line of research and to make a contribution to the topic by presenting a more diverse collection of number conditioned irregularities in the expression of size properties across the world. 
+First, we put the “strong tendency” suggested by Nurmio (2017) to a more rigorous testing.  By researching several lexical databases and typological surveys, we obtained data on number encoding for a fixed subset of eight prototypical property meanings (Dixon 1982), namely ‘small’, ‘big’, ‘long’, ‘short’, ‘young’, ‘old’, ‘good’, ‘black’ in a convenience sample of some 100 languages where at least one of these items shows number-related irregularity. Our sources include typological studies of suppletion in general (Hippisley et al., 2004, Veselinova, 2006, Vafaeian, 2013) and three lexical databases: Global Lexicostatistical Database (Starostin, 2011), Intercontinental Dictionary Series (Key &amp; Comrie, 2023), and Austronesian Basic Vocabulary Database (Greenhill et al., 2008). Even though absolute numbers remain low, we see that this broader cross-linguistic evidence supports the idea of size-properties being more prone to number-conditioned stem alternations than other properties. 
+Next, we discuss various theoretical interpretations and implications of this generalization. We revisit the analysis of sources and paths of grammaticalization of ‘small’-suppletion in (Maiden 2014) in the light of these new data. There are a few cases when we are able to trace down the histories behind the suppletive pairs similar to the studies of Indo-European suppletion; however, in most cases we do not know much about the etymologies of the lexical items involved. In a synchronic functional perspective, we try to relate ‘small’-suppletion to research on a different but related type of number suppletion, namely the studies on verbal number (see especially Durie, 1986, Mithun, 1988, François, 2019), a link hinted at by Nurmio (2017). 
+References:
+Börjars, K., &amp; Vincent, N. (2011). The pre-conditions for suppletion. In A. Galani, G. Hicks, &amp; G. Tsoulas (Eds.), Linguistik Aktuell/Linguistics Today (Vol. 178, pp. 239–266). John Benjamins Publishing Company. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Brill"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://doi.org/10.1075/la.178.13bor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Brill"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Dixon, R. M. (1982). Where have All the Adjectives Gone?: And Other Essays in Semantics and Syntax. DE GRUYTER MOUTON. https://doi.org/10.1515/9783110822939 
+Durie, M. (1986). The Grammaticization of Number as a Verbal Category. In M. V. Vassiliki Nikiforidou, M. Niepokuj, &amp; D. Feder (Eds.), Proceedings of the twelfth Annual Meeting of the Berkeley Linguistics Society, 15-17 February 1986 (pp. 355–370). Berkeley Linguistics Society Publications. 
+François, A. (2019). Verbal number in Lo-Toga and Hiw: The emergence of a lexical paradigm. Transactions of the Philological Society, 117(3), 338–371. 
+Greenhill, S. J., Blust, R., &amp; Gray, R. D. (2008). The Austronesian Basic Vocabulary Database: From Bioinformatics to Lexomics. Evolutionary Bioinformatics, 4, EBO.S893. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Brill"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://doi.org/10.4137/EBO.S893
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Brill"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Hippisley, A., Chumakina, M., Corbett, G., &amp; Brown, D. (2004). Suppletion: Frequency, categories and distribution of stems. Studies in Language - STUD LANG, 28. https://doi.org/10.1075/sl.28.2.05hip 
+Jørgensen, A. R. (2012). The Plural of Middle and Early Modern Breton bihan. https://www.academia.edu/5789327/The_Plural_of_Middle_and_Early_Modern_Breton_bihan 
+Key, M. R., &amp; Comrie, B. (Eds.). (2023). IDS. Max Planck Institute for Evolutionary Anthropology. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Brill"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://ids.clld.org/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Brill"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Maiden, M. (2014). Two suppletive adjectives in Megleno-Romanian. Revue Romane. Langue et Litterature. International Journal of Romance Languages and Literatures, 49, 32–52. https://doi.org/10.1075/RRO.49.1.02MAI 
+Mithun, M. (1988). Lexical categories and the evolution of number marking. Theoretical Morphology: Approaches in Modern Linguistics, 211–234.
+Nurmio, S. (2017). The development and typology of number suppletion in adjectives. Diachronica, 34, 127–174. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Brill"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://doi.org/10.1075/DIA.34.2.01NUR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Brill"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Starostin, G. (2011, 2019). The Global Lexicostatistical Database.Moscow: Higher School of Economics, &amp; Santa Fe: Santa Fe Institute. Available online at http://starling.rinet.ru/new100/, accessed on [25.04.2023]. 
+Vafaeian, G. (2013). Typology of nominal and adjectival suppletion. STUF - Language Typology and Universals, 66(2). https://doi.org/10.1524/stuf.2013.0007 
+Veselinova, L. N. (2006). Suppletion in Verb Paradigms. In Tsl.67. John Benjamins Publishing Company. https://benjamins.com/catalog/tsl.67  </t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">George Moroz, Asya Alekseeva, Timofei Dedov, Artem Orekhov, Kirill Sidorov, Angelina Stepanova  (HSE)</t>
   </si>
   <si>
@@ -47,15 +168,6 @@
   </si>
   <si>
     <t xml:space="preserve">There is a new project within the Lab dedicated to the analysis of abstracts from linguistic journals. Within this project we extracted and annotated a list of linguistic journals, gathered the abstracts and metadata for all scientific papers from those journals, and stored them within the database. The main goal of this project is to create some kind of map of "who is who in linguistics". During the talk we will share our preliminary results and discuss conceptual problems of this task, possible applications of the gathered data and our future plans.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asya Alekseeva (HSE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reading group: Petrini, S., Casas-i-Muñoz, A., Cluet-i-Martinell, J., Wang, M., Bentz, C., &amp; Ferrer-i-Cancho, R. (2023). Direct and indirect evidence of compression of word lengths. Zipf's law of abbreviation revisited. arXiv preprint arXiv:2303.10128.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zipf’s law of abbreviation, the tendency of more frequent words to be shorter, is one of the most solid candidates for a linguistic universal, in the sense that it has the potential for being exceptionless or with a number of exceptions that is vanishingly small compared to the number of languages on Earth. Since Zipf’s pioneering research, this law has been viewed as a manifestation of a universal principle of communication, i.e. the minimization of word lengths, to reduce the effort of communication. Here we revisit the concordance of written language with the law of abbreviation. Crucially, we provide wider evidence that the law holds also in speech (when word length is measured in time), in particular in 46 languages from 14 linguistic families. Agreement with the law of abbreviation provides indirect evidence of compression of languages via the theoretical argument that the law of abbreviation is a prediction of optimal coding. Motivated by the need of direct evidence of compression, we derive a simple formula for a random baseline indicating that word lengths are systematically below chance, across linguistic families and writing systems, and independently of the unit of measurement (length in characters or duration in time). Our work paves the way to measure and compare the degree of optimality of word lengths in languages.</t>
   </si>
   <si>
     <t xml:space="preserve">Sergey Say (University of Potsdam), Natalia Logvinova (National Research University Higher School of Economics &amp; RAS Institute for Linguistic studies), Elizaveta Zabelina (RAS Institute for Linguistic studies) </t>
@@ -1675,7 +1787,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1706,6 +1818,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Brill"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Brill"/>
       <family val="0"/>
       <charset val="1"/>
@@ -1782,19 +1901,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1802,7 +1921,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1826,7 +1945,7 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1888,7 +2007,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -1896,7 +2015,7 @@
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3"/>
@@ -1970,7 +2089,7 @@
       <c r="C4" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -2056,7 +2175,7 @@
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="3"/>
@@ -2136,7 +2255,7 @@
       <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="562">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t xml:space="preserve">abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alina Russkikh (HSE), Aigul Zakirova (independent researcher)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peripheral functions of additive and intensifying clitics: a typological perspective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additive focus particles, such as English also or German auch, have been extensively discussed in the literature (König 1991, Krifka 1998, Forker 2016). Their semantic contribution to the meaning of the sentence is the presupposition that there is at least one true alternative to the focussed constituent. Another, less common type of focus particles areis intensifying particles, such as Avar =go (Forker 2015). The core function of such particles is contrast or emphasis marking.  In some languages, besides their core functions, additive and intensifying particles also occur in other, peripheral functions. Interestingly, in some of these functions both types of particles are used. The purpose of this talk is to establish a list of “shared” functions where both types of particles can be used, and compare the distribution of additive and intensifying particles across the shared functions. Our sample thus includes languages that feature both additive and intensifying particles. Besides, we limit ourselves to clitics. These conditions hold for languages spoken in the Eastern and Southern Caucasus and languages of the Volga-Kama area.</t>
   </si>
   <si>
     <t xml:space="preserve">Maria Ermolova (HSE)</t>
@@ -2011,10 +2020,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1011"/>
+  <dimension ref="A1:Z1012"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2076,7 +2085,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -2156,7 +2165,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -2233,10 +2242,10 @@
         <v>2023</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -2244,7 +2253,7 @@
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="3"/>
@@ -2284,7 +2293,7 @@
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="3"/>
@@ -2316,7 +2325,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>24</v>
@@ -2324,7 +2333,7 @@
       <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="3"/>
@@ -2356,7 +2365,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>27</v>
@@ -2396,7 +2405,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
@@ -2404,7 +2413,7 @@
       <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="3"/>
@@ -2433,12 +2442,12 @@
         <v>2023</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -2478,7 +2487,7 @@
       <c r="C12" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -2516,7 +2525,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
@@ -2524,7 +2533,7 @@
       <c r="E13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G13" s="3"/>
@@ -2564,7 +2573,7 @@
       <c r="E14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="4" t="s">
         <v>44</v>
       </c>
       <c r="G14" s="3"/>
@@ -2596,7 +2605,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>45</v>
@@ -2604,7 +2613,7 @@
       <c r="E15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="3"/>
@@ -2644,7 +2653,7 @@
       <c r="E16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="4" t="s">
         <v>50</v>
       </c>
       <c r="G16" s="3"/>
@@ -2673,10 +2682,10 @@
         <v>2023</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>51</v>
@@ -2756,7 +2765,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>57</v>
@@ -2836,7 +2845,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>63</v>
@@ -2876,7 +2885,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>66</v>
@@ -2921,7 +2930,7 @@
       <c r="D23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -2953,15 +2962,15 @@
         <v>2023</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -3036,7 +3045,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>78</v>
@@ -3076,7 +3085,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>81</v>
@@ -3153,10 +3162,10 @@
         <v>2023</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>87</v>
@@ -3236,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>93</v>
@@ -3316,16 +3325,16 @@
         <v>1</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -3359,13 +3368,13 @@
         <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F34" s="6" t="s">
         <v>102</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -3390,21 +3399,21 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="6" t="s">
         <v>105</v>
       </c>
       <c r="G35" s="3"/>
@@ -3436,7 +3445,7 @@
         <v>12</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>106</v>
@@ -3476,7 +3485,7 @@
         <v>12</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>109</v>
@@ -3519,13 +3528,13 @@
         <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -3553,13 +3562,13 @@
         <v>2022</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>115</v>
@@ -3636,16 +3645,16 @@
         <v>11</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -3679,13 +3688,13 @@
         <v>29</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -3716,10 +3725,10 @@
         <v>11</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>125</v>
@@ -3756,7 +3765,7 @@
         <v>11</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>127</v>
@@ -3799,13 +3808,13 @@
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -3833,13 +3842,13 @@
         <v>2022</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>133</v>
@@ -3916,7 +3925,7 @@
         <v>10</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>138</v>
@@ -3959,13 +3968,13 @@
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -3996,10 +4005,10 @@
         <v>10</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>144</v>
@@ -4156,7 +4165,7 @@
         <v>10</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>155</v>
@@ -4233,10 +4242,10 @@
         <v>2022</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>161</v>
@@ -4316,9 +4325,9 @@
         <v>9</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>167</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -4327,26 +4336,26 @@
       <c r="F58" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="8"/>
-      <c r="U58" s="8"/>
-      <c r="V58" s="8"/>
-      <c r="W58" s="8"/>
-      <c r="X58" s="8"/>
-      <c r="Y58" s="8"/>
-      <c r="Z58" s="8"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
@@ -4358,7 +4367,7 @@
       <c r="C59" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="7" t="s">
         <v>170</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -4393,10 +4402,10 @@
         <v>2022</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>173</v>
@@ -4436,7 +4445,7 @@
         <v>6</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>176</v>
@@ -4516,7 +4525,7 @@
         <v>6</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>182</v>
@@ -4553,10 +4562,10 @@
         <v>2022</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>185</v>
@@ -4596,7 +4605,7 @@
         <v>5</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>188</v>
@@ -4636,16 +4645,16 @@
         <v>5</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -4673,13 +4682,13 @@
         <v>2022</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>194</v>
@@ -4716,7 +4725,7 @@
         <v>4</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>196</v>
@@ -4756,7 +4765,7 @@
         <v>4</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>199</v>
@@ -4793,10 +4802,10 @@
         <v>2022</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>202</v>
@@ -4836,7 +4845,7 @@
         <v>3</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>205</v>
@@ -4916,7 +4925,7 @@
         <v>3</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>211</v>
@@ -4956,7 +4965,7 @@
         <v>3</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>214</v>
@@ -4993,10 +5002,10 @@
         <v>2022</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>217</v>
@@ -5036,7 +5045,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>220</v>
@@ -5073,10 +5082,10 @@
         <v>2022</v>
       </c>
       <c r="B77" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C77" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="C77" s="2" t="n">
-        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>223</v>
@@ -5116,7 +5125,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>226</v>
@@ -5156,16 +5165,16 @@
         <v>1</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>69</v>
+        <v>229</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
@@ -5190,16 +5199,16 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>231</v>
+        <v>72</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>232</v>
@@ -5236,16 +5245,16 @@
         <v>12</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>176</v>
+        <v>234</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
@@ -5276,10 +5285,10 @@
         <v>12</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>237</v>
@@ -5313,19 +5322,19 @@
         <v>2021</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>146</v>
+        <v>239</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
@@ -5356,10 +5365,10 @@
         <v>11</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>242</v>
@@ -5396,7 +5405,7 @@
         <v>11</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>244</v>
@@ -5436,7 +5445,7 @@
         <v>11</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>247</v>
@@ -5473,10 +5482,10 @@
         <v>2021</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>250</v>
@@ -5516,7 +5525,7 @@
         <v>10</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>253</v>
@@ -5556,7 +5565,7 @@
         <v>10</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>256</v>
@@ -5593,10 +5602,10 @@
         <v>2021</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>259</v>
@@ -5636,7 +5645,7 @@
         <v>9</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>262</v>
@@ -5676,7 +5685,7 @@
         <v>9</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>265</v>
@@ -5716,7 +5725,7 @@
         <v>9</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>268</v>
@@ -5753,19 +5762,19 @@
         <v>2021</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
@@ -5796,16 +5805,16 @@
         <v>6</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>176</v>
+        <v>250</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
@@ -5839,13 +5848,13 @@
         <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
@@ -5876,10 +5885,10 @@
         <v>6</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>277</v>
+        <v>149</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>278</v>
@@ -5913,10 +5922,10 @@
         <v>2021</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>280</v>
@@ -5956,7 +5965,7 @@
         <v>5</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>283</v>
@@ -5996,16 +6005,16 @@
         <v>5</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>179</v>
+        <v>286</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
@@ -6039,7 +6048,7 @@
         <v>11</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>288</v>
+        <v>182</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>289</v>
@@ -6073,10 +6082,10 @@
         <v>2021</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>291</v>
@@ -6116,7 +6125,7 @@
         <v>4</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>294</v>
@@ -6156,16 +6165,16 @@
         <v>4</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>69</v>
+        <v>297</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
@@ -6193,13 +6202,13 @@
         <v>2021</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>299</v>
+        <v>72</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>300</v>
@@ -6236,7 +6245,7 @@
         <v>3</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>302</v>
@@ -6316,7 +6325,7 @@
         <v>3</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>308</v>
@@ -6356,7 +6365,7 @@
         <v>3</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>311</v>
@@ -6396,7 +6405,7 @@
         <v>3</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>314</v>
@@ -6516,7 +6525,7 @@
         <v>3</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>323</v>
@@ -6553,10 +6562,10 @@
         <v>2021</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>326</v>
@@ -6596,7 +6605,7 @@
         <v>2</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>329</v>
@@ -6636,16 +6645,16 @@
         <v>2</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>135</v>
+        <v>332</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
@@ -6673,13 +6682,13 @@
         <v>2021</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>334</v>
+        <v>138</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>335</v>
@@ -6716,7 +6725,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>337</v>
@@ -6756,7 +6765,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>340</v>
@@ -6799,13 +6808,13 @@
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>158</v>
+        <v>343</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
@@ -6830,16 +6839,16 @@
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B121" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C121" s="2" t="n">
-        <v>8</v>
-      </c>
       <c r="D121" s="2" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>346</v>
@@ -6876,7 +6885,7 @@
         <v>12</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>348</v>
@@ -6916,7 +6925,7 @@
         <v>12</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>351</v>
@@ -6956,7 +6965,7 @@
         <v>12</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>354</v>
@@ -6993,10 +7002,10 @@
         <v>2020</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>357</v>
@@ -7036,7 +7045,7 @@
         <v>11</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>360</v>
@@ -7076,7 +7085,7 @@
         <v>11</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>363</v>
@@ -7113,10 +7122,10 @@
         <v>2020</v>
       </c>
       <c r="B128" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C128" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="C128" s="2" t="n">
-        <v>6</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>366</v>
@@ -7156,7 +7165,7 @@
         <v>10</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>369</v>
@@ -7196,7 +7205,7 @@
         <v>10</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>372</v>
@@ -7236,16 +7245,16 @@
         <v>10</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>256</v>
+        <v>375</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G131" s="8"/>
       <c r="H131" s="8"/>
@@ -7273,19 +7282,19 @@
         <v>2020</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>323</v>
+        <v>259</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G132" s="8"/>
       <c r="H132" s="8"/>
@@ -7316,16 +7325,16 @@
         <v>9</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>146</v>
+        <v>326</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
@@ -7356,16 +7365,16 @@
         <v>9</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
@@ -7396,10 +7405,10 @@
         <v>9</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>383</v>
+        <v>173</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>384</v>
@@ -7433,10 +7442,10 @@
         <v>2020</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>386</v>
@@ -7476,7 +7485,7 @@
         <v>6</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>389</v>
@@ -7516,7 +7525,7 @@
         <v>6</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>392</v>
@@ -7556,7 +7565,7 @@
         <v>6</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>395</v>
@@ -7596,7 +7605,7 @@
         <v>6</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>398</v>
@@ -7633,19 +7642,19 @@
         <v>2020</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>69</v>
+        <v>401</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
@@ -7676,10 +7685,10 @@
         <v>5</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>403</v>
+        <v>72</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>404</v>
@@ -7716,7 +7725,7 @@
         <v>5</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>406</v>
@@ -7753,10 +7762,10 @@
         <v>2020</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>409</v>
@@ -7796,7 +7805,7 @@
         <v>4</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>412</v>
@@ -7836,7 +7845,7 @@
         <v>4</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>415</v>
@@ -7876,16 +7885,16 @@
         <v>4</v>
       </c>
       <c r="C147" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>323</v>
+        <v>418</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
@@ -7913,13 +7922,13 @@
         <v>2020</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C148" s="2" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>420</v>
+        <v>326</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>421</v>
@@ -7956,7 +7965,7 @@
         <v>3</v>
       </c>
       <c r="C149" s="2" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>423</v>
@@ -7996,16 +8005,16 @@
         <v>3</v>
       </c>
       <c r="C150" s="2" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>179</v>
+        <v>426</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G150" s="8"/>
       <c r="H150" s="8"/>
@@ -8036,16 +8045,16 @@
         <v>3</v>
       </c>
       <c r="C151" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G151" s="8"/>
       <c r="H151" s="8"/>
@@ -8079,13 +8088,13 @@
         <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>383</v>
+        <v>161</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G152" s="8"/>
       <c r="H152" s="8"/>
@@ -8116,10 +8125,10 @@
         <v>3</v>
       </c>
       <c r="C153" s="2" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>433</v>
@@ -8153,10 +8162,10 @@
         <v>2020</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C154" s="2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>435</v>
@@ -8196,7 +8205,7 @@
         <v>2</v>
       </c>
       <c r="C155" s="2" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>438</v>
@@ -8236,7 +8245,7 @@
         <v>2</v>
       </c>
       <c r="C156" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>441</v>
@@ -8276,7 +8285,7 @@
         <v>2</v>
       </c>
       <c r="C157" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>444</v>
@@ -8313,10 +8322,10 @@
         <v>2020</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C158" s="2" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>447</v>
@@ -8356,7 +8365,7 @@
         <v>1</v>
       </c>
       <c r="C159" s="2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>450</v>
@@ -8396,16 +8405,16 @@
         <v>1</v>
       </c>
       <c r="C160" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>69</v>
+        <v>453</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
@@ -8430,22 +8439,22 @@
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C161" s="2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
@@ -8479,7 +8488,7 @@
         <v>3</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>457</v>
+        <v>161</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>458</v>
@@ -8516,7 +8525,7 @@
         <v>12</v>
       </c>
       <c r="C163" s="2" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>460</v>
@@ -8556,7 +8565,7 @@
         <v>12</v>
       </c>
       <c r="C164" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>463</v>
@@ -8596,7 +8605,7 @@
         <v>12</v>
       </c>
       <c r="C165" s="2" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>466</v>
@@ -8633,19 +8642,19 @@
         <v>2019</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C166" s="2" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>369</v>
+        <v>469</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
@@ -8679,7 +8688,7 @@
         <v>26</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>471</v>
+        <v>372</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>472</v>
@@ -8716,9 +8725,9 @@
         <v>11</v>
       </c>
       <c r="C168" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D168" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>474</v>
       </c>
       <c r="E168" s="2" t="s">
@@ -8756,16 +8765,16 @@
         <v>11</v>
       </c>
       <c r="C169" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>323</v>
+        <v>19</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>477</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
@@ -8793,13 +8802,13 @@
         <v>2019</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C170" s="2" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>479</v>
+        <v>326</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>480</v>
@@ -8836,7 +8845,7 @@
         <v>10</v>
       </c>
       <c r="C171" s="2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>482</v>
@@ -8876,7 +8885,7 @@
         <v>10</v>
       </c>
       <c r="C172" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>485</v>
@@ -8916,7 +8925,7 @@
         <v>10</v>
       </c>
       <c r="C173" s="2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>488</v>
@@ -8953,10 +8962,10 @@
         <v>2019</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C174" s="2" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>491</v>
@@ -9036,7 +9045,7 @@
         <v>9</v>
       </c>
       <c r="C176" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>497</v>
@@ -9073,10 +9082,10 @@
         <v>2019</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C177" s="2" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>500</v>
@@ -9116,16 +9125,16 @@
         <v>6</v>
       </c>
       <c r="C178" s="2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G178" s="8"/>
       <c r="H178" s="8"/>
@@ -9153,19 +9162,19 @@
         <v>2019</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C179" s="2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>146</v>
+        <v>497</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G179" s="8"/>
       <c r="H179" s="8"/>
@@ -9196,16 +9205,16 @@
         <v>2</v>
       </c>
       <c r="C180" s="2" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>247</v>
+        <v>149</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G180" s="8"/>
       <c r="H180" s="8"/>
@@ -9236,10 +9245,10 @@
         <v>2</v>
       </c>
       <c r="C181" s="2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>508</v>
+        <v>250</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>509</v>
@@ -9273,19 +9282,19 @@
         <v>2019</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C182" s="2" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>372</v>
+        <v>511</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G182" s="8"/>
       <c r="H182" s="8"/>
@@ -9316,10 +9325,10 @@
         <v>1</v>
       </c>
       <c r="C183" s="2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>513</v>
+        <v>375</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>514</v>
@@ -9356,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="C184" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>516</v>
@@ -9390,13 +9399,13 @@
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C185" s="2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>519</v>
@@ -9433,10 +9442,10 @@
         <v>2018</v>
       </c>
       <c r="B186" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C186" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>522</v>
@@ -9476,16 +9485,16 @@
         <v>11</v>
       </c>
       <c r="C187" s="2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>369</v>
+        <v>525</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G187" s="8"/>
       <c r="H187" s="8"/>
@@ -9513,13 +9522,13 @@
         <v>2018</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C188" s="2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>527</v>
+        <v>372</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>528</v>
@@ -9556,16 +9565,16 @@
         <v>10</v>
       </c>
       <c r="C189" s="2" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>69</v>
+        <v>530</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G189" s="8"/>
       <c r="H189" s="8"/>
@@ -9590,16 +9599,16 @@
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B190" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C190" s="2" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>532</v>
+        <v>72</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>533</v>
@@ -9636,7 +9645,7 @@
         <v>11</v>
       </c>
       <c r="C191" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>535</v>
@@ -9676,7 +9685,7 @@
         <v>11</v>
       </c>
       <c r="C192" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>538</v>
@@ -9713,10 +9722,10 @@
         <v>2017</v>
       </c>
       <c r="B193" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C193" s="2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>541</v>
@@ -9756,7 +9765,7 @@
         <v>10</v>
       </c>
       <c r="C194" s="2" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>544</v>
@@ -9796,7 +9805,7 @@
         <v>10</v>
       </c>
       <c r="C195" s="2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>547</v>
@@ -9836,7 +9845,7 @@
         <v>10</v>
       </c>
       <c r="C196" s="2" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>550</v>
@@ -9873,10 +9882,10 @@
         <v>2017</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C197" s="2" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>553</v>
@@ -9916,7 +9925,7 @@
         <v>9</v>
       </c>
       <c r="C198" s="2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>556</v>
@@ -9949,12 +9958,24 @@
       <c r="Z198" s="8"/>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="8"/>
-      <c r="B199" s="8"/>
-      <c r="C199" s="8"/>
-      <c r="D199" s="8"/>
-      <c r="E199" s="8"/>
-      <c r="F199" s="8"/>
+      <c r="A199" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C199" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>561</v>
+      </c>
       <c r="G199" s="8"/>
       <c r="H199" s="8"/>
       <c r="I199" s="8"/>
@@ -15548,7 +15569,7 @@
       <c r="Y398" s="8"/>
       <c r="Z398" s="8"/>
     </row>
-    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="8"/>
       <c r="B399" s="8"/>
       <c r="C399" s="8"/>
@@ -32712,6 +32733,34 @@
       <c r="Y1011" s="8"/>
       <c r="Z1011" s="8"/>
     </row>
+    <row r="1012" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1012" s="8"/>
+      <c r="B1012" s="8"/>
+      <c r="C1012" s="8"/>
+      <c r="D1012" s="8"/>
+      <c r="E1012" s="8"/>
+      <c r="F1012" s="8"/>
+      <c r="G1012" s="8"/>
+      <c r="H1012" s="8"/>
+      <c r="I1012" s="8"/>
+      <c r="J1012" s="8"/>
+      <c r="K1012" s="8"/>
+      <c r="L1012" s="8"/>
+      <c r="M1012" s="8"/>
+      <c r="N1012" s="8"/>
+      <c r="O1012" s="8"/>
+      <c r="P1012" s="8"/>
+      <c r="Q1012" s="8"/>
+      <c r="R1012" s="8"/>
+      <c r="S1012" s="8"/>
+      <c r="T1012" s="8"/>
+      <c r="U1012" s="8"/>
+      <c r="V1012" s="8"/>
+      <c r="W1012" s="8"/>
+      <c r="X1012" s="8"/>
+      <c r="Y1012" s="8"/>
+      <c r="Z1012" s="8"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Peripheral functions of additive and intensifying clitics: a typological perspective</t>
   </si>
   <si>
-    <t xml:space="preserve">Additive focus particles, such as English also or German auch, have been extensively discussed in the literature (König 1991, Krifka 1998, Forker 2016). Their semantic contribution to the meaning of the sentence is the presupposition that there is at least one true alternative to the focussed constituent. Another, less common type of focus particles areis intensifying particles, such as Avar =go (Forker 2015). The core function of such particles is contrast or emphasis marking.  In some languages, besides their core functions, additive and intensifying particles also occur in other, peripheral functions. Interestingly, in some of these functions both types of particles are used. The purpose of this talk is to establish a list of “shared” functions where both types of particles can be used, and compare the distribution of additive and intensifying particles across the shared functions. Our sample thus includes languages that feature both additive and intensifying particles. Besides, we limit ourselves to clitics. These conditions hold for languages spoken in the Eastern and Southern Caucasus and languages of the Volga-Kama area.</t>
+    <t xml:space="preserve">Additive focus particles, such as English also or German auch, have been extensively discussed in the literature (König 1991, Krifka 1998, Forker 2016). Their semantic contribution to the meaning of the sentence is the presupposition that there is at least one true alternative to the focussed constituent. Another, less common type of focus particles are intensifying particles, such as Avar =*go* (Forker 2015). The core function of such particles is contrast or emphasis marking.  In some languages, besides their core functions, additive and intensifying particles also occur in other, peripheral functions. Interestingly, in some of these functions both types of particles are used. The purpose of this talk is to establish a list of “shared” functions where both types of particles can be used, and compare the distribution of additive and intensifying particles across the shared functions. Our sample thus includes languages that feature both additive and intensifying particles. Besides, we limit ourselves to clitics. These conditions hold for languages spoken in the Eastern and Southern Caucasus and languages of the Volga-Kama area.</t>
   </si>
   <si>
     <t xml:space="preserve">Maria Ermolova (HSE)</t>
@@ -2022,8 +2022,8 @@
   </sheetPr>
   <dimension ref="A1:Z1012"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="565">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t xml:space="preserve">abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nina Dobrushina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variation and change in Rutul optatives: results of Rutul dialectological survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the beginning of this talk, I will introduce the project of the dialectological survey of Rutul (Lezgic), its scope and its aims. I will then present the results of the project in one functional domain, the optative suffixes. A great diversity of suffixes found across twelve villages of the Rutulski district will be analyzed in terms of inter-village, inter-speaker and intra-speaker variation. The patterns of geographic and social distribution of optative suffixes will be discussed in order to raise the question of the diachronic dynamics that underlie the observed variation. I will compare the results of the project with the existing literature on Rutul dialects and other Lezgic languages, and propose a diachronic scenario for the development and divergence of Rutul optative suffixes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vera Tsukanova</t>
   </si>
   <si>
     <t xml:space="preserve">Alina Russkikh (HSE), Aigul Zakirova (independent researcher)</t>
@@ -1286,9 +1298,6 @@
   </si>
   <si>
     <t xml:space="preserve">We continue our project of looking for correlations between linguistic distances with geography in Daghestan, an area of high language density and mountainous terrain. We are trying to detect the impact of landscape on linguistic divergence by comparing correlations of linguistic distances with Great Circle ("crow flight") distances vs. distances calculated taking the terrain into account. This time we expanded our dataset to include Tsezic. We are trying to find ways to solve the problem of the geographic data being so much richer in datapoints than the documented village lects; and of combining slightly different data (such as Swadesh list vs. Jena lists) into a single count. We will tell you about our progress in the last few months in terms of data cleaning, playing with models and kicking each other. Still very much work in progress.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nina Dobrushina</t>
   </si>
   <si>
     <t xml:space="preserve">Optatives in Nakh-Daghestanian and beyond</t>
@@ -2020,10 +2029,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1012"/>
+  <dimension ref="A1:Z1014"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2085,7 +2094,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -2125,17 +2134,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -2165,16 +2170,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2205,16 +2210,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -2245,16 +2250,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -2282,19 +2287,19 @@
         <v>2023</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2322,19 +2327,19 @@
         <v>2023</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2365,16 +2370,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2405,16 +2410,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -2445,16 +2450,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2482,19 +2487,19 @@
         <v>2023</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2522,19 +2527,19 @@
         <v>2023</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2565,16 +2570,16 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2605,16 +2610,16 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2645,16 +2650,16 @@
         <v>4</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2685,16 +2690,16 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2722,19 +2727,19 @@
         <v>2023</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2762,19 +2767,19 @@
         <v>2023</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -2805,16 +2810,16 @@
         <v>3</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -2845,16 +2850,16 @@
         <v>3</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -2885,16 +2890,16 @@
         <v>3</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -2925,16 +2930,16 @@
         <v>3</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -2965,16 +2970,16 @@
         <v>3</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -3002,19 +3007,19 @@
         <v>2023</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -3042,19 +3047,19 @@
         <v>2023</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -3085,16 +3090,16 @@
         <v>2</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -3125,16 +3130,16 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -3165,16 +3170,16 @@
         <v>2</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -3202,19 +3207,19 @@
         <v>2023</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -3242,19 +3247,19 @@
         <v>2023</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -3285,16 +3290,16 @@
         <v>1</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -3325,16 +3330,16 @@
         <v>1</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -3365,16 +3370,16 @@
         <v>1</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -3405,15 +3410,15 @@
         <v>1</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G35" s="3"/>
@@ -3439,22 +3444,22 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -3479,22 +3484,22 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -3525,16 +3530,16 @@
         <v>12</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -3565,16 +3570,16 @@
         <v>12</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -3602,19 +3607,19 @@
         <v>2022</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -3642,19 +3647,19 @@
         <v>2022</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -3685,16 +3690,16 @@
         <v>11</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -3725,10 +3730,10 @@
         <v>11</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>125</v>
@@ -3765,16 +3770,16 @@
         <v>11</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -3805,16 +3810,16 @@
         <v>11</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -3845,16 +3850,16 @@
         <v>11</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -3882,19 +3887,19 @@
         <v>2022</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -3922,19 +3927,19 @@
         <v>2022</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -3965,16 +3970,16 @@
         <v>10</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -4005,16 +4010,16 @@
         <v>10</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -4045,16 +4050,16 @@
         <v>10</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -4085,16 +4090,16 @@
         <v>10</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -4128,13 +4133,13 @@
         <v>18</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -4168,13 +4173,13 @@
         <v>18</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -4205,16 +4210,16 @@
         <v>10</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -4245,16 +4250,16 @@
         <v>10</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -4282,19 +4287,19 @@
         <v>2022</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -4322,19 +4327,19 @@
         <v>2022</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -4365,37 +4370,37 @@
         <v>9</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D59" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="8"/>
-      <c r="T59" s="8"/>
-      <c r="U59" s="8"/>
-      <c r="V59" s="8"/>
-      <c r="W59" s="8"/>
-      <c r="X59" s="8"/>
-      <c r="Y59" s="8"/>
-      <c r="Z59" s="8"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
@@ -4405,56 +4410,56 @@
         <v>9</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="8"/>
-      <c r="V60" s="8"/>
-      <c r="W60" s="8"/>
-      <c r="X60" s="8"/>
-      <c r="Y60" s="8"/>
-      <c r="Z60" s="8"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -4482,19 +4487,19 @@
         <v>2022</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -4525,16 +4530,16 @@
         <v>6</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -4565,16 +4570,16 @@
         <v>6</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -4602,19 +4607,19 @@
         <v>2022</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
@@ -4642,19 +4647,19 @@
         <v>2022</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -4685,16 +4690,16 @@
         <v>5</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
@@ -4722,19 +4727,19 @@
         <v>2022</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
@@ -4762,19 +4767,19 @@
         <v>2022</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -4805,16 +4810,16 @@
         <v>4</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
@@ -4842,19 +4847,19 @@
         <v>2022</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
@@ -4882,19 +4887,19 @@
         <v>2022</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
@@ -4925,16 +4930,16 @@
         <v>3</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
@@ -4965,16 +4970,16 @@
         <v>3</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
@@ -5005,16 +5010,16 @@
         <v>3</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
@@ -5042,19 +5047,19 @@
         <v>2022</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
@@ -5082,19 +5087,19 @@
         <v>2022</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
@@ -5122,19 +5127,19 @@
         <v>2022</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
@@ -5162,19 +5167,19 @@
         <v>2022</v>
       </c>
       <c r="B79" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C79" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C79" s="2" t="n">
-        <v>18</v>
-      </c>
       <c r="D79" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
@@ -5205,16 +5210,16 @@
         <v>1</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>72</v>
+        <v>230</v>
       </c>
       <c r="E80" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
@@ -5239,22 +5244,22 @@
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
@@ -5279,22 +5284,22 @@
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
@@ -5325,16 +5330,16 @@
         <v>12</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
@@ -5362,19 +5367,19 @@
         <v>2021</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="E84" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
@@ -5402,19 +5407,19 @@
         <v>2021</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
@@ -5445,16 +5450,16 @@
         <v>11</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
@@ -5485,16 +5490,16 @@
         <v>11</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
@@ -5522,19 +5527,19 @@
         <v>2021</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
@@ -5562,19 +5567,19 @@
         <v>2021</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
@@ -5605,16 +5610,16 @@
         <v>10</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
@@ -5642,19 +5647,19 @@
         <v>2021</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
@@ -5682,19 +5687,19 @@
         <v>2021</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
@@ -5725,16 +5730,16 @@
         <v>9</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
@@ -5765,16 +5770,16 @@
         <v>9</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
@@ -5802,19 +5807,19 @@
         <v>2021</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="E95" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
@@ -5842,13 +5847,13 @@
         <v>2021</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>179</v>
+        <v>275</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>276</v>
@@ -5885,10 +5890,10 @@
         <v>6</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>278</v>
@@ -5925,16 +5930,16 @@
         <v>6</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
@@ -5962,19 +5967,19 @@
         <v>2021</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
@@ -6002,19 +6007,19 @@
         <v>2021</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
@@ -6045,16 +6050,16 @@
         <v>5</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>182</v>
+        <v>287</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
@@ -6085,16 +6090,16 @@
         <v>5</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
@@ -6122,19 +6127,19 @@
         <v>2021</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
@@ -6162,19 +6167,19 @@
         <v>2021</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
@@ -6205,16 +6210,16 @@
         <v>4</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>72</v>
+        <v>298</v>
       </c>
       <c r="E105" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
@@ -6242,19 +6247,19 @@
         <v>2021</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
@@ -6282,19 +6287,19 @@
         <v>2021</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
@@ -6325,16 +6330,16 @@
         <v>3</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
@@ -6365,16 +6370,16 @@
         <v>3</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
@@ -6405,16 +6410,16 @@
         <v>3</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
@@ -6445,16 +6450,16 @@
         <v>3</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
@@ -6485,16 +6490,16 @@
         <v>3</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
@@ -6528,13 +6533,13 @@
         <v>2</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="G113" s="8"/>
       <c r="H113" s="8"/>
@@ -6565,16 +6570,16 @@
         <v>3</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
@@ -6602,19 +6607,19 @@
         <v>2021</v>
       </c>
       <c r="B115" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C115" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C115" s="2" t="n">
-        <v>9</v>
-      </c>
       <c r="D115" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
@@ -6642,19 +6647,19 @@
         <v>2021</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
@@ -6685,16 +6690,16 @@
         <v>2</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>138</v>
+        <v>333</v>
       </c>
       <c r="E117" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
@@ -6722,19 +6727,19 @@
         <v>2021</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="F118" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
@@ -6762,19 +6767,19 @@
         <v>2021</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
@@ -6805,16 +6810,16 @@
         <v>1</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
@@ -6845,16 +6850,16 @@
         <v>1</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>161</v>
+        <v>344</v>
       </c>
       <c r="E121" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
@@ -6879,22 +6884,22 @@
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B122" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C122" s="2" t="n">
-        <v>8</v>
-      </c>
       <c r="D122" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="F122" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
@@ -6919,22 +6924,22 @@
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B123" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C123" s="2" t="n">
-        <v>22</v>
-      </c>
       <c r="D123" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
@@ -6965,16 +6970,16 @@
         <v>12</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
@@ -7005,16 +7010,16 @@
         <v>12</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
@@ -7042,19 +7047,19 @@
         <v>2020</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
@@ -7082,19 +7087,19 @@
         <v>2020</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
@@ -7125,16 +7130,16 @@
         <v>11</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
@@ -7162,19 +7167,19 @@
         <v>2020</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
@@ -7202,19 +7207,19 @@
         <v>2020</v>
       </c>
       <c r="B130" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C130" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C130" s="2" t="n">
-        <v>27</v>
-      </c>
       <c r="D130" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
@@ -7245,16 +7250,16 @@
         <v>10</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="G131" s="8"/>
       <c r="H131" s="8"/>
@@ -7285,16 +7290,16 @@
         <v>10</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>259</v>
+        <v>6</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G132" s="8"/>
       <c r="H132" s="8"/>
@@ -7322,19 +7327,19 @@
         <v>2020</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>326</v>
+        <v>378</v>
       </c>
       <c r="E133" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F133" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
@@ -7362,19 +7367,19 @@
         <v>2020</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>149</v>
+        <v>263</v>
       </c>
       <c r="E134" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>383</v>
       </c>
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
@@ -7405,16 +7410,16 @@
         <v>9</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>173</v>
+        <v>330</v>
       </c>
       <c r="E135" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
@@ -7445,16 +7450,16 @@
         <v>9</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
@@ -7482,19 +7487,19 @@
         <v>2020</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>389</v>
+        <v>177</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
@@ -7522,19 +7527,19 @@
         <v>2020</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
@@ -7565,16 +7570,16 @@
         <v>6</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
@@ -7605,16 +7610,16 @@
         <v>6</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
@@ -7645,16 +7650,16 @@
         <v>6</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
@@ -7682,19 +7687,19 @@
         <v>2020</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>72</v>
+        <v>401</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
@@ -7722,19 +7727,19 @@
         <v>2020</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
@@ -7765,16 +7770,16 @@
         <v>5</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>409</v>
+        <v>76</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
@@ -7802,19 +7807,19 @@
         <v>2020</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
@@ -7842,19 +7847,19 @@
         <v>2020</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
@@ -7885,16 +7890,16 @@
         <v>4</v>
       </c>
       <c r="C147" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
@@ -7925,16 +7930,16 @@
         <v>4</v>
       </c>
       <c r="C148" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>326</v>
+        <v>418</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
@@ -7962,19 +7967,19 @@
         <v>2020</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C149" s="2" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
@@ -8002,19 +8007,19 @@
         <v>2020</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C150" s="2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>426</v>
+        <v>330</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G150" s="8"/>
       <c r="H150" s="8"/>
@@ -8045,16 +8050,16 @@
         <v>3</v>
       </c>
       <c r="C151" s="2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>182</v>
+        <v>426</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G151" s="8"/>
       <c r="H151" s="8"/>
@@ -8085,16 +8090,16 @@
         <v>3</v>
       </c>
       <c r="C152" s="2" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>161</v>
+        <v>429</v>
       </c>
       <c r="E152" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F152" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="G152" s="8"/>
       <c r="H152" s="8"/>
@@ -8125,16 +8130,16 @@
         <v>3</v>
       </c>
       <c r="C153" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>386</v>
+        <v>186</v>
       </c>
       <c r="E153" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F153" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
@@ -8165,16 +8170,16 @@
         <v>3</v>
       </c>
       <c r="C154" s="2" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F154" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>437</v>
       </c>
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
@@ -8202,19 +8207,19 @@
         <v>2020</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C155" s="2" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
@@ -8242,19 +8247,19 @@
         <v>2020</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C156" s="2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
@@ -8285,16 +8290,16 @@
         <v>2</v>
       </c>
       <c r="C157" s="2" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
@@ -8325,16 +8330,16 @@
         <v>2</v>
       </c>
       <c r="C158" s="2" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
@@ -8362,19 +8367,19 @@
         <v>2020</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C159" s="2" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
@@ -8402,19 +8407,19 @@
         <v>2020</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C160" s="2" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
@@ -8445,16 +8450,16 @@
         <v>1</v>
       </c>
       <c r="C161" s="2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>72</v>
+        <v>453</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
@@ -8479,22 +8484,22 @@
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C162" s="2" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>161</v>
+        <v>456</v>
       </c>
       <c r="E162" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F162" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
@@ -8519,22 +8524,22 @@
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C163" s="2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D163" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F163" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
@@ -8565,16 +8570,16 @@
         <v>12</v>
       </c>
       <c r="C164" s="2" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>463</v>
+        <v>165</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
@@ -8605,16 +8610,16 @@
         <v>12</v>
       </c>
       <c r="C165" s="2" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
@@ -8645,16 +8650,16 @@
         <v>12</v>
       </c>
       <c r="C166" s="2" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
@@ -8682,19 +8687,19 @@
         <v>2019</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C167" s="2" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>372</v>
+        <v>469</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
@@ -8722,19 +8727,19 @@
         <v>2019</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C168" s="2" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D168" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F168" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="G168" s="8"/>
       <c r="H168" s="8"/>
@@ -8765,16 +8770,16 @@
         <v>11</v>
       </c>
       <c r="C169" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D169" s="9" t="s">
-        <v>477</v>
+        <v>26</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
@@ -8805,16 +8810,16 @@
         <v>11</v>
       </c>
       <c r="C170" s="2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>326</v>
+        <v>477</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G170" s="8"/>
       <c r="H170" s="8"/>
@@ -8842,19 +8847,19 @@
         <v>2019</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C171" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D171" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F171" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
@@ -8882,19 +8887,19 @@
         <v>2019</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C172" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>485</v>
+        <v>330</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
@@ -8925,16 +8930,16 @@
         <v>10</v>
       </c>
       <c r="C173" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
@@ -8965,16 +8970,16 @@
         <v>10</v>
       </c>
       <c r="C174" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
@@ -9002,19 +9007,19 @@
         <v>2019</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C175" s="2" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
@@ -9042,19 +9047,19 @@
         <v>2019</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C176" s="2" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G176" s="8"/>
       <c r="H176" s="8"/>
@@ -9085,16 +9090,16 @@
         <v>9</v>
       </c>
       <c r="C177" s="2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G177" s="8"/>
       <c r="H177" s="8"/>
@@ -9122,19 +9127,19 @@
         <v>2019</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C178" s="2" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G178" s="8"/>
       <c r="H178" s="8"/>
@@ -9162,19 +9167,19 @@
         <v>2019</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C179" s="2" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G179" s="8"/>
       <c r="H179" s="8"/>
@@ -9202,13 +9207,13 @@
         <v>2019</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C180" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>149</v>
+        <v>506</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>507</v>
@@ -9242,19 +9247,19 @@
         <v>2019</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C181" s="2" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E181" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F181" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="G181" s="8"/>
       <c r="H181" s="8"/>
@@ -9285,16 +9290,16 @@
         <v>2</v>
       </c>
       <c r="C182" s="2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="F182" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="G182" s="8"/>
       <c r="H182" s="8"/>
@@ -9322,19 +9327,19 @@
         <v>2019</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C183" s="2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>375</v>
+        <v>254</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G183" s="8"/>
       <c r="H183" s="8"/>
@@ -9362,19 +9367,19 @@
         <v>2019</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C184" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F184" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>518</v>
       </c>
       <c r="G184" s="8"/>
       <c r="H184" s="8"/>
@@ -9405,16 +9410,16 @@
         <v>1</v>
       </c>
       <c r="C185" s="2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>519</v>
+        <v>378</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G185" s="8"/>
       <c r="H185" s="8"/>
@@ -9439,22 +9444,22 @@
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B186" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C186" s="2" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G186" s="8"/>
       <c r="H186" s="8"/>
@@ -9479,22 +9484,22 @@
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C187" s="2" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G187" s="8"/>
       <c r="H187" s="8"/>
@@ -9522,19 +9527,19 @@
         <v>2018</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C188" s="2" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>372</v>
+        <v>525</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G188" s="8"/>
       <c r="H188" s="8"/>
@@ -9562,19 +9567,19 @@
         <v>2018</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C189" s="2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D189" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F189" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>532</v>
       </c>
       <c r="G189" s="8"/>
       <c r="H189" s="8"/>
@@ -9602,19 +9607,19 @@
         <v>2018</v>
       </c>
       <c r="B190" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C190" s="2" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G190" s="8"/>
       <c r="H190" s="8"/>
@@ -9639,22 +9644,22 @@
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B191" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C191" s="2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="F191" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>537</v>
       </c>
       <c r="G191" s="8"/>
       <c r="H191" s="8"/>
@@ -9679,22 +9684,22 @@
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B192" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C192" s="2" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>538</v>
+        <v>76</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G192" s="8"/>
       <c r="H192" s="8"/>
@@ -9725,16 +9730,16 @@
         <v>11</v>
       </c>
       <c r="C193" s="2" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G193" s="8"/>
       <c r="H193" s="8"/>
@@ -9762,19 +9767,19 @@
         <v>2017</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C194" s="2" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G194" s="8"/>
       <c r="H194" s="8"/>
@@ -9802,19 +9807,19 @@
         <v>2017</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C195" s="2" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G195" s="8"/>
       <c r="H195" s="8"/>
@@ -9845,16 +9850,16 @@
         <v>10</v>
       </c>
       <c r="C196" s="2" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G196" s="8"/>
       <c r="H196" s="8"/>
@@ -9885,16 +9890,16 @@
         <v>10</v>
       </c>
       <c r="C197" s="2" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="G197" s="8"/>
       <c r="H197" s="8"/>
@@ -9922,19 +9927,19 @@
         <v>2017</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C198" s="2" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G198" s="8"/>
       <c r="H198" s="8"/>
@@ -9962,19 +9967,19 @@
         <v>2017</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C199" s="2" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="G199" s="8"/>
       <c r="H199" s="8"/>
@@ -9998,12 +10003,24 @@
       <c r="Z199" s="8"/>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="8"/>
-      <c r="B200" s="8"/>
-      <c r="C200" s="8"/>
-      <c r="D200" s="8"/>
-      <c r="E200" s="8"/>
-      <c r="F200" s="8"/>
+      <c r="A200" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C200" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>561</v>
+      </c>
       <c r="G200" s="8"/>
       <c r="H200" s="8"/>
       <c r="I200" s="8"/>
@@ -10026,12 +10043,24 @@
       <c r="Z200" s="8"/>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="8"/>
-      <c r="B201" s="8"/>
-      <c r="C201" s="8"/>
-      <c r="D201" s="8"/>
-      <c r="E201" s="8"/>
-      <c r="F201" s="8"/>
+      <c r="A201" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C201" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>564</v>
+      </c>
       <c r="G201" s="8"/>
       <c r="H201" s="8"/>
       <c r="I201" s="8"/>
@@ -15597,7 +15626,7 @@
       <c r="Y399" s="8"/>
       <c r="Z399" s="8"/>
     </row>
-    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="8"/>
       <c r="B400" s="8"/>
       <c r="C400" s="8"/>
@@ -15625,7 +15654,7 @@
       <c r="Y400" s="8"/>
       <c r="Z400" s="8"/>
     </row>
-    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="8"/>
       <c r="B401" s="8"/>
       <c r="C401" s="8"/>
@@ -32761,6 +32790,62 @@
       <c r="Y1012" s="8"/>
       <c r="Z1012" s="8"/>
     </row>
+    <row r="1013" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1013" s="8"/>
+      <c r="B1013" s="8"/>
+      <c r="C1013" s="8"/>
+      <c r="D1013" s="8"/>
+      <c r="E1013" s="8"/>
+      <c r="F1013" s="8"/>
+      <c r="G1013" s="8"/>
+      <c r="H1013" s="8"/>
+      <c r="I1013" s="8"/>
+      <c r="J1013" s="8"/>
+      <c r="K1013" s="8"/>
+      <c r="L1013" s="8"/>
+      <c r="M1013" s="8"/>
+      <c r="N1013" s="8"/>
+      <c r="O1013" s="8"/>
+      <c r="P1013" s="8"/>
+      <c r="Q1013" s="8"/>
+      <c r="R1013" s="8"/>
+      <c r="S1013" s="8"/>
+      <c r="T1013" s="8"/>
+      <c r="U1013" s="8"/>
+      <c r="V1013" s="8"/>
+      <c r="W1013" s="8"/>
+      <c r="X1013" s="8"/>
+      <c r="Y1013" s="8"/>
+      <c r="Z1013" s="8"/>
+    </row>
+    <row r="1014" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1014" s="8"/>
+      <c r="B1014" s="8"/>
+      <c r="C1014" s="8"/>
+      <c r="D1014" s="8"/>
+      <c r="E1014" s="8"/>
+      <c r="F1014" s="8"/>
+      <c r="G1014" s="8"/>
+      <c r="H1014" s="8"/>
+      <c r="I1014" s="8"/>
+      <c r="J1014" s="8"/>
+      <c r="K1014" s="8"/>
+      <c r="L1014" s="8"/>
+      <c r="M1014" s="8"/>
+      <c r="N1014" s="8"/>
+      <c r="O1014" s="8"/>
+      <c r="P1014" s="8"/>
+      <c r="Q1014" s="8"/>
+      <c r="R1014" s="8"/>
+      <c r="S1014" s="8"/>
+      <c r="T1014" s="8"/>
+      <c r="U1014" s="8"/>
+      <c r="V1014" s="8"/>
+      <c r="W1014" s="8"/>
+      <c r="X1014" s="8"/>
+      <c r="Y1014" s="8"/>
+      <c r="Z1014" s="8"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="568">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">abstract</t>
   </si>
   <si>
-    <t xml:space="preserve">Nina Dobrushina</t>
+    <t xml:space="preserve">Nina Dobrushina (🎉 200-th talk 🥳)</t>
   </si>
   <si>
     <t xml:space="preserve">Variation and change in Rutul optatives: results of Rutul dialectological survey</t>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t xml:space="preserve">Vera Tsukanova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Areal factors in nominal plural formation in Semitic languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Semitic languages have different strategies of forming nominal plurals. In some languages, only suffixes are used, while in others, suffixation or transfixation (“broken plural”) depending on the lexical item. The first group also includes languages  where several nouns can undergo apophonic alternations in the plural; and the second group includes some languages where suffixes and transfixes can apply to the same lexical item at the same time. For a long time, the presence of the “broken plural” was considered to be an important isogloss which separates South Semitic from the rest of the Semitic languages. Recently this classification has, however, been revised, and the “broken plural” has been reinterpreted as an areal phenomenon. Departing from this, I am going to address the role of areal factors in the shaping of the traditional phylogenetic configurations of the Semitic languages.</t>
   </si>
   <si>
     <t xml:space="preserve">Alina Russkikh (HSE), Aigul Zakirova (independent researcher)</t>
@@ -1298,6 +1304,9 @@
   </si>
   <si>
     <t xml:space="preserve">We continue our project of looking for correlations between linguistic distances with geography in Daghestan, an area of high language density and mountainous terrain. We are trying to detect the impact of landscape on linguistic divergence by comparing correlations of linguistic distances with Great Circle ("crow flight") distances vs. distances calculated taking the terrain into account. This time we expanded our dataset to include Tsezic. We are trying to find ways to solve the problem of the geographic data being so much richer in datapoints than the documented village lects; and of combining slightly different data (such as Swadesh list vs. Jena lists) into a single count. We will tell you about our progress in the last few months in terms of data cleaning, playing with models and kicking each other. Still very much work in progress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nina Dobrushina</t>
   </si>
   <si>
     <t xml:space="preserve">Optatives in Nakh-Daghestanian and beyond</t>
@@ -2032,10 +2041,10 @@
   <dimension ref="A1:Z1014"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.62"/>
@@ -2043,7 +2052,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="63.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="112.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.24"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="12.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="7" style="1" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2139,8 +2148,12 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -2173,13 +2186,13 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2213,13 +2226,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -2253,13 +2266,13 @@
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -2293,13 +2306,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2333,13 +2346,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2373,13 +2386,13 @@
         <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2413,13 +2426,13 @@
         <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -2453,13 +2466,13 @@
         <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2493,13 +2506,13 @@
         <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2533,13 +2546,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2573,13 +2586,13 @@
         <v>25</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2613,13 +2626,13 @@
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2653,13 +2666,13 @@
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2693,13 +2706,13 @@
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2733,13 +2746,13 @@
         <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2773,13 +2786,13 @@
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -2813,13 +2826,13 @@
         <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -2853,13 +2866,13 @@
         <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -2893,13 +2906,13 @@
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -2933,13 +2946,13 @@
         <v>21</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -2973,13 +2986,13 @@
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -3013,13 +3026,13 @@
         <v>7</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -3053,13 +3066,13 @@
         <v>7</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -3093,13 +3106,13 @@
         <v>21</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -3133,13 +3146,13 @@
         <v>21</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -3173,13 +3186,13 @@
         <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -3213,13 +3226,13 @@
         <v>7</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -3253,13 +3266,13 @@
         <v>7</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -3293,13 +3306,13 @@
         <v>31</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -3333,13 +3346,13 @@
         <v>31</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -3373,13 +3386,13 @@
         <v>24</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -3413,13 +3426,13 @@
         <v>24</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -3453,13 +3466,13 @@
         <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -3493,13 +3506,13 @@
         <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -3533,13 +3546,13 @@
         <v>6</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -3573,13 +3586,13 @@
         <v>20</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -3613,13 +3626,13 @@
         <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -3653,13 +3666,13 @@
         <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -3693,13 +3706,13 @@
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -3733,13 +3746,13 @@
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -3773,13 +3786,13 @@
         <v>29</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -3813,13 +3826,13 @@
         <v>29</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -3853,13 +3866,13 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -3893,13 +3906,13 @@
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -3933,13 +3946,13 @@
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -3973,13 +3986,13 @@
         <v>4</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -4013,13 +4026,13 @@
         <v>4</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -4053,13 +4066,13 @@
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -4093,13 +4106,13 @@
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -4133,13 +4146,13 @@
         <v>18</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -4173,13 +4186,13 @@
         <v>18</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -4213,13 +4226,13 @@
         <v>18</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -4253,13 +4266,13 @@
         <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -4293,13 +4306,13 @@
         <v>11</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -4333,13 +4346,13 @@
         <v>11</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -4373,13 +4386,13 @@
         <v>20</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -4413,13 +4426,13 @@
         <v>20</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -4453,13 +4466,13 @@
         <v>13</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -4493,13 +4506,13 @@
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -4533,13 +4546,13 @@
         <v>7</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -4573,13 +4586,13 @@
         <v>28</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -4613,13 +4626,13 @@
         <v>28</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
@@ -4653,13 +4666,13 @@
         <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -4693,13 +4706,13 @@
         <v>31</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
@@ -4733,13 +4746,13 @@
         <v>24</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
@@ -4773,13 +4786,13 @@
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -4813,13 +4826,13 @@
         <v>26</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
@@ -4853,13 +4866,13 @@
         <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
@@ -4893,13 +4906,13 @@
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
@@ -4933,13 +4946,13 @@
         <v>29</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
@@ -4973,13 +4986,13 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
@@ -5013,13 +5026,13 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
@@ -5053,13 +5066,13 @@
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
@@ -5093,13 +5106,13 @@
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
@@ -5133,13 +5146,13 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
@@ -5173,13 +5186,13 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
@@ -5213,13 +5226,13 @@
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
@@ -5253,13 +5266,13 @@
         <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
@@ -5293,13 +5306,13 @@
         <v>11</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
@@ -5333,13 +5346,13 @@
         <v>7</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
@@ -5373,13 +5386,13 @@
         <v>21</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
@@ -5413,13 +5426,13 @@
         <v>14</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
@@ -5453,13 +5466,13 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
@@ -5493,13 +5506,13 @@
         <v>30</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
@@ -5533,13 +5546,13 @@
         <v>23</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
@@ -5573,13 +5586,13 @@
         <v>16</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
@@ -5613,13 +5626,13 @@
         <v>5</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
@@ -5653,13 +5666,13 @@
         <v>26</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
@@ -5693,13 +5706,13 @@
         <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
@@ -5733,13 +5746,13 @@
         <v>7</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
@@ -5773,13 +5786,13 @@
         <v>28</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
@@ -5813,13 +5826,13 @@
         <v>21</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
@@ -5853,13 +5866,13 @@
         <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
@@ -5893,13 +5906,13 @@
         <v>8</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
@@ -5933,13 +5946,13 @@
         <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
@@ -5973,13 +5986,13 @@
         <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
@@ -6013,13 +6026,13 @@
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
@@ -6053,13 +6066,13 @@
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
@@ -6093,13 +6106,13 @@
         <v>18</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
@@ -6133,13 +6146,13 @@
         <v>11</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
@@ -6173,13 +6186,13 @@
         <v>11</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
@@ -6213,13 +6226,13 @@
         <v>6</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
@@ -6253,13 +6266,13 @@
         <v>20</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
@@ -6293,13 +6306,13 @@
         <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
@@ -6333,13 +6346,13 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
@@ -6373,13 +6386,13 @@
         <v>4</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
@@ -6413,13 +6426,13 @@
         <v>4</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
@@ -6453,13 +6466,13 @@
         <v>30</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
@@ -6493,13 +6506,13 @@
         <v>23</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
@@ -6533,13 +6546,13 @@
         <v>2</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G113" s="8"/>
       <c r="H113" s="8"/>
@@ -6573,13 +6586,13 @@
         <v>2</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
@@ -6613,13 +6626,13 @@
         <v>2</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
@@ -6653,13 +6666,13 @@
         <v>16</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
@@ -6693,13 +6706,13 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
@@ -6733,13 +6746,13 @@
         <v>2</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
@@ -6773,13 +6786,13 @@
         <v>16</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
@@ -6813,13 +6826,13 @@
         <v>26</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
@@ -6853,13 +6866,13 @@
         <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
@@ -6893,13 +6906,13 @@
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
@@ -6933,13 +6946,13 @@
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
@@ -6973,13 +6986,13 @@
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
@@ -7013,13 +7026,13 @@
         <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
@@ -7053,13 +7066,13 @@
         <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
@@ -7093,13 +7106,13 @@
         <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
@@ -7133,13 +7146,13 @@
         <v>3</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
@@ -7173,13 +7186,13 @@
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
@@ -7213,13 +7226,13 @@
         <v>10</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
@@ -7253,13 +7266,13 @@
         <v>6</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G131" s="8"/>
       <c r="H131" s="8"/>
@@ -7293,13 +7306,13 @@
         <v>27</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>6</v>
+        <v>378</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G132" s="8"/>
       <c r="H132" s="8"/>
@@ -7333,13 +7346,13 @@
         <v>20</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
@@ -7373,13 +7386,13 @@
         <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
@@ -7413,13 +7426,13 @@
         <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
@@ -7453,13 +7466,13 @@
         <v>29</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
@@ -7493,13 +7506,13 @@
         <v>22</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
@@ -7533,13 +7546,13 @@
         <v>15</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
@@ -7573,13 +7586,13 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
@@ -7613,13 +7626,13 @@
         <v>30</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
@@ -7653,13 +7666,13 @@
         <v>23</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
@@ -7693,13 +7706,13 @@
         <v>2</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
@@ -7733,13 +7746,13 @@
         <v>16</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
@@ -7773,13 +7786,13 @@
         <v>26</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
@@ -7813,13 +7826,13 @@
         <v>19</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
@@ -7853,13 +7866,13 @@
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
@@ -7893,13 +7906,13 @@
         <v>7</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
@@ -7933,13 +7946,13 @@
         <v>28</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
@@ -7973,13 +7986,13 @@
         <v>21</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
@@ -8013,13 +8026,13 @@
         <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G150" s="8"/>
       <c r="H150" s="8"/>
@@ -8053,13 +8066,13 @@
         <v>31</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G151" s="8"/>
       <c r="H151" s="8"/>
@@ -8093,13 +8106,13 @@
         <v>3</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="G152" s="8"/>
       <c r="H152" s="8"/>
@@ -8133,13 +8146,13 @@
         <v>24</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
@@ -8173,13 +8186,13 @@
         <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
@@ -8213,13 +8226,13 @@
         <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
@@ -8253,13 +8266,13 @@
         <v>10</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
@@ -8293,13 +8306,13 @@
         <v>4</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
@@ -8333,13 +8346,13 @@
         <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
@@ -8373,13 +8386,13 @@
         <v>18</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
@@ -8413,13 +8426,13 @@
         <v>11</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
@@ -8453,13 +8466,13 @@
         <v>28</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
@@ -8493,13 +8506,13 @@
         <v>21</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
@@ -8533,13 +8546,13 @@
         <v>14</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
@@ -8573,13 +8586,13 @@
         <v>3</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
@@ -8613,13 +8626,13 @@
         <v>3</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
@@ -8653,13 +8666,13 @@
         <v>24</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
@@ -8693,13 +8706,13 @@
         <v>17</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
@@ -8733,13 +8746,13 @@
         <v>10</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G168" s="8"/>
       <c r="H168" s="8"/>
@@ -8773,13 +8786,13 @@
         <v>26</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>6</v>
+        <v>378</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
@@ -8813,13 +8826,13 @@
         <v>26</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G170" s="8"/>
       <c r="H170" s="8"/>
@@ -8853,13 +8866,13 @@
         <v>19</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
@@ -8893,13 +8906,13 @@
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
@@ -8933,13 +8946,13 @@
         <v>29</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
@@ -8973,13 +8986,13 @@
         <v>22</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
@@ -9013,13 +9026,13 @@
         <v>15</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
@@ -9053,13 +9066,13 @@
         <v>1</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G176" s="8"/>
       <c r="H176" s="8"/>
@@ -9093,13 +9106,13 @@
         <v>24</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G177" s="8"/>
       <c r="H177" s="8"/>
@@ -9133,13 +9146,13 @@
         <v>24</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="G178" s="8"/>
       <c r="H178" s="8"/>
@@ -9173,13 +9186,13 @@
         <v>17</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="G179" s="8"/>
       <c r="H179" s="8"/>
@@ -9213,13 +9226,13 @@
         <v>4</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="G180" s="8"/>
       <c r="H180" s="8"/>
@@ -9253,13 +9266,13 @@
         <v>11</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="G181" s="8"/>
       <c r="H181" s="8"/>
@@ -9293,13 +9306,13 @@
         <v>5</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="G182" s="8"/>
       <c r="H182" s="8"/>
@@ -9333,13 +9346,13 @@
         <v>26</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="G183" s="8"/>
       <c r="H183" s="8"/>
@@ -9373,13 +9386,13 @@
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="G184" s="8"/>
       <c r="H184" s="8"/>
@@ -9413,13 +9426,13 @@
         <v>29</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="G185" s="8"/>
       <c r="H185" s="8"/>
@@ -9453,13 +9466,13 @@
         <v>22</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G186" s="8"/>
       <c r="H186" s="8"/>
@@ -9493,13 +9506,13 @@
         <v>15</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="G187" s="8"/>
       <c r="H187" s="8"/>
@@ -9533,13 +9546,13 @@
         <v>4</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="G188" s="8"/>
       <c r="H188" s="8"/>
@@ -9573,13 +9586,13 @@
         <v>6</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G189" s="8"/>
       <c r="H189" s="8"/>
@@ -9613,13 +9626,13 @@
         <v>13</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>6</v>
+        <v>378</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="G190" s="8"/>
       <c r="H190" s="8"/>
@@ -9653,13 +9666,13 @@
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="G191" s="8"/>
       <c r="H191" s="8"/>
@@ -9693,13 +9706,13 @@
         <v>30</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="G192" s="8"/>
       <c r="H192" s="8"/>
@@ -9733,13 +9746,13 @@
         <v>7</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="G193" s="8"/>
       <c r="H193" s="8"/>
@@ -9773,13 +9786,13 @@
         <v>21</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="G194" s="8"/>
       <c r="H194" s="8"/>
@@ -9813,13 +9826,13 @@
         <v>14</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="G195" s="8"/>
       <c r="H195" s="8"/>
@@ -9853,13 +9866,13 @@
         <v>3</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="G196" s="8"/>
       <c r="H196" s="8"/>
@@ -9893,13 +9906,13 @@
         <v>26</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="G197" s="8"/>
       <c r="H197" s="8"/>
@@ -9933,13 +9946,13 @@
         <v>19</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="G198" s="8"/>
       <c r="H198" s="8"/>
@@ -9973,13 +9986,13 @@
         <v>10</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="G199" s="8"/>
       <c r="H199" s="8"/>
@@ -10013,13 +10026,13 @@
         <v>26</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="G200" s="8"/>
       <c r="H200" s="8"/>
@@ -10053,13 +10066,13 @@
         <v>19</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="G201" s="8"/>
       <c r="H201" s="8"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">In the beginning of this talk, I will introduce the project of the dialectological survey of Rutul (Lezgic), its scope and its aims. I will then present the results of the project in one functional domain, the optative suffixes. A great diversity of suffixes found across twelve villages of the Rutulski district will be analyzed in terms of inter-village, inter-speaker and intra-speaker variation. The patterns of geographic and social distribution of optative suffixes will be discussed in order to raise the question of the diachronic dynamics that underlie the observed variation. I will compare the results of the project with the existing literature on Rutul dialects and other Lezgic languages, and propose a diachronic scenario for the development and divergence of Rutul optative suffixes.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vera Tsukanova</t>
+    <t xml:space="preserve">Vera Tsukanova (University of Marburg)</t>
   </si>
   <si>
     <t xml:space="preserve">Areal factors in nominal plural formation in Semitic languages</t>
@@ -2164,8 +2164,8 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="596">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -1073,9 +1073,6 @@
   </si>
   <si>
     <t xml:space="preserve">In this talk, we will briefly present the results of the sociolinguistic field study carried out in five adjacent Lak and Tsudakhar villages. We will focus on the Tsudakhar - Lak bilingualism and ethnic contacts, their main site being the Tsudakhar Monday market. Our attempt to observe communication at the Tsudakhar market will be discussed, with a brief reference to other markets of highland Daghestan. We will also mention Tsudakhar - Avar contact in the village of Karekadani.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Susanne Maria Michaelis (MPI-EVA, Leipzig)</t>
   </si>
   <si>
     <t xml:space="preserve">Grammatical co-expression patterns in creoles and their parent languages: comitative and related functions</t>
@@ -2164,8 +2161,8 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C71" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D105" activeCellId="0" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6351,13 +6348,13 @@
         <v>20</v>
       </c>
       <c r="D105" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="F105" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
@@ -6394,10 +6391,10 @@
         <v>78</v>
       </c>
       <c r="E106" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
@@ -6431,13 +6428,13 @@
         <v>6</v>
       </c>
       <c r="D107" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E107" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="F107" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
@@ -6471,13 +6468,13 @@
         <v>30</v>
       </c>
       <c r="D108" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E108" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="F108" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
@@ -6511,13 +6508,13 @@
         <v>23</v>
       </c>
       <c r="D109" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="F109" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
@@ -6551,13 +6548,13 @@
         <v>16</v>
       </c>
       <c r="D110" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="F110" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
@@ -6591,13 +6588,13 @@
         <v>9</v>
       </c>
       <c r="D111" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="F111" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
@@ -6631,13 +6628,13 @@
         <v>4</v>
       </c>
       <c r="D112" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E112" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="F112" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
@@ -6671,13 +6668,13 @@
         <v>4</v>
       </c>
       <c r="D113" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E113" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="F113" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
@@ -6711,13 +6708,13 @@
         <v>2</v>
       </c>
       <c r="D114" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E114" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="F114" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
@@ -6751,13 +6748,13 @@
         <v>2</v>
       </c>
       <c r="D115" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E115" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="F115" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
@@ -6791,13 +6788,13 @@
         <v>2</v>
       </c>
       <c r="D116" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E116" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="F116" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>334</v>
       </c>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
@@ -6834,10 +6831,10 @@
         <v>167</v>
       </c>
       <c r="E117" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F117" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
@@ -6871,13 +6868,13 @@
         <v>9</v>
       </c>
       <c r="D118" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E118" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="F118" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
@@ -6911,13 +6908,13 @@
         <v>2</v>
       </c>
       <c r="D119" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E119" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="F119" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>342</v>
       </c>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
@@ -6951,13 +6948,13 @@
         <v>26</v>
       </c>
       <c r="D120" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E120" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="F120" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
@@ -6991,13 +6988,13 @@
         <v>19</v>
       </c>
       <c r="D121" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E121" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="F121" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
@@ -7031,13 +7028,13 @@
         <v>12</v>
       </c>
       <c r="D122" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E122" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="F122" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
@@ -7074,10 +7071,10 @@
         <v>161</v>
       </c>
       <c r="E123" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F123" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
@@ -7111,13 +7108,13 @@
         <v>22</v>
       </c>
       <c r="D124" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E124" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="F124" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
@@ -7151,13 +7148,13 @@
         <v>15</v>
       </c>
       <c r="D125" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="F125" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
@@ -7191,13 +7188,13 @@
         <v>8</v>
       </c>
       <c r="D126" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="F126" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
@@ -7231,13 +7228,13 @@
         <v>1</v>
       </c>
       <c r="D127" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E127" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="F127" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>365</v>
       </c>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
@@ -7271,13 +7268,13 @@
         <v>17</v>
       </c>
       <c r="D128" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E128" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="F128" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
@@ -7311,13 +7308,13 @@
         <v>10</v>
       </c>
       <c r="D129" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E129" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="F129" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>371</v>
       </c>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
@@ -7351,13 +7348,13 @@
         <v>3</v>
       </c>
       <c r="D130" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E130" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="F130" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>374</v>
       </c>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
@@ -7394,10 +7391,10 @@
         <v>6</v>
       </c>
       <c r="E131" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F131" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>376</v>
       </c>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
@@ -7431,13 +7428,13 @@
         <v>20</v>
       </c>
       <c r="D132" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E132" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="F132" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>379</v>
       </c>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
@@ -7474,10 +7471,10 @@
         <v>262</v>
       </c>
       <c r="E133" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F133" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>381</v>
       </c>
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
@@ -7511,13 +7508,13 @@
         <v>6</v>
       </c>
       <c r="D134" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E134" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="F134" s="3" t="s">
         <v>383</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>384</v>
       </c>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
@@ -7554,10 +7551,10 @@
         <v>149</v>
       </c>
       <c r="E135" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F135" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>386</v>
       </c>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
@@ -7594,10 +7591,10 @@
         <v>179</v>
       </c>
       <c r="E136" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F136" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
@@ -7631,13 +7628,13 @@
         <v>15</v>
       </c>
       <c r="D137" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E137" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="F137" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
@@ -7671,13 +7668,13 @@
         <v>8</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E138" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F138" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
@@ -7711,13 +7708,13 @@
         <v>30</v>
       </c>
       <c r="D139" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E139" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="F139" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
@@ -7751,13 +7748,13 @@
         <v>23</v>
       </c>
       <c r="D140" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E140" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="F140" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>399</v>
       </c>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
@@ -7791,13 +7788,13 @@
         <v>16</v>
       </c>
       <c r="D141" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E141" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="F141" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>402</v>
       </c>
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
@@ -7831,13 +7828,13 @@
         <v>9</v>
       </c>
       <c r="D142" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E142" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="F142" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>405</v>
       </c>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
@@ -7871,13 +7868,13 @@
         <v>2</v>
       </c>
       <c r="D143" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E143" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="F143" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="G143" s="9"/>
       <c r="H143" s="9"/>
@@ -7914,10 +7911,10 @@
         <v>78</v>
       </c>
       <c r="E144" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F144" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>410</v>
       </c>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
@@ -7951,13 +7948,13 @@
         <v>19</v>
       </c>
       <c r="D145" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E145" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="F145" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>413</v>
       </c>
       <c r="G145" s="9"/>
       <c r="H145" s="9"/>
@@ -7991,13 +7988,13 @@
         <v>12</v>
       </c>
       <c r="D146" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E146" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="F146" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
@@ -8031,13 +8028,13 @@
         <v>28</v>
       </c>
       <c r="D147" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E147" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="F147" s="3" t="s">
         <v>418</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>419</v>
       </c>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
@@ -8071,13 +8068,13 @@
         <v>21</v>
       </c>
       <c r="D148" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E148" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="F148" s="3" t="s">
         <v>421</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>422</v>
       </c>
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
@@ -8111,13 +8108,13 @@
         <v>14</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E149" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F149" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>424</v>
       </c>
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
@@ -8151,13 +8148,13 @@
         <v>7</v>
       </c>
       <c r="D150" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E150" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E150" s="3" t="s">
+      <c r="F150" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>427</v>
       </c>
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
@@ -8191,13 +8188,13 @@
         <v>31</v>
       </c>
       <c r="D151" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E151" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="E151" s="3" t="s">
+      <c r="F151" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>430</v>
       </c>
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
@@ -8234,10 +8231,10 @@
         <v>185</v>
       </c>
       <c r="E152" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F152" s="3" t="s">
         <v>431</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>432</v>
       </c>
       <c r="G152" s="9"/>
       <c r="H152" s="9"/>
@@ -8274,10 +8271,10 @@
         <v>161</v>
       </c>
       <c r="E153" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F153" s="3" t="s">
         <v>433</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>434</v>
       </c>
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
@@ -8311,13 +8308,13 @@
         <v>17</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E154" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F154" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>436</v>
       </c>
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
@@ -8351,13 +8348,13 @@
         <v>10</v>
       </c>
       <c r="D155" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E155" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="F155" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
@@ -8391,13 +8388,13 @@
         <v>3</v>
       </c>
       <c r="D156" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E156" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="F156" s="3" t="s">
         <v>441</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>442</v>
       </c>
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
@@ -8431,13 +8428,13 @@
         <v>25</v>
       </c>
       <c r="D157" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E157" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="F157" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>445</v>
       </c>
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
@@ -8471,13 +8468,13 @@
         <v>18</v>
       </c>
       <c r="D158" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E158" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="F158" s="3" t="s">
         <v>447</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>448</v>
       </c>
       <c r="G158" s="9"/>
       <c r="H158" s="9"/>
@@ -8511,13 +8508,13 @@
         <v>11</v>
       </c>
       <c r="D159" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E159" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E159" s="3" t="s">
+      <c r="F159" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>451</v>
       </c>
       <c r="G159" s="9"/>
       <c r="H159" s="9"/>
@@ -8551,13 +8548,13 @@
         <v>4</v>
       </c>
       <c r="D160" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E160" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="F160" s="3" t="s">
         <v>453</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>454</v>
       </c>
       <c r="G160" s="9"/>
       <c r="H160" s="9"/>
@@ -8591,13 +8588,13 @@
         <v>28</v>
       </c>
       <c r="D161" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E161" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="F161" s="3" t="s">
         <v>456</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>457</v>
       </c>
       <c r="G161" s="9"/>
       <c r="H161" s="9"/>
@@ -8631,13 +8628,13 @@
         <v>21</v>
       </c>
       <c r="D162" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E162" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="E162" s="3" t="s">
+      <c r="F162" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>460</v>
       </c>
       <c r="G162" s="9"/>
       <c r="H162" s="9"/>
@@ -8674,10 +8671,10 @@
         <v>78</v>
       </c>
       <c r="E163" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F163" s="3" t="s">
         <v>461</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>462</v>
       </c>
       <c r="G163" s="9"/>
       <c r="H163" s="9"/>
@@ -8711,13 +8708,13 @@
         <v>24</v>
       </c>
       <c r="D164" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E164" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="E164" s="3" t="s">
+      <c r="F164" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>465</v>
       </c>
       <c r="G164" s="9"/>
       <c r="H164" s="9"/>
@@ -8751,13 +8748,13 @@
         <v>17</v>
       </c>
       <c r="D165" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E165" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="E165" s="3" t="s">
+      <c r="F165" s="3" t="s">
         <v>467</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>468</v>
       </c>
       <c r="G165" s="9"/>
       <c r="H165" s="9"/>
@@ -8791,13 +8788,13 @@
         <v>10</v>
       </c>
       <c r="D166" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E166" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="F166" s="3" t="s">
         <v>470</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>471</v>
       </c>
       <c r="G166" s="9"/>
       <c r="H166" s="9"/>
@@ -8834,10 +8831,10 @@
         <v>161</v>
       </c>
       <c r="E167" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="F167" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>473</v>
       </c>
       <c r="G167" s="9"/>
       <c r="H167" s="9"/>
@@ -8871,13 +8868,13 @@
         <v>3</v>
       </c>
       <c r="D168" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E168" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="E168" s="3" t="s">
+      <c r="F168" s="3" t="s">
         <v>475</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>476</v>
       </c>
       <c r="G168" s="9"/>
       <c r="H168" s="9"/>
@@ -8914,10 +8911,10 @@
         <v>6</v>
       </c>
       <c r="E169" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F169" s="3" t="s">
         <v>477</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>478</v>
       </c>
       <c r="G169" s="9"/>
       <c r="H169" s="9"/>
@@ -8951,13 +8948,13 @@
         <v>26</v>
       </c>
       <c r="D170" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E170" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="E170" s="3" t="s">
+      <c r="F170" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>481</v>
       </c>
       <c r="G170" s="9"/>
       <c r="H170" s="9"/>
@@ -8991,13 +8988,13 @@
         <v>19</v>
       </c>
       <c r="D171" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E171" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="E171" s="3" t="s">
+      <c r="F171" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>484</v>
       </c>
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
@@ -9031,13 +9028,13 @@
         <v>12</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E172" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F172" s="3" t="s">
         <v>485</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>486</v>
       </c>
       <c r="G172" s="9"/>
       <c r="H172" s="9"/>
@@ -9071,13 +9068,13 @@
         <v>29</v>
       </c>
       <c r="D173" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E173" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="E173" s="3" t="s">
+      <c r="F173" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="F173" s="3" t="s">
-        <v>489</v>
       </c>
       <c r="G173" s="9"/>
       <c r="H173" s="9"/>
@@ -9111,13 +9108,13 @@
         <v>22</v>
       </c>
       <c r="D174" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="E174" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="E174" s="3" t="s">
+      <c r="F174" s="3" t="s">
         <v>491</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>492</v>
       </c>
       <c r="G174" s="9"/>
       <c r="H174" s="9"/>
@@ -9151,13 +9148,13 @@
         <v>15</v>
       </c>
       <c r="D175" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E175" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="E175" s="3" t="s">
+      <c r="F175" s="3" t="s">
         <v>494</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>495</v>
       </c>
       <c r="G175" s="9"/>
       <c r="H175" s="9"/>
@@ -9191,13 +9188,13 @@
         <v>1</v>
       </c>
       <c r="D176" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E176" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="E176" s="3" t="s">
+      <c r="F176" s="3" t="s">
         <v>497</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>498</v>
       </c>
       <c r="G176" s="9"/>
       <c r="H176" s="9"/>
@@ -9231,13 +9228,13 @@
         <v>24</v>
       </c>
       <c r="D177" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="E177" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="E177" s="3" t="s">
+      <c r="F177" s="3" t="s">
         <v>500</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>501</v>
       </c>
       <c r="G177" s="9"/>
       <c r="H177" s="9"/>
@@ -9271,13 +9268,13 @@
         <v>24</v>
       </c>
       <c r="D178" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E178" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E178" s="3" t="s">
+      <c r="F178" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>504</v>
       </c>
       <c r="G178" s="9"/>
       <c r="H178" s="9"/>
@@ -9311,13 +9308,13 @@
         <v>17</v>
       </c>
       <c r="D179" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E179" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="E179" s="3" t="s">
+      <c r="F179" s="3" t="s">
         <v>506</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>507</v>
       </c>
       <c r="G179" s="9"/>
       <c r="H179" s="9"/>
@@ -9351,13 +9348,13 @@
         <v>11</v>
       </c>
       <c r="D180" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E180" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E180" s="3" t="s">
-        <v>503</v>
-      </c>
       <c r="F180" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G180" s="9"/>
       <c r="H180" s="9"/>
@@ -9391,13 +9388,13 @@
         <v>4</v>
       </c>
       <c r="D181" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E181" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="E181" s="3" t="s">
+      <c r="F181" s="3" t="s">
         <v>510</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>511</v>
       </c>
       <c r="G181" s="9"/>
       <c r="H181" s="9"/>
@@ -9431,13 +9428,13 @@
         <v>28</v>
       </c>
       <c r="D182" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="E182" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="E182" s="3" t="s">
+      <c r="F182" s="3" t="s">
         <v>513</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>514</v>
       </c>
       <c r="G182" s="9"/>
       <c r="H182" s="9"/>
@@ -9471,13 +9468,13 @@
         <v>28</v>
       </c>
       <c r="D183" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E183" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="E183" s="3" t="s">
-        <v>516</v>
-      </c>
       <c r="F183" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G183" s="9"/>
       <c r="H183" s="9"/>
@@ -9511,13 +9508,13 @@
         <v>23</v>
       </c>
       <c r="D184" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="E184" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E184" s="3" t="s">
-        <v>518</v>
-      </c>
       <c r="F184" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G184" s="9"/>
       <c r="H184" s="9"/>
@@ -9554,10 +9551,10 @@
         <v>167</v>
       </c>
       <c r="E185" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="F185" s="3" t="s">
         <v>519</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>520</v>
       </c>
       <c r="G185" s="9"/>
       <c r="H185" s="9"/>
@@ -9591,13 +9588,13 @@
         <v>9</v>
       </c>
       <c r="D186" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E186" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="E186" s="3" t="s">
-        <v>522</v>
-      </c>
       <c r="F186" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G186" s="9"/>
       <c r="H186" s="9"/>
@@ -9631,13 +9628,13 @@
         <v>9</v>
       </c>
       <c r="D187" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E187" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="E187" s="3" t="s">
-        <v>524</v>
-      </c>
       <c r="F187" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G187" s="9"/>
       <c r="H187" s="9"/>
@@ -9671,13 +9668,13 @@
         <v>9</v>
       </c>
       <c r="D188" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E188" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="E188" s="3" t="s">
-        <v>526</v>
-      </c>
       <c r="F188" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G188" s="9"/>
       <c r="H188" s="9"/>
@@ -9714,10 +9711,10 @@
         <v>93</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G189" s="9"/>
       <c r="H189" s="9"/>
@@ -9751,13 +9748,13 @@
         <v>26</v>
       </c>
       <c r="D190" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="E190" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="E190" s="3" t="s">
+      <c r="F190" s="5" t="s">
         <v>529</v>
-      </c>
-      <c r="F190" s="5" t="s">
-        <v>530</v>
       </c>
       <c r="G190" s="9"/>
       <c r="H190" s="9"/>
@@ -9791,13 +9788,13 @@
         <v>19</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G191" s="9"/>
       <c r="H191" s="9"/>
@@ -9834,10 +9831,10 @@
         <v>254</v>
       </c>
       <c r="E192" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F192" s="3" t="s">
         <v>532</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>533</v>
       </c>
       <c r="G192" s="9"/>
       <c r="H192" s="9"/>
@@ -9871,13 +9868,13 @@
         <v>12</v>
       </c>
       <c r="D193" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E193" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="E193" s="3" t="s">
-        <v>535</v>
-      </c>
       <c r="F193" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G193" s="9"/>
       <c r="H193" s="9"/>
@@ -9911,13 +9908,13 @@
         <v>12</v>
       </c>
       <c r="D194" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E194" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="E194" s="3" t="s">
+      <c r="F194" s="3" t="s">
         <v>537</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>538</v>
       </c>
       <c r="G194" s="9"/>
       <c r="H194" s="9"/>
@@ -9954,10 +9951,10 @@
         <v>149</v>
       </c>
       <c r="E195" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="F195" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="F195" s="3" t="s">
-        <v>540</v>
       </c>
       <c r="G195" s="9"/>
       <c r="H195" s="9"/>
@@ -9991,13 +9988,13 @@
         <v>5</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G196" s="9"/>
       <c r="H196" s="9"/>
@@ -10031,13 +10028,13 @@
         <v>29</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E197" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="F197" s="3" t="s">
         <v>542</v>
-      </c>
-      <c r="F197" s="3" t="s">
-        <v>543</v>
       </c>
       <c r="G197" s="9"/>
       <c r="H197" s="9"/>
@@ -10071,13 +10068,13 @@
         <v>22</v>
       </c>
       <c r="D198" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="E198" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="E198" s="3" t="s">
+      <c r="F198" s="3" t="s">
         <v>545</v>
-      </c>
-      <c r="F198" s="3" t="s">
-        <v>546</v>
       </c>
       <c r="G198" s="9"/>
       <c r="H198" s="9"/>
@@ -10111,13 +10108,13 @@
         <v>15</v>
       </c>
       <c r="D199" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E199" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="E199" s="3" t="s">
+      <c r="F199" s="3" t="s">
         <v>548</v>
-      </c>
-      <c r="F199" s="3" t="s">
-        <v>549</v>
       </c>
       <c r="G199" s="9"/>
       <c r="H199" s="9"/>
@@ -10154,10 +10151,10 @@
         <v>262</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G200" s="9"/>
       <c r="H200" s="9"/>
@@ -10191,13 +10188,13 @@
         <v>11</v>
       </c>
       <c r="D201" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E201" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E201" s="3" t="s">
-        <v>552</v>
-      </c>
       <c r="F201" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G201" s="9"/>
       <c r="H201" s="9"/>
@@ -10231,13 +10228,13 @@
         <v>4</v>
       </c>
       <c r="D202" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E202" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="E202" s="3" t="s">
+      <c r="F202" s="3" t="s">
         <v>554</v>
-      </c>
-      <c r="F202" s="3" t="s">
-        <v>555</v>
       </c>
       <c r="G202" s="9"/>
       <c r="H202" s="9"/>
@@ -10274,10 +10271,10 @@
         <v>6</v>
       </c>
       <c r="E203" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="F203" s="3" t="s">
         <v>556</v>
-      </c>
-      <c r="F203" s="3" t="s">
-        <v>557</v>
       </c>
       <c r="G203" s="9"/>
       <c r="H203" s="9"/>
@@ -10311,13 +10308,13 @@
         <v>6</v>
       </c>
       <c r="D204" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="E204" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="E204" s="3" t="s">
+      <c r="F204" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="F204" s="3" t="s">
-        <v>560</v>
       </c>
       <c r="G204" s="9"/>
       <c r="H204" s="9"/>
@@ -10354,10 +10351,10 @@
         <v>78</v>
       </c>
       <c r="E205" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F205" s="3" t="s">
         <v>561</v>
-      </c>
-      <c r="F205" s="3" t="s">
-        <v>562</v>
       </c>
       <c r="G205" s="9"/>
       <c r="H205" s="9"/>
@@ -10394,10 +10391,10 @@
         <v>149</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G206" s="9"/>
       <c r="H206" s="9"/>
@@ -10431,13 +10428,13 @@
         <v>16</v>
       </c>
       <c r="D207" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E207" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="E207" s="3" t="s">
+      <c r="F207" s="5" t="s">
         <v>565</v>
-      </c>
-      <c r="F207" s="5" t="s">
-        <v>566</v>
       </c>
       <c r="G207" s="9"/>
       <c r="H207" s="9"/>
@@ -10471,13 +10468,13 @@
         <v>9</v>
       </c>
       <c r="D208" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="E208" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="E208" s="3" t="s">
+      <c r="F208" s="3" t="s">
         <v>568</v>
-      </c>
-      <c r="F208" s="3" t="s">
-        <v>569</v>
       </c>
       <c r="G208" s="9"/>
       <c r="H208" s="9"/>
@@ -10511,13 +10508,13 @@
         <v>21</v>
       </c>
       <c r="D209" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="E209" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="E209" s="3" t="s">
+      <c r="F209" s="3" t="s">
         <v>571</v>
-      </c>
-      <c r="F209" s="3" t="s">
-        <v>572</v>
       </c>
       <c r="G209" s="9"/>
       <c r="H209" s="9"/>
@@ -10551,13 +10548,13 @@
         <v>14</v>
       </c>
       <c r="D210" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="E210" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="E210" s="3" t="s">
+      <c r="F210" s="3" t="s">
         <v>574</v>
-      </c>
-      <c r="F210" s="3" t="s">
-        <v>575</v>
       </c>
       <c r="G210" s="9"/>
       <c r="H210" s="9"/>
@@ -10591,13 +10588,13 @@
         <v>7</v>
       </c>
       <c r="D211" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E211" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="E211" s="3" t="s">
+      <c r="F211" s="3" t="s">
         <v>577</v>
-      </c>
-      <c r="F211" s="3" t="s">
-        <v>578</v>
       </c>
       <c r="G211" s="9"/>
       <c r="H211" s="9"/>
@@ -10631,13 +10628,13 @@
         <v>26</v>
       </c>
       <c r="D212" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E212" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="E212" s="3" t="s">
+      <c r="F212" s="3" t="s">
         <v>580</v>
-      </c>
-      <c r="F212" s="3" t="s">
-        <v>581</v>
       </c>
       <c r="G212" s="9"/>
       <c r="H212" s="9"/>
@@ -10671,13 +10668,13 @@
         <v>19</v>
       </c>
       <c r="D213" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="E213" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="E213" s="3" t="s">
+      <c r="F213" s="3" t="s">
         <v>583</v>
-      </c>
-      <c r="F213" s="3" t="s">
-        <v>584</v>
       </c>
       <c r="G213" s="9"/>
       <c r="H213" s="9"/>
@@ -10711,13 +10708,13 @@
         <v>10</v>
       </c>
       <c r="D214" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E214" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="E214" s="3" t="s">
+      <c r="F214" s="3" t="s">
         <v>586</v>
-      </c>
-      <c r="F214" s="3" t="s">
-        <v>587</v>
       </c>
       <c r="G214" s="9"/>
       <c r="H214" s="9"/>
@@ -10751,13 +10748,13 @@
         <v>3</v>
       </c>
       <c r="D215" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E215" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="E215" s="3" t="s">
+      <c r="F215" s="3" t="s">
         <v>589</v>
-      </c>
-      <c r="F215" s="3" t="s">
-        <v>590</v>
       </c>
       <c r="G215" s="9"/>
       <c r="H215" s="9"/>
@@ -10791,13 +10788,13 @@
         <v>26</v>
       </c>
       <c r="D216" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E216" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="E216" s="3" t="s">
+      <c r="F216" s="3" t="s">
         <v>592</v>
-      </c>
-      <c r="F216" s="3" t="s">
-        <v>593</v>
       </c>
       <c r="G216" s="9"/>
       <c r="H216" s="9"/>
@@ -10831,13 +10828,13 @@
         <v>19</v>
       </c>
       <c r="D217" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E217" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="E217" s="3" t="s">
+      <c r="F217" s="3" t="s">
         <v>595</v>
-      </c>
-      <c r="F217" s="3" t="s">
-        <v>596</v>
       </c>
       <c r="G217" s="9"/>
       <c r="H217" s="9"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
     <sheet name="modified_result" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">modified_result!$A$1:$F$217</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">modified_result!$A$1:$F$218</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="598">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t xml:space="preserve">abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Svetlana Zemicheva (HSE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modeling the use of non-standard participles in dialect varieties of Russian  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this talk we explore dialect ši-participles. Our sample includes 2,027 utterances with standard and non-standard verbal forms extracted from 12 dialect corpora of the linguistic convergence laboratory. We identified functions of non-standard participles and compare them to standard forms (for example, -ši forms in subject resultative construction vs verbs in past tense; -ši forms in adverbial function vs standard converbs). Then we apply logistic regression model trying to answer the following research questions: What is the probability to have a person with dialect participles in each corpus? Is there any effect of education on speaker standardness by this feature? Is there any priming effect in the use of non-standard forms?</t>
   </si>
   <si>
     <t xml:space="preserve">Nina Dobrushina</t>
@@ -492,9 +501,6 @@
   </si>
   <si>
     <t xml:space="preserve">The Nakh languages Chechen and Tsova-Tush each have a five-valued gender system: masculine, feminine, and three “neuter” genders named for their singular agreement forms: B, D and J. Gender assignment in languages is generally analysed as being dependent on both form and semantics (e.g. Corbett 1991), with semantics typically prevailing over form (e.g. Bellamy &amp; Wichers Schreur 2022, Allassonnière-Tang et al. 2021). Most previous studies have considered only binary or tripartite gender systems possessing one masculine, one feminine, and one neuter value. The five-valued system of Nakh thus represents a more complex and insightful case study for analysing gender assignment. In this paper we build on the existing qualitative linguistic analyses of gender assignment in Tsova-Tush (Wichers Schreur 2021) and apply three machine-learning methods to investigate the weight of form and semantics in predicting grammatical gender in Chechen and Tsova-Tush. Our main aim is thus to show how three different computational classifier methods perform on a novel set of non-Indo-European data. The results show that while both form and semantics are helpful for predicting grammatical gender in Nakh, semantics is dominant, which supports findings from existing literature (Allassonnière-Tang et al. 2021), as well as confirming the utility of these computational methods. However, the results also show that the coded semantic information could be further fine-grained to improve the accuracy of the predictions (see also Plaster et al. 2013). In addition, we discuss the implications of the output for our understanding of language-internal and family-internal processes of language change, including how loanwords are integrated from Russian, a three-gender language.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Svetlana Zemicheva (HSE)</t>
   </si>
   <si>
     <t xml:space="preserve">Tomsk dialect corpus as a comprehensively annotated resource</t>
@@ -2159,10 +2165,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1030"/>
+  <dimension ref="A1:Z1031"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C71" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D105" activeCellId="0" sqref="D105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2222,10 +2228,10 @@
         <v>2023</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -2305,7 +2311,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -2345,7 +2351,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>15</v>
@@ -2425,7 +2431,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>21</v>
@@ -2502,10 +2508,10 @@
         <v>2023</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>27</v>
@@ -2513,7 +2519,7 @@
       <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="4"/>
@@ -2553,7 +2559,7 @@
       <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="4"/>
@@ -2585,7 +2591,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>33</v>
@@ -2593,7 +2599,7 @@
       <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="4"/>
@@ -2625,7 +2631,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>36</v>
@@ -2665,7 +2671,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -2673,7 +2679,7 @@
       <c r="E13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G13" s="4"/>
@@ -2702,12 +2708,12 @@
         <v>2023</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -2747,7 +2753,7 @@
       <c r="C15" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -2785,7 +2791,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>48</v>
@@ -2793,7 +2799,7 @@
       <c r="E16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G16" s="4"/>
@@ -2833,7 +2839,7 @@
       <c r="E17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>53</v>
       </c>
       <c r="G17" s="4"/>
@@ -2865,7 +2871,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>54</v>
@@ -2873,7 +2879,7 @@
       <c r="E18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="4"/>
@@ -2913,7 +2919,7 @@
       <c r="E19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="5" t="s">
         <v>59</v>
       </c>
       <c r="G19" s="4"/>
@@ -2942,10 +2948,10 @@
         <v>2023</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>60</v>
@@ -3025,7 +3031,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>66</v>
@@ -3105,7 +3111,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>72</v>
@@ -3145,7 +3151,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>75</v>
@@ -3190,7 +3196,7 @@
       <c r="D26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>79</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -3222,15 +3228,15 @@
         <v>2023</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>82</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -3305,7 +3311,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>87</v>
@@ -3345,7 +3351,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>90</v>
@@ -3422,10 +3428,10 @@
         <v>2023</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>96</v>
@@ -3505,7 +3511,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>102</v>
@@ -3585,16 +3591,16 @@
         <v>1</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -3628,13 +3634,13 @@
         <v>17</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="7" t="s">
         <v>111</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -3659,21 +3665,21 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="7" t="s">
         <v>114</v>
       </c>
       <c r="G38" s="4"/>
@@ -3705,16 +3711,16 @@
         <v>12</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -3748,7 +3754,7 @@
         <v>13</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>118</v>
@@ -3785,16 +3791,16 @@
         <v>12</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -3822,13 +3828,13 @@
         <v>2022</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>123</v>
@@ -3868,7 +3874,7 @@
         <v>29</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>125</v>
@@ -3905,16 +3911,16 @@
         <v>11</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -3945,16 +3951,16 @@
         <v>11</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -3988,7 +3994,7 @@
         <v>15</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>133</v>
@@ -4025,16 +4031,16 @@
         <v>11</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -4068,13 +4074,13 @@
         <v>8</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -4102,19 +4108,19 @@
         <v>2022</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D49" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -4148,7 +4154,7 @@
         <v>25</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>144</v>
@@ -4185,16 +4191,16 @@
         <v>10</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -4228,13 +4234,13 @@
         <v>18</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -4268,13 +4274,13 @@
         <v>18</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -4308,13 +4314,13 @@
         <v>18</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="F54" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -4345,16 +4351,16 @@
         <v>10</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D55" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="F55" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -4388,13 +4394,13 @@
         <v>11</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="F56" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -4425,16 +4431,16 @@
         <v>10</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D57" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="F57" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -4468,13 +4474,13 @@
         <v>4</v>
       </c>
       <c r="D58" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -4502,19 +4508,19 @@
         <v>2022</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D59" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -4548,13 +4554,13 @@
         <v>20</v>
       </c>
       <c r="D60" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -4585,37 +4591,37 @@
         <v>9</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D61" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="F61" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="9"/>
-      <c r="Y61" s="9"/>
-      <c r="Z61" s="9"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="n">
@@ -4627,14 +4633,14 @@
       <c r="C62" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
@@ -4662,19 +4668,19 @@
         <v>2022</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D63" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
@@ -4708,13 +4714,13 @@
         <v>28</v>
       </c>
       <c r="D64" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="F64" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
@@ -4745,16 +4751,16 @@
         <v>6</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D65" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
@@ -4785,16 +4791,16 @@
         <v>6</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D66" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
@@ -4822,19 +4828,19 @@
         <v>2022</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D67" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="F67" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
@@ -4865,16 +4871,16 @@
         <v>5</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D68" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="F68" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
@@ -4905,10 +4911,10 @@
         <v>5</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>200</v>
@@ -4942,19 +4948,19 @@
         <v>2022</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C70" s="3" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D70" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="F70" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
@@ -4985,16 +4991,16 @@
         <v>4</v>
       </c>
       <c r="C71" s="3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D71" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="F71" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
@@ -5025,16 +5031,16 @@
         <v>4</v>
       </c>
       <c r="C72" s="3" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D72" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
@@ -5062,19 +5068,19 @@
         <v>2022</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C73" s="3" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D73" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
@@ -5105,16 +5111,16 @@
         <v>3</v>
       </c>
       <c r="C74" s="3" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D74" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="F74" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
@@ -5148,13 +5154,13 @@
         <v>22</v>
       </c>
       <c r="D75" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
@@ -5185,16 +5191,16 @@
         <v>3</v>
       </c>
       <c r="C76" s="3" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="F76" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
@@ -5225,16 +5231,16 @@
         <v>3</v>
       </c>
       <c r="C77" s="3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D77" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="F77" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
@@ -5262,19 +5268,19 @@
         <v>2022</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C78" s="3" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D78" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="F78" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
@@ -5305,16 +5311,16 @@
         <v>2</v>
       </c>
       <c r="C79" s="3" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="F79" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
@@ -5342,19 +5348,19 @@
         <v>2022</v>
       </c>
       <c r="B80" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C80" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C80" s="3" t="n">
-        <v>25</v>
-      </c>
       <c r="D80" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="F80" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
@@ -5385,16 +5391,16 @@
         <v>1</v>
       </c>
       <c r="C81" s="3" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D81" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="F81" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
@@ -5425,10 +5431,10 @@
         <v>1</v>
       </c>
       <c r="C82" s="3" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>238</v>
@@ -5459,16 +5465,16 @@
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C83" s="3" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>240</v>
@@ -5505,16 +5511,16 @@
         <v>12</v>
       </c>
       <c r="C84" s="3" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D84" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="F84" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
@@ -5545,16 +5551,16 @@
         <v>12</v>
       </c>
       <c r="C85" s="3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D85" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="F85" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
@@ -5582,19 +5588,19 @@
         <v>2021</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C86" s="3" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D86" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="F86" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
@@ -5625,16 +5631,16 @@
         <v>11</v>
       </c>
       <c r="C87" s="3" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D87" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="F87" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
@@ -5665,16 +5671,16 @@
         <v>11</v>
       </c>
       <c r="C88" s="3" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D88" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="F88" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
@@ -5705,10 +5711,10 @@
         <v>11</v>
       </c>
       <c r="C89" s="3" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>257</v>
@@ -5742,19 +5748,19 @@
         <v>2021</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C90" s="3" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D90" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="F90" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
@@ -5785,16 +5791,16 @@
         <v>10</v>
       </c>
       <c r="C91" s="3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D91" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="F91" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
@@ -5825,16 +5831,16 @@
         <v>10</v>
       </c>
       <c r="C92" s="3" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D92" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="F92" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
@@ -5862,19 +5868,19 @@
         <v>2021</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C93" s="3" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D93" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="F93" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
@@ -5905,16 +5911,16 @@
         <v>9</v>
       </c>
       <c r="C94" s="3" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D94" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="F94" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
@@ -5945,16 +5951,16 @@
         <v>9</v>
       </c>
       <c r="C95" s="3" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D95" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="F95" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
@@ -5985,16 +5991,16 @@
         <v>9</v>
       </c>
       <c r="C96" s="3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D96" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E96" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="F96" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
@@ -6022,13 +6028,13 @@
         <v>2021</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C97" s="3" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>182</v>
+        <v>279</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>280</v>
@@ -6068,7 +6074,7 @@
         <v>15</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>282</v>
@@ -6105,10 +6111,10 @@
         <v>6</v>
       </c>
       <c r="C99" s="3" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>254</v>
+        <v>151</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>284</v>
@@ -6145,16 +6151,16 @@
         <v>6</v>
       </c>
       <c r="C100" s="3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D100" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="F100" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
@@ -6182,19 +6188,19 @@
         <v>2021</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C101" s="3" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D101" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="F101" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
@@ -6225,16 +6231,16 @@
         <v>5</v>
       </c>
       <c r="C102" s="3" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D102" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E102" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="F102" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
@@ -6265,10 +6271,10 @@
         <v>5</v>
       </c>
       <c r="C103" s="3" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>185</v>
+        <v>294</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>295</v>
@@ -6308,13 +6314,13 @@
         <v>11</v>
       </c>
       <c r="D104" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="F104" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
@@ -6342,13 +6348,13 @@
         <v>2021</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C105" s="3" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>300</v>
@@ -6385,10 +6391,10 @@
         <v>4</v>
       </c>
       <c r="C106" s="3" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>302</v>
@@ -6425,16 +6431,16 @@
         <v>4</v>
       </c>
       <c r="C107" s="3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D107" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E107" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="F107" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
@@ -6462,19 +6468,19 @@
         <v>2021</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C108" s="3" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D108" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E108" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="F108" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
@@ -6505,16 +6511,16 @@
         <v>3</v>
       </c>
       <c r="C109" s="3" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D109" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="F109" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
@@ -6545,16 +6551,16 @@
         <v>3</v>
       </c>
       <c r="C110" s="3" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D110" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="F110" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
@@ -6585,16 +6591,16 @@
         <v>3</v>
       </c>
       <c r="C111" s="3" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D111" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="F111" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
@@ -6625,16 +6631,16 @@
         <v>3</v>
       </c>
       <c r="C112" s="3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D112" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E112" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="F112" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
@@ -6668,13 +6674,13 @@
         <v>4</v>
       </c>
       <c r="D113" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E113" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="F113" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
@@ -6705,16 +6711,16 @@
         <v>3</v>
       </c>
       <c r="C114" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D114" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E114" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="F114" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
@@ -6748,13 +6754,13 @@
         <v>2</v>
       </c>
       <c r="D115" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E115" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="F115" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
@@ -6788,13 +6794,13 @@
         <v>2</v>
       </c>
       <c r="D116" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E116" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="F116" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
@@ -6822,13 +6828,13 @@
         <v>2021</v>
       </c>
       <c r="B117" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C117" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C117" s="3" t="n">
-        <v>16</v>
-      </c>
       <c r="D117" s="3" t="s">
-        <v>167</v>
+        <v>333</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>334</v>
@@ -6865,16 +6871,16 @@
         <v>2</v>
       </c>
       <c r="C118" s="3" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D118" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E118" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="F118" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
@@ -6905,16 +6911,16 @@
         <v>2</v>
       </c>
       <c r="C119" s="3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D119" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E119" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="F119" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
@@ -6942,19 +6948,19 @@
         <v>2021</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120" s="3" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D120" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E120" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="F120" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
@@ -6985,16 +6991,16 @@
         <v>1</v>
       </c>
       <c r="C121" s="3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D121" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E121" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="F121" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
@@ -7025,16 +7031,16 @@
         <v>1</v>
       </c>
       <c r="C122" s="3" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D122" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E122" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="F122" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>350</v>
       </c>
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
@@ -7068,7 +7074,7 @@
         <v>12</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>161</v>
+        <v>350</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>351</v>
@@ -7099,22 +7105,22 @@
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B124" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="C124" s="3" t="n">
-        <v>22</v>
-      </c>
       <c r="D124" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E124" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="F124" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
@@ -7145,16 +7151,16 @@
         <v>12</v>
       </c>
       <c r="C125" s="3" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D125" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="F125" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
@@ -7185,16 +7191,16 @@
         <v>12</v>
       </c>
       <c r="C126" s="3" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D126" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="F126" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>361</v>
       </c>
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
@@ -7225,16 +7231,16 @@
         <v>12</v>
       </c>
       <c r="C127" s="3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D127" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E127" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="F127" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>364</v>
       </c>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
@@ -7262,19 +7268,19 @@
         <v>2020</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C128" s="3" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D128" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E128" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="F128" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>367</v>
       </c>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
@@ -7305,16 +7311,16 @@
         <v>11</v>
       </c>
       <c r="C129" s="3" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D129" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E129" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="F129" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
@@ -7345,16 +7351,16 @@
         <v>11</v>
       </c>
       <c r="C130" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D130" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E130" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="F130" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
@@ -7382,13 +7388,13 @@
         <v>2020</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C131" s="3" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>6</v>
+        <v>373</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>374</v>
@@ -7425,16 +7431,16 @@
         <v>10</v>
       </c>
       <c r="C132" s="3" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D132" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="F132" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
@@ -7465,10 +7471,10 @@
         <v>10</v>
       </c>
       <c r="C133" s="3" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>262</v>
+        <v>378</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>379</v>
@@ -7505,16 +7511,16 @@
         <v>10</v>
       </c>
       <c r="C134" s="3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D134" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E134" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="F134" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
@@ -7542,13 +7548,13 @@
         <v>2020</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C135" s="3" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>149</v>
+        <v>383</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>384</v>
@@ -7585,10 +7591,10 @@
         <v>9</v>
       </c>
       <c r="C136" s="3" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>386</v>
@@ -7625,16 +7631,16 @@
         <v>9</v>
       </c>
       <c r="C137" s="3" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D137" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E137" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="F137" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
@@ -7665,10 +7671,10 @@
         <v>9</v>
       </c>
       <c r="C138" s="3" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>313</v>
+        <v>390</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>391</v>
@@ -7702,19 +7708,19 @@
         <v>2020</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C139" s="3" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D139" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E139" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="F139" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
@@ -7745,16 +7751,16 @@
         <v>6</v>
       </c>
       <c r="C140" s="3" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D140" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E140" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="F140" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
@@ -7785,16 +7791,16 @@
         <v>6</v>
       </c>
       <c r="C141" s="3" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D141" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E141" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="F141" s="3" t="s">
         <v>400</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>401</v>
       </c>
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
@@ -7825,16 +7831,16 @@
         <v>6</v>
       </c>
       <c r="C142" s="3" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D142" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E142" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="F142" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>404</v>
       </c>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
@@ -7865,16 +7871,16 @@
         <v>6</v>
       </c>
       <c r="C143" s="3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D143" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E143" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="F143" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>407</v>
       </c>
       <c r="G143" s="9"/>
       <c r="H143" s="9"/>
@@ -7902,13 +7908,13 @@
         <v>2020</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144" s="3" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>78</v>
+        <v>407</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>408</v>
@@ -7945,16 +7951,16 @@
         <v>5</v>
       </c>
       <c r="C145" s="3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D145" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E145" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="F145" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>412</v>
       </c>
       <c r="G145" s="9"/>
       <c r="H145" s="9"/>
@@ -7985,16 +7991,16 @@
         <v>5</v>
       </c>
       <c r="C146" s="3" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D146" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E146" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="F146" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>415</v>
       </c>
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
@@ -8022,19 +8028,19 @@
         <v>2020</v>
       </c>
       <c r="B147" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C147" s="3" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D147" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E147" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="F147" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>418</v>
       </c>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
@@ -8065,16 +8071,16 @@
         <v>4</v>
       </c>
       <c r="C148" s="3" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D148" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E148" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="F148" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>421</v>
       </c>
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
@@ -8105,10 +8111,10 @@
         <v>4</v>
       </c>
       <c r="C149" s="3" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>313</v>
+        <v>421</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>422</v>
@@ -8145,16 +8151,16 @@
         <v>4</v>
       </c>
       <c r="C150" s="3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D150" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E150" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E150" s="3" t="s">
+      <c r="F150" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>426</v>
       </c>
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
@@ -8182,19 +8188,19 @@
         <v>2020</v>
       </c>
       <c r="B151" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C151" s="3" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D151" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E151" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="E151" s="3" t="s">
+      <c r="F151" s="3" t="s">
         <v>428</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>429</v>
       </c>
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
@@ -8225,10 +8231,10 @@
         <v>3</v>
       </c>
       <c r="C152" s="3" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>185</v>
+        <v>429</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>430</v>
@@ -8265,10 +8271,10 @@
         <v>3</v>
       </c>
       <c r="C153" s="3" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>432</v>
@@ -8308,7 +8314,7 @@
         <v>17</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>388</v>
+        <v>163</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>434</v>
@@ -8345,16 +8351,16 @@
         <v>3</v>
       </c>
       <c r="C155" s="3" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D155" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E155" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="F155" s="3" t="s">
         <v>437</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>438</v>
       </c>
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
@@ -8385,16 +8391,16 @@
         <v>3</v>
       </c>
       <c r="C156" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D156" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E156" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="F156" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>441</v>
       </c>
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
@@ -8422,19 +8428,19 @@
         <v>2020</v>
       </c>
       <c r="B157" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C157" s="3" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D157" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E157" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="F157" s="3" t="s">
         <v>443</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>444</v>
       </c>
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
@@ -8465,16 +8471,16 @@
         <v>2</v>
       </c>
       <c r="C158" s="3" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D158" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E158" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="F158" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>447</v>
       </c>
       <c r="G158" s="9"/>
       <c r="H158" s="9"/>
@@ -8505,16 +8511,16 @@
         <v>2</v>
       </c>
       <c r="C159" s="3" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D159" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E159" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="E159" s="3" t="s">
+      <c r="F159" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>450</v>
       </c>
       <c r="G159" s="9"/>
       <c r="H159" s="9"/>
@@ -8545,16 +8551,16 @@
         <v>2</v>
       </c>
       <c r="C160" s="3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D160" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E160" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="F160" s="3" t="s">
         <v>452</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>453</v>
       </c>
       <c r="G160" s="9"/>
       <c r="H160" s="9"/>
@@ -8582,19 +8588,19 @@
         <v>2020</v>
       </c>
       <c r="B161" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C161" s="3" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D161" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E161" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="F161" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>456</v>
       </c>
       <c r="G161" s="9"/>
       <c r="H161" s="9"/>
@@ -8625,16 +8631,16 @@
         <v>1</v>
       </c>
       <c r="C162" s="3" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D162" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E162" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="E162" s="3" t="s">
+      <c r="F162" s="3" t="s">
         <v>458</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>459</v>
       </c>
       <c r="G162" s="9"/>
       <c r="H162" s="9"/>
@@ -8665,10 +8671,10 @@
         <v>1</v>
       </c>
       <c r="C163" s="3" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>78</v>
+        <v>459</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>460</v>
@@ -8699,22 +8705,22 @@
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="3" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B164" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C164" s="3" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D164" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E164" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="E164" s="3" t="s">
+      <c r="F164" s="3" t="s">
         <v>463</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>464</v>
       </c>
       <c r="G164" s="9"/>
       <c r="H164" s="9"/>
@@ -8745,16 +8751,16 @@
         <v>12</v>
       </c>
       <c r="C165" s="3" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D165" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E165" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="E165" s="3" t="s">
+      <c r="F165" s="3" t="s">
         <v>466</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>467</v>
       </c>
       <c r="G165" s="9"/>
       <c r="H165" s="9"/>
@@ -8785,16 +8791,16 @@
         <v>12</v>
       </c>
       <c r="C166" s="3" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D166" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E166" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="F166" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>470</v>
       </c>
       <c r="G166" s="9"/>
       <c r="H166" s="9"/>
@@ -8825,10 +8831,10 @@
         <v>12</v>
       </c>
       <c r="C167" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>161</v>
+        <v>470</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>471</v>
@@ -8868,13 +8874,13 @@
         <v>3</v>
       </c>
       <c r="D168" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E168" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="E168" s="3" t="s">
+      <c r="F168" s="3" t="s">
         <v>474</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>475</v>
       </c>
       <c r="G168" s="9"/>
       <c r="H168" s="9"/>
@@ -8902,13 +8908,13 @@
         <v>2019</v>
       </c>
       <c r="B169" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C169" s="3" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>6</v>
+        <v>475</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>476</v>
@@ -8948,13 +8954,13 @@
         <v>26</v>
       </c>
       <c r="D170" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="E170" s="3" t="s">
+      <c r="F170" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>480</v>
       </c>
       <c r="G170" s="9"/>
       <c r="H170" s="9"/>
@@ -8985,16 +8991,16 @@
         <v>11</v>
       </c>
       <c r="C171" s="3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D171" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E171" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="E171" s="3" t="s">
+      <c r="F171" s="3" t="s">
         <v>482</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>483</v>
       </c>
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
@@ -9025,10 +9031,10 @@
         <v>11</v>
       </c>
       <c r="C172" s="3" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>313</v>
+        <v>483</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>484</v>
@@ -9062,19 +9068,19 @@
         <v>2019</v>
       </c>
       <c r="B173" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C173" s="3" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D173" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E173" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="E173" s="3" t="s">
+      <c r="F173" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="F173" s="3" t="s">
-        <v>488</v>
       </c>
       <c r="G173" s="9"/>
       <c r="H173" s="9"/>
@@ -9105,16 +9111,16 @@
         <v>10</v>
       </c>
       <c r="C174" s="3" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D174" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="E174" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="E174" s="3" t="s">
+      <c r="F174" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>491</v>
       </c>
       <c r="G174" s="9"/>
       <c r="H174" s="9"/>
@@ -9145,16 +9151,16 @@
         <v>10</v>
       </c>
       <c r="C175" s="3" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D175" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E175" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="E175" s="3" t="s">
+      <c r="F175" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>494</v>
       </c>
       <c r="G175" s="9"/>
       <c r="H175" s="9"/>
@@ -9185,16 +9191,16 @@
         <v>10</v>
       </c>
       <c r="C176" s="3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D176" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E176" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="E176" s="3" t="s">
+      <c r="F176" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>497</v>
       </c>
       <c r="G176" s="9"/>
       <c r="H176" s="9"/>
@@ -9222,19 +9228,19 @@
         <v>2019</v>
       </c>
       <c r="B177" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C177" s="3" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D177" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E177" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="E177" s="3" t="s">
+      <c r="F177" s="3" t="s">
         <v>499</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>500</v>
       </c>
       <c r="G177" s="9"/>
       <c r="H177" s="9"/>
@@ -9268,13 +9274,13 @@
         <v>24</v>
       </c>
       <c r="D178" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E178" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="E178" s="3" t="s">
+      <c r="F178" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>503</v>
       </c>
       <c r="G178" s="9"/>
       <c r="H178" s="9"/>
@@ -9305,16 +9311,16 @@
         <v>9</v>
       </c>
       <c r="C179" s="3" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D179" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E179" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="E179" s="3" t="s">
+      <c r="F179" s="3" t="s">
         <v>505</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>506</v>
       </c>
       <c r="G179" s="9"/>
       <c r="H179" s="9"/>
@@ -9342,19 +9348,19 @@
         <v>2019</v>
       </c>
       <c r="B180" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C180" s="3" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G180" s="9"/>
       <c r="H180" s="9"/>
@@ -9385,16 +9391,16 @@
         <v>6</v>
       </c>
       <c r="C181" s="3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E181" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="F181" s="3" t="s">
         <v>509</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>510</v>
       </c>
       <c r="G181" s="9"/>
       <c r="H181" s="9"/>
@@ -9422,19 +9428,19 @@
         <v>2019</v>
       </c>
       <c r="B182" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C182" s="3" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D182" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E182" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="E182" s="3" t="s">
+      <c r="F182" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>513</v>
       </c>
       <c r="G182" s="9"/>
       <c r="H182" s="9"/>
@@ -9468,13 +9474,13 @@
         <v>28</v>
       </c>
       <c r="D183" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E183" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="E183" s="3" t="s">
+      <c r="F183" s="3" t="s">
         <v>515</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>513</v>
       </c>
       <c r="G183" s="9"/>
       <c r="H183" s="9"/>
@@ -9502,10 +9508,10 @@
         <v>2019</v>
       </c>
       <c r="B184" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C184" s="3" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>516</v>
@@ -9514,7 +9520,7 @@
         <v>517</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G184" s="9"/>
       <c r="H184" s="9"/>
@@ -9548,13 +9554,13 @@
         <v>23</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>167</v>
+        <v>518</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G185" s="9"/>
       <c r="H185" s="9"/>
@@ -9585,16 +9591,16 @@
         <v>4</v>
       </c>
       <c r="C186" s="3" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D186" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E186" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="E186" s="3" t="s">
+      <c r="F186" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>513</v>
       </c>
       <c r="G186" s="9"/>
       <c r="H186" s="9"/>
@@ -9634,7 +9640,7 @@
         <v>523</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G187" s="9"/>
       <c r="H187" s="9"/>
@@ -9674,7 +9680,7 @@
         <v>525</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G188" s="9"/>
       <c r="H188" s="9"/>
@@ -9705,16 +9711,16 @@
         <v>4</v>
       </c>
       <c r="C189" s="3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>93</v>
+        <v>526</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G189" s="9"/>
       <c r="H189" s="9"/>
@@ -9742,19 +9748,19 @@
         <v>2019</v>
       </c>
       <c r="B190" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C190" s="3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D190" s="10" t="s">
-        <v>527</v>
+        <v>2</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="F190" s="5" t="s">
-        <v>529</v>
+      <c r="F190" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="G190" s="9"/>
       <c r="H190" s="9"/>
@@ -9785,16 +9791,16 @@
         <v>3</v>
       </c>
       <c r="C191" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>368</v>
+        <v>26</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>529</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="F191" s="3" t="s">
-        <v>513</v>
+      <c r="F191" s="5" t="s">
+        <v>531</v>
       </c>
       <c r="G191" s="9"/>
       <c r="H191" s="9"/>
@@ -9822,19 +9828,19 @@
         <v>2019</v>
       </c>
       <c r="B192" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C192" s="3" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>254</v>
+        <v>370</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="G192" s="9"/>
       <c r="H192" s="9"/>
@@ -9865,16 +9871,16 @@
         <v>2</v>
       </c>
       <c r="C193" s="3" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D193" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E193" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="E193" s="3" t="s">
+      <c r="F193" s="3" t="s">
         <v>534</v>
-      </c>
-      <c r="F193" s="3" t="s">
-        <v>513</v>
       </c>
       <c r="G193" s="9"/>
       <c r="H193" s="9"/>
@@ -9914,7 +9920,7 @@
         <v>536</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="G194" s="9"/>
       <c r="H194" s="9"/>
@@ -9945,10 +9951,10 @@
         <v>2</v>
       </c>
       <c r="C195" s="3" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>149</v>
+        <v>537</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>538</v>
@@ -9988,13 +9994,13 @@
         <v>5</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>399</v>
+        <v>151</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>540</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
       <c r="G196" s="9"/>
       <c r="H196" s="9"/>
@@ -10022,19 +10028,19 @@
         <v>2019</v>
       </c>
       <c r="B197" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C197" s="3" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>542</v>
+        <v>515</v>
       </c>
       <c r="G197" s="9"/>
       <c r="H197" s="9"/>
@@ -10065,16 +10071,16 @@
         <v>1</v>
       </c>
       <c r="C198" s="3" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D198" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E198" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="E198" s="3" t="s">
+      <c r="F198" s="3" t="s">
         <v>544</v>
-      </c>
-      <c r="F198" s="3" t="s">
-        <v>545</v>
       </c>
       <c r="G198" s="9"/>
       <c r="H198" s="9"/>
@@ -10105,16 +10111,16 @@
         <v>1</v>
       </c>
       <c r="C199" s="3" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D199" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="E199" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="E199" s="3" t="s">
+      <c r="F199" s="3" t="s">
         <v>547</v>
-      </c>
-      <c r="F199" s="3" t="s">
-        <v>548</v>
       </c>
       <c r="G199" s="9"/>
       <c r="H199" s="9"/>
@@ -10139,22 +10145,22 @@
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="3" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B200" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C200" s="3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>262</v>
+        <v>548</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>549</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>513</v>
+        <v>550</v>
       </c>
       <c r="G200" s="9"/>
       <c r="H200" s="9"/>
@@ -10185,16 +10191,16 @@
         <v>12</v>
       </c>
       <c r="C201" s="3" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>550</v>
+        <v>264</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>551</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G201" s="9"/>
       <c r="H201" s="9"/>
@@ -10225,7 +10231,7 @@
         <v>12</v>
       </c>
       <c r="C202" s="3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>552</v>
@@ -10234,7 +10240,7 @@
         <v>553</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="G202" s="9"/>
       <c r="H202" s="9"/>
@@ -10262,13 +10268,13 @@
         <v>2018</v>
       </c>
       <c r="B203" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C203" s="3" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>6</v>
+        <v>554</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>555</v>
@@ -10305,16 +10311,16 @@
         <v>11</v>
       </c>
       <c r="C204" s="3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D204" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="E204" s="3" t="s">
+      <c r="F204" s="3" t="s">
         <v>558</v>
-      </c>
-      <c r="F204" s="3" t="s">
-        <v>559</v>
       </c>
       <c r="G204" s="9"/>
       <c r="H204" s="9"/>
@@ -10342,13 +10348,13 @@
         <v>2018</v>
       </c>
       <c r="B205" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C205" s="3" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>78</v>
+        <v>559</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>560</v>
@@ -10385,16 +10391,16 @@
         <v>10</v>
       </c>
       <c r="C206" s="3" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>562</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>513</v>
+        <v>563</v>
       </c>
       <c r="G206" s="9"/>
       <c r="H206" s="9"/>
@@ -10425,16 +10431,16 @@
         <v>10</v>
       </c>
       <c r="C207" s="3" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>563</v>
+        <v>151</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="F207" s="5" t="s">
-        <v>565</v>
+      <c r="F207" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="G207" s="9"/>
       <c r="H207" s="9"/>
@@ -10465,16 +10471,16 @@
         <v>10</v>
       </c>
       <c r="C208" s="3" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D208" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E208" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="E208" s="3" t="s">
+      <c r="F208" s="5" t="s">
         <v>567</v>
-      </c>
-      <c r="F208" s="3" t="s">
-        <v>568</v>
       </c>
       <c r="G208" s="9"/>
       <c r="H208" s="9"/>
@@ -10499,22 +10505,22 @@
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="3" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B209" s="3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C209" s="3" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D209" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="E209" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="E209" s="3" t="s">
+      <c r="F209" s="3" t="s">
         <v>570</v>
-      </c>
-      <c r="F209" s="3" t="s">
-        <v>571</v>
       </c>
       <c r="G209" s="9"/>
       <c r="H209" s="9"/>
@@ -10545,16 +10551,16 @@
         <v>11</v>
       </c>
       <c r="C210" s="3" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D210" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="E210" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="E210" s="3" t="s">
+      <c r="F210" s="3" t="s">
         <v>573</v>
-      </c>
-      <c r="F210" s="3" t="s">
-        <v>574</v>
       </c>
       <c r="G210" s="9"/>
       <c r="H210" s="9"/>
@@ -10585,16 +10591,16 @@
         <v>11</v>
       </c>
       <c r="C211" s="3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D211" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E211" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="E211" s="3" t="s">
+      <c r="F211" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="F211" s="3" t="s">
-        <v>577</v>
       </c>
       <c r="G211" s="9"/>
       <c r="H211" s="9"/>
@@ -10622,19 +10628,19 @@
         <v>2017</v>
       </c>
       <c r="B212" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C212" s="3" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D212" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E212" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="E212" s="3" t="s">
+      <c r="F212" s="3" t="s">
         <v>579</v>
-      </c>
-      <c r="F212" s="3" t="s">
-        <v>580</v>
       </c>
       <c r="G212" s="9"/>
       <c r="H212" s="9"/>
@@ -10665,16 +10671,16 @@
         <v>10</v>
       </c>
       <c r="C213" s="3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D213" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E213" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="E213" s="3" t="s">
+      <c r="F213" s="3" t="s">
         <v>582</v>
-      </c>
-      <c r="F213" s="3" t="s">
-        <v>583</v>
       </c>
       <c r="G213" s="9"/>
       <c r="H213" s="9"/>
@@ -10705,16 +10711,16 @@
         <v>10</v>
       </c>
       <c r="C214" s="3" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D214" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="E214" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="E214" s="3" t="s">
+      <c r="F214" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="F214" s="3" t="s">
-        <v>586</v>
       </c>
       <c r="G214" s="9"/>
       <c r="H214" s="9"/>
@@ -10745,16 +10751,16 @@
         <v>10</v>
       </c>
       <c r="C215" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D215" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="E215" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="E215" s="3" t="s">
+      <c r="F215" s="3" t="s">
         <v>588</v>
-      </c>
-      <c r="F215" s="3" t="s">
-        <v>589</v>
       </c>
       <c r="G215" s="9"/>
       <c r="H215" s="9"/>
@@ -10782,19 +10788,19 @@
         <v>2017</v>
       </c>
       <c r="B216" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C216" s="3" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D216" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E216" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="E216" s="3" t="s">
+      <c r="F216" s="3" t="s">
         <v>591</v>
-      </c>
-      <c r="F216" s="3" t="s">
-        <v>592</v>
       </c>
       <c r="G216" s="9"/>
       <c r="H216" s="9"/>
@@ -10825,16 +10831,16 @@
         <v>9</v>
       </c>
       <c r="C217" s="3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D217" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="E217" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="E217" s="3" t="s">
+      <c r="F217" s="3" t="s">
         <v>594</v>
-      </c>
-      <c r="F217" s="3" t="s">
-        <v>595</v>
       </c>
       <c r="G217" s="9"/>
       <c r="H217" s="9"/>
@@ -10858,12 +10864,24 @@
       <c r="Z217" s="9"/>
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="9"/>
-      <c r="B218" s="9"/>
-      <c r="C218" s="9"/>
-      <c r="D218" s="9"/>
-      <c r="E218" s="9"/>
-      <c r="F218" s="9"/>
+      <c r="A218" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B218" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C218" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>597</v>
+      </c>
       <c r="G218" s="9"/>
       <c r="H218" s="9"/>
       <c r="I218" s="9"/>
@@ -16457,7 +16475,7 @@
       <c r="Y417" s="9"/>
       <c r="Z417" s="9"/>
     </row>
-    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="9"/>
       <c r="B418" s="9"/>
       <c r="C418" s="9"/>
@@ -33621,8 +33639,36 @@
       <c r="Y1030" s="9"/>
       <c r="Z1030" s="9"/>
     </row>
+    <row r="1031" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1031" s="9"/>
+      <c r="B1031" s="9"/>
+      <c r="C1031" s="9"/>
+      <c r="D1031" s="9"/>
+      <c r="E1031" s="9"/>
+      <c r="F1031" s="9"/>
+      <c r="G1031" s="9"/>
+      <c r="H1031" s="9"/>
+      <c r="I1031" s="9"/>
+      <c r="J1031" s="9"/>
+      <c r="K1031" s="9"/>
+      <c r="L1031" s="9"/>
+      <c r="M1031" s="9"/>
+      <c r="N1031" s="9"/>
+      <c r="O1031" s="9"/>
+      <c r="P1031" s="9"/>
+      <c r="Q1031" s="9"/>
+      <c r="R1031" s="9"/>
+      <c r="S1031" s="9"/>
+      <c r="T1031" s="9"/>
+      <c r="U1031" s="9"/>
+      <c r="V1031" s="9"/>
+      <c r="W1031" s="9"/>
+      <c r="X1031" s="9"/>
+      <c r="Y1031" s="9"/>
+      <c r="Z1031" s="9"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F217"/>
+  <autoFilter ref="A1:F218"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="599">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">abstract</t>
   </si>
   <si>
-    <t xml:space="preserve">Svetlana Zemicheva (HSE)</t>
+    <t xml:space="preserve">Svetlana Zemicheva, George Moroz (HSE)</t>
   </si>
   <si>
     <t xml:space="preserve">Modeling the use of non-standard participles in dialect varieties of Russian  </t>
@@ -501,6 +501,9 @@
   </si>
   <si>
     <t xml:space="preserve">The Nakh languages Chechen and Tsova-Tush each have a five-valued gender system: masculine, feminine, and three “neuter” genders named for their singular agreement forms: B, D and J. Gender assignment in languages is generally analysed as being dependent on both form and semantics (e.g. Corbett 1991), with semantics typically prevailing over form (e.g. Bellamy &amp; Wichers Schreur 2022, Allassonnière-Tang et al. 2021). Most previous studies have considered only binary or tripartite gender systems possessing one masculine, one feminine, and one neuter value. The five-valued system of Nakh thus represents a more complex and insightful case study for analysing gender assignment. In this paper we build on the existing qualitative linguistic analyses of gender assignment in Tsova-Tush (Wichers Schreur 2021) and apply three machine-learning methods to investigate the weight of form and semantics in predicting grammatical gender in Chechen and Tsova-Tush. Our main aim is thus to show how three different computational classifier methods perform on a novel set of non-Indo-European data. The results show that while both form and semantics are helpful for predicting grammatical gender in Nakh, semantics is dominant, which supports findings from existing literature (Allassonnière-Tang et al. 2021), as well as confirming the utility of these computational methods. However, the results also show that the coded semantic information could be further fine-grained to improve the accuracy of the predictions (see also Plaster et al. 2013). In addition, we discuss the implications of the output for our understanding of language-internal and family-internal processes of language change, including how loanwords are integrated from Russian, a three-gender language.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Svetlana Zemicheva (HSE)</t>
   </si>
   <si>
     <t xml:space="preserve">Tomsk dialect corpus as a comprehensively annotated resource</t>
@@ -2168,7 +2171,7 @@
   <dimension ref="A1:Z1031"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3714,13 +3717,13 @@
         <v>20</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -3754,13 +3757,13 @@
         <v>13</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -3797,10 +3800,10 @@
         <v>102</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -3834,13 +3837,13 @@
         <v>6</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -3877,10 +3880,10 @@
         <v>78</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -3914,13 +3917,13 @@
         <v>29</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -3954,13 +3957,13 @@
         <v>22</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -3994,13 +3997,13 @@
         <v>15</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -4037,10 +4040,10 @@
         <v>102</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -4074,13 +4077,13 @@
         <v>8</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -4114,13 +4117,13 @@
         <v>8</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -4154,13 +4157,13 @@
         <v>25</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -4197,10 +4200,10 @@
         <v>108</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -4234,13 +4237,13 @@
         <v>18</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -4274,13 +4277,13 @@
         <v>18</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -4314,13 +4317,13 @@
         <v>18</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -4354,13 +4357,13 @@
         <v>18</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -4394,13 +4397,13 @@
         <v>11</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -4434,13 +4437,13 @@
         <v>11</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -4474,13 +4477,13 @@
         <v>4</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -4514,13 +4517,13 @@
         <v>4</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -4554,13 +4557,13 @@
         <v>20</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -4594,13 +4597,13 @@
         <v>20</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -4634,13 +4637,13 @@
         <v>13</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
@@ -4674,13 +4677,13 @@
         <v>13</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
@@ -4714,13 +4717,13 @@
         <v>28</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
@@ -4754,13 +4757,13 @@
         <v>28</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
@@ -4794,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
@@ -4834,13 +4837,13 @@
         <v>7</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
@@ -4874,13 +4877,13 @@
         <v>31</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
@@ -4914,13 +4917,13 @@
         <v>24</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
@@ -4954,13 +4957,13 @@
         <v>17</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
@@ -4994,13 +4997,13 @@
         <v>26</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
@@ -5034,13 +5037,13 @@
         <v>19</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
@@ -5074,13 +5077,13 @@
         <v>12</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
@@ -5114,13 +5117,13 @@
         <v>29</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
@@ -5154,13 +5157,13 @@
         <v>22</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
@@ -5194,13 +5197,13 @@
         <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
@@ -5234,13 +5237,13 @@
         <v>15</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
@@ -5274,13 +5277,13 @@
         <v>1</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
@@ -5314,13 +5317,13 @@
         <v>22</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
@@ -5354,13 +5357,13 @@
         <v>1</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
@@ -5394,13 +5397,13 @@
         <v>25</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
@@ -5434,13 +5437,13 @@
         <v>18</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
@@ -5477,10 +5480,10 @@
         <v>81</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
@@ -5514,13 +5517,13 @@
         <v>21</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
@@ -5554,13 +5557,13 @@
         <v>14</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
@@ -5594,13 +5597,13 @@
         <v>7</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
@@ -5634,13 +5637,13 @@
         <v>30</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
@@ -5674,13 +5677,13 @@
         <v>23</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
@@ -5714,13 +5717,13 @@
         <v>16</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
@@ -5754,13 +5757,13 @@
         <v>9</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
@@ -5794,13 +5797,13 @@
         <v>26</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
@@ -5834,13 +5837,13 @@
         <v>19</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
@@ -5874,13 +5877,13 @@
         <v>5</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
@@ -5914,13 +5917,13 @@
         <v>28</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
@@ -5954,13 +5957,13 @@
         <v>21</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
@@ -5994,13 +5997,13 @@
         <v>14</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
@@ -6034,13 +6037,13 @@
         <v>7</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
@@ -6074,13 +6077,13 @@
         <v>15</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
@@ -6114,13 +6117,13 @@
         <v>15</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
@@ -6154,13 +6157,13 @@
         <v>8</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
@@ -6194,13 +6197,13 @@
         <v>1</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
@@ -6234,13 +6237,13 @@
         <v>25</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
@@ -6274,13 +6277,13 @@
         <v>18</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
@@ -6314,13 +6317,13 @@
         <v>11</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
@@ -6354,13 +6357,13 @@
         <v>11</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
@@ -6394,13 +6397,13 @@
         <v>20</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
@@ -6437,10 +6440,10 @@
         <v>81</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
@@ -6474,13 +6477,13 @@
         <v>6</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
@@ -6514,13 +6517,13 @@
         <v>30</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
@@ -6554,13 +6557,13 @@
         <v>23</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
@@ -6594,13 +6597,13 @@
         <v>16</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
@@ -6634,13 +6637,13 @@
         <v>9</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
@@ -6674,13 +6677,13 @@
         <v>4</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
@@ -6714,13 +6717,13 @@
         <v>4</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
@@ -6754,13 +6757,13 @@
         <v>2</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
@@ -6794,13 +6797,13 @@
         <v>2</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
@@ -6834,13 +6837,13 @@
         <v>2</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
@@ -6874,13 +6877,13 @@
         <v>16</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
@@ -6914,13 +6917,13 @@
         <v>9</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
@@ -6954,13 +6957,13 @@
         <v>2</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
@@ -6994,13 +6997,13 @@
         <v>26</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
@@ -7034,13 +7037,13 @@
         <v>19</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
@@ -7074,13 +7077,13 @@
         <v>12</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
@@ -7114,13 +7117,13 @@
         <v>12</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
@@ -7154,13 +7157,13 @@
         <v>22</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
@@ -7194,13 +7197,13 @@
         <v>15</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
@@ -7234,13 +7237,13 @@
         <v>8</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
@@ -7274,13 +7277,13 @@
         <v>1</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
@@ -7314,13 +7317,13 @@
         <v>17</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
@@ -7354,13 +7357,13 @@
         <v>10</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
@@ -7394,13 +7397,13 @@
         <v>3</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
@@ -7437,10 +7440,10 @@
         <v>9</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
@@ -7474,13 +7477,13 @@
         <v>20</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
@@ -7514,13 +7517,13 @@
         <v>13</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
@@ -7554,13 +7557,13 @@
         <v>6</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
@@ -7594,13 +7597,13 @@
         <v>29</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
@@ -7634,13 +7637,13 @@
         <v>22</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
@@ -7674,13 +7677,13 @@
         <v>15</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
@@ -7714,13 +7717,13 @@
         <v>8</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
@@ -7754,13 +7757,13 @@
         <v>30</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
@@ -7794,13 +7797,13 @@
         <v>23</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
@@ -7834,13 +7837,13 @@
         <v>16</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
@@ -7874,13 +7877,13 @@
         <v>9</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G143" s="9"/>
       <c r="H143" s="9"/>
@@ -7914,13 +7917,13 @@
         <v>2</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
@@ -7957,10 +7960,10 @@
         <v>81</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G145" s="9"/>
       <c r="H145" s="9"/>
@@ -7994,13 +7997,13 @@
         <v>19</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
@@ -8034,13 +8037,13 @@
         <v>12</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
@@ -8074,13 +8077,13 @@
         <v>28</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
@@ -8114,13 +8117,13 @@
         <v>21</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
@@ -8154,13 +8157,13 @@
         <v>14</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
@@ -8194,13 +8197,13 @@
         <v>7</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
@@ -8234,13 +8237,13 @@
         <v>31</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G152" s="9"/>
       <c r="H152" s="9"/>
@@ -8274,13 +8277,13 @@
         <v>24</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
@@ -8314,13 +8317,13 @@
         <v>17</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
@@ -8354,13 +8357,13 @@
         <v>17</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
@@ -8394,13 +8397,13 @@
         <v>10</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
@@ -8434,13 +8437,13 @@
         <v>3</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
@@ -8474,13 +8477,13 @@
         <v>25</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G158" s="9"/>
       <c r="H158" s="9"/>
@@ -8514,13 +8517,13 @@
         <v>18</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G159" s="9"/>
       <c r="H159" s="9"/>
@@ -8554,13 +8557,13 @@
         <v>11</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G160" s="9"/>
       <c r="H160" s="9"/>
@@ -8594,13 +8597,13 @@
         <v>4</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G161" s="9"/>
       <c r="H161" s="9"/>
@@ -8634,13 +8637,13 @@
         <v>28</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G162" s="9"/>
       <c r="H162" s="9"/>
@@ -8674,13 +8677,13 @@
         <v>21</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G163" s="9"/>
       <c r="H163" s="9"/>
@@ -8717,10 +8720,10 @@
         <v>81</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G164" s="9"/>
       <c r="H164" s="9"/>
@@ -8754,13 +8757,13 @@
         <v>24</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G165" s="9"/>
       <c r="H165" s="9"/>
@@ -8794,13 +8797,13 @@
         <v>17</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G166" s="9"/>
       <c r="H166" s="9"/>
@@ -8834,13 +8837,13 @@
         <v>10</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G167" s="9"/>
       <c r="H167" s="9"/>
@@ -8874,13 +8877,13 @@
         <v>3</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G168" s="9"/>
       <c r="H168" s="9"/>
@@ -8914,13 +8917,13 @@
         <v>3</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G169" s="9"/>
       <c r="H169" s="9"/>
@@ -8957,10 +8960,10 @@
         <v>9</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G170" s="9"/>
       <c r="H170" s="9"/>
@@ -8994,13 +8997,13 @@
         <v>26</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
@@ -9034,13 +9037,13 @@
         <v>19</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G172" s="9"/>
       <c r="H172" s="9"/>
@@ -9074,13 +9077,13 @@
         <v>12</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G173" s="9"/>
       <c r="H173" s="9"/>
@@ -9114,13 +9117,13 @@
         <v>29</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G174" s="9"/>
       <c r="H174" s="9"/>
@@ -9154,13 +9157,13 @@
         <v>22</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G175" s="9"/>
       <c r="H175" s="9"/>
@@ -9194,13 +9197,13 @@
         <v>15</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G176" s="9"/>
       <c r="H176" s="9"/>
@@ -9234,13 +9237,13 @@
         <v>1</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G177" s="9"/>
       <c r="H177" s="9"/>
@@ -9274,13 +9277,13 @@
         <v>24</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G178" s="9"/>
       <c r="H178" s="9"/>
@@ -9314,13 +9317,13 @@
         <v>24</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G179" s="9"/>
       <c r="H179" s="9"/>
@@ -9354,13 +9357,13 @@
         <v>17</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G180" s="9"/>
       <c r="H180" s="9"/>
@@ -9394,13 +9397,13 @@
         <v>11</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G181" s="9"/>
       <c r="H181" s="9"/>
@@ -9434,13 +9437,13 @@
         <v>4</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G182" s="9"/>
       <c r="H182" s="9"/>
@@ -9474,13 +9477,13 @@
         <v>28</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G183" s="9"/>
       <c r="H183" s="9"/>
@@ -9514,13 +9517,13 @@
         <v>28</v>
       </c>
       <c r="D184" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="F184" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="F184" s="3" t="s">
-        <v>515</v>
       </c>
       <c r="G184" s="9"/>
       <c r="H184" s="9"/>
@@ -9554,13 +9557,13 @@
         <v>23</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G185" s="9"/>
       <c r="H185" s="9"/>
@@ -9594,13 +9597,13 @@
         <v>23</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G186" s="9"/>
       <c r="H186" s="9"/>
@@ -9634,13 +9637,13 @@
         <v>9</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G187" s="9"/>
       <c r="H187" s="9"/>
@@ -9674,13 +9677,13 @@
         <v>9</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G188" s="9"/>
       <c r="H188" s="9"/>
@@ -9714,13 +9717,13 @@
         <v>9</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G189" s="9"/>
       <c r="H189" s="9"/>
@@ -9757,10 +9760,10 @@
         <v>96</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G190" s="9"/>
       <c r="H190" s="9"/>
@@ -9794,13 +9797,13 @@
         <v>26</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G191" s="9"/>
       <c r="H191" s="9"/>
@@ -9834,13 +9837,13 @@
         <v>19</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G192" s="9"/>
       <c r="H192" s="9"/>
@@ -9874,13 +9877,13 @@
         <v>26</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G193" s="9"/>
       <c r="H193" s="9"/>
@@ -9914,13 +9917,13 @@
         <v>12</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G194" s="9"/>
       <c r="H194" s="9"/>
@@ -9954,13 +9957,13 @@
         <v>12</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G195" s="9"/>
       <c r="H195" s="9"/>
@@ -9994,13 +9997,13 @@
         <v>5</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G196" s="9"/>
       <c r="H196" s="9"/>
@@ -10034,13 +10037,13 @@
         <v>5</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G197" s="9"/>
       <c r="H197" s="9"/>
@@ -10074,13 +10077,13 @@
         <v>29</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G198" s="9"/>
       <c r="H198" s="9"/>
@@ -10114,13 +10117,13 @@
         <v>22</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G199" s="9"/>
       <c r="H199" s="9"/>
@@ -10154,13 +10157,13 @@
         <v>15</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G200" s="9"/>
       <c r="H200" s="9"/>
@@ -10194,13 +10197,13 @@
         <v>18</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G201" s="9"/>
       <c r="H201" s="9"/>
@@ -10234,13 +10237,13 @@
         <v>11</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G202" s="9"/>
       <c r="H202" s="9"/>
@@ -10274,13 +10277,13 @@
         <v>4</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G203" s="9"/>
       <c r="H203" s="9"/>
@@ -10317,10 +10320,10 @@
         <v>9</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G204" s="9"/>
       <c r="H204" s="9"/>
@@ -10354,13 +10357,13 @@
         <v>6</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G205" s="9"/>
       <c r="H205" s="9"/>
@@ -10397,10 +10400,10 @@
         <v>81</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G206" s="9"/>
       <c r="H206" s="9"/>
@@ -10434,13 +10437,13 @@
         <v>23</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G207" s="9"/>
       <c r="H207" s="9"/>
@@ -10474,13 +10477,13 @@
         <v>16</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G208" s="9"/>
       <c r="H208" s="9"/>
@@ -10514,13 +10517,13 @@
         <v>9</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G209" s="9"/>
       <c r="H209" s="9"/>
@@ -10554,13 +10557,13 @@
         <v>21</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G210" s="9"/>
       <c r="H210" s="9"/>
@@ -10594,13 +10597,13 @@
         <v>14</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G211" s="9"/>
       <c r="H211" s="9"/>
@@ -10634,13 +10637,13 @@
         <v>7</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G212" s="9"/>
       <c r="H212" s="9"/>
@@ -10674,13 +10677,13 @@
         <v>26</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G213" s="9"/>
       <c r="H213" s="9"/>
@@ -10714,13 +10717,13 @@
         <v>19</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G214" s="9"/>
       <c r="H214" s="9"/>
@@ -10754,13 +10757,13 @@
         <v>10</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G215" s="9"/>
       <c r="H215" s="9"/>
@@ -10794,13 +10797,13 @@
         <v>3</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G216" s="9"/>
       <c r="H216" s="9"/>
@@ -10834,13 +10837,13 @@
         <v>26</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G217" s="9"/>
       <c r="H217" s="9"/>
@@ -10874,13 +10877,13 @@
         <v>19</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G218" s="9"/>
       <c r="H218" s="9"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
     <sheet name="modified_result" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">modified_result!$A$1:$F$218</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">modified_result!$A$1:$F$220</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="605">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -41,6 +41,24 @@
   </si>
   <si>
     <t xml:space="preserve">abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maksim Melenchenko(HSE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evidential Perfects in Shughni (and other Pamir languages)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect, one of three main tense-aspect verb forms in Shughni (&lt; East Iranian), is mainly used as an evidential. While Preterite denotes witnessed events, Perfect is used for non-witnessed events (for example, reported by other people or inferred). It is also used in experiential (such as ‘I have never…’) and counterfactual contexts. For a closed set of verbs that denote states, the Perfect form serves as a progressive present tense (e.g. ‘I am sitting’). In narratives, Perfect is generally for introductory or backgrounding events. The Perfect form of the Shughni verb ‘to be’ вуδҷ can refer to present-tense situations that are witnessed by the speaker. Similar forms in other languages have been dubbed “mirative”; I will attempt to argue against such a label for Shughni. In the talk, I will discuss theoretical implications of these topics and draw areal and typological parallels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polina Padalka (HSE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading group:  Bohnemeyer J. Elicitation and Documentation of Tense and Aspect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All languages seem to have provisions for the representation of time in their lexicons and discourse structures. But evidence has been mounting in recent years that the ways in which the representation of time is inscribed into the grammars of different languages varies substantially. This article reviews this evidence and introduces some empirical and analytical tools that facilitate the study of tense-mood-aspect systems in the field. The article begins by laying out some basics of temporal semantics (following Klein 1994 and Bohnemeyer 2014) and surveying tools and methods for the study of temporal semantics in the field. It then zeroes in on the topic of tenselessness. After reviewing the empirical case for tenselessness in one language, Yucatec Maya (Bohnemeyer 2002, 2009), four recent field-based studies of future-time reference (FTR) in (superficially or profoundly) tenseless languages are compared: Yucatec, Kalaallisut (Bittner 2005), St’át’imcets (Matthewson 2006), and Paraguayan Guaraní (Tonhauser 2011). Tenseless languages often grammaticalize a distinction between reference to factual and non-factual situations, treating FTR as non-factual. Past counterfactuals can serve as a diagnostic context, as they permit non-future tenses, but not irrealis markers.</t>
   </si>
   <si>
     <t xml:space="preserve">Svetlana Zemicheva, George Moroz (HSE)</t>
@@ -2168,10 +2186,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1031"/>
+  <dimension ref="A1:Z1033"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2234,7 +2252,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -2271,10 +2289,10 @@
         <v>2023</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
@@ -2311,10 +2329,10 @@
         <v>2023</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -2354,7 +2372,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>15</v>
@@ -2394,7 +2412,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>18</v>
@@ -2434,7 +2452,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>21</v>
@@ -2474,7 +2492,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>24</v>
@@ -2514,7 +2532,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>27</v>
@@ -2551,10 +2569,10 @@
         <v>2023</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>30</v>
@@ -2562,7 +2580,7 @@
       <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="4"/>
@@ -2591,10 +2609,10 @@
         <v>2023</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>33</v>
@@ -2634,7 +2652,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>36</v>
@@ -2674,7 +2692,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -2682,7 +2700,7 @@
       <c r="E13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G13" s="4"/>
@@ -2714,7 +2732,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>42</v>
@@ -2722,7 +2740,7 @@
       <c r="E14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>44</v>
       </c>
       <c r="G14" s="4"/>
@@ -2751,18 +2769,18 @@
         <v>2023</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="4"/>
@@ -2791,10 +2809,10 @@
         <v>2023</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>48</v>
@@ -2834,15 +2852,15 @@
         <v>4</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G17" s="4"/>
@@ -2874,7 +2892,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>54</v>
@@ -2914,7 +2932,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>57</v>
@@ -2954,7 +2972,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>60</v>
@@ -2991,10 +3009,10 @@
         <v>2023</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>63</v>
@@ -3002,7 +3020,7 @@
       <c r="E21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="5" t="s">
         <v>65</v>
       </c>
       <c r="G21" s="4"/>
@@ -3031,10 +3049,10 @@
         <v>2023</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>66</v>
@@ -3074,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>69</v>
@@ -3114,7 +3132,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>72</v>
@@ -3154,7 +3172,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>75</v>
@@ -3194,7 +3212,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>78</v>
@@ -3234,12 +3252,12 @@
         <v>3</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>82</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -3271,10 +3289,10 @@
         <v>2023</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>84</v>
@@ -3311,15 +3329,15 @@
         <v>2023</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>88</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -3354,7 +3372,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>90</v>
@@ -3394,7 +3412,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>93</v>
@@ -3434,7 +3452,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>96</v>
@@ -3471,10 +3489,10 @@
         <v>2023</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>99</v>
@@ -3511,10 +3529,10 @@
         <v>2023</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>102</v>
@@ -3554,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>105</v>
@@ -3594,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>108</v>
@@ -3634,16 +3652,16 @@
         <v>1</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -3674,16 +3692,16 @@
         <v>1</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -3708,22 +3726,22 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -3748,21 +3766,21 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="7" t="s">
         <v>120</v>
       </c>
       <c r="G40" s="4"/>
@@ -3794,16 +3812,16 @@
         <v>12</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -3834,16 +3852,16 @@
         <v>12</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -3871,19 +3889,19 @@
         <v>2022</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -3911,19 +3929,19 @@
         <v>2022</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -3954,16 +3972,16 @@
         <v>11</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -3994,10 +4012,10 @@
         <v>11</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>134</v>
@@ -4034,16 +4052,16 @@
         <v>11</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -4074,16 +4092,16 @@
         <v>11</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -4114,10 +4132,10 @@
         <v>11</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>142</v>
@@ -4151,10 +4169,10 @@
         <v>2022</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>144</v>
@@ -4191,19 +4209,19 @@
         <v>2022</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -4234,16 +4252,16 @@
         <v>10</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -4274,10 +4292,10 @@
         <v>10</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>153</v>
@@ -4394,7 +4412,7 @@
         <v>10</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>161</v>
@@ -4434,7 +4452,7 @@
         <v>10</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>164</v>
@@ -4474,7 +4492,7 @@
         <v>10</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>167</v>
@@ -4514,7 +4532,7 @@
         <v>10</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>170</v>
@@ -4551,10 +4569,10 @@
         <v>2022</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>173</v>
@@ -4591,10 +4609,10 @@
         <v>2022</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>176</v>
@@ -4634,9 +4652,9 @@
         <v>9</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D62" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>179</v>
       </c>
       <c r="E62" s="3" t="s">
@@ -4645,26 +4663,26 @@
       <c r="F62" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
-      <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
-      <c r="X62" s="9"/>
-      <c r="Y62" s="9"/>
-      <c r="Z62" s="9"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="n">
@@ -4674,7 +4692,7 @@
         <v>9</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>182</v>
@@ -4685,38 +4703,38 @@
       <c r="F63" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="9"/>
-      <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
-      <c r="U63" s="9"/>
-      <c r="V63" s="9"/>
-      <c r="W63" s="9"/>
-      <c r="X63" s="9"/>
-      <c r="Y63" s="9"/>
-      <c r="Z63" s="9"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="n">
         <v>2022</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>185</v>
       </c>
       <c r="E64" s="3" t="s">
@@ -4751,10 +4769,10 @@
         <v>2022</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>188</v>
@@ -4794,7 +4812,7 @@
         <v>6</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>191</v>
@@ -4834,7 +4852,7 @@
         <v>6</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>194</v>
@@ -4871,10 +4889,10 @@
         <v>2022</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>197</v>
@@ -4911,10 +4929,10 @@
         <v>2022</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>200</v>
@@ -4954,16 +4972,16 @@
         <v>5</v>
       </c>
       <c r="C70" s="3" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
@@ -4991,19 +5009,19 @@
         <v>2022</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C71" s="3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
@@ -5031,13 +5049,13 @@
         <v>2022</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C72" s="3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>209</v>
@@ -5074,7 +5092,7 @@
         <v>4</v>
       </c>
       <c r="C73" s="3" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>211</v>
@@ -5111,10 +5129,10 @@
         <v>2022</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C74" s="3" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>214</v>
@@ -5151,10 +5169,10 @@
         <v>2022</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C75" s="3" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>217</v>
@@ -5194,7 +5212,7 @@
         <v>3</v>
       </c>
       <c r="C76" s="3" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>220</v>
@@ -5234,7 +5252,7 @@
         <v>3</v>
       </c>
       <c r="C77" s="3" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>223</v>
@@ -5274,7 +5292,7 @@
         <v>3</v>
       </c>
       <c r="C78" s="3" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>226</v>
@@ -5311,10 +5329,10 @@
         <v>2022</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C79" s="3" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>229</v>
@@ -5351,7 +5369,7 @@
         <v>2022</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C80" s="3" t="n">
         <v>1</v>
@@ -5391,10 +5409,10 @@
         <v>2022</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C81" s="3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>235</v>
@@ -5431,10 +5449,10 @@
         <v>2022</v>
       </c>
       <c r="B82" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C82" s="3" t="n">
         <v>1</v>
-      </c>
-      <c r="C82" s="3" t="n">
-        <v>18</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>238</v>
@@ -5474,16 +5492,16 @@
         <v>1</v>
       </c>
       <c r="C83" s="3" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
@@ -5508,22 +5526,22 @@
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C84" s="3" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
@@ -5548,22 +5566,22 @@
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C85" s="3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>245</v>
+        <v>87</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
@@ -5594,10 +5612,10 @@
         <v>12</v>
       </c>
       <c r="C86" s="3" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>249</v>
@@ -5631,10 +5649,10 @@
         <v>2021</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C87" s="3" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>251</v>
@@ -5671,10 +5689,10 @@
         <v>2021</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C88" s="3" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>254</v>
@@ -5714,7 +5732,7 @@
         <v>11</v>
       </c>
       <c r="C89" s="3" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>257</v>
@@ -5754,16 +5772,16 @@
         <v>11</v>
       </c>
       <c r="C90" s="3" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>152</v>
+        <v>260</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
@@ -5791,19 +5809,19 @@
         <v>2021</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C91" s="3" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
@@ -5831,13 +5849,13 @@
         <v>2021</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C92" s="3" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>265</v>
+        <v>158</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>266</v>
@@ -5874,7 +5892,7 @@
         <v>10</v>
       </c>
       <c r="C93" s="3" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>268</v>
@@ -5911,10 +5929,10 @@
         <v>2021</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C94" s="3" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>271</v>
@@ -5951,10 +5969,10 @@
         <v>2021</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C95" s="3" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>274</v>
@@ -5994,7 +6012,7 @@
         <v>9</v>
       </c>
       <c r="C96" s="3" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>277</v>
@@ -6034,7 +6052,7 @@
         <v>9</v>
       </c>
       <c r="C97" s="3" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>280</v>
@@ -6071,19 +6089,19 @@
         <v>2021</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C98" s="3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>185</v>
+        <v>283</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
@@ -6111,19 +6129,19 @@
         <v>2021</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C99" s="3" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>152</v>
+        <v>286</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
@@ -6154,16 +6172,16 @@
         <v>6</v>
       </c>
       <c r="C100" s="3" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
@@ -6194,16 +6212,16 @@
         <v>6</v>
       </c>
       <c r="C101" s="3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>289</v>
+        <v>158</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
@@ -6231,13 +6249,13 @@
         <v>2021</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C102" s="3" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>293</v>
@@ -6271,10 +6289,10 @@
         <v>2021</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C103" s="3" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>295</v>
@@ -6314,16 +6332,16 @@
         <v>5</v>
       </c>
       <c r="C104" s="3" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>188</v>
+        <v>298</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
@@ -6354,16 +6372,16 @@
         <v>5</v>
       </c>
       <c r="C105" s="3" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
@@ -6391,19 +6409,19 @@
         <v>2021</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C106" s="3" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>262</v>
+        <v>194</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
@@ -6431,19 +6449,19 @@
         <v>2021</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C107" s="3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>81</v>
+        <v>306</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
@@ -6474,16 +6492,16 @@
         <v>4</v>
       </c>
       <c r="C108" s="3" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
@@ -6511,13 +6529,13 @@
         <v>2021</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C109" s="3" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>310</v>
+        <v>87</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>311</v>
@@ -6551,10 +6569,10 @@
         <v>2021</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C110" s="3" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>313</v>
@@ -6594,7 +6612,7 @@
         <v>3</v>
       </c>
       <c r="C111" s="3" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>316</v>
@@ -6634,7 +6652,7 @@
         <v>3</v>
       </c>
       <c r="C112" s="3" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>319</v>
@@ -6674,7 +6692,7 @@
         <v>3</v>
       </c>
       <c r="C113" s="3" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>322</v>
@@ -6714,7 +6732,7 @@
         <v>3</v>
       </c>
       <c r="C114" s="3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>325</v>
@@ -6754,7 +6772,7 @@
         <v>3</v>
       </c>
       <c r="C115" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>328</v>
@@ -6794,7 +6812,7 @@
         <v>3</v>
       </c>
       <c r="C116" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>331</v>
@@ -6871,19 +6889,19 @@
         <v>2021</v>
       </c>
       <c r="B118" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C118" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C118" s="3" t="n">
-        <v>16</v>
-      </c>
       <c r="D118" s="3" t="s">
-        <v>170</v>
+        <v>337</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
@@ -6911,19 +6929,19 @@
         <v>2021</v>
       </c>
       <c r="B119" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C119" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C119" s="3" t="n">
-        <v>9</v>
-      </c>
       <c r="D119" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
@@ -6954,10 +6972,10 @@
         <v>2</v>
       </c>
       <c r="C120" s="3" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>342</v>
+        <v>176</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>343</v>
@@ -6991,10 +7009,10 @@
         <v>2021</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C121" s="3" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>345</v>
@@ -7031,10 +7049,10 @@
         <v>2021</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C122" s="3" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>348</v>
@@ -7074,7 +7092,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="3" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>351</v>
@@ -7114,16 +7132,16 @@
         <v>1</v>
       </c>
       <c r="C124" s="3" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>164</v>
+        <v>354</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
@@ -7148,22 +7166,22 @@
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B125" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="C125" s="3" t="n">
-        <v>22</v>
-      </c>
       <c r="D125" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
@@ -7188,16 +7206,16 @@
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B126" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="C126" s="3" t="n">
-        <v>15</v>
-      </c>
       <c r="D126" s="3" t="s">
-        <v>359</v>
+        <v>170</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>360</v>
@@ -7234,7 +7252,7 @@
         <v>12</v>
       </c>
       <c r="C127" s="3" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>362</v>
@@ -7274,7 +7292,7 @@
         <v>12</v>
       </c>
       <c r="C128" s="3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>365</v>
@@ -7311,10 +7329,10 @@
         <v>2020</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C129" s="3" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>368</v>
@@ -7351,10 +7369,10 @@
         <v>2020</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C130" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>371</v>
@@ -7394,7 +7412,7 @@
         <v>11</v>
       </c>
       <c r="C131" s="3" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>374</v>
@@ -7431,19 +7449,19 @@
         <v>2020</v>
       </c>
       <c r="B132" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C132" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="C132" s="3" t="n">
-        <v>27</v>
-      </c>
       <c r="D132" s="3" t="s">
-        <v>9</v>
+        <v>377</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
@@ -7471,19 +7489,19 @@
         <v>2020</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C133" s="3" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
@@ -7514,16 +7532,16 @@
         <v>10</v>
       </c>
       <c r="C134" s="3" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>265</v>
+        <v>15</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
@@ -7554,16 +7572,16 @@
         <v>10</v>
       </c>
       <c r="C135" s="3" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
@@ -7591,19 +7609,19 @@
         <v>2020</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C136" s="3" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>152</v>
+        <v>271</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
@@ -7631,19 +7649,19 @@
         <v>2020</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C137" s="3" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>182</v>
+        <v>390</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
@@ -7674,16 +7692,16 @@
         <v>9</v>
       </c>
       <c r="C138" s="3" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>391</v>
+        <v>158</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
@@ -7714,16 +7732,16 @@
         <v>9</v>
       </c>
       <c r="C139" s="3" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>316</v>
+        <v>188</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
@@ -7751,19 +7769,19 @@
         <v>2020</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C140" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
@@ -7791,13 +7809,13 @@
         <v>2020</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C141" s="3" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>399</v>
+        <v>322</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>400</v>
@@ -7834,7 +7852,7 @@
         <v>6</v>
       </c>
       <c r="C142" s="3" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>402</v>
@@ -7874,7 +7892,7 @@
         <v>6</v>
       </c>
       <c r="C143" s="3" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>405</v>
@@ -7914,7 +7932,7 @@
         <v>6</v>
       </c>
       <c r="C144" s="3" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>408</v>
@@ -7951,19 +7969,19 @@
         <v>2020</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C145" s="3" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>81</v>
+        <v>411</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G145" s="9"/>
       <c r="H145" s="9"/>
@@ -7991,19 +8009,19 @@
         <v>2020</v>
       </c>
       <c r="B146" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C146" s="3" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
@@ -8034,10 +8052,10 @@
         <v>5</v>
       </c>
       <c r="C147" s="3" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>416</v>
+        <v>87</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>417</v>
@@ -8071,10 +8089,10 @@
         <v>2020</v>
       </c>
       <c r="B148" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C148" s="3" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>419</v>
@@ -8111,10 +8129,10 @@
         <v>2020</v>
       </c>
       <c r="B149" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C149" s="3" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>422</v>
@@ -8154,16 +8172,16 @@
         <v>4</v>
       </c>
       <c r="C150" s="3" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>316</v>
+        <v>425</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
@@ -8194,16 +8212,16 @@
         <v>4</v>
       </c>
       <c r="C151" s="3" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
@@ -8231,13 +8249,13 @@
         <v>2020</v>
       </c>
       <c r="B152" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C152" s="3" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>430</v>
+        <v>322</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>431</v>
@@ -8271,19 +8289,19 @@
         <v>2020</v>
       </c>
       <c r="B153" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C153" s="3" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>188</v>
+        <v>433</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
@@ -8314,16 +8332,16 @@
         <v>3</v>
       </c>
       <c r="C154" s="3" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>164</v>
+        <v>436</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
@@ -8354,16 +8372,16 @@
         <v>3</v>
       </c>
       <c r="C155" s="3" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>391</v>
+        <v>194</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
@@ -8394,16 +8412,16 @@
         <v>3</v>
       </c>
       <c r="C156" s="3" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>439</v>
+        <v>170</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
@@ -8434,10 +8452,10 @@
         <v>3</v>
       </c>
       <c r="C157" s="3" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>443</v>
@@ -8471,10 +8489,10 @@
         <v>2020</v>
       </c>
       <c r="B158" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C158" s="3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>445</v>
@@ -8511,10 +8529,10 @@
         <v>2020</v>
       </c>
       <c r="B159" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C159" s="3" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>448</v>
@@ -8554,7 +8572,7 @@
         <v>2</v>
       </c>
       <c r="C160" s="3" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>451</v>
@@ -8594,7 +8612,7 @@
         <v>2</v>
       </c>
       <c r="C161" s="3" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>454</v>
@@ -8631,10 +8649,10 @@
         <v>2020</v>
       </c>
       <c r="B162" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C162" s="3" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>457</v>
@@ -8671,10 +8689,10 @@
         <v>2020</v>
       </c>
       <c r="B163" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C163" s="3" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>460</v>
@@ -8714,16 +8732,16 @@
         <v>1</v>
       </c>
       <c r="C164" s="3" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>81</v>
+        <v>463</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G164" s="9"/>
       <c r="H164" s="9"/>
@@ -8748,22 +8766,22 @@
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="3" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B165" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C165" s="3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G165" s="9"/>
       <c r="H165" s="9"/>
@@ -8788,16 +8806,16 @@
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B166" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C166" s="3" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>468</v>
+        <v>87</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>469</v>
@@ -8834,7 +8852,7 @@
         <v>12</v>
       </c>
       <c r="C167" s="3" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>471</v>
@@ -8874,16 +8892,16 @@
         <v>12</v>
       </c>
       <c r="C168" s="3" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>164</v>
+        <v>474</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G168" s="9"/>
       <c r="H168" s="9"/>
@@ -8914,16 +8932,16 @@
         <v>12</v>
       </c>
       <c r="C169" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G169" s="9"/>
       <c r="H169" s="9"/>
@@ -8951,19 +8969,19 @@
         <v>2019</v>
       </c>
       <c r="B170" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C170" s="3" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G170" s="9"/>
       <c r="H170" s="9"/>
@@ -8991,19 +9009,19 @@
         <v>2019</v>
       </c>
       <c r="B171" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C171" s="3" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
@@ -9034,10 +9052,10 @@
         <v>11</v>
       </c>
       <c r="C172" s="3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>484</v>
+        <v>15</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>485</v>
@@ -9074,16 +9092,16 @@
         <v>11</v>
       </c>
       <c r="C173" s="3" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>316</v>
+        <v>487</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G173" s="9"/>
       <c r="H173" s="9"/>
@@ -9111,19 +9129,19 @@
         <v>2019</v>
       </c>
       <c r="B174" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C174" s="3" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G174" s="9"/>
       <c r="H174" s="9"/>
@@ -9151,13 +9169,13 @@
         <v>2019</v>
       </c>
       <c r="B175" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C175" s="3" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>492</v>
+        <v>322</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>493</v>
@@ -9194,7 +9212,7 @@
         <v>10</v>
       </c>
       <c r="C176" s="3" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>495</v>
@@ -9234,7 +9252,7 @@
         <v>10</v>
       </c>
       <c r="C177" s="3" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>498</v>
@@ -9271,10 +9289,10 @@
         <v>2019</v>
       </c>
       <c r="B178" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C178" s="3" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>501</v>
@@ -9311,10 +9329,10 @@
         <v>2019</v>
       </c>
       <c r="B179" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C179" s="3" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>504</v>
@@ -9354,7 +9372,7 @@
         <v>9</v>
       </c>
       <c r="C180" s="3" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>507</v>
@@ -9391,19 +9409,19 @@
         <v>2019</v>
       </c>
       <c r="B181" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C181" s="3" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G181" s="9"/>
       <c r="H181" s="9"/>
@@ -9431,19 +9449,19 @@
         <v>2019</v>
       </c>
       <c r="B182" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C182" s="3" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G182" s="9"/>
       <c r="H182" s="9"/>
@@ -9471,16 +9489,16 @@
         <v>2019</v>
       </c>
       <c r="B183" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C183" s="3" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>516</v>
@@ -9511,10 +9529,10 @@
         <v>2019</v>
       </c>
       <c r="B184" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C184" s="3" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>517</v>
@@ -9523,7 +9541,7 @@
         <v>518</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="G184" s="9"/>
       <c r="H184" s="9"/>
@@ -9551,19 +9569,19 @@
         <v>2019</v>
       </c>
       <c r="B185" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C185" s="3" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="G185" s="9"/>
       <c r="H185" s="9"/>
@@ -9591,16 +9609,16 @@
         <v>2019</v>
       </c>
       <c r="B186" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C186" s="3" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>170</v>
+        <v>523</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F186" s="3" t="s">
         <v>522</v>
@@ -9634,16 +9652,16 @@
         <v>4</v>
       </c>
       <c r="C187" s="3" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="G187" s="9"/>
       <c r="H187" s="9"/>
@@ -9674,16 +9692,16 @@
         <v>4</v>
       </c>
       <c r="C188" s="3" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>525</v>
+        <v>176</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="G188" s="9"/>
       <c r="H188" s="9"/>
@@ -9717,13 +9735,13 @@
         <v>9</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="G189" s="9"/>
       <c r="H189" s="9"/>
@@ -9754,16 +9772,16 @@
         <v>4</v>
       </c>
       <c r="C190" s="3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>96</v>
+        <v>531</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="G190" s="9"/>
       <c r="H190" s="9"/>
@@ -9791,19 +9809,19 @@
         <v>2019</v>
       </c>
       <c r="B191" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C191" s="3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D191" s="10" t="s">
-        <v>530</v>
+        <v>9</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="F191" s="5" t="s">
-        <v>532</v>
+        <v>534</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>522</v>
       </c>
       <c r="G191" s="9"/>
       <c r="H191" s="9"/>
@@ -9831,19 +9849,19 @@
         <v>2019</v>
       </c>
       <c r="B192" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C192" s="3" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>371</v>
+        <v>102</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="G192" s="9"/>
       <c r="H192" s="9"/>
@@ -9871,19 +9889,19 @@
         <v>2019</v>
       </c>
       <c r="B193" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C193" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="D193" s="3" t="s">
-        <v>257</v>
+      <c r="D193" s="10" t="s">
+        <v>536</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="F193" s="3" t="s">
-        <v>535</v>
+        <v>537</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="G193" s="9"/>
       <c r="H193" s="9"/>
@@ -9911,19 +9929,19 @@
         <v>2019</v>
       </c>
       <c r="B194" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C194" s="3" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>536</v>
+        <v>377</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="G194" s="9"/>
       <c r="H194" s="9"/>
@@ -9954,16 +9972,16 @@
         <v>2</v>
       </c>
       <c r="C195" s="3" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>538</v>
+        <v>263</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G195" s="9"/>
       <c r="H195" s="9"/>
@@ -9994,16 +10012,16 @@
         <v>2</v>
       </c>
       <c r="C196" s="3" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>152</v>
+        <v>542</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="G196" s="9"/>
       <c r="H196" s="9"/>
@@ -10034,16 +10052,16 @@
         <v>2</v>
       </c>
       <c r="C197" s="3" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>402</v>
+        <v>544</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>516</v>
+        <v>546</v>
       </c>
       <c r="G197" s="9"/>
       <c r="H197" s="9"/>
@@ -10071,19 +10089,19 @@
         <v>2019</v>
       </c>
       <c r="B198" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C198" s="3" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>379</v>
+        <v>158</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="G198" s="9"/>
       <c r="H198" s="9"/>
@@ -10111,19 +10129,19 @@
         <v>2019</v>
       </c>
       <c r="B199" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C199" s="3" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>546</v>
+        <v>408</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>548</v>
+        <v>522</v>
       </c>
       <c r="G199" s="9"/>
       <c r="H199" s="9"/>
@@ -10154,10 +10172,10 @@
         <v>1</v>
       </c>
       <c r="C200" s="3" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>549</v>
+        <v>385</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>550</v>
@@ -10188,22 +10206,22 @@
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="3" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B201" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C201" s="3" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>265</v>
+        <v>552</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>516</v>
+        <v>554</v>
       </c>
       <c r="G201" s="9"/>
       <c r="H201" s="9"/>
@@ -10228,22 +10246,22 @@
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="3" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B202" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C202" s="3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>516</v>
+        <v>557</v>
       </c>
       <c r="G202" s="9"/>
       <c r="H202" s="9"/>
@@ -10274,16 +10292,16 @@
         <v>12</v>
       </c>
       <c r="C203" s="3" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>555</v>
+        <v>271</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>557</v>
+        <v>522</v>
       </c>
       <c r="G203" s="9"/>
       <c r="H203" s="9"/>
@@ -10311,19 +10329,19 @@
         <v>2018</v>
       </c>
       <c r="B204" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C204" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="C204" s="3" t="n">
-        <v>13</v>
-      </c>
       <c r="D204" s="3" t="s">
-        <v>9</v>
+        <v>559</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>559</v>
+        <v>522</v>
       </c>
       <c r="G204" s="9"/>
       <c r="H204" s="9"/>
@@ -10351,19 +10369,19 @@
         <v>2018</v>
       </c>
       <c r="B205" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C205" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G205" s="9"/>
       <c r="H205" s="9"/>
@@ -10391,19 +10409,19 @@
         <v>2018</v>
       </c>
       <c r="B206" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C206" s="3" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G206" s="9"/>
       <c r="H206" s="9"/>
@@ -10431,19 +10449,19 @@
         <v>2018</v>
       </c>
       <c r="B207" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C207" s="3" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>152</v>
+        <v>566</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>516</v>
+        <v>568</v>
       </c>
       <c r="G207" s="9"/>
       <c r="H207" s="9"/>
@@ -10474,16 +10492,16 @@
         <v>10</v>
       </c>
       <c r="C208" s="3" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>566</v>
+        <v>87</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="F208" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>570</v>
       </c>
       <c r="G208" s="9"/>
       <c r="H208" s="9"/>
@@ -10514,16 +10532,16 @@
         <v>10</v>
       </c>
       <c r="C209" s="3" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>569</v>
+        <v>158</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>571</v>
+        <v>522</v>
       </c>
       <c r="G209" s="9"/>
       <c r="H209" s="9"/>
@@ -10548,13 +10566,13 @@
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="3" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B210" s="3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C210" s="3" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>572</v>
@@ -10562,7 +10580,7 @@
       <c r="E210" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="F210" s="3" t="s">
+      <c r="F210" s="5" t="s">
         <v>574</v>
       </c>
       <c r="G210" s="9"/>
@@ -10588,13 +10606,13 @@
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="3" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B211" s="3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C211" s="3" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>575</v>
@@ -10634,7 +10652,7 @@
         <v>11</v>
       </c>
       <c r="C212" s="3" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>578</v>
@@ -10671,10 +10689,10 @@
         <v>2017</v>
       </c>
       <c r="B213" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C213" s="3" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>581</v>
@@ -10711,10 +10729,10 @@
         <v>2017</v>
       </c>
       <c r="B214" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C214" s="3" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>584</v>
@@ -10754,7 +10772,7 @@
         <v>10</v>
       </c>
       <c r="C215" s="3" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>587</v>
@@ -10794,7 +10812,7 @@
         <v>10</v>
       </c>
       <c r="C216" s="3" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>590</v>
@@ -10831,10 +10849,10 @@
         <v>2017</v>
       </c>
       <c r="B217" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C217" s="3" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>593</v>
@@ -10871,10 +10889,10 @@
         <v>2017</v>
       </c>
       <c r="B218" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C218" s="3" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>596</v>
@@ -10907,12 +10925,24 @@
       <c r="Z218" s="9"/>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="9"/>
-      <c r="B219" s="9"/>
-      <c r="C219" s="9"/>
-      <c r="D219" s="9"/>
-      <c r="E219" s="9"/>
-      <c r="F219" s="9"/>
+      <c r="A219" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B219" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C219" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>601</v>
+      </c>
       <c r="G219" s="9"/>
       <c r="H219" s="9"/>
       <c r="I219" s="9"/>
@@ -10935,12 +10965,24 @@
       <c r="Z219" s="9"/>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="9"/>
-      <c r="B220" s="9"/>
-      <c r="C220" s="9"/>
-      <c r="D220" s="9"/>
-      <c r="E220" s="9"/>
-      <c r="F220" s="9"/>
+      <c r="A220" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B220" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C220" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>604</v>
+      </c>
       <c r="G220" s="9"/>
       <c r="H220" s="9"/>
       <c r="I220" s="9"/>
@@ -16506,7 +16548,7 @@
       <c r="Y418" s="9"/>
       <c r="Z418" s="9"/>
     </row>
-    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="9"/>
       <c r="B419" s="9"/>
       <c r="C419" s="9"/>
@@ -16534,7 +16576,7 @@
       <c r="Y419" s="9"/>
       <c r="Z419" s="9"/>
     </row>
-    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="9"/>
       <c r="B420" s="9"/>
       <c r="C420" s="9"/>
@@ -33670,8 +33712,64 @@
       <c r="Y1031" s="9"/>
       <c r="Z1031" s="9"/>
     </row>
+    <row r="1032" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1032" s="9"/>
+      <c r="B1032" s="9"/>
+      <c r="C1032" s="9"/>
+      <c r="D1032" s="9"/>
+      <c r="E1032" s="9"/>
+      <c r="F1032" s="9"/>
+      <c r="G1032" s="9"/>
+      <c r="H1032" s="9"/>
+      <c r="I1032" s="9"/>
+      <c r="J1032" s="9"/>
+      <c r="K1032" s="9"/>
+      <c r="L1032" s="9"/>
+      <c r="M1032" s="9"/>
+      <c r="N1032" s="9"/>
+      <c r="O1032" s="9"/>
+      <c r="P1032" s="9"/>
+      <c r="Q1032" s="9"/>
+      <c r="R1032" s="9"/>
+      <c r="S1032" s="9"/>
+      <c r="T1032" s="9"/>
+      <c r="U1032" s="9"/>
+      <c r="V1032" s="9"/>
+      <c r="W1032" s="9"/>
+      <c r="X1032" s="9"/>
+      <c r="Y1032" s="9"/>
+      <c r="Z1032" s="9"/>
+    </row>
+    <row r="1033" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1033" s="9"/>
+      <c r="B1033" s="9"/>
+      <c r="C1033" s="9"/>
+      <c r="D1033" s="9"/>
+      <c r="E1033" s="9"/>
+      <c r="F1033" s="9"/>
+      <c r="G1033" s="9"/>
+      <c r="H1033" s="9"/>
+      <c r="I1033" s="9"/>
+      <c r="J1033" s="9"/>
+      <c r="K1033" s="9"/>
+      <c r="L1033" s="9"/>
+      <c r="M1033" s="9"/>
+      <c r="N1033" s="9"/>
+      <c r="O1033" s="9"/>
+      <c r="P1033" s="9"/>
+      <c r="Q1033" s="9"/>
+      <c r="R1033" s="9"/>
+      <c r="S1033" s="9"/>
+      <c r="T1033" s="9"/>
+      <c r="U1033" s="9"/>
+      <c r="V1033" s="9"/>
+      <c r="W1033" s="9"/>
+      <c r="X1033" s="9"/>
+      <c r="Y1033" s="9"/>
+      <c r="Z1033" s="9"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F218"/>
+  <autoFilter ref="A1:F220"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
     <sheet name="modified_result" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">modified_result!$A$1:$F$220</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">modified_result!$A$1:$F$222</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="609">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -43,7 +43,25 @@
     <t xml:space="preserve">abstract</t>
   </si>
   <si>
-    <t xml:space="preserve">Maksim Melenchenko(HSE)</t>
+    <t xml:space="preserve">S. V. Knyazev (RLI), G. Moroz (HSE), S. Dyachenko (RLI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корпус ПРуД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В докладе речь пойдет о создаваемом нами корпусе "Просодия русских диалектов". Мы расскажем о его устройстве, а также о тех вопросах, решению которых, на наш взгляд, могут способствовать представленные в нем данные:
+Какова вариативность русских диалектных просодических систем?
+Чем они могут отличаться от литературной?
+Возможно ли решение проблем интонационной фонологии литературного языка на основании диалектных данных?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Svetlana Zemicheva (HSE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maksim Melenchenko (HSE)</t>
   </si>
   <si>
     <t xml:space="preserve">Evidential Perfects in Shughni (and other Pamir languages)</t>
@@ -519,9 +537,6 @@
   </si>
   <si>
     <t xml:space="preserve">The Nakh languages Chechen and Tsova-Tush each have a five-valued gender system: masculine, feminine, and three “neuter” genders named for their singular agreement forms: B, D and J. Gender assignment in languages is generally analysed as being dependent on both form and semantics (e.g. Corbett 1991), with semantics typically prevailing over form (e.g. Bellamy &amp; Wichers Schreur 2022, Allassonnière-Tang et al. 2021). Most previous studies have considered only binary or tripartite gender systems possessing one masculine, one feminine, and one neuter value. The five-valued system of Nakh thus represents a more complex and insightful case study for analysing gender assignment. In this paper we build on the existing qualitative linguistic analyses of gender assignment in Tsova-Tush (Wichers Schreur 2021) and apply three machine-learning methods to investigate the weight of form and semantics in predicting grammatical gender in Chechen and Tsova-Tush. Our main aim is thus to show how three different computational classifier methods perform on a novel set of non-Indo-European data. The results show that while both form and semantics are helpful for predicting grammatical gender in Nakh, semantics is dominant, which supports findings from existing literature (Allassonnière-Tang et al. 2021), as well as confirming the utility of these computational methods. However, the results also show that the coded semantic information could be further fine-grained to improve the accuracy of the predictions (see also Plaster et al. 2013). In addition, we discuss the implications of the output for our understanding of language-internal and family-internal processes of language change, including how loanwords are integrated from Russian, a three-gender language.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Svetlana Zemicheva (HSE)</t>
   </si>
   <si>
     <t xml:space="preserve">Tomsk dialect corpus as a comprehensively annotated resource</t>
@@ -2186,10 +2201,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1033"/>
+  <dimension ref="A1:Z1035"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2249,10 +2264,10 @@
         <v>2023</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -2260,7 +2275,7 @@
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="4"/>
@@ -2289,10 +2304,10 @@
         <v>2023</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
@@ -2301,7 +2316,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -2332,16 +2347,16 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -2369,19 +2384,19 @@
         <v>2023</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -2409,19 +2424,19 @@
         <v>2023</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -2452,16 +2467,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -2492,16 +2507,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -2532,16 +2547,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -2572,16 +2587,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -2612,16 +2627,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -2649,19 +2664,19 @@
         <v>2023</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2689,19 +2704,19 @@
         <v>2023</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2732,16 +2747,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2772,16 +2787,16 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -2812,16 +2827,16 @@
         <v>5</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -2849,19 +2864,19 @@
         <v>2023</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -2889,19 +2904,19 @@
         <v>2023</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -2932,16 +2947,16 @@
         <v>4</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -2972,16 +2987,16 @@
         <v>4</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -3012,16 +3027,16 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -3052,16 +3067,16 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -3089,19 +3104,19 @@
         <v>2023</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -3129,19 +3144,19 @@
         <v>2023</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -3172,16 +3187,16 @@
         <v>3</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -3212,16 +3227,16 @@
         <v>3</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -3252,16 +3267,16 @@
         <v>3</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -3292,16 +3307,16 @@
         <v>3</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -3332,16 +3347,16 @@
         <v>3</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -3369,19 +3384,19 @@
         <v>2023</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -3409,19 +3424,19 @@
         <v>2023</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -3452,16 +3467,16 @@
         <v>2</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -3492,16 +3507,16 @@
         <v>2</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -3532,16 +3547,16 @@
         <v>2</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -3569,19 +3584,19 @@
         <v>2023</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -3609,19 +3624,19 @@
         <v>2023</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -3652,16 +3667,16 @@
         <v>1</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -3692,16 +3707,16 @@
         <v>1</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -3732,10 +3747,10 @@
         <v>1</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>117</v>
@@ -3772,16 +3787,16 @@
         <v>1</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F40" s="7" t="s">
         <v>120</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -3806,16 +3821,16 @@
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>122</v>
@@ -3846,22 +3861,22 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -3892,16 +3907,16 @@
         <v>12</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -3932,16 +3947,16 @@
         <v>12</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -3969,19 +3984,19 @@
         <v>2022</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -4009,13 +4024,13 @@
         <v>2022</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>134</v>
@@ -4052,16 +4067,16 @@
         <v>11</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -4092,16 +4107,16 @@
         <v>11</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -4132,16 +4147,16 @@
         <v>11</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E49" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -4172,16 +4187,16 @@
         <v>11</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -4212,16 +4227,16 @@
         <v>11</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -4249,19 +4264,19 @@
         <v>2022</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -4289,19 +4304,19 @@
         <v>2022</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="E53" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -4332,16 +4347,16 @@
         <v>10</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="F54" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -4372,16 +4387,16 @@
         <v>10</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D55" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -4415,13 +4430,13 @@
         <v>18</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -4455,13 +4470,13 @@
         <v>18</v>
       </c>
       <c r="D57" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -4492,16 +4507,16 @@
         <v>10</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D58" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -4532,16 +4547,16 @@
         <v>10</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D59" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -4572,16 +4587,16 @@
         <v>10</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D60" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -4612,16 +4627,16 @@
         <v>10</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D61" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -4649,19 +4664,19 @@
         <v>2022</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D62" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -4689,19 +4704,19 @@
         <v>2022</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D63" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -4732,37 +4747,37 @@
         <v>9</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D64" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="9"/>
-      <c r="S64" s="9"/>
-      <c r="T64" s="9"/>
-      <c r="U64" s="9"/>
-      <c r="V64" s="9"/>
-      <c r="W64" s="9"/>
-      <c r="X64" s="9"/>
-      <c r="Y64" s="9"/>
-      <c r="Z64" s="9"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="n">
@@ -4772,56 +4787,56 @@
         <v>9</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D65" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
-      <c r="X65" s="9"/>
-      <c r="Y65" s="9"/>
-      <c r="Z65" s="9"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="n">
         <v>2022</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
@@ -4849,19 +4864,19 @@
         <v>2022</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D67" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
@@ -4892,16 +4907,16 @@
         <v>6</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D68" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
@@ -4932,16 +4947,16 @@
         <v>6</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D69" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
@@ -4969,19 +4984,19 @@
         <v>2022</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" s="3" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D70" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
@@ -5009,19 +5024,19 @@
         <v>2022</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" s="3" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D71" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
@@ -5052,16 +5067,16 @@
         <v>5</v>
       </c>
       <c r="C72" s="3" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="E72" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
@@ -5089,19 +5104,19 @@
         <v>2022</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C73" s="3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D73" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
@@ -5129,19 +5144,19 @@
         <v>2022</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C74" s="3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D74" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
@@ -5172,16 +5187,16 @@
         <v>4</v>
       </c>
       <c r="C75" s="3" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D75" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
@@ -5209,19 +5224,19 @@
         <v>2022</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C76" s="3" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D76" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
@@ -5249,19 +5264,19 @@
         <v>2022</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C77" s="3" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D77" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
@@ -5292,16 +5307,16 @@
         <v>3</v>
       </c>
       <c r="C78" s="3" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D78" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
@@ -5332,16 +5347,16 @@
         <v>3</v>
       </c>
       <c r="C79" s="3" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
@@ -5372,16 +5387,16 @@
         <v>3</v>
       </c>
       <c r="C80" s="3" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D80" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
@@ -5409,19 +5424,19 @@
         <v>2022</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C81" s="3" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D81" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
@@ -5449,19 +5464,19 @@
         <v>2022</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C82" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D82" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
@@ -5489,19 +5504,19 @@
         <v>2022</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" s="3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D83" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
@@ -5529,19 +5544,19 @@
         <v>2022</v>
       </c>
       <c r="B84" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C84" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C84" s="3" t="n">
-        <v>18</v>
-      </c>
       <c r="D84" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
@@ -5572,16 +5587,16 @@
         <v>1</v>
       </c>
       <c r="C85" s="3" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>87</v>
+        <v>245</v>
       </c>
       <c r="E85" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
@@ -5606,16 +5621,16 @@
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C86" s="3" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>249</v>
@@ -5646,22 +5661,22 @@
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C87" s="3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D87" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="F87" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
@@ -5692,16 +5707,16 @@
         <v>12</v>
       </c>
       <c r="C88" s="3" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D88" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
@@ -5729,19 +5744,19 @@
         <v>2021</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C89" s="3" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D89" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
@@ -5769,19 +5784,19 @@
         <v>2021</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C90" s="3" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D90" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
@@ -5812,16 +5827,16 @@
         <v>11</v>
       </c>
       <c r="C91" s="3" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D91" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
@@ -5852,16 +5867,16 @@
         <v>11</v>
       </c>
       <c r="C92" s="3" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>158</v>
+        <v>264</v>
       </c>
       <c r="E92" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
@@ -5889,19 +5904,19 @@
         <v>2021</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C93" s="3" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D93" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="F93" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
@@ -5929,19 +5944,19 @@
         <v>2021</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C94" s="3" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D94" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
@@ -5972,16 +5987,16 @@
         <v>10</v>
       </c>
       <c r="C95" s="3" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D95" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
@@ -6009,19 +6024,19 @@
         <v>2021</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C96" s="3" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D96" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
@@ -6049,19 +6064,19 @@
         <v>2021</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C97" s="3" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D97" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
@@ -6092,16 +6107,16 @@
         <v>9</v>
       </c>
       <c r="C98" s="3" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D98" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
@@ -6132,16 +6147,16 @@
         <v>9</v>
       </c>
       <c r="C99" s="3" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D99" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F99" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
@@ -6169,19 +6184,19 @@
         <v>2021</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C100" s="3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>191</v>
+        <v>287</v>
       </c>
       <c r="E100" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
@@ -6209,13 +6224,13 @@
         <v>2021</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C101" s="3" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>158</v>
+        <v>290</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>291</v>
@@ -6252,10 +6267,10 @@
         <v>6</v>
       </c>
       <c r="C102" s="3" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>293</v>
@@ -6292,16 +6307,16 @@
         <v>6</v>
       </c>
       <c r="C103" s="3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D103" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="F103" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
@@ -6329,19 +6344,19 @@
         <v>2021</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C104" s="3" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D104" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F104" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
@@ -6369,19 +6384,19 @@
         <v>2021</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C105" s="3" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D105" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F105" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
@@ -6412,16 +6427,16 @@
         <v>5</v>
       </c>
       <c r="C106" s="3" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>194</v>
+        <v>302</v>
       </c>
       <c r="E106" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
@@ -6452,16 +6467,16 @@
         <v>5</v>
       </c>
       <c r="C107" s="3" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D107" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E107" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="F107" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
@@ -6489,19 +6504,19 @@
         <v>2021</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C108" s="3" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>268</v>
+        <v>198</v>
       </c>
       <c r="E108" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F108" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
@@ -6529,13 +6544,13 @@
         <v>2021</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C109" s="3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>87</v>
+        <v>310</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>311</v>
@@ -6572,16 +6587,16 @@
         <v>4</v>
       </c>
       <c r="C110" s="3" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D110" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="F110" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
@@ -6609,19 +6624,19 @@
         <v>2021</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C111" s="3" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D111" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F111" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
@@ -6649,19 +6664,19 @@
         <v>2021</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C112" s="3" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D112" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F112" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
@@ -6692,16 +6707,16 @@
         <v>3</v>
       </c>
       <c r="C113" s="3" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D113" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F113" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
@@ -6732,16 +6747,16 @@
         <v>3</v>
       </c>
       <c r="C114" s="3" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D114" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F114" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
@@ -6772,16 +6787,16 @@
         <v>3</v>
       </c>
       <c r="C115" s="3" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D115" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F115" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
@@ -6812,16 +6827,16 @@
         <v>3</v>
       </c>
       <c r="C116" s="3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D116" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F116" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
@@ -6852,16 +6867,16 @@
         <v>3</v>
       </c>
       <c r="C117" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D117" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F117" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
@@ -6892,16 +6907,16 @@
         <v>3</v>
       </c>
       <c r="C118" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D118" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F118" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
@@ -6935,13 +6950,13 @@
         <v>2</v>
       </c>
       <c r="D119" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F119" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>342</v>
       </c>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
@@ -6969,19 +6984,19 @@
         <v>2021</v>
       </c>
       <c r="B120" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C120" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C120" s="3" t="n">
-        <v>16</v>
-      </c>
       <c r="D120" s="3" t="s">
-        <v>176</v>
+        <v>341</v>
       </c>
       <c r="E120" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
@@ -7009,19 +7024,19 @@
         <v>2021</v>
       </c>
       <c r="B121" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C121" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C121" s="3" t="n">
-        <v>9</v>
-      </c>
       <c r="D121" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E121" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="F121" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
@@ -7052,16 +7067,16 @@
         <v>2</v>
       </c>
       <c r="C122" s="3" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D122" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F122" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>350</v>
       </c>
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
@@ -7089,19 +7104,19 @@
         <v>2021</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C123" s="3" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D123" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F123" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
@@ -7129,19 +7144,19 @@
         <v>2021</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C124" s="3" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D124" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F124" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
@@ -7172,16 +7187,16 @@
         <v>1</v>
       </c>
       <c r="C125" s="3" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D125" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F125" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
@@ -7212,16 +7227,16 @@
         <v>1</v>
       </c>
       <c r="C126" s="3" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>170</v>
+        <v>358</v>
       </c>
       <c r="E126" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F126" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>361</v>
       </c>
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
@@ -7246,22 +7261,22 @@
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B127" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="C127" s="3" t="n">
-        <v>22</v>
-      </c>
       <c r="D127" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E127" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="F127" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>364</v>
       </c>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
@@ -7286,22 +7301,22 @@
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B128" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="C128" s="3" t="n">
-        <v>15</v>
-      </c>
       <c r="D128" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F128" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>367</v>
       </c>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
@@ -7332,16 +7347,16 @@
         <v>12</v>
       </c>
       <c r="C129" s="3" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D129" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F129" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
@@ -7372,16 +7387,16 @@
         <v>12</v>
       </c>
       <c r="C130" s="3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D130" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F130" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
@@ -7409,19 +7424,19 @@
         <v>2020</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C131" s="3" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D131" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F131" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>376</v>
       </c>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
@@ -7449,19 +7464,19 @@
         <v>2020</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C132" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D132" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F132" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>379</v>
       </c>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
@@ -7492,16 +7507,16 @@
         <v>11</v>
       </c>
       <c r="C133" s="3" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D133" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F133" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>382</v>
       </c>
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
@@ -7529,19 +7544,19 @@
         <v>2020</v>
       </c>
       <c r="B134" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C134" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="C134" s="3" t="n">
-        <v>27</v>
-      </c>
       <c r="D134" s="3" t="s">
-        <v>15</v>
+        <v>381</v>
       </c>
       <c r="E134" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F134" s="3" t="s">
         <v>383</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>384</v>
       </c>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
@@ -7569,19 +7584,19 @@
         <v>2020</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C135" s="3" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D135" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E135" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="F135" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
@@ -7612,16 +7627,16 @@
         <v>10</v>
       </c>
       <c r="C136" s="3" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>271</v>
+        <v>20</v>
       </c>
       <c r="E136" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F136" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
@@ -7652,16 +7667,16 @@
         <v>10</v>
       </c>
       <c r="C137" s="3" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D137" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E137" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="F137" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>392</v>
       </c>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
@@ -7689,19 +7704,19 @@
         <v>2020</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C138" s="3" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>158</v>
+        <v>275</v>
       </c>
       <c r="E138" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F138" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>394</v>
       </c>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
@@ -7729,13 +7744,13 @@
         <v>2020</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C139" s="3" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>188</v>
+        <v>394</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>395</v>
@@ -7772,16 +7787,16 @@
         <v>9</v>
       </c>
       <c r="C140" s="3" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D140" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E140" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="F140" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>399</v>
       </c>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
@@ -7812,16 +7827,16 @@
         <v>9</v>
       </c>
       <c r="C141" s="3" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>322</v>
+        <v>192</v>
       </c>
       <c r="E141" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F141" s="3" t="s">
         <v>400</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>401</v>
       </c>
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
@@ -7849,19 +7864,19 @@
         <v>2020</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C142" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D142" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E142" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="F142" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>404</v>
       </c>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
@@ -7889,19 +7904,19 @@
         <v>2020</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C143" s="3" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D143" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F143" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>407</v>
       </c>
       <c r="G143" s="9"/>
       <c r="H143" s="9"/>
@@ -7932,16 +7947,16 @@
         <v>6</v>
       </c>
       <c r="C144" s="3" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D144" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F144" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>410</v>
       </c>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
@@ -7972,16 +7987,16 @@
         <v>6</v>
       </c>
       <c r="C145" s="3" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D145" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F145" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>413</v>
       </c>
       <c r="G145" s="9"/>
       <c r="H145" s="9"/>
@@ -8012,16 +8027,16 @@
         <v>6</v>
       </c>
       <c r="C146" s="3" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D146" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F146" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
@@ -8049,19 +8064,19 @@
         <v>2020</v>
       </c>
       <c r="B147" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C147" s="3" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>87</v>
+        <v>415</v>
       </c>
       <c r="E147" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F147" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>418</v>
       </c>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
@@ -8089,19 +8104,19 @@
         <v>2020</v>
       </c>
       <c r="B148" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" s="3" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D148" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E148" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="F148" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>421</v>
       </c>
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
@@ -8132,16 +8147,16 @@
         <v>5</v>
       </c>
       <c r="C149" s="3" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D149" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F149" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>424</v>
       </c>
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
@@ -8169,19 +8184,19 @@
         <v>2020</v>
       </c>
       <c r="B150" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C150" s="3" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D150" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F150" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>427</v>
       </c>
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
@@ -8209,19 +8224,19 @@
         <v>2020</v>
       </c>
       <c r="B151" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C151" s="3" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D151" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F151" s="3" t="s">
         <v>428</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>430</v>
       </c>
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
@@ -8252,16 +8267,16 @@
         <v>4</v>
       </c>
       <c r="C152" s="3" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>322</v>
+        <v>429</v>
       </c>
       <c r="E152" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F152" s="3" t="s">
         <v>431</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>432</v>
       </c>
       <c r="G152" s="9"/>
       <c r="H152" s="9"/>
@@ -8292,16 +8307,16 @@
         <v>4</v>
       </c>
       <c r="C153" s="3" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D153" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E153" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E153" s="3" t="s">
+      <c r="F153" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>435</v>
       </c>
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
@@ -8329,19 +8344,19 @@
         <v>2020</v>
       </c>
       <c r="B154" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C154" s="3" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D154" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="F154" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>438</v>
       </c>
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
@@ -8369,19 +8384,19 @@
         <v>2020</v>
       </c>
       <c r="B155" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C155" s="3" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>194</v>
+        <v>437</v>
       </c>
       <c r="E155" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F155" s="3" t="s">
         <v>439</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>440</v>
       </c>
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
@@ -8412,10 +8427,10 @@
         <v>3</v>
       </c>
       <c r="C156" s="3" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>170</v>
+        <v>440</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>441</v>
@@ -8452,10 +8467,10 @@
         <v>3</v>
       </c>
       <c r="C157" s="3" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>397</v>
+        <v>198</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>443</v>
@@ -8492,16 +8507,16 @@
         <v>3</v>
       </c>
       <c r="C158" s="3" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D158" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E158" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="F158" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>447</v>
       </c>
       <c r="G158" s="9"/>
       <c r="H158" s="9"/>
@@ -8532,16 +8547,16 @@
         <v>3</v>
       </c>
       <c r="C159" s="3" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D159" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="F159" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>450</v>
       </c>
       <c r="G159" s="9"/>
       <c r="H159" s="9"/>
@@ -8569,19 +8584,19 @@
         <v>2020</v>
       </c>
       <c r="B160" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C160" s="3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D160" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F160" s="3" t="s">
         <v>451</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>453</v>
       </c>
       <c r="G160" s="9"/>
       <c r="H160" s="9"/>
@@ -8609,19 +8624,19 @@
         <v>2020</v>
       </c>
       <c r="B161" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C161" s="3" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D161" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F161" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>456</v>
       </c>
       <c r="G161" s="9"/>
       <c r="H161" s="9"/>
@@ -8652,16 +8667,16 @@
         <v>2</v>
       </c>
       <c r="C162" s="3" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D162" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F162" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>459</v>
       </c>
       <c r="G162" s="9"/>
       <c r="H162" s="9"/>
@@ -8692,16 +8707,16 @@
         <v>2</v>
       </c>
       <c r="C163" s="3" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D163" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="F163" s="3" t="s">
         <v>460</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>462</v>
       </c>
       <c r="G163" s="9"/>
       <c r="H163" s="9"/>
@@ -8729,19 +8744,19 @@
         <v>2020</v>
       </c>
       <c r="B164" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C164" s="3" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D164" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F164" s="3" t="s">
         <v>463</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>465</v>
       </c>
       <c r="G164" s="9"/>
       <c r="H164" s="9"/>
@@ -8769,19 +8784,19 @@
         <v>2020</v>
       </c>
       <c r="B165" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C165" s="3" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D165" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F165" s="3" t="s">
         <v>466</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>468</v>
       </c>
       <c r="G165" s="9"/>
       <c r="H165" s="9"/>
@@ -8812,16 +8827,16 @@
         <v>1</v>
       </c>
       <c r="C166" s="3" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>87</v>
+        <v>467</v>
       </c>
       <c r="E166" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="F166" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>470</v>
       </c>
       <c r="G166" s="9"/>
       <c r="H166" s="9"/>
@@ -8846,22 +8861,22 @@
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B167" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C167" s="3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D167" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E167" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="E167" s="3" t="s">
+      <c r="F167" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>473</v>
       </c>
       <c r="G167" s="9"/>
       <c r="H167" s="9"/>
@@ -8886,22 +8901,22 @@
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="3" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B168" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C168" s="3" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D168" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F168" s="3" t="s">
         <v>474</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>476</v>
       </c>
       <c r="G168" s="9"/>
       <c r="H168" s="9"/>
@@ -8932,16 +8947,16 @@
         <v>12</v>
       </c>
       <c r="C169" s="3" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D169" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F169" s="3" t="s">
         <v>477</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>479</v>
       </c>
       <c r="G169" s="9"/>
       <c r="H169" s="9"/>
@@ -8972,16 +8987,16 @@
         <v>12</v>
       </c>
       <c r="C170" s="3" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>170</v>
+        <v>478</v>
       </c>
       <c r="E170" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F170" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>481</v>
       </c>
       <c r="G170" s="9"/>
       <c r="H170" s="9"/>
@@ -9012,16 +9027,16 @@
         <v>12</v>
       </c>
       <c r="C171" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D171" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E171" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="E171" s="3" t="s">
+      <c r="F171" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>484</v>
       </c>
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
@@ -9049,19 +9064,19 @@
         <v>2019</v>
       </c>
       <c r="B172" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C172" s="3" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="E172" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F172" s="3" t="s">
         <v>485</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>486</v>
       </c>
       <c r="G172" s="9"/>
       <c r="H172" s="9"/>
@@ -9089,19 +9104,19 @@
         <v>2019</v>
       </c>
       <c r="B173" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C173" s="3" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D173" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E173" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="E173" s="3" t="s">
+      <c r="F173" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="F173" s="3" t="s">
-        <v>489</v>
       </c>
       <c r="G173" s="9"/>
       <c r="H173" s="9"/>
@@ -9132,16 +9147,16 @@
         <v>11</v>
       </c>
       <c r="C174" s="3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D174" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="F174" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>492</v>
       </c>
       <c r="G174" s="9"/>
       <c r="H174" s="9"/>
@@ -9172,16 +9187,16 @@
         <v>11</v>
       </c>
       <c r="C175" s="3" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>322</v>
+        <v>491</v>
       </c>
       <c r="E175" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F175" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>494</v>
       </c>
       <c r="G175" s="9"/>
       <c r="H175" s="9"/>
@@ -9209,19 +9224,19 @@
         <v>2019</v>
       </c>
       <c r="B176" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C176" s="3" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D176" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E176" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="E176" s="3" t="s">
+      <c r="F176" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>497</v>
       </c>
       <c r="G176" s="9"/>
       <c r="H176" s="9"/>
@@ -9249,19 +9264,19 @@
         <v>2019</v>
       </c>
       <c r="B177" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C177" s="3" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D177" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="F177" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>500</v>
       </c>
       <c r="G177" s="9"/>
       <c r="H177" s="9"/>
@@ -9292,16 +9307,16 @@
         <v>10</v>
       </c>
       <c r="C178" s="3" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D178" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="F178" s="3" t="s">
         <v>501</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>503</v>
       </c>
       <c r="G178" s="9"/>
       <c r="H178" s="9"/>
@@ -9332,16 +9347,16 @@
         <v>10</v>
       </c>
       <c r="C179" s="3" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D179" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="F179" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>506</v>
       </c>
       <c r="G179" s="9"/>
       <c r="H179" s="9"/>
@@ -9369,19 +9384,19 @@
         <v>2019</v>
       </c>
       <c r="B180" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C180" s="3" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D180" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F180" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>509</v>
       </c>
       <c r="G180" s="9"/>
       <c r="H180" s="9"/>
@@ -9409,19 +9424,19 @@
         <v>2019</v>
       </c>
       <c r="B181" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C181" s="3" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D181" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="F181" s="3" t="s">
         <v>510</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>512</v>
       </c>
       <c r="G181" s="9"/>
       <c r="H181" s="9"/>
@@ -9452,16 +9467,16 @@
         <v>9</v>
       </c>
       <c r="C182" s="3" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D182" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="F182" s="3" t="s">
         <v>513</v>
-      </c>
-      <c r="E182" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>515</v>
       </c>
       <c r="G182" s="9"/>
       <c r="H182" s="9"/>
@@ -9489,16 +9504,16 @@
         <v>2019</v>
       </c>
       <c r="B183" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C183" s="3" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>516</v>
@@ -9529,10 +9544,10 @@
         <v>2019</v>
       </c>
       <c r="B184" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C184" s="3" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>517</v>
@@ -9569,19 +9584,19 @@
         <v>2019</v>
       </c>
       <c r="B185" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C185" s="3" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D185" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="F185" s="3" t="s">
         <v>520</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>522</v>
       </c>
       <c r="G185" s="9"/>
       <c r="H185" s="9"/>
@@ -9609,19 +9624,19 @@
         <v>2019</v>
       </c>
       <c r="B186" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186" s="3" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D186" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F186" s="3" t="s">
         <v>523</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>522</v>
       </c>
       <c r="G186" s="9"/>
       <c r="H186" s="9"/>
@@ -9649,19 +9664,19 @@
         <v>2019</v>
       </c>
       <c r="B187" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C187" s="3" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D187" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E187" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="E187" s="3" t="s">
+      <c r="F187" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>522</v>
       </c>
       <c r="G187" s="9"/>
       <c r="H187" s="9"/>
@@ -9689,19 +9704,19 @@
         <v>2019</v>
       </c>
       <c r="B188" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C188" s="3" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G188" s="9"/>
       <c r="H188" s="9"/>
@@ -9732,7 +9747,7 @@
         <v>4</v>
       </c>
       <c r="C189" s="3" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>529</v>
@@ -9741,7 +9756,7 @@
         <v>530</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="G189" s="9"/>
       <c r="H189" s="9"/>
@@ -9772,16 +9787,16 @@
         <v>4</v>
       </c>
       <c r="C190" s="3" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D190" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E190" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="E190" s="3" t="s">
+      <c r="F190" s="3" t="s">
         <v>532</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>522</v>
       </c>
       <c r="G190" s="9"/>
       <c r="H190" s="9"/>
@@ -9821,7 +9836,7 @@
         <v>534</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="G191" s="9"/>
       <c r="H191" s="9"/>
@@ -9852,16 +9867,16 @@
         <v>4</v>
       </c>
       <c r="C192" s="3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>102</v>
+        <v>535</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="G192" s="9"/>
       <c r="H192" s="9"/>
@@ -9889,19 +9904,19 @@
         <v>2019</v>
       </c>
       <c r="B193" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C193" s="3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D193" s="10" t="s">
-        <v>536</v>
+        <v>9</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>537</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="F193" s="5" t="s">
         <v>538</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>526</v>
       </c>
       <c r="G193" s="9"/>
       <c r="H193" s="9"/>
@@ -9929,19 +9944,19 @@
         <v>2019</v>
       </c>
       <c r="B194" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C194" s="3" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>377</v>
+        <v>107</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>539</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="G194" s="9"/>
       <c r="H194" s="9"/>
@@ -9969,19 +9984,19 @@
         <v>2019</v>
       </c>
       <c r="B195" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C195" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="D195" s="3" t="s">
-        <v>263</v>
+      <c r="D195" s="10" t="s">
+        <v>540</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="F195" s="3" t="s">
         <v>541</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>542</v>
       </c>
       <c r="G195" s="9"/>
       <c r="H195" s="9"/>
@@ -10009,19 +10024,19 @@
         <v>2019</v>
       </c>
       <c r="B196" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C196" s="3" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>542</v>
+        <v>381</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>543</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="G196" s="9"/>
       <c r="H196" s="9"/>
@@ -10052,16 +10067,16 @@
         <v>2</v>
       </c>
       <c r="C197" s="3" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D197" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E197" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="E197" s="3" t="s">
+      <c r="F197" s="3" t="s">
         <v>545</v>
-      </c>
-      <c r="F197" s="3" t="s">
-        <v>546</v>
       </c>
       <c r="G197" s="9"/>
       <c r="H197" s="9"/>
@@ -10092,16 +10107,16 @@
         <v>2</v>
       </c>
       <c r="C198" s="3" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>158</v>
+        <v>546</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>547</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="G198" s="9"/>
       <c r="H198" s="9"/>
@@ -10132,16 +10147,16 @@
         <v>2</v>
       </c>
       <c r="C199" s="3" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>408</v>
+        <v>548</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>549</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="G199" s="9"/>
       <c r="H199" s="9"/>
@@ -10169,19 +10184,19 @@
         <v>2019</v>
       </c>
       <c r="B200" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C200" s="3" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>385</v>
+        <v>162</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G200" s="9"/>
       <c r="H200" s="9"/>
@@ -10209,19 +10224,19 @@
         <v>2019</v>
       </c>
       <c r="B201" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C201" s="3" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>552</v>
+        <v>412</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>553</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>554</v>
+        <v>526</v>
       </c>
       <c r="G201" s="9"/>
       <c r="H201" s="9"/>
@@ -10252,16 +10267,16 @@
         <v>1</v>
       </c>
       <c r="C202" s="3" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D202" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F202" s="3" t="s">
         <v>555</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="F202" s="3" t="s">
-        <v>557</v>
       </c>
       <c r="G202" s="9"/>
       <c r="H202" s="9"/>
@@ -10286,22 +10301,22 @@
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="3" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B203" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C203" s="3" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>271</v>
+        <v>556</v>
       </c>
       <c r="E203" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="F203" s="3" t="s">
         <v>558</v>
-      </c>
-      <c r="F203" s="3" t="s">
-        <v>522</v>
       </c>
       <c r="G203" s="9"/>
       <c r="H203" s="9"/>
@@ -10326,13 +10341,13 @@
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="3" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B204" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C204" s="3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>559</v>
@@ -10341,7 +10356,7 @@
         <v>560</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>522</v>
+        <v>561</v>
       </c>
       <c r="G204" s="9"/>
       <c r="H204" s="9"/>
@@ -10372,16 +10387,16 @@
         <v>12</v>
       </c>
       <c r="C205" s="3" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>561</v>
+        <v>275</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>562</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>563</v>
+        <v>526</v>
       </c>
       <c r="G205" s="9"/>
       <c r="H205" s="9"/>
@@ -10409,19 +10424,19 @@
         <v>2018</v>
       </c>
       <c r="B206" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C206" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="C206" s="3" t="n">
-        <v>13</v>
-      </c>
       <c r="D206" s="3" t="s">
-        <v>15</v>
+        <v>563</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>564</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="G206" s="9"/>
       <c r="H206" s="9"/>
@@ -10449,19 +10464,19 @@
         <v>2018</v>
       </c>
       <c r="B207" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C207" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D207" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E207" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="E207" s="3" t="s">
+      <c r="F207" s="3" t="s">
         <v>567</v>
-      </c>
-      <c r="F207" s="3" t="s">
-        <v>568</v>
       </c>
       <c r="G207" s="9"/>
       <c r="H207" s="9"/>
@@ -10489,19 +10504,19 @@
         <v>2018</v>
       </c>
       <c r="B208" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C208" s="3" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E208" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F208" s="3" t="s">
         <v>569</v>
-      </c>
-      <c r="F208" s="3" t="s">
-        <v>570</v>
       </c>
       <c r="G208" s="9"/>
       <c r="H208" s="9"/>
@@ -10529,19 +10544,19 @@
         <v>2018</v>
       </c>
       <c r="B209" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C209" s="3" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>158</v>
+        <v>570</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>571</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>522</v>
+        <v>572</v>
       </c>
       <c r="G209" s="9"/>
       <c r="H209" s="9"/>
@@ -10572,15 +10587,15 @@
         <v>10</v>
       </c>
       <c r="C210" s="3" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>572</v>
+        <v>92</v>
       </c>
       <c r="E210" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="F210" s="5" t="s">
+      <c r="F210" s="3" t="s">
         <v>574</v>
       </c>
       <c r="G210" s="9"/>
@@ -10612,16 +10627,16 @@
         <v>10</v>
       </c>
       <c r="C211" s="3" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D211" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E211" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="E211" s="3" t="s">
-        <v>576</v>
-      </c>
       <c r="F211" s="3" t="s">
-        <v>577</v>
+        <v>526</v>
       </c>
       <c r="G211" s="9"/>
       <c r="H211" s="9"/>
@@ -10646,22 +10661,22 @@
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="3" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B212" s="3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C212" s="3" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D212" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="F212" s="5" t="s">
         <v>578</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="F212" s="3" t="s">
-        <v>580</v>
       </c>
       <c r="G212" s="9"/>
       <c r="H212" s="9"/>
@@ -10686,22 +10701,22 @@
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="3" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B213" s="3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C213" s="3" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D213" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F213" s="3" t="s">
         <v>581</v>
-      </c>
-      <c r="E213" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="F213" s="3" t="s">
-        <v>583</v>
       </c>
       <c r="G213" s="9"/>
       <c r="H213" s="9"/>
@@ -10732,16 +10747,16 @@
         <v>11</v>
       </c>
       <c r="C214" s="3" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D214" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="F214" s="3" t="s">
         <v>584</v>
-      </c>
-      <c r="E214" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="F214" s="3" t="s">
-        <v>586</v>
       </c>
       <c r="G214" s="9"/>
       <c r="H214" s="9"/>
@@ -10769,19 +10784,19 @@
         <v>2017</v>
       </c>
       <c r="B215" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C215" s="3" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D215" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="F215" s="3" t="s">
         <v>587</v>
-      </c>
-      <c r="E215" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="F215" s="3" t="s">
-        <v>589</v>
       </c>
       <c r="G215" s="9"/>
       <c r="H215" s="9"/>
@@ -10809,19 +10824,19 @@
         <v>2017</v>
       </c>
       <c r="B216" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C216" s="3" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D216" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="F216" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="E216" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="F216" s="3" t="s">
-        <v>592</v>
       </c>
       <c r="G216" s="9"/>
       <c r="H216" s="9"/>
@@ -10852,16 +10867,16 @@
         <v>10</v>
       </c>
       <c r="C217" s="3" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D217" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="F217" s="3" t="s">
         <v>593</v>
-      </c>
-      <c r="E217" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="F217" s="3" t="s">
-        <v>595</v>
       </c>
       <c r="G217" s="9"/>
       <c r="H217" s="9"/>
@@ -10892,16 +10907,16 @@
         <v>10</v>
       </c>
       <c r="C218" s="3" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D218" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="F218" s="3" t="s">
         <v>596</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="F218" s="3" t="s">
-        <v>598</v>
       </c>
       <c r="G218" s="9"/>
       <c r="H218" s="9"/>
@@ -10929,19 +10944,19 @@
         <v>2017</v>
       </c>
       <c r="B219" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C219" s="3" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D219" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="F219" s="3" t="s">
         <v>599</v>
-      </c>
-      <c r="E219" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="F219" s="3" t="s">
-        <v>601</v>
       </c>
       <c r="G219" s="9"/>
       <c r="H219" s="9"/>
@@ -10969,19 +10984,19 @@
         <v>2017</v>
       </c>
       <c r="B220" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C220" s="3" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D220" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="F220" s="3" t="s">
         <v>602</v>
-      </c>
-      <c r="E220" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="F220" s="3" t="s">
-        <v>604</v>
       </c>
       <c r="G220" s="9"/>
       <c r="H220" s="9"/>
@@ -11005,12 +11020,24 @@
       <c r="Z220" s="9"/>
     </row>
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="9"/>
-      <c r="B221" s="9"/>
-      <c r="C221" s="9"/>
-      <c r="D221" s="9"/>
-      <c r="E221" s="9"/>
-      <c r="F221" s="9"/>
+      <c r="A221" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B221" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C221" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>605</v>
+      </c>
       <c r="G221" s="9"/>
       <c r="H221" s="9"/>
       <c r="I221" s="9"/>
@@ -11033,12 +11060,24 @@
       <c r="Z221" s="9"/>
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="9"/>
-      <c r="B222" s="9"/>
-      <c r="C222" s="9"/>
-      <c r="D222" s="9"/>
-      <c r="E222" s="9"/>
-      <c r="F222" s="9"/>
+      <c r="A222" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B222" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C222" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>608</v>
+      </c>
       <c r="G222" s="9"/>
       <c r="H222" s="9"/>
       <c r="I222" s="9"/>
@@ -16604,7 +16643,7 @@
       <c r="Y420" s="9"/>
       <c r="Z420" s="9"/>
     </row>
-    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="9"/>
       <c r="B421" s="9"/>
       <c r="C421" s="9"/>
@@ -16632,7 +16671,7 @@
       <c r="Y421" s="9"/>
       <c r="Z421" s="9"/>
     </row>
-    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="9"/>
       <c r="B422" s="9"/>
       <c r="C422" s="9"/>
@@ -33768,8 +33807,64 @@
       <c r="Y1033" s="9"/>
       <c r="Z1033" s="9"/>
     </row>
+    <row r="1034" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1034" s="9"/>
+      <c r="B1034" s="9"/>
+      <c r="C1034" s="9"/>
+      <c r="D1034" s="9"/>
+      <c r="E1034" s="9"/>
+      <c r="F1034" s="9"/>
+      <c r="G1034" s="9"/>
+      <c r="H1034" s="9"/>
+      <c r="I1034" s="9"/>
+      <c r="J1034" s="9"/>
+      <c r="K1034" s="9"/>
+      <c r="L1034" s="9"/>
+      <c r="M1034" s="9"/>
+      <c r="N1034" s="9"/>
+      <c r="O1034" s="9"/>
+      <c r="P1034" s="9"/>
+      <c r="Q1034" s="9"/>
+      <c r="R1034" s="9"/>
+      <c r="S1034" s="9"/>
+      <c r="T1034" s="9"/>
+      <c r="U1034" s="9"/>
+      <c r="V1034" s="9"/>
+      <c r="W1034" s="9"/>
+      <c r="X1034" s="9"/>
+      <c r="Y1034" s="9"/>
+      <c r="Z1034" s="9"/>
+    </row>
+    <row r="1035" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1035" s="9"/>
+      <c r="B1035" s="9"/>
+      <c r="C1035" s="9"/>
+      <c r="D1035" s="9"/>
+      <c r="E1035" s="9"/>
+      <c r="F1035" s="9"/>
+      <c r="G1035" s="9"/>
+      <c r="H1035" s="9"/>
+      <c r="I1035" s="9"/>
+      <c r="J1035" s="9"/>
+      <c r="K1035" s="9"/>
+      <c r="L1035" s="9"/>
+      <c r="M1035" s="9"/>
+      <c r="N1035" s="9"/>
+      <c r="O1035" s="9"/>
+      <c r="P1035" s="9"/>
+      <c r="Q1035" s="9"/>
+      <c r="R1035" s="9"/>
+      <c r="S1035" s="9"/>
+      <c r="T1035" s="9"/>
+      <c r="U1035" s="9"/>
+      <c r="V1035" s="9"/>
+      <c r="W1035" s="9"/>
+      <c r="X1035" s="9"/>
+      <c r="Y1035" s="9"/>
+      <c r="Z1035" s="9"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F220"/>
+  <autoFilter ref="A1:F222"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="610">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -58,7 +58,10 @@
     <t xml:space="preserve">Svetlana Zemicheva (HSE)</t>
   </si>
   <si>
-    <t xml:space="preserve">TBA</t>
+    <t xml:space="preserve">Reading group:  Коломацкий, Д. И. Дистрибуция русских пассивных форм: корпусное исследование : дисс... канд. филол. наук : специальность 10.02.21 "Прикладная и математическая лингвистика". М., 2009. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цель исследования – установить, от чего зависит выбор средства обозначения страдательного залога в русском языке. В работе используется обширный корпусный материал: 3154 предложения с возвратными глаголами, 2807 предложений с пассивными причастиями. На основе применения критерия хи-квадрат определяется вероятность (не)случайного распределения. Исследуются такие возможные параметры дистрибуции, как семантический класс глагола, вид и акциональность глагольной словоформы, а также свойства актантов пассивной конструкции. Особенностью работы является анализ данных русского языка в свете глобальных теоретических подходов, в частности, используется типологическое определение пассива, предложенное М. Хаспельматом, и теория семантической переходности П. Хоппера и С. Томпсон.</t>
   </si>
   <si>
     <t xml:space="preserve">Maksim Melenchenko (HSE)</t>
@@ -2204,7 +2207,7 @@
   <dimension ref="A1:Z1035"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2316,7 +2319,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -2350,13 +2353,13 @@
         <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -2390,13 +2393,13 @@
         <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -2430,13 +2433,13 @@
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -2470,13 +2473,13 @@
         <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -2510,13 +2513,13 @@
         <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -2550,13 +2553,13 @@
         <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -2590,13 +2593,13 @@
         <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -2630,13 +2633,13 @@
         <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -2670,13 +2673,13 @@
         <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2710,13 +2713,13 @@
         <v>6</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2750,13 +2753,13 @@
         <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2790,13 +2793,13 @@
         <v>30</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -2830,13 +2833,13 @@
         <v>23</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -2870,13 +2873,13 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -2910,13 +2913,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -2950,13 +2953,13 @@
         <v>25</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -2990,13 +2993,13 @@
         <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -3030,13 +3033,13 @@
         <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -3070,13 +3073,13 @@
         <v>18</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -3110,13 +3113,13 @@
         <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -3150,13 +3153,13 @@
         <v>4</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -3190,13 +3193,13 @@
         <v>28</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -3230,13 +3233,13 @@
         <v>28</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -3270,13 +3273,13 @@
         <v>21</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -3310,13 +3313,13 @@
         <v>21</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -3350,13 +3353,13 @@
         <v>14</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -3390,13 +3393,13 @@
         <v>7</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -3430,13 +3433,13 @@
         <v>7</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -3470,13 +3473,13 @@
         <v>21</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -3510,13 +3513,13 @@
         <v>21</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -3550,13 +3553,13 @@
         <v>14</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -3590,13 +3593,13 @@
         <v>7</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -3630,13 +3633,13 @@
         <v>7</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -3670,13 +3673,13 @@
         <v>31</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -3710,13 +3713,13 @@
         <v>31</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -3750,13 +3753,13 @@
         <v>24</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -3790,13 +3793,13 @@
         <v>24</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -3830,13 +3833,13 @@
         <v>17</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -3870,13 +3873,13 @@
         <v>17</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -3913,10 +3916,10 @@
         <v>9</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -3950,13 +3953,13 @@
         <v>13</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -3990,13 +3993,13 @@
         <v>13</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -4030,13 +4033,13 @@
         <v>6</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -4070,13 +4073,13 @@
         <v>29</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -4113,10 +4116,10 @@
         <v>9</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -4150,13 +4153,13 @@
         <v>22</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -4190,13 +4193,13 @@
         <v>15</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -4230,13 +4233,13 @@
         <v>15</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -4270,13 +4273,13 @@
         <v>8</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -4310,13 +4313,13 @@
         <v>8</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -4350,13 +4353,13 @@
         <v>25</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -4390,13 +4393,13 @@
         <v>25</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -4430,13 +4433,13 @@
         <v>18</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -4470,13 +4473,13 @@
         <v>18</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -4510,13 +4513,13 @@
         <v>18</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -4550,13 +4553,13 @@
         <v>18</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -4590,13 +4593,13 @@
         <v>11</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -4630,13 +4633,13 @@
         <v>11</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -4670,13 +4673,13 @@
         <v>4</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -4710,13 +4713,13 @@
         <v>4</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -4750,13 +4753,13 @@
         <v>20</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -4790,13 +4793,13 @@
         <v>20</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -4830,13 +4833,13 @@
         <v>13</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
@@ -4870,13 +4873,13 @@
         <v>13</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
@@ -4910,13 +4913,13 @@
         <v>28</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
@@ -4950,13 +4953,13 @@
         <v>28</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
@@ -4990,13 +4993,13 @@
         <v>14</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
@@ -5030,13 +5033,13 @@
         <v>7</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
@@ -5070,13 +5073,13 @@
         <v>31</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
@@ -5110,13 +5113,13 @@
         <v>24</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
@@ -5150,13 +5153,13 @@
         <v>17</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
@@ -5190,13 +5193,13 @@
         <v>26</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
@@ -5230,13 +5233,13 @@
         <v>19</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
@@ -5270,13 +5273,13 @@
         <v>12</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
@@ -5310,13 +5313,13 @@
         <v>29</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
@@ -5350,13 +5353,13 @@
         <v>22</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
@@ -5390,13 +5393,13 @@
         <v>22</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
@@ -5430,13 +5433,13 @@
         <v>15</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
@@ -5470,13 +5473,13 @@
         <v>1</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
@@ -5510,13 +5513,13 @@
         <v>22</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
@@ -5550,13 +5553,13 @@
         <v>1</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
@@ -5590,13 +5593,13 @@
         <v>25</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
@@ -5630,13 +5633,13 @@
         <v>18</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
@@ -5670,13 +5673,13 @@
         <v>11</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
@@ -5710,13 +5713,13 @@
         <v>21</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
@@ -5750,13 +5753,13 @@
         <v>14</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
@@ -5790,13 +5793,13 @@
         <v>7</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
@@ -5830,13 +5833,13 @@
         <v>30</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
@@ -5870,13 +5873,13 @@
         <v>23</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
@@ -5910,13 +5913,13 @@
         <v>16</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
@@ -5950,13 +5953,13 @@
         <v>9</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
@@ -5990,13 +5993,13 @@
         <v>26</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
@@ -6030,13 +6033,13 @@
         <v>19</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
@@ -6070,13 +6073,13 @@
         <v>5</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
@@ -6110,13 +6113,13 @@
         <v>28</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
@@ -6150,13 +6153,13 @@
         <v>21</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
@@ -6190,13 +6193,13 @@
         <v>14</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
@@ -6230,13 +6233,13 @@
         <v>7</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
@@ -6270,13 +6273,13 @@
         <v>15</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
@@ -6310,13 +6313,13 @@
         <v>15</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
@@ -6350,13 +6353,13 @@
         <v>8</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
@@ -6390,13 +6393,13 @@
         <v>1</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
@@ -6430,13 +6433,13 @@
         <v>25</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
@@ -6470,13 +6473,13 @@
         <v>18</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
@@ -6510,13 +6513,13 @@
         <v>11</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
@@ -6550,13 +6553,13 @@
         <v>11</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
@@ -6590,13 +6593,13 @@
         <v>20</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
@@ -6630,13 +6633,13 @@
         <v>13</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
@@ -6670,13 +6673,13 @@
         <v>6</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
@@ -6710,13 +6713,13 @@
         <v>30</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
@@ -6750,13 +6753,13 @@
         <v>23</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
@@ -6790,13 +6793,13 @@
         <v>16</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
@@ -6830,13 +6833,13 @@
         <v>9</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
@@ -6870,13 +6873,13 @@
         <v>4</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
@@ -6910,13 +6913,13 @@
         <v>4</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
@@ -6950,13 +6953,13 @@
         <v>2</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
@@ -6990,13 +6993,13 @@
         <v>2</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
@@ -7030,13 +7033,13 @@
         <v>2</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
@@ -7070,13 +7073,13 @@
         <v>16</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
@@ -7110,13 +7113,13 @@
         <v>9</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
@@ -7150,13 +7153,13 @@
         <v>2</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
@@ -7190,13 +7193,13 @@
         <v>26</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
@@ -7230,13 +7233,13 @@
         <v>19</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
@@ -7270,13 +7273,13 @@
         <v>12</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
@@ -7310,13 +7313,13 @@
         <v>12</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
@@ -7350,13 +7353,13 @@
         <v>22</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
@@ -7390,13 +7393,13 @@
         <v>15</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
@@ -7430,13 +7433,13 @@
         <v>8</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
@@ -7470,13 +7473,13 @@
         <v>1</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
@@ -7510,13 +7513,13 @@
         <v>17</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
@@ -7550,13 +7553,13 @@
         <v>10</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
@@ -7590,13 +7593,13 @@
         <v>3</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
@@ -7630,13 +7633,13 @@
         <v>27</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
@@ -7670,13 +7673,13 @@
         <v>20</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
@@ -7710,13 +7713,13 @@
         <v>13</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
@@ -7750,13 +7753,13 @@
         <v>6</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
@@ -7790,13 +7793,13 @@
         <v>29</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
@@ -7830,13 +7833,13 @@
         <v>22</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
@@ -7870,13 +7873,13 @@
         <v>15</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
@@ -7910,13 +7913,13 @@
         <v>8</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G143" s="9"/>
       <c r="H143" s="9"/>
@@ -7950,13 +7953,13 @@
         <v>30</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
@@ -7990,13 +7993,13 @@
         <v>23</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G145" s="9"/>
       <c r="H145" s="9"/>
@@ -8030,13 +8033,13 @@
         <v>16</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
@@ -8070,13 +8073,13 @@
         <v>9</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
@@ -8110,13 +8113,13 @@
         <v>2</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
@@ -8150,13 +8153,13 @@
         <v>26</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
@@ -8190,13 +8193,13 @@
         <v>19</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
@@ -8230,13 +8233,13 @@
         <v>12</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
@@ -8270,13 +8273,13 @@
         <v>28</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G152" s="9"/>
       <c r="H152" s="9"/>
@@ -8310,13 +8313,13 @@
         <v>21</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
@@ -8350,13 +8353,13 @@
         <v>14</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
@@ -8390,13 +8393,13 @@
         <v>7</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
@@ -8430,13 +8433,13 @@
         <v>31</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
@@ -8470,13 +8473,13 @@
         <v>24</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
@@ -8510,13 +8513,13 @@
         <v>17</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G158" s="9"/>
       <c r="H158" s="9"/>
@@ -8550,13 +8553,13 @@
         <v>17</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G159" s="9"/>
       <c r="H159" s="9"/>
@@ -8590,13 +8593,13 @@
         <v>10</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G160" s="9"/>
       <c r="H160" s="9"/>
@@ -8630,13 +8633,13 @@
         <v>3</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G161" s="9"/>
       <c r="H161" s="9"/>
@@ -8670,13 +8673,13 @@
         <v>25</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G162" s="9"/>
       <c r="H162" s="9"/>
@@ -8710,13 +8713,13 @@
         <v>18</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G163" s="9"/>
       <c r="H163" s="9"/>
@@ -8750,13 +8753,13 @@
         <v>11</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G164" s="9"/>
       <c r="H164" s="9"/>
@@ -8790,13 +8793,13 @@
         <v>4</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G165" s="9"/>
       <c r="H165" s="9"/>
@@ -8830,13 +8833,13 @@
         <v>28</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G166" s="9"/>
       <c r="H166" s="9"/>
@@ -8870,13 +8873,13 @@
         <v>21</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G167" s="9"/>
       <c r="H167" s="9"/>
@@ -8910,13 +8913,13 @@
         <v>14</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G168" s="9"/>
       <c r="H168" s="9"/>
@@ -8950,13 +8953,13 @@
         <v>24</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G169" s="9"/>
       <c r="H169" s="9"/>
@@ -8990,13 +8993,13 @@
         <v>17</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G170" s="9"/>
       <c r="H170" s="9"/>
@@ -9030,13 +9033,13 @@
         <v>10</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
@@ -9070,13 +9073,13 @@
         <v>3</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G172" s="9"/>
       <c r="H172" s="9"/>
@@ -9110,13 +9113,13 @@
         <v>3</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G173" s="9"/>
       <c r="H173" s="9"/>
@@ -9150,13 +9153,13 @@
         <v>26</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G174" s="9"/>
       <c r="H174" s="9"/>
@@ -9190,13 +9193,13 @@
         <v>26</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G175" s="9"/>
       <c r="H175" s="9"/>
@@ -9230,13 +9233,13 @@
         <v>19</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G176" s="9"/>
       <c r="H176" s="9"/>
@@ -9270,13 +9273,13 @@
         <v>12</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G177" s="9"/>
       <c r="H177" s="9"/>
@@ -9310,13 +9313,13 @@
         <v>29</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G178" s="9"/>
       <c r="H178" s="9"/>
@@ -9350,13 +9353,13 @@
         <v>22</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G179" s="9"/>
       <c r="H179" s="9"/>
@@ -9390,13 +9393,13 @@
         <v>15</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G180" s="9"/>
       <c r="H180" s="9"/>
@@ -9430,13 +9433,13 @@
         <v>1</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G181" s="9"/>
       <c r="H181" s="9"/>
@@ -9470,13 +9473,13 @@
         <v>24</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G182" s="9"/>
       <c r="H182" s="9"/>
@@ -9510,13 +9513,13 @@
         <v>24</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G183" s="9"/>
       <c r="H183" s="9"/>
@@ -9550,13 +9553,13 @@
         <v>17</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G184" s="9"/>
       <c r="H184" s="9"/>
@@ -9590,13 +9593,13 @@
         <v>11</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G185" s="9"/>
       <c r="H185" s="9"/>
@@ -9630,13 +9633,13 @@
         <v>4</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G186" s="9"/>
       <c r="H186" s="9"/>
@@ -9670,13 +9673,13 @@
         <v>28</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G187" s="9"/>
       <c r="H187" s="9"/>
@@ -9710,13 +9713,13 @@
         <v>28</v>
       </c>
       <c r="D188" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F188" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>526</v>
       </c>
       <c r="G188" s="9"/>
       <c r="H188" s="9"/>
@@ -9750,13 +9753,13 @@
         <v>23</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G189" s="9"/>
       <c r="H189" s="9"/>
@@ -9790,13 +9793,13 @@
         <v>23</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G190" s="9"/>
       <c r="H190" s="9"/>
@@ -9830,13 +9833,13 @@
         <v>9</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G191" s="9"/>
       <c r="H191" s="9"/>
@@ -9870,13 +9873,13 @@
         <v>9</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G192" s="9"/>
       <c r="H192" s="9"/>
@@ -9910,13 +9913,13 @@
         <v>9</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G193" s="9"/>
       <c r="H193" s="9"/>
@@ -9950,13 +9953,13 @@
         <v>2</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G194" s="9"/>
       <c r="H194" s="9"/>
@@ -9990,13 +9993,13 @@
         <v>26</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G195" s="9"/>
       <c r="H195" s="9"/>
@@ -10030,13 +10033,13 @@
         <v>19</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G196" s="9"/>
       <c r="H196" s="9"/>
@@ -10070,13 +10073,13 @@
         <v>26</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G197" s="9"/>
       <c r="H197" s="9"/>
@@ -10110,13 +10113,13 @@
         <v>12</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G198" s="9"/>
       <c r="H198" s="9"/>
@@ -10150,13 +10153,13 @@
         <v>12</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G199" s="9"/>
       <c r="H199" s="9"/>
@@ -10190,13 +10193,13 @@
         <v>5</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G200" s="9"/>
       <c r="H200" s="9"/>
@@ -10230,13 +10233,13 @@
         <v>5</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G201" s="9"/>
       <c r="H201" s="9"/>
@@ -10270,13 +10273,13 @@
         <v>29</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G202" s="9"/>
       <c r="H202" s="9"/>
@@ -10310,13 +10313,13 @@
         <v>22</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G203" s="9"/>
       <c r="H203" s="9"/>
@@ -10350,13 +10353,13 @@
         <v>15</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G204" s="9"/>
       <c r="H204" s="9"/>
@@ -10390,13 +10393,13 @@
         <v>18</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G205" s="9"/>
       <c r="H205" s="9"/>
@@ -10430,13 +10433,13 @@
         <v>11</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G206" s="9"/>
       <c r="H206" s="9"/>
@@ -10470,13 +10473,13 @@
         <v>4</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G207" s="9"/>
       <c r="H207" s="9"/>
@@ -10510,13 +10513,13 @@
         <v>13</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G208" s="9"/>
       <c r="H208" s="9"/>
@@ -10550,13 +10553,13 @@
         <v>6</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G209" s="9"/>
       <c r="H209" s="9"/>
@@ -10590,13 +10593,13 @@
         <v>30</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G210" s="9"/>
       <c r="H210" s="9"/>
@@ -10630,13 +10633,13 @@
         <v>23</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G211" s="9"/>
       <c r="H211" s="9"/>
@@ -10670,13 +10673,13 @@
         <v>16</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G212" s="9"/>
       <c r="H212" s="9"/>
@@ -10710,13 +10713,13 @@
         <v>9</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G213" s="9"/>
       <c r="H213" s="9"/>
@@ -10750,13 +10753,13 @@
         <v>21</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G214" s="9"/>
       <c r="H214" s="9"/>
@@ -10790,13 +10793,13 @@
         <v>14</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G215" s="9"/>
       <c r="H215" s="9"/>
@@ -10830,13 +10833,13 @@
         <v>7</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G216" s="9"/>
       <c r="H216" s="9"/>
@@ -10870,13 +10873,13 @@
         <v>26</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G217" s="9"/>
       <c r="H217" s="9"/>
@@ -10910,13 +10913,13 @@
         <v>19</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G218" s="9"/>
       <c r="H218" s="9"/>
@@ -10950,13 +10953,13 @@
         <v>10</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G219" s="9"/>
       <c r="H219" s="9"/>
@@ -10990,13 +10993,13 @@
         <v>3</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G220" s="9"/>
       <c r="H220" s="9"/>
@@ -11030,13 +11033,13 @@
         <v>26</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G221" s="9"/>
       <c r="H221" s="9"/>
@@ -11070,13 +11073,13 @@
         <v>19</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G222" s="9"/>
       <c r="H222" s="9"/>
